--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5151500</v>
+        <v>3725800</v>
       </c>
       <c r="E8" s="3">
-        <v>5555400</v>
+        <v>4081800</v>
       </c>
       <c r="F8" s="3">
-        <v>6070700</v>
+        <v>4401800</v>
       </c>
       <c r="G8" s="3">
-        <v>6387700</v>
+        <v>4810100</v>
       </c>
       <c r="H8" s="3">
-        <v>6596300</v>
+        <v>5061300</v>
       </c>
       <c r="I8" s="3">
-        <v>6637100</v>
+        <v>5226600</v>
       </c>
       <c r="J8" s="3">
+        <v>5258900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5877500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2293600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3639300</v>
+        <v>2833700</v>
       </c>
       <c r="E9" s="3">
-        <v>3499600</v>
+        <v>2993600</v>
       </c>
       <c r="F9" s="3">
-        <v>3739900</v>
+        <v>2772900</v>
       </c>
       <c r="G9" s="3">
-        <v>7452200</v>
+        <v>2963400</v>
       </c>
       <c r="H9" s="3">
-        <v>7352800</v>
+        <v>5904800</v>
       </c>
       <c r="I9" s="3">
-        <v>10972000</v>
+        <v>5826000</v>
       </c>
       <c r="J9" s="3">
+        <v>8693700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2959500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1137800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1512100</v>
+        <v>892100</v>
       </c>
       <c r="E10" s="3">
-        <v>2055800</v>
+        <v>1088100</v>
       </c>
       <c r="F10" s="3">
-        <v>2330700</v>
+        <v>1628900</v>
       </c>
       <c r="G10" s="3">
-        <v>-1064600</v>
+        <v>1846800</v>
       </c>
       <c r="H10" s="3">
-        <v>-756500</v>
+        <v>-843500</v>
       </c>
       <c r="I10" s="3">
-        <v>-4334800</v>
+        <v>-599400</v>
       </c>
       <c r="J10" s="3">
+        <v>-3434700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2918100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1155700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,17 +887,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2581500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2045500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -892,18 +911,21 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-333500</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-264200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3800200</v>
+        <v>4276700</v>
       </c>
       <c r="E17" s="3">
-        <v>6106700</v>
+        <v>3011100</v>
       </c>
       <c r="F17" s="3">
-        <v>6395600</v>
+        <v>4838700</v>
       </c>
       <c r="G17" s="3">
-        <v>5839200</v>
+        <v>5067500</v>
       </c>
       <c r="H17" s="3">
-        <v>5519000</v>
+        <v>4626700</v>
       </c>
       <c r="I17" s="3">
-        <v>5707000</v>
+        <v>4373000</v>
       </c>
       <c r="J17" s="3">
+        <v>4522000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4765900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1904800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1351300</v>
+        <v>-550900</v>
       </c>
       <c r="E18" s="3">
-        <v>-551300</v>
+        <v>1070700</v>
       </c>
       <c r="F18" s="3">
-        <v>-324900</v>
+        <v>-436900</v>
       </c>
       <c r="G18" s="3">
-        <v>548400</v>
+        <v>-257400</v>
       </c>
       <c r="H18" s="3">
-        <v>1077300</v>
+        <v>434500</v>
       </c>
       <c r="I18" s="3">
-        <v>930100</v>
+        <v>853600</v>
       </c>
       <c r="J18" s="3">
+        <v>737000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1111600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>388800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3632200</v>
+        <v>-831100</v>
       </c>
       <c r="E20" s="3">
-        <v>92900</v>
+        <v>2878000</v>
       </c>
       <c r="F20" s="3">
-        <v>-35400</v>
+        <v>73600</v>
       </c>
       <c r="G20" s="3">
-        <v>-70600</v>
+        <v>-28100</v>
       </c>
       <c r="H20" s="3">
-        <v>156000</v>
+        <v>-55900</v>
       </c>
       <c r="I20" s="3">
-        <v>414100</v>
+        <v>123600</v>
       </c>
       <c r="J20" s="3">
+        <v>328100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-34900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>221800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6355500</v>
+        <v>-78500</v>
       </c>
       <c r="E21" s="3">
-        <v>747900</v>
+        <v>5050600</v>
       </c>
       <c r="F21" s="3">
-        <v>934400</v>
+        <v>605600</v>
       </c>
       <c r="G21" s="3">
-        <v>1940600</v>
+        <v>754300</v>
       </c>
       <c r="H21" s="3">
-        <v>2594900</v>
+        <v>1553400</v>
       </c>
       <c r="I21" s="3">
-        <v>2688100</v>
+        <v>2070700</v>
       </c>
       <c r="J21" s="3">
+        <v>2144500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1838900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>865900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>839400</v>
-      </c>
       <c r="F22" s="3">
-        <v>825900</v>
+        <v>665100</v>
       </c>
       <c r="G22" s="3">
-        <v>1891700</v>
+        <v>654400</v>
       </c>
       <c r="H22" s="3">
-        <v>1218300</v>
+        <v>1498900</v>
       </c>
       <c r="I22" s="3">
-        <v>1185200</v>
+        <v>965300</v>
       </c>
       <c r="J22" s="3">
+        <v>939100</v>
+      </c>
+      <c r="K22" s="3">
         <v>482500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>239700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4983500</v>
+        <v>-1681400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1297800</v>
+        <v>3948700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1186200</v>
+        <v>-1028300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1413900</v>
+        <v>-939900</v>
       </c>
       <c r="H23" s="3">
-        <v>15000</v>
+        <v>-1120300</v>
       </c>
       <c r="I23" s="3">
-        <v>159000</v>
+        <v>11900</v>
       </c>
       <c r="J23" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K23" s="3">
         <v>594200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>371000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-764800</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>256600</v>
+        <v>-606000</v>
       </c>
       <c r="F24" s="3">
-        <v>729900</v>
+        <v>203300</v>
       </c>
       <c r="G24" s="3">
-        <v>138900</v>
+        <v>578400</v>
       </c>
       <c r="H24" s="3">
-        <v>177100</v>
+        <v>110000</v>
       </c>
       <c r="I24" s="3">
-        <v>17900</v>
+        <v>140300</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>177400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>121500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5748200</v>
+        <v>-1682900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1554300</v>
+        <v>4554600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1916200</v>
+        <v>-1231600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1552700</v>
+        <v>-1518300</v>
       </c>
       <c r="H26" s="3">
-        <v>-162100</v>
+        <v>-1230300</v>
       </c>
       <c r="I26" s="3">
-        <v>141100</v>
+        <v>-128400</v>
       </c>
       <c r="J26" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K26" s="3">
         <v>416800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>249500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5742500</v>
+        <v>-1665400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1486400</v>
+        <v>4550100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1874700</v>
+        <v>-1177700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1456400</v>
+        <v>-1485400</v>
       </c>
       <c r="H27" s="3">
-        <v>-162400</v>
+        <v>-1154000</v>
       </c>
       <c r="I27" s="3">
-        <v>141100</v>
+        <v>-128600</v>
       </c>
       <c r="J27" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K27" s="3">
         <v>416800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>249500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,27 +1358,30 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>249400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-954300</v>
+        <v>197600</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-756100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3632200</v>
+        <v>831100</v>
       </c>
       <c r="E32" s="3">
-        <v>-92900</v>
+        <v>-2878000</v>
       </c>
       <c r="F32" s="3">
-        <v>35400</v>
+        <v>-73600</v>
       </c>
       <c r="G32" s="3">
-        <v>70600</v>
+        <v>28100</v>
       </c>
       <c r="H32" s="3">
-        <v>-156000</v>
+        <v>55900</v>
       </c>
       <c r="I32" s="3">
-        <v>-414100</v>
+        <v>-123600</v>
       </c>
       <c r="J32" s="3">
+        <v>-328100</v>
+      </c>
+      <c r="K32" s="3">
         <v>34900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-221800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5742500</v>
+        <v>-1665400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1486400</v>
+        <v>4550100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1874700</v>
+        <v>-1177700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1206900</v>
+        <v>-1485400</v>
       </c>
       <c r="H33" s="3">
-        <v>-1116600</v>
+        <v>-956300</v>
       </c>
       <c r="I33" s="3">
-        <v>141100</v>
+        <v>-884800</v>
       </c>
       <c r="J33" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K33" s="3">
         <v>416800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>249500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5742500</v>
+        <v>-1665400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1486400</v>
+        <v>4550100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1874700</v>
+        <v>-1177700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1206900</v>
+        <v>-1485400</v>
       </c>
       <c r="H35" s="3">
-        <v>-1116600</v>
+        <v>-956300</v>
       </c>
       <c r="I35" s="3">
-        <v>141100</v>
+        <v>-884800</v>
       </c>
       <c r="J35" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K35" s="3">
         <v>416800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>249500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1024100</v>
+        <v>390200</v>
       </c>
       <c r="E41" s="3">
-        <v>1602600</v>
+        <v>821800</v>
       </c>
       <c r="F41" s="3">
-        <v>1766200</v>
+        <v>1286100</v>
       </c>
       <c r="G41" s="3">
-        <v>3479000</v>
+        <v>1417400</v>
       </c>
       <c r="H41" s="3">
-        <v>571900</v>
+        <v>2791900</v>
       </c>
       <c r="I41" s="3">
-        <v>566200</v>
+        <v>459000</v>
       </c>
       <c r="J41" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1030500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1489600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47200</v>
+        <v>34500</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>37900</v>
       </c>
       <c r="F42" s="3">
-        <v>27200</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="3">
-        <v>420700</v>
+        <v>21800</v>
       </c>
       <c r="H42" s="3">
-        <v>80100</v>
+        <v>337600</v>
       </c>
       <c r="I42" s="3">
-        <v>644700</v>
+        <v>64200</v>
       </c>
       <c r="J42" s="3">
+        <v>517400</v>
+      </c>
+      <c r="K42" s="3">
         <v>566500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>268900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1854400</v>
+        <v>1492900</v>
       </c>
       <c r="E43" s="3">
-        <v>2235400</v>
+        <v>1488200</v>
       </c>
       <c r="F43" s="3">
-        <v>2431300</v>
+        <v>1793900</v>
       </c>
       <c r="G43" s="3">
-        <v>2420600</v>
+        <v>1951100</v>
       </c>
       <c r="H43" s="3">
-        <v>2758800</v>
+        <v>1942500</v>
       </c>
       <c r="I43" s="3">
-        <v>3184200</v>
+        <v>2213900</v>
       </c>
       <c r="J43" s="3">
+        <v>2555300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2042100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>586400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74100</v>
+        <v>61300</v>
       </c>
       <c r="E44" s="3">
-        <v>59200</v>
+        <v>59500</v>
       </c>
       <c r="F44" s="3">
-        <v>82900</v>
-      </c>
-      <c r="G44" s="3" t="s">
+        <v>47500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>66500</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>111700</v>
-      </c>
       <c r="I44" s="3">
-        <v>101000</v>
+        <v>89700</v>
       </c>
       <c r="J44" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K44" s="3">
         <v>89900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1977400</v>
+        <v>1393100</v>
       </c>
       <c r="E45" s="3">
-        <v>1643400</v>
+        <v>1586800</v>
       </c>
       <c r="F45" s="3">
-        <v>1813400</v>
+        <v>1318800</v>
       </c>
       <c r="G45" s="3">
-        <v>2603500</v>
+        <v>1455200</v>
       </c>
       <c r="H45" s="3">
-        <v>16990000</v>
+        <v>2089300</v>
       </c>
       <c r="I45" s="3">
-        <v>1086100</v>
+        <v>13634500</v>
       </c>
       <c r="J45" s="3">
+        <v>871600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1208700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>689800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4977100</v>
+        <v>3371900</v>
       </c>
       <c r="E46" s="3">
-        <v>5545600</v>
+        <v>3994100</v>
       </c>
       <c r="F46" s="3">
-        <v>6121000</v>
+        <v>4450300</v>
       </c>
       <c r="G46" s="3">
-        <v>8923800</v>
+        <v>4912100</v>
       </c>
       <c r="H46" s="3">
-        <v>11600300</v>
+        <v>7161400</v>
       </c>
       <c r="I46" s="3">
-        <v>4186800</v>
+        <v>9309300</v>
       </c>
       <c r="J46" s="3">
+        <v>3359900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4937700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3037900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>184900</v>
+        <v>575800</v>
       </c>
       <c r="E47" s="3">
-        <v>178400</v>
+        <v>148300</v>
       </c>
       <c r="F47" s="3">
-        <v>204200</v>
+        <v>143200</v>
       </c>
       <c r="G47" s="3">
-        <v>65600</v>
+        <v>163900</v>
       </c>
       <c r="H47" s="3">
-        <v>268600</v>
+        <v>52600</v>
       </c>
       <c r="I47" s="3">
-        <v>739200</v>
+        <v>215500</v>
       </c>
       <c r="J47" s="3">
+        <v>593200</v>
+      </c>
+      <c r="K47" s="3">
         <v>267300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>555600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6637900</v>
+        <v>7291900</v>
       </c>
       <c r="E48" s="3">
-        <v>6302400</v>
+        <v>5327000</v>
       </c>
       <c r="F48" s="3">
-        <v>6049400</v>
+        <v>5057700</v>
       </c>
       <c r="G48" s="3">
-        <v>6029000</v>
+        <v>4854700</v>
       </c>
       <c r="H48" s="3">
-        <v>5428700</v>
+        <v>4838300</v>
       </c>
       <c r="I48" s="3">
-        <v>4696100</v>
+        <v>4356500</v>
       </c>
       <c r="J48" s="3">
+        <v>3768600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5396700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1437300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1622600</v>
+        <v>749200</v>
       </c>
       <c r="E49" s="3">
-        <v>1950100</v>
+        <v>1302100</v>
       </c>
       <c r="F49" s="3">
-        <v>1150100</v>
+        <v>1564900</v>
       </c>
       <c r="G49" s="3">
-        <v>2750900</v>
+        <v>922900</v>
       </c>
       <c r="H49" s="3">
-        <v>3883700</v>
+        <v>2207600</v>
       </c>
       <c r="I49" s="3">
-        <v>1686800</v>
+        <v>3116700</v>
       </c>
       <c r="J49" s="3">
+        <v>1353700</v>
+      </c>
+      <c r="K49" s="3">
         <v>989500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1858500</v>
+        <v>1483700</v>
       </c>
       <c r="E52" s="3">
-        <v>2052100</v>
+        <v>1491500</v>
       </c>
       <c r="F52" s="3">
-        <v>2065300</v>
+        <v>1646900</v>
       </c>
       <c r="G52" s="3">
-        <v>5427400</v>
+        <v>1657400</v>
       </c>
       <c r="H52" s="3">
-        <v>5018800</v>
+        <v>4355500</v>
       </c>
       <c r="I52" s="3">
-        <v>5439700</v>
+        <v>4027600</v>
       </c>
       <c r="J52" s="3">
+        <v>4365400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4539700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2555300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15281000</v>
+        <v>13472500</v>
       </c>
       <c r="E54" s="3">
-        <v>16028600</v>
+        <v>12263000</v>
       </c>
       <c r="F54" s="3">
-        <v>15405800</v>
+        <v>12863000</v>
       </c>
       <c r="G54" s="3">
-        <v>23196600</v>
+        <v>12363200</v>
       </c>
       <c r="H54" s="3">
-        <v>25860300</v>
+        <v>18615300</v>
       </c>
       <c r="I54" s="3">
-        <v>16368800</v>
+        <v>20752900</v>
       </c>
       <c r="J54" s="3">
+        <v>13136000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16130800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7855200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1220300</v>
+        <v>1048300</v>
       </c>
       <c r="E57" s="3">
-        <v>1781100</v>
+        <v>979300</v>
       </c>
       <c r="F57" s="3">
-        <v>1536100</v>
+        <v>1429300</v>
       </c>
       <c r="G57" s="3">
-        <v>1176000</v>
+        <v>1232800</v>
       </c>
       <c r="H57" s="3">
-        <v>2030800</v>
+        <v>943700</v>
       </c>
       <c r="I57" s="3">
-        <v>2210100</v>
+        <v>1629700</v>
       </c>
       <c r="J57" s="3">
+        <v>1773600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1087900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>456600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>157100</v>
+        <v>344200</v>
       </c>
       <c r="E58" s="3">
-        <v>12730400</v>
+        <v>126100</v>
       </c>
       <c r="F58" s="3">
-        <v>11229100</v>
+        <v>10216200</v>
       </c>
       <c r="G58" s="3">
-        <v>2757800</v>
+        <v>9011400</v>
       </c>
       <c r="H58" s="3">
-        <v>2084700</v>
+        <v>2213100</v>
       </c>
       <c r="I58" s="3">
-        <v>1942300</v>
+        <v>1673000</v>
       </c>
       <c r="J58" s="3">
+        <v>1558700</v>
+      </c>
+      <c r="K58" s="3">
         <v>727100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>283700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1118700</v>
+        <v>825600</v>
       </c>
       <c r="E59" s="3">
-        <v>1342600</v>
+        <v>897800</v>
       </c>
       <c r="F59" s="3">
-        <v>1546200</v>
+        <v>1077400</v>
       </c>
       <c r="G59" s="3">
-        <v>2045600</v>
+        <v>1240800</v>
       </c>
       <c r="H59" s="3">
-        <v>9253400</v>
+        <v>1641600</v>
       </c>
       <c r="I59" s="3">
-        <v>2956000</v>
+        <v>7425900</v>
       </c>
       <c r="J59" s="3">
+        <v>2372200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2177300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1398000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2496200</v>
+        <v>2218100</v>
       </c>
       <c r="E60" s="3">
-        <v>15854000</v>
+        <v>2003200</v>
       </c>
       <c r="F60" s="3">
-        <v>14311500</v>
+        <v>12722900</v>
       </c>
       <c r="G60" s="3">
-        <v>5979300</v>
+        <v>11485000</v>
       </c>
       <c r="H60" s="3">
-        <v>9943300</v>
+        <v>4798400</v>
       </c>
       <c r="I60" s="3">
-        <v>3629000</v>
+        <v>7979500</v>
       </c>
       <c r="J60" s="3">
+        <v>2912300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3992400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2138200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3684200</v>
+        <v>4598900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2956600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>11220100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>7329200</v>
+        <v>9004200</v>
       </c>
       <c r="I61" s="3">
-        <v>7401400</v>
+        <v>5881700</v>
       </c>
       <c r="J61" s="3">
+        <v>5939600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7059900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1727100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3754000</v>
+        <v>3320600</v>
       </c>
       <c r="E62" s="3">
-        <v>3330000</v>
+        <v>3012600</v>
       </c>
       <c r="F62" s="3">
-        <v>2651000</v>
+        <v>2672300</v>
       </c>
       <c r="G62" s="3">
-        <v>2109900</v>
+        <v>2127400</v>
       </c>
       <c r="H62" s="3">
-        <v>4183400</v>
+        <v>1693200</v>
       </c>
       <c r="I62" s="3">
-        <v>4949200</v>
+        <v>3357200</v>
       </c>
       <c r="J62" s="3">
+        <v>3971700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2436000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1363000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9991300</v>
+        <v>10164900</v>
       </c>
       <c r="E66" s="3">
-        <v>19252600</v>
+        <v>8018000</v>
       </c>
       <c r="F66" s="3">
-        <v>17147100</v>
+        <v>15450200</v>
       </c>
       <c r="G66" s="3">
-        <v>19587400</v>
+        <v>13760600</v>
       </c>
       <c r="H66" s="3">
-        <v>19872000</v>
+        <v>15718900</v>
       </c>
       <c r="I66" s="3">
-        <v>13677700</v>
+        <v>15947300</v>
       </c>
       <c r="J66" s="3">
+        <v>10976400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13488200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5228300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2406,14 +2573,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>-491400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-37100</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1408600</v>
+        <v>-2596000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6801200</v>
+        <v>-1130400</v>
       </c>
       <c r="F72" s="3">
-        <v>-5314900</v>
+        <v>-5458000</v>
       </c>
       <c r="G72" s="3">
-        <v>-4007000</v>
+        <v>-4265200</v>
       </c>
       <c r="H72" s="3">
-        <v>-493700</v>
+        <v>-3215600</v>
       </c>
       <c r="I72" s="3">
-        <v>2006900</v>
+        <v>-396200</v>
       </c>
       <c r="J72" s="3">
+        <v>1610600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1406900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1738400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5289800</v>
+        <v>3307700</v>
       </c>
       <c r="E76" s="3">
-        <v>-3224000</v>
+        <v>4245000</v>
       </c>
       <c r="F76" s="3">
-        <v>-1741300</v>
+        <v>-2587200</v>
       </c>
       <c r="G76" s="3">
-        <v>3609300</v>
+        <v>-1397400</v>
       </c>
       <c r="H76" s="3">
-        <v>5988400</v>
+        <v>2896400</v>
       </c>
       <c r="I76" s="3">
-        <v>2691100</v>
+        <v>4805700</v>
       </c>
       <c r="J76" s="3">
+        <v>2159600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3134000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2664000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5742500</v>
+        <v>-1665400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1486400</v>
+        <v>4550100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1874700</v>
+        <v>-1177700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1206900</v>
+        <v>-1485400</v>
       </c>
       <c r="H81" s="3">
-        <v>-1116600</v>
+        <v>-956300</v>
       </c>
       <c r="I81" s="3">
-        <v>141100</v>
+        <v>-884800</v>
       </c>
       <c r="J81" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K81" s="3">
         <v>416800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>249500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1357000</v>
+        <v>1271900</v>
       </c>
       <c r="E83" s="3">
-        <v>1193100</v>
+        <v>1075200</v>
       </c>
       <c r="F83" s="3">
-        <v>1280500</v>
+        <v>945400</v>
       </c>
       <c r="G83" s="3">
-        <v>1446700</v>
+        <v>1014600</v>
       </c>
       <c r="H83" s="3">
-        <v>1346600</v>
+        <v>1146300</v>
       </c>
       <c r="I83" s="3">
-        <v>1329200</v>
+        <v>1067000</v>
       </c>
       <c r="J83" s="3">
+        <v>1053200</v>
+      </c>
+      <c r="K83" s="3">
         <v>753800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>259100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>668500</v>
+        <v>427700</v>
       </c>
       <c r="E89" s="3">
-        <v>1027900</v>
+        <v>529700</v>
       </c>
       <c r="F89" s="3">
-        <v>724000</v>
+        <v>814500</v>
       </c>
       <c r="G89" s="3">
-        <v>-246100</v>
+        <v>573700</v>
       </c>
       <c r="H89" s="3">
-        <v>1291500</v>
+        <v>-195000</v>
       </c>
       <c r="I89" s="3">
-        <v>1642900</v>
+        <v>1023300</v>
       </c>
       <c r="J89" s="3">
+        <v>1301700</v>
+      </c>
+      <c r="K89" s="3">
         <v>901100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>456300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1225100</v>
+        <v>-1373900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1014500</v>
+        <v>-970700</v>
       </c>
       <c r="F91" s="3">
-        <v>-762100</v>
+        <v>-803800</v>
       </c>
       <c r="G91" s="3">
-        <v>-859700</v>
+        <v>-603900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1254100</v>
+        <v>-681200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1395600</v>
+        <v>-993700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1105800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1244600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-219200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1148200</v>
+        <v>-1267600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1032500</v>
+        <v>-909800</v>
       </c>
       <c r="F94" s="3">
-        <v>-914800</v>
+        <v>-818100</v>
       </c>
       <c r="G94" s="3">
-        <v>2929000</v>
+        <v>-724800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1004800</v>
+        <v>2320800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1581000</v>
+        <v>-796200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1252700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1503700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-518200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>-13900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-8800</v>
+        <v>-11000</v>
       </c>
       <c r="G96" s="3">
-        <v>-13500</v>
+        <v>-7000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1200</v>
+        <v>-10700</v>
       </c>
       <c r="I96" s="3">
-        <v>-298900</v>
+        <v>-1000</v>
       </c>
       <c r="J96" s="3">
+        <v>-236900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-561700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-114700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-99100</v>
+        <v>413700</v>
       </c>
       <c r="E100" s="3">
-        <v>-161500</v>
+        <v>-78500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1429000</v>
+        <v>-128000</v>
       </c>
       <c r="G100" s="3">
-        <v>-550300</v>
+        <v>-1132200</v>
       </c>
       <c r="H100" s="3">
-        <v>-274300</v>
+        <v>-436100</v>
       </c>
       <c r="I100" s="3">
-        <v>-536800</v>
+        <v>-217300</v>
       </c>
       <c r="J100" s="3">
+        <v>-425300</v>
+      </c>
+      <c r="K100" s="3">
         <v>227600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>724100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-93100</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>774400</v>
+        <v>-73700</v>
       </c>
       <c r="H101" s="3">
-        <v>-6700</v>
+        <v>613600</v>
       </c>
       <c r="I101" s="3">
-        <v>11800</v>
+        <v>-5300</v>
       </c>
       <c r="J101" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>29400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-578500</v>
+        <v>-426200</v>
       </c>
       <c r="E102" s="3">
-        <v>-163600</v>
+        <v>-458400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1712800</v>
+        <v>-129600</v>
       </c>
       <c r="G102" s="3">
-        <v>2907100</v>
+        <v>-1357200</v>
       </c>
       <c r="H102" s="3">
-        <v>5700</v>
+        <v>2303400</v>
       </c>
       <c r="I102" s="3">
-        <v>-463100</v>
+        <v>4500</v>
       </c>
       <c r="J102" s="3">
+        <v>-367000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-371600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>691500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3725800</v>
+        <v>3592300</v>
       </c>
       <c r="E8" s="3">
-        <v>4081800</v>
+        <v>3935500</v>
       </c>
       <c r="F8" s="3">
-        <v>4401800</v>
+        <v>4244100</v>
       </c>
       <c r="G8" s="3">
-        <v>4810100</v>
+        <v>4637800</v>
       </c>
       <c r="H8" s="3">
-        <v>5061300</v>
+        <v>4879900</v>
       </c>
       <c r="I8" s="3">
-        <v>5226600</v>
+        <v>5039300</v>
       </c>
       <c r="J8" s="3">
-        <v>5258900</v>
+        <v>5070500</v>
       </c>
       <c r="K8" s="3">
         <v>5877500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2833700</v>
+        <v>2732200</v>
       </c>
       <c r="E9" s="3">
-        <v>2993600</v>
+        <v>2886400</v>
       </c>
       <c r="F9" s="3">
-        <v>2772900</v>
+        <v>2673500</v>
       </c>
       <c r="G9" s="3">
-        <v>2963400</v>
+        <v>2857200</v>
       </c>
       <c r="H9" s="3">
-        <v>5904800</v>
+        <v>5693200</v>
       </c>
       <c r="I9" s="3">
-        <v>5826000</v>
+        <v>5617200</v>
       </c>
       <c r="J9" s="3">
-        <v>8693700</v>
+        <v>8382200</v>
       </c>
       <c r="K9" s="3">
         <v>2959500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>892100</v>
+        <v>860100</v>
       </c>
       <c r="E10" s="3">
-        <v>1088100</v>
+        <v>1049200</v>
       </c>
       <c r="F10" s="3">
-        <v>1628900</v>
+        <v>1570500</v>
       </c>
       <c r="G10" s="3">
-        <v>1846800</v>
+        <v>1780600</v>
       </c>
       <c r="H10" s="3">
-        <v>-843500</v>
+        <v>-813300</v>
       </c>
       <c r="I10" s="3">
-        <v>-599400</v>
+        <v>-578000</v>
       </c>
       <c r="J10" s="3">
-        <v>-3434700</v>
+        <v>-3311600</v>
       </c>
       <c r="K10" s="3">
         <v>2918100</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-2045500</v>
+        <v>-1972200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-264200</v>
+        <v>-254800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4276700</v>
+        <v>4123500</v>
       </c>
       <c r="E17" s="3">
-        <v>3011100</v>
+        <v>2903200</v>
       </c>
       <c r="F17" s="3">
-        <v>4838700</v>
+        <v>4665300</v>
       </c>
       <c r="G17" s="3">
-        <v>5067500</v>
+        <v>4886000</v>
       </c>
       <c r="H17" s="3">
-        <v>4626700</v>
+        <v>4460900</v>
       </c>
       <c r="I17" s="3">
-        <v>4373000</v>
+        <v>4216300</v>
       </c>
       <c r="J17" s="3">
-        <v>4522000</v>
+        <v>4359900</v>
       </c>
       <c r="K17" s="3">
         <v>4765900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-550900</v>
+        <v>-531200</v>
       </c>
       <c r="E18" s="3">
-        <v>1070700</v>
+        <v>1032300</v>
       </c>
       <c r="F18" s="3">
-        <v>-436900</v>
+        <v>-421200</v>
       </c>
       <c r="G18" s="3">
-        <v>-257400</v>
+        <v>-248200</v>
       </c>
       <c r="H18" s="3">
-        <v>434500</v>
+        <v>419000</v>
       </c>
       <c r="I18" s="3">
-        <v>853600</v>
+        <v>823000</v>
       </c>
       <c r="J18" s="3">
-        <v>737000</v>
+        <v>710600</v>
       </c>
       <c r="K18" s="3">
         <v>1111600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-831100</v>
+        <v>-801400</v>
       </c>
       <c r="E20" s="3">
-        <v>2878000</v>
+        <v>2774800</v>
       </c>
       <c r="F20" s="3">
-        <v>73600</v>
+        <v>71000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28100</v>
+        <v>-27100</v>
       </c>
       <c r="H20" s="3">
-        <v>-55900</v>
+        <v>-53900</v>
       </c>
       <c r="I20" s="3">
-        <v>123600</v>
+        <v>119200</v>
       </c>
       <c r="J20" s="3">
-        <v>328100</v>
+        <v>316400</v>
       </c>
       <c r="K20" s="3">
         <v>-34900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-78500</v>
+        <v>-84400</v>
       </c>
       <c r="E21" s="3">
-        <v>5050600</v>
+        <v>4862300</v>
       </c>
       <c r="F21" s="3">
-        <v>605600</v>
+        <v>577500</v>
       </c>
       <c r="G21" s="3">
-        <v>754300</v>
+        <v>720400</v>
       </c>
       <c r="H21" s="3">
-        <v>1553400</v>
+        <v>1489900</v>
       </c>
       <c r="I21" s="3">
-        <v>2070700</v>
+        <v>1989200</v>
       </c>
       <c r="J21" s="3">
-        <v>2144500</v>
+        <v>2060400</v>
       </c>
       <c r="K21" s="3">
         <v>1838900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>299300</v>
+        <v>288600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>665100</v>
+        <v>641200</v>
       </c>
       <c r="G22" s="3">
-        <v>654400</v>
+        <v>631000</v>
       </c>
       <c r="H22" s="3">
-        <v>1498900</v>
+        <v>1445200</v>
       </c>
       <c r="I22" s="3">
-        <v>965300</v>
+        <v>930700</v>
       </c>
       <c r="J22" s="3">
-        <v>939100</v>
+        <v>905500</v>
       </c>
       <c r="K22" s="3">
         <v>482500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1681400</v>
+        <v>-1621100</v>
       </c>
       <c r="E23" s="3">
-        <v>3948700</v>
+        <v>3807200</v>
       </c>
       <c r="F23" s="3">
-        <v>-1028300</v>
+        <v>-991500</v>
       </c>
       <c r="G23" s="3">
-        <v>-939900</v>
+        <v>-906200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1120300</v>
+        <v>-1080100</v>
       </c>
       <c r="I23" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="J23" s="3">
-        <v>126000</v>
+        <v>121500</v>
       </c>
       <c r="K23" s="3">
         <v>594200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
-        <v>-606000</v>
+        <v>-584300</v>
       </c>
       <c r="F24" s="3">
-        <v>203300</v>
+        <v>196000</v>
       </c>
       <c r="G24" s="3">
-        <v>578400</v>
+        <v>557600</v>
       </c>
       <c r="H24" s="3">
-        <v>110000</v>
+        <v>106100</v>
       </c>
       <c r="I24" s="3">
-        <v>140300</v>
+        <v>135300</v>
       </c>
       <c r="J24" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="K24" s="3">
         <v>177400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1682900</v>
+        <v>-1622600</v>
       </c>
       <c r="E26" s="3">
-        <v>4554600</v>
+        <v>4391400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1231600</v>
+        <v>-1187500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1518300</v>
+        <v>-1463900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1230300</v>
+        <v>-1186200</v>
       </c>
       <c r="I26" s="3">
-        <v>-128400</v>
+        <v>-123800</v>
       </c>
       <c r="J26" s="3">
-        <v>111800</v>
+        <v>107800</v>
       </c>
       <c r="K26" s="3">
         <v>416800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1665400</v>
+        <v>-1605700</v>
       </c>
       <c r="E27" s="3">
-        <v>4550100</v>
+        <v>4387100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1177700</v>
+        <v>-1135500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1485400</v>
+        <v>-1432200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1154000</v>
+        <v>-1112600</v>
       </c>
       <c r="I27" s="3">
-        <v>-128600</v>
+        <v>-124000</v>
       </c>
       <c r="J27" s="3">
-        <v>111800</v>
+        <v>107800</v>
       </c>
       <c r="K27" s="3">
         <v>416800</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>197600</v>
+        <v>190600</v>
       </c>
       <c r="I29" s="3">
-        <v>-756100</v>
+        <v>-729000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>831100</v>
+        <v>801400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2878000</v>
+        <v>-2774800</v>
       </c>
       <c r="F32" s="3">
-        <v>-73600</v>
+        <v>-71000</v>
       </c>
       <c r="G32" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="H32" s="3">
-        <v>55900</v>
+        <v>53900</v>
       </c>
       <c r="I32" s="3">
-        <v>-123600</v>
+        <v>-119200</v>
       </c>
       <c r="J32" s="3">
-        <v>-328100</v>
+        <v>-316400</v>
       </c>
       <c r="K32" s="3">
         <v>34900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1665400</v>
+        <v>-1605700</v>
       </c>
       <c r="E33" s="3">
-        <v>4550100</v>
+        <v>4387100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1177700</v>
+        <v>-1135500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1485400</v>
+        <v>-1432200</v>
       </c>
       <c r="H33" s="3">
-        <v>-956300</v>
+        <v>-922100</v>
       </c>
       <c r="I33" s="3">
-        <v>-884800</v>
+        <v>-853100</v>
       </c>
       <c r="J33" s="3">
-        <v>111800</v>
+        <v>107800</v>
       </c>
       <c r="K33" s="3">
         <v>416800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1665400</v>
+        <v>-1605700</v>
       </c>
       <c r="E35" s="3">
-        <v>4550100</v>
+        <v>4387100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1177700</v>
+        <v>-1135500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1485400</v>
+        <v>-1432200</v>
       </c>
       <c r="H35" s="3">
-        <v>-956300</v>
+        <v>-922100</v>
       </c>
       <c r="I35" s="3">
-        <v>-884800</v>
+        <v>-853100</v>
       </c>
       <c r="J35" s="3">
-        <v>111800</v>
+        <v>107800</v>
       </c>
       <c r="K35" s="3">
         <v>416800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>390200</v>
+        <v>371400</v>
       </c>
       <c r="E41" s="3">
-        <v>821800</v>
+        <v>782300</v>
       </c>
       <c r="F41" s="3">
-        <v>1286100</v>
+        <v>1224300</v>
       </c>
       <c r="G41" s="3">
-        <v>1417400</v>
+        <v>1349300</v>
       </c>
       <c r="H41" s="3">
-        <v>2791900</v>
+        <v>2657800</v>
       </c>
       <c r="I41" s="3">
-        <v>459000</v>
+        <v>436900</v>
       </c>
       <c r="J41" s="3">
-        <v>454400</v>
+        <v>432600</v>
       </c>
       <c r="K41" s="3">
         <v>1030500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34500</v>
+        <v>32800</v>
       </c>
       <c r="E42" s="3">
-        <v>37900</v>
+        <v>36000</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G42" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="H42" s="3">
-        <v>337600</v>
+        <v>642900</v>
       </c>
       <c r="I42" s="3">
-        <v>64200</v>
+        <v>61200</v>
       </c>
       <c r="J42" s="3">
-        <v>517400</v>
+        <v>492500</v>
       </c>
       <c r="K42" s="3">
         <v>566500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1492900</v>
+        <v>1421200</v>
       </c>
       <c r="E43" s="3">
-        <v>1488200</v>
+        <v>1416700</v>
       </c>
       <c r="F43" s="3">
-        <v>1793900</v>
+        <v>1707700</v>
       </c>
       <c r="G43" s="3">
-        <v>1951100</v>
+        <v>1857400</v>
       </c>
       <c r="H43" s="3">
-        <v>1942500</v>
+        <v>2177200</v>
       </c>
       <c r="I43" s="3">
-        <v>2213900</v>
+        <v>2107600</v>
       </c>
       <c r="J43" s="3">
-        <v>2555300</v>
+        <v>2432600</v>
       </c>
       <c r="K43" s="3">
         <v>2042100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61300</v>
+        <v>58300</v>
       </c>
       <c r="E44" s="3">
-        <v>59500</v>
+        <v>56600</v>
       </c>
       <c r="F44" s="3">
-        <v>47500</v>
+        <v>45200</v>
       </c>
       <c r="G44" s="3">
-        <v>66500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+        <v>63300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>62800</v>
       </c>
       <c r="I44" s="3">
-        <v>89700</v>
+        <v>85400</v>
       </c>
       <c r="J44" s="3">
-        <v>81100</v>
+        <v>77200</v>
       </c>
       <c r="K44" s="3">
         <v>89900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1393100</v>
+        <v>1326200</v>
       </c>
       <c r="E45" s="3">
-        <v>1586800</v>
+        <v>1510600</v>
       </c>
       <c r="F45" s="3">
-        <v>1318800</v>
+        <v>1255500</v>
       </c>
       <c r="G45" s="3">
-        <v>1455200</v>
+        <v>1385400</v>
       </c>
       <c r="H45" s="3">
-        <v>2089300</v>
+        <v>3522000</v>
       </c>
       <c r="I45" s="3">
-        <v>13634500</v>
+        <v>12979700</v>
       </c>
       <c r="J45" s="3">
-        <v>871600</v>
+        <v>829800</v>
       </c>
       <c r="K45" s="3">
         <v>1208700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3371900</v>
+        <v>3210000</v>
       </c>
       <c r="E46" s="3">
-        <v>3994100</v>
+        <v>3802300</v>
       </c>
       <c r="F46" s="3">
-        <v>4450300</v>
+        <v>4236600</v>
       </c>
       <c r="G46" s="3">
-        <v>4912100</v>
+        <v>4676200</v>
       </c>
       <c r="H46" s="3">
-        <v>7161400</v>
+        <v>6791200</v>
       </c>
       <c r="I46" s="3">
-        <v>9309300</v>
+        <v>8862200</v>
       </c>
       <c r="J46" s="3">
-        <v>3359900</v>
+        <v>3198600</v>
       </c>
       <c r="K46" s="3">
         <v>4937700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>575800</v>
+        <v>548200</v>
       </c>
       <c r="E47" s="3">
-        <v>148300</v>
+        <v>141200</v>
       </c>
       <c r="F47" s="3">
-        <v>143200</v>
+        <v>136300</v>
       </c>
       <c r="G47" s="3">
-        <v>163900</v>
+        <v>156000</v>
       </c>
       <c r="H47" s="3">
-        <v>52600</v>
+        <v>195500</v>
       </c>
       <c r="I47" s="3">
-        <v>215500</v>
+        <v>205200</v>
       </c>
       <c r="J47" s="3">
-        <v>593200</v>
+        <v>564800</v>
       </c>
       <c r="K47" s="3">
         <v>267300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7291900</v>
+        <v>6941700</v>
       </c>
       <c r="E48" s="3">
-        <v>5327000</v>
+        <v>5071100</v>
       </c>
       <c r="F48" s="3">
-        <v>5057700</v>
+        <v>4814800</v>
       </c>
       <c r="G48" s="3">
-        <v>4854700</v>
+        <v>4621500</v>
       </c>
       <c r="H48" s="3">
-        <v>4838300</v>
+        <v>3762000</v>
       </c>
       <c r="I48" s="3">
-        <v>4356500</v>
+        <v>4147300</v>
       </c>
       <c r="J48" s="3">
-        <v>3768600</v>
+        <v>3587600</v>
       </c>
       <c r="K48" s="3">
         <v>5396700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>749200</v>
+        <v>713200</v>
       </c>
       <c r="E49" s="3">
-        <v>1302100</v>
+        <v>1239600</v>
       </c>
       <c r="F49" s="3">
-        <v>1564900</v>
+        <v>1489800</v>
       </c>
       <c r="G49" s="3">
-        <v>922900</v>
+        <v>878600</v>
       </c>
       <c r="H49" s="3">
-        <v>2207600</v>
+        <v>4129500</v>
       </c>
       <c r="I49" s="3">
-        <v>3116700</v>
+        <v>2967000</v>
       </c>
       <c r="J49" s="3">
-        <v>1353700</v>
+        <v>1288700</v>
       </c>
       <c r="K49" s="3">
         <v>989500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1483700</v>
+        <v>1412400</v>
       </c>
       <c r="E52" s="3">
-        <v>1491500</v>
+        <v>1419800</v>
       </c>
       <c r="F52" s="3">
-        <v>1646900</v>
+        <v>1567800</v>
       </c>
       <c r="G52" s="3">
-        <v>1657400</v>
+        <v>1577800</v>
       </c>
       <c r="H52" s="3">
-        <v>4355500</v>
+        <v>5125900</v>
       </c>
       <c r="I52" s="3">
-        <v>4027600</v>
+        <v>3834200</v>
       </c>
       <c r="J52" s="3">
-        <v>4365400</v>
+        <v>4155700</v>
       </c>
       <c r="K52" s="3">
         <v>4539700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13472500</v>
+        <v>12825500</v>
       </c>
       <c r="E54" s="3">
-        <v>12263000</v>
+        <v>11674100</v>
       </c>
       <c r="F54" s="3">
-        <v>12863000</v>
+        <v>12245200</v>
       </c>
       <c r="G54" s="3">
-        <v>12363200</v>
+        <v>11769400</v>
       </c>
       <c r="H54" s="3">
-        <v>18615300</v>
+        <v>18376600</v>
       </c>
       <c r="I54" s="3">
-        <v>20752900</v>
+        <v>19756300</v>
       </c>
       <c r="J54" s="3">
-        <v>13136000</v>
+        <v>12505100</v>
       </c>
       <c r="K54" s="3">
         <v>16130800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1048300</v>
+        <v>998000</v>
       </c>
       <c r="E57" s="3">
-        <v>979300</v>
+        <v>932300</v>
       </c>
       <c r="F57" s="3">
-        <v>1429300</v>
+        <v>1360700</v>
       </c>
       <c r="G57" s="3">
-        <v>1232800</v>
+        <v>1173600</v>
       </c>
       <c r="H57" s="3">
-        <v>943700</v>
+        <v>1791200</v>
       </c>
       <c r="I57" s="3">
-        <v>1629700</v>
+        <v>1551400</v>
       </c>
       <c r="J57" s="3">
-        <v>1773600</v>
+        <v>1688400</v>
       </c>
       <c r="K57" s="3">
         <v>1087900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>344200</v>
+        <v>327600</v>
       </c>
       <c r="E58" s="3">
-        <v>126100</v>
+        <v>120000</v>
       </c>
       <c r="F58" s="3">
-        <v>10216200</v>
+        <v>9725500</v>
       </c>
       <c r="G58" s="3">
-        <v>9011400</v>
+        <v>8578600</v>
       </c>
       <c r="H58" s="3">
-        <v>2213100</v>
+        <v>4213700</v>
       </c>
       <c r="I58" s="3">
-        <v>1673000</v>
+        <v>1592700</v>
       </c>
       <c r="J58" s="3">
-        <v>1558700</v>
+        <v>1483800</v>
       </c>
       <c r="K58" s="3">
         <v>727100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>825600</v>
+        <v>785900</v>
       </c>
       <c r="E59" s="3">
-        <v>897800</v>
+        <v>854700</v>
       </c>
       <c r="F59" s="3">
-        <v>1077400</v>
+        <v>1025700</v>
       </c>
       <c r="G59" s="3">
-        <v>1240800</v>
+        <v>1181200</v>
       </c>
       <c r="H59" s="3">
-        <v>1641600</v>
+        <v>2502700</v>
       </c>
       <c r="I59" s="3">
-        <v>7425900</v>
+        <v>7069200</v>
       </c>
       <c r="J59" s="3">
-        <v>2372200</v>
+        <v>2258300</v>
       </c>
       <c r="K59" s="3">
         <v>2177300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2218100</v>
+        <v>2111500</v>
       </c>
       <c r="E60" s="3">
-        <v>2003200</v>
+        <v>1907000</v>
       </c>
       <c r="F60" s="3">
-        <v>12722900</v>
+        <v>12111900</v>
       </c>
       <c r="G60" s="3">
-        <v>11485000</v>
+        <v>10933400</v>
       </c>
       <c r="H60" s="3">
-        <v>4798400</v>
+        <v>4562400</v>
       </c>
       <c r="I60" s="3">
-        <v>7979500</v>
+        <v>7596300</v>
       </c>
       <c r="J60" s="3">
-        <v>2912300</v>
+        <v>2772400</v>
       </c>
       <c r="K60" s="3">
         <v>3992400</v>
@@ -2276,10 +2276,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4598900</v>
+        <v>4378000</v>
       </c>
       <c r="E61" s="3">
-        <v>2956600</v>
+        <v>2814600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9004200</v>
+        <v>8571700</v>
       </c>
       <c r="I61" s="3">
-        <v>5881700</v>
+        <v>5599200</v>
       </c>
       <c r="J61" s="3">
-        <v>5939600</v>
+        <v>5654400</v>
       </c>
       <c r="K61" s="3">
         <v>7059900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3320600</v>
+        <v>3161100</v>
       </c>
       <c r="E62" s="3">
-        <v>3012600</v>
+        <v>2867900</v>
       </c>
       <c r="F62" s="3">
-        <v>2672300</v>
+        <v>2544000</v>
       </c>
       <c r="G62" s="3">
-        <v>2127400</v>
+        <v>2025200</v>
       </c>
       <c r="H62" s="3">
-        <v>1693200</v>
+        <v>3016000</v>
       </c>
       <c r="I62" s="3">
-        <v>3357200</v>
+        <v>3196000</v>
       </c>
       <c r="J62" s="3">
-        <v>3971700</v>
+        <v>3781000</v>
       </c>
       <c r="K62" s="3">
         <v>2436000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10164900</v>
+        <v>9676700</v>
       </c>
       <c r="E66" s="3">
-        <v>8018000</v>
+        <v>7632900</v>
       </c>
       <c r="F66" s="3">
-        <v>15450200</v>
+        <v>14708200</v>
       </c>
       <c r="G66" s="3">
-        <v>13760600</v>
+        <v>13099700</v>
       </c>
       <c r="H66" s="3">
-        <v>15718900</v>
+        <v>14949800</v>
       </c>
       <c r="I66" s="3">
-        <v>15947300</v>
+        <v>15181400</v>
       </c>
       <c r="J66" s="3">
-        <v>10976400</v>
+        <v>10449200</v>
       </c>
       <c r="K66" s="3">
         <v>13488200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2596000</v>
+        <v>-2471300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1130400</v>
+        <v>-1076100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5458000</v>
+        <v>-5195900</v>
       </c>
       <c r="G72" s="3">
-        <v>-4265200</v>
+        <v>-4060400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3215600</v>
+        <v>589600</v>
       </c>
       <c r="I72" s="3">
-        <v>-396200</v>
+        <v>-377200</v>
       </c>
       <c r="J72" s="3">
-        <v>1610600</v>
+        <v>1533200</v>
       </c>
       <c r="K72" s="3">
         <v>1406900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3307700</v>
+        <v>3148800</v>
       </c>
       <c r="E76" s="3">
-        <v>4245000</v>
+        <v>4041200</v>
       </c>
       <c r="F76" s="3">
-        <v>-2587200</v>
+        <v>-2463000</v>
       </c>
       <c r="G76" s="3">
-        <v>-1397400</v>
+        <v>-1330300</v>
       </c>
       <c r="H76" s="3">
-        <v>2896400</v>
+        <v>3426800</v>
       </c>
       <c r="I76" s="3">
-        <v>4805700</v>
+        <v>4574900</v>
       </c>
       <c r="J76" s="3">
-        <v>2159600</v>
+        <v>2055900</v>
       </c>
       <c r="K76" s="3">
         <v>3134000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1665400</v>
+        <v>-1605700</v>
       </c>
       <c r="E81" s="3">
-        <v>4550100</v>
+        <v>4387100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1177700</v>
+        <v>-1135500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1485400</v>
+        <v>-1432200</v>
       </c>
       <c r="H81" s="3">
-        <v>-956300</v>
+        <v>-922100</v>
       </c>
       <c r="I81" s="3">
-        <v>-884800</v>
+        <v>-853100</v>
       </c>
       <c r="J81" s="3">
-        <v>111800</v>
+        <v>107800</v>
       </c>
       <c r="K81" s="3">
         <v>416800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1271900</v>
+        <v>1226300</v>
       </c>
       <c r="E83" s="3">
-        <v>1075200</v>
+        <v>1036700</v>
       </c>
       <c r="F83" s="3">
-        <v>945400</v>
+        <v>911500</v>
       </c>
       <c r="G83" s="3">
-        <v>1014600</v>
+        <v>978300</v>
       </c>
       <c r="H83" s="3">
-        <v>1146300</v>
+        <v>1105200</v>
       </c>
       <c r="I83" s="3">
-        <v>1067000</v>
+        <v>1028800</v>
       </c>
       <c r="J83" s="3">
-        <v>1053200</v>
+        <v>1015400</v>
       </c>
       <c r="K83" s="3">
         <v>753800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>427700</v>
+        <v>412400</v>
       </c>
       <c r="E89" s="3">
-        <v>529700</v>
+        <v>510700</v>
       </c>
       <c r="F89" s="3">
-        <v>814500</v>
+        <v>785300</v>
       </c>
       <c r="G89" s="3">
-        <v>573700</v>
+        <v>553100</v>
       </c>
       <c r="H89" s="3">
-        <v>-195000</v>
+        <v>-188000</v>
       </c>
       <c r="I89" s="3">
-        <v>1023300</v>
+        <v>986700</v>
       </c>
       <c r="J89" s="3">
-        <v>1301700</v>
+        <v>1255100</v>
       </c>
       <c r="K89" s="3">
         <v>901100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1373900</v>
+        <v>-1324700</v>
       </c>
       <c r="E91" s="3">
-        <v>-970700</v>
+        <v>-935900</v>
       </c>
       <c r="F91" s="3">
-        <v>-803800</v>
+        <v>-775000</v>
       </c>
       <c r="G91" s="3">
-        <v>-603900</v>
+        <v>-582200</v>
       </c>
       <c r="H91" s="3">
-        <v>-681200</v>
+        <v>-656800</v>
       </c>
       <c r="I91" s="3">
-        <v>-993700</v>
+        <v>-958100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1105800</v>
+        <v>-1066200</v>
       </c>
       <c r="K91" s="3">
         <v>-1244600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1267600</v>
+        <v>-1222200</v>
       </c>
       <c r="E94" s="3">
-        <v>-909800</v>
+        <v>-877200</v>
       </c>
       <c r="F94" s="3">
-        <v>-818100</v>
+        <v>-788800</v>
       </c>
       <c r="G94" s="3">
-        <v>-724800</v>
+        <v>-698900</v>
       </c>
       <c r="H94" s="3">
-        <v>2320800</v>
+        <v>2237700</v>
       </c>
       <c r="I94" s="3">
-        <v>-796200</v>
+        <v>-767600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1252700</v>
+        <v>-1207800</v>
       </c>
       <c r="K94" s="3">
         <v>-1503700</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="G96" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="H96" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>-236900</v>
+        <v>-228400</v>
       </c>
       <c r="K96" s="3">
         <v>-561700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>413700</v>
+        <v>398800</v>
       </c>
       <c r="E100" s="3">
-        <v>-78500</v>
+        <v>-75700</v>
       </c>
       <c r="F100" s="3">
-        <v>-128000</v>
+        <v>-123400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1132200</v>
+        <v>-1091700</v>
       </c>
       <c r="H100" s="3">
-        <v>-436100</v>
+        <v>-420400</v>
       </c>
       <c r="I100" s="3">
-        <v>-217300</v>
+        <v>-209500</v>
       </c>
       <c r="J100" s="3">
-        <v>-425300</v>
+        <v>-410100</v>
       </c>
       <c r="K100" s="3">
         <v>227600</v>
@@ -3469,19 +3469,19 @@
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-73700</v>
+        <v>-71100</v>
       </c>
       <c r="H101" s="3">
-        <v>613600</v>
+        <v>591600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-426200</v>
+        <v>-410900</v>
       </c>
       <c r="E102" s="3">
-        <v>-458400</v>
+        <v>-442000</v>
       </c>
       <c r="F102" s="3">
-        <v>-129600</v>
+        <v>-125000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1357200</v>
+        <v>-1308500</v>
       </c>
       <c r="H102" s="3">
-        <v>2303400</v>
+        <v>2220900</v>
       </c>
       <c r="I102" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J102" s="3">
-        <v>-367000</v>
+        <v>-353800</v>
       </c>
       <c r="K102" s="3">
         <v>-371600</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3592300</v>
+        <v>3768100</v>
       </c>
       <c r="E8" s="3">
-        <v>3935500</v>
+        <v>4128100</v>
       </c>
       <c r="F8" s="3">
-        <v>4244100</v>
+        <v>4451800</v>
       </c>
       <c r="G8" s="3">
-        <v>4637800</v>
+        <v>4864700</v>
       </c>
       <c r="H8" s="3">
-        <v>4879900</v>
+        <v>5118700</v>
       </c>
       <c r="I8" s="3">
-        <v>5039300</v>
+        <v>5285900</v>
       </c>
       <c r="J8" s="3">
-        <v>5070500</v>
+        <v>5318600</v>
       </c>
       <c r="K8" s="3">
         <v>5877500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2732200</v>
+        <v>2865900</v>
       </c>
       <c r="E9" s="3">
-        <v>2886400</v>
+        <v>3027600</v>
       </c>
       <c r="F9" s="3">
-        <v>2673500</v>
+        <v>2804400</v>
       </c>
       <c r="G9" s="3">
-        <v>2857200</v>
+        <v>2997000</v>
       </c>
       <c r="H9" s="3">
-        <v>5693200</v>
+        <v>5971800</v>
       </c>
       <c r="I9" s="3">
-        <v>5617200</v>
+        <v>5892100</v>
       </c>
       <c r="J9" s="3">
-        <v>8382200</v>
+        <v>8792300</v>
       </c>
       <c r="K9" s="3">
         <v>2959500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>860100</v>
+        <v>902200</v>
       </c>
       <c r="E10" s="3">
-        <v>1049200</v>
+        <v>1100500</v>
       </c>
       <c r="F10" s="3">
-        <v>1570500</v>
+        <v>1647400</v>
       </c>
       <c r="G10" s="3">
-        <v>1780600</v>
+        <v>1867700</v>
       </c>
       <c r="H10" s="3">
-        <v>-813300</v>
+        <v>-853100</v>
       </c>
       <c r="I10" s="3">
-        <v>-578000</v>
+        <v>-606200</v>
       </c>
       <c r="J10" s="3">
-        <v>-3311600</v>
+        <v>-3473700</v>
       </c>
       <c r="K10" s="3">
         <v>2918100</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-1972200</v>
+        <v>-2068700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-254800</v>
+        <v>-267200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4123500</v>
+        <v>4325200</v>
       </c>
       <c r="E17" s="3">
-        <v>2903200</v>
+        <v>3045300</v>
       </c>
       <c r="F17" s="3">
-        <v>4665300</v>
+        <v>4893600</v>
       </c>
       <c r="G17" s="3">
-        <v>4886000</v>
+        <v>5125100</v>
       </c>
       <c r="H17" s="3">
-        <v>4460900</v>
+        <v>4679200</v>
       </c>
       <c r="I17" s="3">
-        <v>4216300</v>
+        <v>4422600</v>
       </c>
       <c r="J17" s="3">
-        <v>4359900</v>
+        <v>4573300</v>
       </c>
       <c r="K17" s="3">
         <v>4765900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-531200</v>
+        <v>-557200</v>
       </c>
       <c r="E18" s="3">
-        <v>1032300</v>
+        <v>1082800</v>
       </c>
       <c r="F18" s="3">
-        <v>-421200</v>
+        <v>-441800</v>
       </c>
       <c r="G18" s="3">
-        <v>-248200</v>
+        <v>-260300</v>
       </c>
       <c r="H18" s="3">
-        <v>419000</v>
+        <v>439500</v>
       </c>
       <c r="I18" s="3">
-        <v>823000</v>
+        <v>863300</v>
       </c>
       <c r="J18" s="3">
-        <v>710600</v>
+        <v>745300</v>
       </c>
       <c r="K18" s="3">
         <v>1111600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-801400</v>
+        <v>-840600</v>
       </c>
       <c r="E20" s="3">
-        <v>2774800</v>
+        <v>2910600</v>
       </c>
       <c r="F20" s="3">
-        <v>71000</v>
+        <v>74400</v>
       </c>
       <c r="G20" s="3">
-        <v>-27100</v>
+        <v>-28400</v>
       </c>
       <c r="H20" s="3">
-        <v>-53900</v>
+        <v>-56600</v>
       </c>
       <c r="I20" s="3">
-        <v>119200</v>
+        <v>125000</v>
       </c>
       <c r="J20" s="3">
-        <v>316400</v>
+        <v>331900</v>
       </c>
       <c r="K20" s="3">
         <v>-34900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-84400</v>
+        <v>-109600</v>
       </c>
       <c r="E21" s="3">
-        <v>4862300</v>
+        <v>5082400</v>
       </c>
       <c r="F21" s="3">
-        <v>577500</v>
+        <v>590100</v>
       </c>
       <c r="G21" s="3">
-        <v>720400</v>
+        <v>738800</v>
       </c>
       <c r="H21" s="3">
-        <v>1489900</v>
+        <v>1543800</v>
       </c>
       <c r="I21" s="3">
-        <v>1989200</v>
+        <v>2068900</v>
       </c>
       <c r="J21" s="3">
-        <v>2060400</v>
+        <v>2143800</v>
       </c>
       <c r="K21" s="3">
         <v>1838900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>288600</v>
+        <v>302700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>641200</v>
+        <v>672600</v>
       </c>
       <c r="G22" s="3">
-        <v>631000</v>
+        <v>661800</v>
       </c>
       <c r="H22" s="3">
-        <v>1445200</v>
+        <v>1515900</v>
       </c>
       <c r="I22" s="3">
-        <v>930700</v>
+        <v>976200</v>
       </c>
       <c r="J22" s="3">
-        <v>905500</v>
+        <v>949800</v>
       </c>
       <c r="K22" s="3">
         <v>482500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1621100</v>
+        <v>-1700500</v>
       </c>
       <c r="E23" s="3">
-        <v>3807200</v>
+        <v>3993500</v>
       </c>
       <c r="F23" s="3">
-        <v>-991500</v>
+        <v>-1040000</v>
       </c>
       <c r="G23" s="3">
-        <v>-906200</v>
+        <v>-950600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1080100</v>
+        <v>-1133000</v>
       </c>
       <c r="I23" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="J23" s="3">
-        <v>121500</v>
+        <v>127400</v>
       </c>
       <c r="K23" s="3">
         <v>594200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>-584300</v>
+        <v>-612800</v>
       </c>
       <c r="F24" s="3">
-        <v>196000</v>
+        <v>205600</v>
       </c>
       <c r="G24" s="3">
-        <v>557600</v>
+        <v>584900</v>
       </c>
       <c r="H24" s="3">
-        <v>106100</v>
+        <v>111300</v>
       </c>
       <c r="I24" s="3">
-        <v>135300</v>
+        <v>141900</v>
       </c>
       <c r="J24" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="K24" s="3">
         <v>177400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1622600</v>
+        <v>-1702000</v>
       </c>
       <c r="E26" s="3">
-        <v>4391400</v>
+        <v>4606300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1187500</v>
+        <v>-1245600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1463900</v>
+        <v>-1535500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1186200</v>
+        <v>-1244300</v>
       </c>
       <c r="I26" s="3">
-        <v>-123800</v>
+        <v>-129900</v>
       </c>
       <c r="J26" s="3">
-        <v>107800</v>
+        <v>113100</v>
       </c>
       <c r="K26" s="3">
         <v>416800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1605700</v>
+        <v>-1684300</v>
       </c>
       <c r="E27" s="3">
-        <v>4387100</v>
+        <v>4601700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1135500</v>
+        <v>-1191100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1432200</v>
+        <v>-1502300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1112600</v>
+        <v>-1167100</v>
       </c>
       <c r="I27" s="3">
-        <v>-124000</v>
+        <v>-130100</v>
       </c>
       <c r="J27" s="3">
-        <v>107800</v>
+        <v>113100</v>
       </c>
       <c r="K27" s="3">
         <v>416800</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>190600</v>
+        <v>199900</v>
       </c>
       <c r="I29" s="3">
-        <v>-729000</v>
+        <v>-764700</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>801400</v>
+        <v>840600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2774800</v>
+        <v>-2910600</v>
       </c>
       <c r="F32" s="3">
-        <v>-71000</v>
+        <v>-74400</v>
       </c>
       <c r="G32" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="H32" s="3">
-        <v>53900</v>
+        <v>56600</v>
       </c>
       <c r="I32" s="3">
-        <v>-119200</v>
+        <v>-125000</v>
       </c>
       <c r="J32" s="3">
-        <v>-316400</v>
+        <v>-331900</v>
       </c>
       <c r="K32" s="3">
         <v>34900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1605700</v>
+        <v>-1684300</v>
       </c>
       <c r="E33" s="3">
-        <v>4387100</v>
+        <v>4601700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1135500</v>
+        <v>-1191100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1432200</v>
+        <v>-1502300</v>
       </c>
       <c r="H33" s="3">
-        <v>-922100</v>
+        <v>-967200</v>
       </c>
       <c r="I33" s="3">
-        <v>-853100</v>
+        <v>-894800</v>
       </c>
       <c r="J33" s="3">
-        <v>107800</v>
+        <v>113100</v>
       </c>
       <c r="K33" s="3">
         <v>416800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1605700</v>
+        <v>-1684300</v>
       </c>
       <c r="E35" s="3">
-        <v>4387100</v>
+        <v>4601700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1135500</v>
+        <v>-1191100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1432200</v>
+        <v>-1502300</v>
       </c>
       <c r="H35" s="3">
-        <v>-922100</v>
+        <v>-967200</v>
       </c>
       <c r="I35" s="3">
-        <v>-853100</v>
+        <v>-894800</v>
       </c>
       <c r="J35" s="3">
-        <v>107800</v>
+        <v>113100</v>
       </c>
       <c r="K35" s="3">
         <v>416800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>371400</v>
+        <v>389600</v>
       </c>
       <c r="E41" s="3">
-        <v>782300</v>
+        <v>820600</v>
       </c>
       <c r="F41" s="3">
-        <v>1224300</v>
+        <v>1284200</v>
       </c>
       <c r="G41" s="3">
-        <v>1349300</v>
+        <v>1415300</v>
       </c>
       <c r="H41" s="3">
-        <v>2657800</v>
+        <v>2787900</v>
       </c>
       <c r="I41" s="3">
-        <v>436900</v>
+        <v>458300</v>
       </c>
       <c r="J41" s="3">
-        <v>432600</v>
+        <v>453800</v>
       </c>
       <c r="K41" s="3">
         <v>1030500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32800</v>
+        <v>34400</v>
       </c>
       <c r="E42" s="3">
-        <v>36000</v>
+        <v>37800</v>
       </c>
       <c r="F42" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="H42" s="3">
-        <v>642900</v>
+        <v>674300</v>
       </c>
       <c r="I42" s="3">
-        <v>61200</v>
+        <v>64200</v>
       </c>
       <c r="J42" s="3">
-        <v>492500</v>
+        <v>516600</v>
       </c>
       <c r="K42" s="3">
         <v>566500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1421200</v>
+        <v>1490800</v>
       </c>
       <c r="E43" s="3">
-        <v>1416700</v>
+        <v>1486000</v>
       </c>
       <c r="F43" s="3">
-        <v>1707700</v>
+        <v>1791300</v>
       </c>
       <c r="G43" s="3">
-        <v>1857400</v>
+        <v>1948300</v>
       </c>
       <c r="H43" s="3">
-        <v>2177200</v>
+        <v>2283800</v>
       </c>
       <c r="I43" s="3">
-        <v>2107600</v>
+        <v>2210700</v>
       </c>
       <c r="J43" s="3">
-        <v>2432600</v>
+        <v>2551600</v>
       </c>
       <c r="K43" s="3">
         <v>2042100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58300</v>
+        <v>61200</v>
       </c>
       <c r="E44" s="3">
-        <v>56600</v>
+        <v>59400</v>
       </c>
       <c r="F44" s="3">
-        <v>45200</v>
+        <v>47500</v>
       </c>
       <c r="G44" s="3">
-        <v>63300</v>
+        <v>66400</v>
       </c>
       <c r="H44" s="3">
-        <v>62800</v>
+        <v>65900</v>
       </c>
       <c r="I44" s="3">
-        <v>85400</v>
+        <v>89500</v>
       </c>
       <c r="J44" s="3">
-        <v>77200</v>
+        <v>81000</v>
       </c>
       <c r="K44" s="3">
         <v>89900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1326200</v>
+        <v>1391100</v>
       </c>
       <c r="E45" s="3">
-        <v>1510600</v>
+        <v>1584500</v>
       </c>
       <c r="F45" s="3">
-        <v>1255500</v>
+        <v>1316900</v>
       </c>
       <c r="G45" s="3">
-        <v>1385400</v>
+        <v>1453100</v>
       </c>
       <c r="H45" s="3">
-        <v>3522000</v>
+        <v>3694400</v>
       </c>
       <c r="I45" s="3">
-        <v>12979700</v>
+        <v>13614800</v>
       </c>
       <c r="J45" s="3">
-        <v>829800</v>
+        <v>870400</v>
       </c>
       <c r="K45" s="3">
         <v>1208700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3210000</v>
+        <v>3367100</v>
       </c>
       <c r="E46" s="3">
-        <v>3802300</v>
+        <v>3988400</v>
       </c>
       <c r="F46" s="3">
-        <v>4236600</v>
+        <v>4443900</v>
       </c>
       <c r="G46" s="3">
-        <v>4676200</v>
+        <v>4905000</v>
       </c>
       <c r="H46" s="3">
-        <v>6791200</v>
+        <v>7123500</v>
       </c>
       <c r="I46" s="3">
-        <v>8862200</v>
+        <v>9295800</v>
       </c>
       <c r="J46" s="3">
-        <v>3198600</v>
+        <v>3355100</v>
       </c>
       <c r="K46" s="3">
         <v>4937700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>548200</v>
+        <v>575000</v>
       </c>
       <c r="E47" s="3">
-        <v>141200</v>
+        <v>148100</v>
       </c>
       <c r="F47" s="3">
-        <v>136300</v>
+        <v>143000</v>
       </c>
       <c r="G47" s="3">
-        <v>156000</v>
+        <v>163600</v>
       </c>
       <c r="H47" s="3">
-        <v>195500</v>
+        <v>205000</v>
       </c>
       <c r="I47" s="3">
-        <v>205200</v>
+        <v>215200</v>
       </c>
       <c r="J47" s="3">
-        <v>564800</v>
+        <v>592400</v>
       </c>
       <c r="K47" s="3">
         <v>267300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6941700</v>
+        <v>7281400</v>
       </c>
       <c r="E48" s="3">
-        <v>5071100</v>
+        <v>5319300</v>
       </c>
       <c r="F48" s="3">
-        <v>4814800</v>
+        <v>5050400</v>
       </c>
       <c r="G48" s="3">
-        <v>4621500</v>
+        <v>4847700</v>
       </c>
       <c r="H48" s="3">
-        <v>3762000</v>
+        <v>3946100</v>
       </c>
       <c r="I48" s="3">
-        <v>4147300</v>
+        <v>4350300</v>
       </c>
       <c r="J48" s="3">
-        <v>3587600</v>
+        <v>3763200</v>
       </c>
       <c r="K48" s="3">
         <v>5396700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>713200</v>
+        <v>748100</v>
       </c>
       <c r="E49" s="3">
-        <v>1239600</v>
+        <v>1300300</v>
       </c>
       <c r="F49" s="3">
-        <v>1489800</v>
+        <v>1562700</v>
       </c>
       <c r="G49" s="3">
-        <v>878600</v>
+        <v>921600</v>
       </c>
       <c r="H49" s="3">
-        <v>4129500</v>
+        <v>4331600</v>
       </c>
       <c r="I49" s="3">
-        <v>2967000</v>
+        <v>3112200</v>
       </c>
       <c r="J49" s="3">
-        <v>1288700</v>
+        <v>1351700</v>
       </c>
       <c r="K49" s="3">
         <v>989500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1412400</v>
+        <v>1481500</v>
       </c>
       <c r="E52" s="3">
-        <v>1419800</v>
+        <v>1489300</v>
       </c>
       <c r="F52" s="3">
-        <v>1567800</v>
+        <v>1644500</v>
       </c>
       <c r="G52" s="3">
-        <v>1577800</v>
+        <v>1655100</v>
       </c>
       <c r="H52" s="3">
-        <v>5125900</v>
+        <v>5376700</v>
       </c>
       <c r="I52" s="3">
-        <v>3834200</v>
+        <v>4021800</v>
       </c>
       <c r="J52" s="3">
-        <v>4155700</v>
+        <v>4359100</v>
       </c>
       <c r="K52" s="3">
         <v>4539700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12825500</v>
+        <v>13453100</v>
       </c>
       <c r="E54" s="3">
-        <v>11674100</v>
+        <v>12245400</v>
       </c>
       <c r="F54" s="3">
-        <v>12245200</v>
+        <v>12844400</v>
       </c>
       <c r="G54" s="3">
-        <v>11769400</v>
+        <v>12345400</v>
       </c>
       <c r="H54" s="3">
-        <v>18376600</v>
+        <v>19275800</v>
       </c>
       <c r="I54" s="3">
-        <v>19756300</v>
+        <v>20723000</v>
       </c>
       <c r="J54" s="3">
-        <v>12505100</v>
+        <v>13117100</v>
       </c>
       <c r="K54" s="3">
         <v>16130800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>998000</v>
+        <v>1046800</v>
       </c>
       <c r="E57" s="3">
-        <v>932300</v>
+        <v>977900</v>
       </c>
       <c r="F57" s="3">
-        <v>1360700</v>
+        <v>1427300</v>
       </c>
       <c r="G57" s="3">
-        <v>1173600</v>
+        <v>1231000</v>
       </c>
       <c r="H57" s="3">
-        <v>1791200</v>
+        <v>1878900</v>
       </c>
       <c r="I57" s="3">
-        <v>1551400</v>
+        <v>1627300</v>
       </c>
       <c r="J57" s="3">
-        <v>1688400</v>
+        <v>1771100</v>
       </c>
       <c r="K57" s="3">
         <v>1087900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>327600</v>
+        <v>343700</v>
       </c>
       <c r="E58" s="3">
-        <v>120000</v>
+        <v>125900</v>
       </c>
       <c r="F58" s="3">
-        <v>9725500</v>
+        <v>10201400</v>
       </c>
       <c r="G58" s="3">
-        <v>8578600</v>
+        <v>8998400</v>
       </c>
       <c r="H58" s="3">
-        <v>4213700</v>
+        <v>4419900</v>
       </c>
       <c r="I58" s="3">
-        <v>1592700</v>
+        <v>1670600</v>
       </c>
       <c r="J58" s="3">
-        <v>1483800</v>
+        <v>1556400</v>
       </c>
       <c r="K58" s="3">
         <v>727100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>785900</v>
+        <v>824400</v>
       </c>
       <c r="E59" s="3">
-        <v>854700</v>
+        <v>896500</v>
       </c>
       <c r="F59" s="3">
-        <v>1025700</v>
+        <v>1075800</v>
       </c>
       <c r="G59" s="3">
-        <v>1181200</v>
+        <v>1239000</v>
       </c>
       <c r="H59" s="3">
-        <v>2502700</v>
+        <v>2625200</v>
       </c>
       <c r="I59" s="3">
-        <v>7069200</v>
+        <v>7415200</v>
       </c>
       <c r="J59" s="3">
-        <v>2258300</v>
+        <v>2368800</v>
       </c>
       <c r="K59" s="3">
         <v>2177300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2111500</v>
+        <v>2214900</v>
       </c>
       <c r="E60" s="3">
-        <v>1907000</v>
+        <v>2000300</v>
       </c>
       <c r="F60" s="3">
-        <v>12111900</v>
+        <v>12704600</v>
       </c>
       <c r="G60" s="3">
-        <v>10933400</v>
+        <v>11468400</v>
       </c>
       <c r="H60" s="3">
-        <v>4562400</v>
+        <v>4785700</v>
       </c>
       <c r="I60" s="3">
-        <v>7596300</v>
+        <v>7968000</v>
       </c>
       <c r="J60" s="3">
-        <v>2772400</v>
+        <v>2908100</v>
       </c>
       <c r="K60" s="3">
         <v>3992400</v>
@@ -2276,10 +2276,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4378000</v>
+        <v>4592200</v>
       </c>
       <c r="E61" s="3">
-        <v>2814600</v>
+        <v>2952400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>8571700</v>
+        <v>8991200</v>
       </c>
       <c r="I61" s="3">
-        <v>5599200</v>
+        <v>5873200</v>
       </c>
       <c r="J61" s="3">
-        <v>5654400</v>
+        <v>5931100</v>
       </c>
       <c r="K61" s="3">
         <v>7059900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3161100</v>
+        <v>3315800</v>
       </c>
       <c r="E62" s="3">
-        <v>2867900</v>
+        <v>3008200</v>
       </c>
       <c r="F62" s="3">
-        <v>2544000</v>
+        <v>2668500</v>
       </c>
       <c r="G62" s="3">
-        <v>2025200</v>
+        <v>2124300</v>
       </c>
       <c r="H62" s="3">
-        <v>3016000</v>
+        <v>3163600</v>
       </c>
       <c r="I62" s="3">
-        <v>3196000</v>
+        <v>3352400</v>
       </c>
       <c r="J62" s="3">
-        <v>3781000</v>
+        <v>3966000</v>
       </c>
       <c r="K62" s="3">
         <v>2436000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9676700</v>
+        <v>10150200</v>
       </c>
       <c r="E66" s="3">
-        <v>7632900</v>
+        <v>8006400</v>
       </c>
       <c r="F66" s="3">
-        <v>14708200</v>
+        <v>15427900</v>
       </c>
       <c r="G66" s="3">
-        <v>13099700</v>
+        <v>13740800</v>
       </c>
       <c r="H66" s="3">
-        <v>14949800</v>
+        <v>15681300</v>
       </c>
       <c r="I66" s="3">
-        <v>15181400</v>
+        <v>15924300</v>
       </c>
       <c r="J66" s="3">
-        <v>10449200</v>
+        <v>10960600</v>
       </c>
       <c r="K66" s="3">
         <v>13488200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2471300</v>
+        <v>-2592200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1076100</v>
+        <v>-1128800</v>
       </c>
       <c r="F72" s="3">
-        <v>-5195900</v>
+        <v>-5450100</v>
       </c>
       <c r="G72" s="3">
-        <v>-4060400</v>
+        <v>-4259000</v>
       </c>
       <c r="H72" s="3">
-        <v>589600</v>
+        <v>618500</v>
       </c>
       <c r="I72" s="3">
-        <v>-377200</v>
+        <v>-395600</v>
       </c>
       <c r="J72" s="3">
-        <v>1533200</v>
+        <v>1608300</v>
       </c>
       <c r="K72" s="3">
         <v>1406900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3148800</v>
+        <v>3302900</v>
       </c>
       <c r="E76" s="3">
-        <v>4041200</v>
+        <v>4238900</v>
       </c>
       <c r="F76" s="3">
-        <v>-2463000</v>
+        <v>-2583500</v>
       </c>
       <c r="G76" s="3">
-        <v>-1330300</v>
+        <v>-1395400</v>
       </c>
       <c r="H76" s="3">
-        <v>3426800</v>
+        <v>3594500</v>
       </c>
       <c r="I76" s="3">
-        <v>4574900</v>
+        <v>4798700</v>
       </c>
       <c r="J76" s="3">
-        <v>2055900</v>
+        <v>2156500</v>
       </c>
       <c r="K76" s="3">
         <v>3134000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1605700</v>
+        <v>-1684300</v>
       </c>
       <c r="E81" s="3">
-        <v>4387100</v>
+        <v>4601700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1135500</v>
+        <v>-1191100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1432200</v>
+        <v>-1502300</v>
       </c>
       <c r="H81" s="3">
-        <v>-922100</v>
+        <v>-967200</v>
       </c>
       <c r="I81" s="3">
-        <v>-853100</v>
+        <v>-894800</v>
       </c>
       <c r="J81" s="3">
-        <v>107800</v>
+        <v>113100</v>
       </c>
       <c r="K81" s="3">
         <v>416800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1226300</v>
+        <v>1286300</v>
       </c>
       <c r="E83" s="3">
-        <v>1036700</v>
+        <v>1087400</v>
       </c>
       <c r="F83" s="3">
-        <v>911500</v>
+        <v>956100</v>
       </c>
       <c r="G83" s="3">
-        <v>978300</v>
+        <v>1026100</v>
       </c>
       <c r="H83" s="3">
-        <v>1105200</v>
+        <v>1159300</v>
       </c>
       <c r="I83" s="3">
-        <v>1028800</v>
+        <v>1079100</v>
       </c>
       <c r="J83" s="3">
-        <v>1015400</v>
+        <v>1065100</v>
       </c>
       <c r="K83" s="3">
         <v>753800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>412400</v>
+        <v>432600</v>
       </c>
       <c r="E89" s="3">
-        <v>510700</v>
+        <v>535700</v>
       </c>
       <c r="F89" s="3">
-        <v>785300</v>
+        <v>823700</v>
       </c>
       <c r="G89" s="3">
-        <v>553100</v>
+        <v>580200</v>
       </c>
       <c r="H89" s="3">
-        <v>-188000</v>
+        <v>-197200</v>
       </c>
       <c r="I89" s="3">
-        <v>986700</v>
+        <v>1034900</v>
       </c>
       <c r="J89" s="3">
-        <v>1255100</v>
+        <v>1316500</v>
       </c>
       <c r="K89" s="3">
         <v>901100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1324700</v>
+        <v>-1389500</v>
       </c>
       <c r="E91" s="3">
-        <v>-935900</v>
+        <v>-981700</v>
       </c>
       <c r="F91" s="3">
-        <v>-775000</v>
+        <v>-812900</v>
       </c>
       <c r="G91" s="3">
-        <v>-582200</v>
+        <v>-610700</v>
       </c>
       <c r="H91" s="3">
-        <v>-656800</v>
+        <v>-688900</v>
       </c>
       <c r="I91" s="3">
-        <v>-958100</v>
+        <v>-1005000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1066200</v>
+        <v>-1118400</v>
       </c>
       <c r="K91" s="3">
         <v>-1244600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1222200</v>
+        <v>-1282000</v>
       </c>
       <c r="E94" s="3">
-        <v>-877200</v>
+        <v>-920100</v>
       </c>
       <c r="F94" s="3">
-        <v>-788800</v>
+        <v>-827400</v>
       </c>
       <c r="G94" s="3">
-        <v>-698900</v>
+        <v>-733100</v>
       </c>
       <c r="H94" s="3">
-        <v>2237700</v>
+        <v>2347200</v>
       </c>
       <c r="I94" s="3">
-        <v>-767600</v>
+        <v>-805200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1207800</v>
+        <v>-1266900</v>
       </c>
       <c r="K94" s="3">
         <v>-1503700</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
-        <v>-6700</v>
+        <v>-7100</v>
       </c>
       <c r="H96" s="3">
-        <v>-10300</v>
+        <v>-10800</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J96" s="3">
-        <v>-228400</v>
+        <v>-239600</v>
       </c>
       <c r="K96" s="3">
         <v>-561700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>398800</v>
+        <v>418400</v>
       </c>
       <c r="E100" s="3">
-        <v>-75700</v>
+        <v>-79400</v>
       </c>
       <c r="F100" s="3">
-        <v>-123400</v>
+        <v>-129500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1091700</v>
+        <v>-1145100</v>
       </c>
       <c r="H100" s="3">
-        <v>-420400</v>
+        <v>-441000</v>
       </c>
       <c r="I100" s="3">
-        <v>-209500</v>
+        <v>-219800</v>
       </c>
       <c r="J100" s="3">
-        <v>-410100</v>
+        <v>-430200</v>
       </c>
       <c r="K100" s="3">
         <v>227600</v>
@@ -3469,19 +3469,19 @@
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>-71100</v>
+        <v>-74600</v>
       </c>
       <c r="H101" s="3">
-        <v>591600</v>
+        <v>620600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J101" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-410900</v>
+        <v>-431000</v>
       </c>
       <c r="E102" s="3">
-        <v>-442000</v>
+        <v>-463600</v>
       </c>
       <c r="F102" s="3">
-        <v>-125000</v>
+        <v>-131100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1308500</v>
+        <v>-1372600</v>
       </c>
       <c r="H102" s="3">
-        <v>2220900</v>
+        <v>2329600</v>
       </c>
       <c r="I102" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="J102" s="3">
-        <v>-353800</v>
+        <v>-371100</v>
       </c>
       <c r="K102" s="3">
         <v>-371600</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3768100</v>
+        <v>3565500</v>
       </c>
       <c r="E8" s="3">
-        <v>4128100</v>
+        <v>3906200</v>
       </c>
       <c r="F8" s="3">
-        <v>4451800</v>
+        <v>4212400</v>
       </c>
       <c r="G8" s="3">
-        <v>4864700</v>
+        <v>4603200</v>
       </c>
       <c r="H8" s="3">
-        <v>5118700</v>
+        <v>4843500</v>
       </c>
       <c r="I8" s="3">
-        <v>5285900</v>
+        <v>5001700</v>
       </c>
       <c r="J8" s="3">
-        <v>5318600</v>
+        <v>5032700</v>
       </c>
       <c r="K8" s="3">
         <v>5877500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2865900</v>
+        <v>2711800</v>
       </c>
       <c r="E9" s="3">
-        <v>3027600</v>
+        <v>2864800</v>
       </c>
       <c r="F9" s="3">
-        <v>2804400</v>
+        <v>2653600</v>
       </c>
       <c r="G9" s="3">
-        <v>2997000</v>
+        <v>2835900</v>
       </c>
       <c r="H9" s="3">
-        <v>5971800</v>
+        <v>5650800</v>
       </c>
       <c r="I9" s="3">
-        <v>5892100</v>
+        <v>5575400</v>
       </c>
       <c r="J9" s="3">
-        <v>8792300</v>
+        <v>8319700</v>
       </c>
       <c r="K9" s="3">
         <v>2959500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>902200</v>
+        <v>853700</v>
       </c>
       <c r="E10" s="3">
-        <v>1100500</v>
+        <v>1041300</v>
       </c>
       <c r="F10" s="3">
-        <v>1647400</v>
+        <v>1558800</v>
       </c>
       <c r="G10" s="3">
-        <v>1867700</v>
+        <v>1767300</v>
       </c>
       <c r="H10" s="3">
-        <v>-853100</v>
+        <v>-807200</v>
       </c>
       <c r="I10" s="3">
-        <v>-606200</v>
+        <v>-573700</v>
       </c>
       <c r="J10" s="3">
-        <v>-3473700</v>
+        <v>-3287000</v>
       </c>
       <c r="K10" s="3">
         <v>2918100</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-2068700</v>
+        <v>-1957500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-267200</v>
+        <v>-252900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4325200</v>
+        <v>4092700</v>
       </c>
       <c r="E17" s="3">
-        <v>3045300</v>
+        <v>2881500</v>
       </c>
       <c r="F17" s="3">
-        <v>4893600</v>
+        <v>4630500</v>
       </c>
       <c r="G17" s="3">
-        <v>5125100</v>
+        <v>4849500</v>
       </c>
       <c r="H17" s="3">
-        <v>4679200</v>
+        <v>4427700</v>
       </c>
       <c r="I17" s="3">
-        <v>4422600</v>
+        <v>4184900</v>
       </c>
       <c r="J17" s="3">
-        <v>4573300</v>
+        <v>4327400</v>
       </c>
       <c r="K17" s="3">
         <v>4765900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-557200</v>
+        <v>-527200</v>
       </c>
       <c r="E18" s="3">
-        <v>1082800</v>
+        <v>1024600</v>
       </c>
       <c r="F18" s="3">
-        <v>-441800</v>
+        <v>-418100</v>
       </c>
       <c r="G18" s="3">
-        <v>-260300</v>
+        <v>-246400</v>
       </c>
       <c r="H18" s="3">
-        <v>439500</v>
+        <v>415800</v>
       </c>
       <c r="I18" s="3">
-        <v>863300</v>
+        <v>816900</v>
       </c>
       <c r="J18" s="3">
-        <v>745300</v>
+        <v>705300</v>
       </c>
       <c r="K18" s="3">
         <v>1111600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-840600</v>
+        <v>-795400</v>
       </c>
       <c r="E20" s="3">
-        <v>2910600</v>
+        <v>2754200</v>
       </c>
       <c r="F20" s="3">
-        <v>74400</v>
+        <v>70400</v>
       </c>
       <c r="G20" s="3">
-        <v>-28400</v>
+        <v>-26900</v>
       </c>
       <c r="H20" s="3">
-        <v>-56600</v>
+        <v>-53500</v>
       </c>
       <c r="I20" s="3">
-        <v>125000</v>
+        <v>118300</v>
       </c>
       <c r="J20" s="3">
-        <v>331900</v>
+        <v>314000</v>
       </c>
       <c r="K20" s="3">
         <v>-34900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-109600</v>
+        <v>-99600</v>
       </c>
       <c r="E21" s="3">
-        <v>5082400</v>
+        <v>4812600</v>
       </c>
       <c r="F21" s="3">
-        <v>590100</v>
+        <v>561400</v>
       </c>
       <c r="G21" s="3">
-        <v>738800</v>
+        <v>702300</v>
       </c>
       <c r="H21" s="3">
-        <v>1543800</v>
+        <v>1464500</v>
       </c>
       <c r="I21" s="3">
-        <v>2068900</v>
+        <v>1961100</v>
       </c>
       <c r="J21" s="3">
-        <v>2143800</v>
+        <v>2031900</v>
       </c>
       <c r="K21" s="3">
         <v>1838900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>302700</v>
+        <v>286500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>672600</v>
+        <v>636400</v>
       </c>
       <c r="G22" s="3">
-        <v>661800</v>
+        <v>626300</v>
       </c>
       <c r="H22" s="3">
-        <v>1515900</v>
+        <v>1434400</v>
       </c>
       <c r="I22" s="3">
-        <v>976200</v>
+        <v>923800</v>
       </c>
       <c r="J22" s="3">
-        <v>949800</v>
+        <v>898700</v>
       </c>
       <c r="K22" s="3">
         <v>482500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1700500</v>
+        <v>-1609100</v>
       </c>
       <c r="E23" s="3">
-        <v>3993500</v>
+        <v>3778800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1040000</v>
+        <v>-984100</v>
       </c>
       <c r="G23" s="3">
-        <v>-950600</v>
+        <v>-899500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1133000</v>
+        <v>-1072100</v>
       </c>
       <c r="I23" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="J23" s="3">
-        <v>127400</v>
+        <v>120600</v>
       </c>
       <c r="K23" s="3">
         <v>594200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
-        <v>-612800</v>
+        <v>-579900</v>
       </c>
       <c r="F24" s="3">
-        <v>205600</v>
+        <v>194500</v>
       </c>
       <c r="G24" s="3">
-        <v>584900</v>
+        <v>553500</v>
       </c>
       <c r="H24" s="3">
-        <v>111300</v>
+        <v>105300</v>
       </c>
       <c r="I24" s="3">
-        <v>141900</v>
+        <v>134300</v>
       </c>
       <c r="J24" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="K24" s="3">
         <v>177400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1702000</v>
+        <v>-1610500</v>
       </c>
       <c r="E26" s="3">
-        <v>4606300</v>
+        <v>4358700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1245600</v>
+        <v>-1178600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1535500</v>
+        <v>-1453000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1244300</v>
+        <v>-1177400</v>
       </c>
       <c r="I26" s="3">
-        <v>-129900</v>
+        <v>-122900</v>
       </c>
       <c r="J26" s="3">
-        <v>113100</v>
+        <v>107000</v>
       </c>
       <c r="K26" s="3">
         <v>416800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1684300</v>
+        <v>-1593700</v>
       </c>
       <c r="E27" s="3">
-        <v>4601700</v>
+        <v>4354400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1191100</v>
+        <v>-1127100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1502300</v>
+        <v>-1421500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1167100</v>
+        <v>-1104300</v>
       </c>
       <c r="I27" s="3">
-        <v>-130100</v>
+        <v>-123100</v>
       </c>
       <c r="J27" s="3">
-        <v>113100</v>
+        <v>107000</v>
       </c>
       <c r="K27" s="3">
         <v>416800</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>199900</v>
+        <v>189100</v>
       </c>
       <c r="I29" s="3">
-        <v>-764700</v>
+        <v>-723600</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>840600</v>
+        <v>795400</v>
       </c>
       <c r="E32" s="3">
-        <v>-2910600</v>
+        <v>-2754200</v>
       </c>
       <c r="F32" s="3">
-        <v>-74400</v>
+        <v>-70400</v>
       </c>
       <c r="G32" s="3">
-        <v>28400</v>
+        <v>26900</v>
       </c>
       <c r="H32" s="3">
-        <v>56600</v>
+        <v>53500</v>
       </c>
       <c r="I32" s="3">
-        <v>-125000</v>
+        <v>-118300</v>
       </c>
       <c r="J32" s="3">
-        <v>-331900</v>
+        <v>-314000</v>
       </c>
       <c r="K32" s="3">
         <v>34900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1684300</v>
+        <v>-1593700</v>
       </c>
       <c r="E33" s="3">
-        <v>4601700</v>
+        <v>4354400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1191100</v>
+        <v>-1127100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1502300</v>
+        <v>-1421500</v>
       </c>
       <c r="H33" s="3">
-        <v>-967200</v>
+        <v>-915200</v>
       </c>
       <c r="I33" s="3">
-        <v>-894800</v>
+        <v>-846700</v>
       </c>
       <c r="J33" s="3">
-        <v>113100</v>
+        <v>107000</v>
       </c>
       <c r="K33" s="3">
         <v>416800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1684300</v>
+        <v>-1593700</v>
       </c>
       <c r="E35" s="3">
-        <v>4601700</v>
+        <v>4354400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1191100</v>
+        <v>-1127100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1502300</v>
+        <v>-1421500</v>
       </c>
       <c r="H35" s="3">
-        <v>-967200</v>
+        <v>-915200</v>
       </c>
       <c r="I35" s="3">
-        <v>-894800</v>
+        <v>-846700</v>
       </c>
       <c r="J35" s="3">
-        <v>113100</v>
+        <v>107000</v>
       </c>
       <c r="K35" s="3">
         <v>416800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>389600</v>
+        <v>368700</v>
       </c>
       <c r="E41" s="3">
-        <v>820600</v>
+        <v>776500</v>
       </c>
       <c r="F41" s="3">
-        <v>1284200</v>
+        <v>1215200</v>
       </c>
       <c r="G41" s="3">
-        <v>1415300</v>
+        <v>1339200</v>
       </c>
       <c r="H41" s="3">
-        <v>2787900</v>
+        <v>2638000</v>
       </c>
       <c r="I41" s="3">
-        <v>458300</v>
+        <v>433700</v>
       </c>
       <c r="J41" s="3">
-        <v>453800</v>
+        <v>429400</v>
       </c>
       <c r="K41" s="3">
         <v>1030500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34400</v>
+        <v>32600</v>
       </c>
       <c r="E42" s="3">
-        <v>37800</v>
+        <v>35800</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G42" s="3">
-        <v>21800</v>
+        <v>20600</v>
       </c>
       <c r="H42" s="3">
-        <v>674300</v>
+        <v>638100</v>
       </c>
       <c r="I42" s="3">
-        <v>64200</v>
+        <v>60700</v>
       </c>
       <c r="J42" s="3">
-        <v>516600</v>
+        <v>488800</v>
       </c>
       <c r="K42" s="3">
         <v>566500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1490800</v>
+        <v>1410700</v>
       </c>
       <c r="E43" s="3">
-        <v>1486000</v>
+        <v>1406100</v>
       </c>
       <c r="F43" s="3">
-        <v>1791300</v>
+        <v>1695000</v>
       </c>
       <c r="G43" s="3">
-        <v>1948300</v>
+        <v>1843600</v>
       </c>
       <c r="H43" s="3">
-        <v>2283800</v>
+        <v>2161000</v>
       </c>
       <c r="I43" s="3">
-        <v>2210700</v>
+        <v>2091900</v>
       </c>
       <c r="J43" s="3">
-        <v>2551600</v>
+        <v>2414400</v>
       </c>
       <c r="K43" s="3">
         <v>2042100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61200</v>
+        <v>57900</v>
       </c>
       <c r="E44" s="3">
-        <v>59400</v>
+        <v>56200</v>
       </c>
       <c r="F44" s="3">
-        <v>47500</v>
+        <v>44900</v>
       </c>
       <c r="G44" s="3">
-        <v>66400</v>
+        <v>62900</v>
       </c>
       <c r="H44" s="3">
-        <v>65900</v>
+        <v>62300</v>
       </c>
       <c r="I44" s="3">
-        <v>89500</v>
+        <v>84700</v>
       </c>
       <c r="J44" s="3">
-        <v>81000</v>
+        <v>76600</v>
       </c>
       <c r="K44" s="3">
         <v>89900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1391100</v>
+        <v>1316300</v>
       </c>
       <c r="E45" s="3">
-        <v>1584500</v>
+        <v>1499400</v>
       </c>
       <c r="F45" s="3">
-        <v>1316900</v>
+        <v>1246100</v>
       </c>
       <c r="G45" s="3">
-        <v>1453100</v>
+        <v>1375000</v>
       </c>
       <c r="H45" s="3">
-        <v>3694400</v>
+        <v>3495800</v>
       </c>
       <c r="I45" s="3">
-        <v>13614800</v>
+        <v>12882900</v>
       </c>
       <c r="J45" s="3">
-        <v>870400</v>
+        <v>823600</v>
       </c>
       <c r="K45" s="3">
         <v>1208700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3367100</v>
+        <v>3186100</v>
       </c>
       <c r="E46" s="3">
-        <v>3988400</v>
+        <v>3774000</v>
       </c>
       <c r="F46" s="3">
-        <v>4443900</v>
+        <v>4205000</v>
       </c>
       <c r="G46" s="3">
-        <v>4905000</v>
+        <v>4641300</v>
       </c>
       <c r="H46" s="3">
-        <v>7123500</v>
+        <v>6740500</v>
       </c>
       <c r="I46" s="3">
-        <v>9295800</v>
+        <v>8796100</v>
       </c>
       <c r="J46" s="3">
-        <v>3355100</v>
+        <v>3174700</v>
       </c>
       <c r="K46" s="3">
         <v>4937700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>575000</v>
+        <v>544100</v>
       </c>
       <c r="E47" s="3">
-        <v>148100</v>
+        <v>140200</v>
       </c>
       <c r="F47" s="3">
-        <v>143000</v>
+        <v>135300</v>
       </c>
       <c r="G47" s="3">
-        <v>163600</v>
+        <v>154800</v>
       </c>
       <c r="H47" s="3">
-        <v>205000</v>
+        <v>194000</v>
       </c>
       <c r="I47" s="3">
-        <v>215200</v>
+        <v>203600</v>
       </c>
       <c r="J47" s="3">
-        <v>592400</v>
+        <v>560500</v>
       </c>
       <c r="K47" s="3">
         <v>267300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7281400</v>
+        <v>6889900</v>
       </c>
       <c r="E48" s="3">
-        <v>5319300</v>
+        <v>5033300</v>
       </c>
       <c r="F48" s="3">
-        <v>5050400</v>
+        <v>4778900</v>
       </c>
       <c r="G48" s="3">
-        <v>4847700</v>
+        <v>4587100</v>
       </c>
       <c r="H48" s="3">
-        <v>3946100</v>
+        <v>3733900</v>
       </c>
       <c r="I48" s="3">
-        <v>4350300</v>
+        <v>4116400</v>
       </c>
       <c r="J48" s="3">
-        <v>3763200</v>
+        <v>3560900</v>
       </c>
       <c r="K48" s="3">
         <v>5396700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>748100</v>
+        <v>707900</v>
       </c>
       <c r="E49" s="3">
-        <v>1300300</v>
+        <v>1230400</v>
       </c>
       <c r="F49" s="3">
-        <v>1562700</v>
+        <v>1478700</v>
       </c>
       <c r="G49" s="3">
-        <v>921600</v>
+        <v>872000</v>
       </c>
       <c r="H49" s="3">
-        <v>4331600</v>
+        <v>4098700</v>
       </c>
       <c r="I49" s="3">
-        <v>3112200</v>
+        <v>2944900</v>
       </c>
       <c r="J49" s="3">
-        <v>1351700</v>
+        <v>1279100</v>
       </c>
       <c r="K49" s="3">
         <v>989500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1481500</v>
+        <v>1401900</v>
       </c>
       <c r="E52" s="3">
-        <v>1489300</v>
+        <v>1409200</v>
       </c>
       <c r="F52" s="3">
-        <v>1644500</v>
+        <v>1556100</v>
       </c>
       <c r="G52" s="3">
-        <v>1655100</v>
+        <v>1566100</v>
       </c>
       <c r="H52" s="3">
-        <v>5376700</v>
+        <v>5087700</v>
       </c>
       <c r="I52" s="3">
-        <v>4021800</v>
+        <v>3805600</v>
       </c>
       <c r="J52" s="3">
-        <v>4359100</v>
+        <v>4124700</v>
       </c>
       <c r="K52" s="3">
         <v>4539700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13453100</v>
+        <v>12729900</v>
       </c>
       <c r="E54" s="3">
-        <v>12245400</v>
+        <v>11587100</v>
       </c>
       <c r="F54" s="3">
-        <v>12844400</v>
+        <v>12153900</v>
       </c>
       <c r="G54" s="3">
-        <v>12345400</v>
+        <v>11681700</v>
       </c>
       <c r="H54" s="3">
-        <v>19275800</v>
+        <v>18239600</v>
       </c>
       <c r="I54" s="3">
-        <v>20723000</v>
+        <v>19609000</v>
       </c>
       <c r="J54" s="3">
-        <v>13117100</v>
+        <v>12411900</v>
       </c>
       <c r="K54" s="3">
         <v>16130800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1046800</v>
+        <v>990500</v>
       </c>
       <c r="E57" s="3">
-        <v>977900</v>
+        <v>925300</v>
       </c>
       <c r="F57" s="3">
-        <v>1427300</v>
+        <v>1350500</v>
       </c>
       <c r="G57" s="3">
-        <v>1231000</v>
+        <v>1164800</v>
       </c>
       <c r="H57" s="3">
-        <v>1878900</v>
+        <v>1777900</v>
       </c>
       <c r="I57" s="3">
-        <v>1627300</v>
+        <v>1539900</v>
       </c>
       <c r="J57" s="3">
-        <v>1771100</v>
+        <v>1675900</v>
       </c>
       <c r="K57" s="3">
         <v>1087900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>343700</v>
+        <v>325200</v>
       </c>
       <c r="E58" s="3">
-        <v>125900</v>
+        <v>119100</v>
       </c>
       <c r="F58" s="3">
-        <v>10201400</v>
+        <v>9653000</v>
       </c>
       <c r="G58" s="3">
-        <v>8998400</v>
+        <v>8514600</v>
       </c>
       <c r="H58" s="3">
-        <v>4419900</v>
+        <v>4182300</v>
       </c>
       <c r="I58" s="3">
-        <v>1670600</v>
+        <v>1580800</v>
       </c>
       <c r="J58" s="3">
-        <v>1556400</v>
+        <v>1472800</v>
       </c>
       <c r="K58" s="3">
         <v>727100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>824400</v>
+        <v>780100</v>
       </c>
       <c r="E59" s="3">
-        <v>896500</v>
+        <v>848300</v>
       </c>
       <c r="F59" s="3">
-        <v>1075800</v>
+        <v>1018000</v>
       </c>
       <c r="G59" s="3">
-        <v>1239000</v>
+        <v>1172400</v>
       </c>
       <c r="H59" s="3">
-        <v>2625200</v>
+        <v>2484000</v>
       </c>
       <c r="I59" s="3">
-        <v>7415200</v>
+        <v>7016500</v>
       </c>
       <c r="J59" s="3">
-        <v>2368800</v>
+        <v>2241500</v>
       </c>
       <c r="K59" s="3">
         <v>2177300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2214900</v>
+        <v>2095800</v>
       </c>
       <c r="E60" s="3">
-        <v>2000300</v>
+        <v>1892800</v>
       </c>
       <c r="F60" s="3">
-        <v>12704600</v>
+        <v>12021600</v>
       </c>
       <c r="G60" s="3">
-        <v>11468400</v>
+        <v>10851900</v>
       </c>
       <c r="H60" s="3">
-        <v>4785700</v>
+        <v>4528400</v>
       </c>
       <c r="I60" s="3">
-        <v>7968000</v>
+        <v>7539600</v>
       </c>
       <c r="J60" s="3">
-        <v>2908100</v>
+        <v>2751700</v>
       </c>
       <c r="K60" s="3">
         <v>3992400</v>
@@ -2276,10 +2276,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4592200</v>
+        <v>4345300</v>
       </c>
       <c r="E61" s="3">
-        <v>2952400</v>
+        <v>2793600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>8991200</v>
+        <v>8507800</v>
       </c>
       <c r="I61" s="3">
-        <v>5873200</v>
+        <v>5557500</v>
       </c>
       <c r="J61" s="3">
-        <v>5931100</v>
+        <v>5612200</v>
       </c>
       <c r="K61" s="3">
         <v>7059900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3315800</v>
+        <v>3137500</v>
       </c>
       <c r="E62" s="3">
-        <v>3008200</v>
+        <v>2846500</v>
       </c>
       <c r="F62" s="3">
-        <v>2668500</v>
+        <v>2525000</v>
       </c>
       <c r="G62" s="3">
-        <v>2124300</v>
+        <v>2010100</v>
       </c>
       <c r="H62" s="3">
-        <v>3163600</v>
+        <v>2993500</v>
       </c>
       <c r="I62" s="3">
-        <v>3352400</v>
+        <v>3172100</v>
       </c>
       <c r="J62" s="3">
-        <v>3966000</v>
+        <v>3752800</v>
       </c>
       <c r="K62" s="3">
         <v>2436000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10150200</v>
+        <v>9604500</v>
       </c>
       <c r="E66" s="3">
-        <v>8006400</v>
+        <v>7576000</v>
       </c>
       <c r="F66" s="3">
-        <v>15427900</v>
+        <v>14598500</v>
       </c>
       <c r="G66" s="3">
-        <v>13740800</v>
+        <v>13002100</v>
       </c>
       <c r="H66" s="3">
-        <v>15681300</v>
+        <v>14838300</v>
       </c>
       <c r="I66" s="3">
-        <v>15924300</v>
+        <v>15068200</v>
       </c>
       <c r="J66" s="3">
-        <v>10960600</v>
+        <v>10371300</v>
       </c>
       <c r="K66" s="3">
         <v>13488200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2592200</v>
+        <v>-2452900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1128800</v>
+        <v>-1068100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5450100</v>
+        <v>-5157100</v>
       </c>
       <c r="G72" s="3">
-        <v>-4259000</v>
+        <v>-4030100</v>
       </c>
       <c r="H72" s="3">
-        <v>618500</v>
+        <v>585200</v>
       </c>
       <c r="I72" s="3">
-        <v>-395600</v>
+        <v>-374400</v>
       </c>
       <c r="J72" s="3">
-        <v>1608300</v>
+        <v>1521800</v>
       </c>
       <c r="K72" s="3">
         <v>1406900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3302900</v>
+        <v>3125300</v>
       </c>
       <c r="E76" s="3">
-        <v>4238900</v>
+        <v>4011000</v>
       </c>
       <c r="F76" s="3">
-        <v>-2583500</v>
+        <v>-2444600</v>
       </c>
       <c r="G76" s="3">
-        <v>-1395400</v>
+        <v>-1320400</v>
       </c>
       <c r="H76" s="3">
-        <v>3594500</v>
+        <v>3401200</v>
       </c>
       <c r="I76" s="3">
-        <v>4798700</v>
+        <v>4540800</v>
       </c>
       <c r="J76" s="3">
-        <v>2156500</v>
+        <v>2040600</v>
       </c>
       <c r="K76" s="3">
         <v>3134000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1684300</v>
+        <v>-1593700</v>
       </c>
       <c r="E81" s="3">
-        <v>4601700</v>
+        <v>4354400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1191100</v>
+        <v>-1127100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1502300</v>
+        <v>-1421500</v>
       </c>
       <c r="H81" s="3">
-        <v>-967200</v>
+        <v>-915200</v>
       </c>
       <c r="I81" s="3">
-        <v>-894800</v>
+        <v>-846700</v>
       </c>
       <c r="J81" s="3">
-        <v>113100</v>
+        <v>107000</v>
       </c>
       <c r="K81" s="3">
         <v>416800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1286300</v>
+        <v>1217200</v>
       </c>
       <c r="E83" s="3">
-        <v>1087400</v>
+        <v>1029000</v>
       </c>
       <c r="F83" s="3">
-        <v>956100</v>
+        <v>904700</v>
       </c>
       <c r="G83" s="3">
-        <v>1026100</v>
+        <v>971000</v>
       </c>
       <c r="H83" s="3">
-        <v>1159300</v>
+        <v>1097000</v>
       </c>
       <c r="I83" s="3">
-        <v>1079100</v>
+        <v>1021100</v>
       </c>
       <c r="J83" s="3">
-        <v>1065100</v>
+        <v>1007900</v>
       </c>
       <c r="K83" s="3">
         <v>753800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>432600</v>
+        <v>409300</v>
       </c>
       <c r="E89" s="3">
-        <v>535700</v>
+        <v>506900</v>
       </c>
       <c r="F89" s="3">
-        <v>823700</v>
+        <v>779400</v>
       </c>
       <c r="G89" s="3">
-        <v>580200</v>
+        <v>549000</v>
       </c>
       <c r="H89" s="3">
-        <v>-197200</v>
+        <v>-186600</v>
       </c>
       <c r="I89" s="3">
-        <v>1034900</v>
+        <v>979300</v>
       </c>
       <c r="J89" s="3">
-        <v>1316500</v>
+        <v>1245700</v>
       </c>
       <c r="K89" s="3">
         <v>901100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1389500</v>
+        <v>-1314800</v>
       </c>
       <c r="E91" s="3">
-        <v>-981700</v>
+        <v>-929000</v>
       </c>
       <c r="F91" s="3">
-        <v>-812900</v>
+        <v>-769200</v>
       </c>
       <c r="G91" s="3">
-        <v>-610700</v>
+        <v>-577900</v>
       </c>
       <c r="H91" s="3">
-        <v>-688900</v>
+        <v>-651900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1005000</v>
+        <v>-950900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1118400</v>
+        <v>-1058300</v>
       </c>
       <c r="K91" s="3">
         <v>-1244600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1282000</v>
+        <v>-1213000</v>
       </c>
       <c r="E94" s="3">
-        <v>-920100</v>
+        <v>-870600</v>
       </c>
       <c r="F94" s="3">
-        <v>-827400</v>
+        <v>-782900</v>
       </c>
       <c r="G94" s="3">
-        <v>-733100</v>
+        <v>-693700</v>
       </c>
       <c r="H94" s="3">
-        <v>2347200</v>
+        <v>2221000</v>
       </c>
       <c r="I94" s="3">
-        <v>-805200</v>
+        <v>-761900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1266900</v>
+        <v>-1198800</v>
       </c>
       <c r="K94" s="3">
         <v>-1503700</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11100</v>
+        <v>-10500</v>
       </c>
       <c r="G96" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="H96" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>-239600</v>
+        <v>-226700</v>
       </c>
       <c r="K96" s="3">
         <v>-561700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>418400</v>
+        <v>395900</v>
       </c>
       <c r="E100" s="3">
-        <v>-79400</v>
+        <v>-75100</v>
       </c>
       <c r="F100" s="3">
-        <v>-129500</v>
+        <v>-122500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1145100</v>
+        <v>-1083500</v>
       </c>
       <c r="H100" s="3">
-        <v>-441000</v>
+        <v>-417300</v>
       </c>
       <c r="I100" s="3">
-        <v>-219800</v>
+        <v>-208000</v>
       </c>
       <c r="J100" s="3">
-        <v>-430200</v>
+        <v>-407000</v>
       </c>
       <c r="K100" s="3">
         <v>227600</v>
@@ -3469,19 +3469,19 @@
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-74600</v>
+        <v>-70600</v>
       </c>
       <c r="H101" s="3">
-        <v>620600</v>
+        <v>587200</v>
       </c>
       <c r="I101" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-431000</v>
+        <v>-407900</v>
       </c>
       <c r="E102" s="3">
-        <v>-463600</v>
+        <v>-438700</v>
       </c>
       <c r="F102" s="3">
-        <v>-131100</v>
+        <v>-124000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1372600</v>
+        <v>-1298800</v>
       </c>
       <c r="H102" s="3">
-        <v>2329600</v>
+        <v>2204300</v>
       </c>
       <c r="I102" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J102" s="3">
-        <v>-371100</v>
+        <v>-351200</v>
       </c>
       <c r="K102" s="3">
         <v>-371600</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3565500</v>
+        <v>1741500</v>
       </c>
       <c r="E8" s="3">
-        <v>3906200</v>
+        <v>1968100</v>
       </c>
       <c r="F8" s="3">
-        <v>4212400</v>
+        <v>4138000</v>
       </c>
       <c r="G8" s="3">
-        <v>4603200</v>
+        <v>4462500</v>
       </c>
       <c r="H8" s="3">
-        <v>4843500</v>
+        <v>4876400</v>
       </c>
       <c r="I8" s="3">
-        <v>5001700</v>
+        <v>5131000</v>
       </c>
       <c r="J8" s="3">
+        <v>5298600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5032700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5877500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2293600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2711800</v>
+        <v>1364000</v>
       </c>
       <c r="E9" s="3">
-        <v>2864800</v>
+        <v>1497400</v>
       </c>
       <c r="F9" s="3">
-        <v>2653600</v>
+        <v>3034900</v>
       </c>
       <c r="G9" s="3">
-        <v>2835900</v>
+        <v>2811100</v>
       </c>
       <c r="H9" s="3">
-        <v>5650800</v>
+        <v>3004200</v>
       </c>
       <c r="I9" s="3">
-        <v>5575400</v>
+        <v>5986200</v>
       </c>
       <c r="J9" s="3">
+        <v>5906300</v>
+      </c>
+      <c r="K9" s="3">
         <v>8319700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2959500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1137800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>853700</v>
+        <v>377600</v>
       </c>
       <c r="E10" s="3">
-        <v>1041300</v>
+        <v>470700</v>
       </c>
       <c r="F10" s="3">
-        <v>1558800</v>
+        <v>1103100</v>
       </c>
       <c r="G10" s="3">
-        <v>1767300</v>
+        <v>1651300</v>
       </c>
       <c r="H10" s="3">
-        <v>-807200</v>
+        <v>1872200</v>
       </c>
       <c r="I10" s="3">
-        <v>-573700</v>
+        <v>-855200</v>
       </c>
       <c r="J10" s="3">
+        <v>-607700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3287000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2918100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1155700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,20 +906,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-1957500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-2073700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -914,18 +933,21 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-252900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4092700</v>
+        <v>2081300</v>
       </c>
       <c r="E17" s="3">
-        <v>2881500</v>
+        <v>2830500</v>
       </c>
       <c r="F17" s="3">
-        <v>4630500</v>
+        <v>3052600</v>
       </c>
       <c r="G17" s="3">
-        <v>4849500</v>
+        <v>4905300</v>
       </c>
       <c r="H17" s="3">
-        <v>4427700</v>
+        <v>5137400</v>
       </c>
       <c r="I17" s="3">
-        <v>4184900</v>
+        <v>4690500</v>
       </c>
       <c r="J17" s="3">
+        <v>4433200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4327400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4765900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1904800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-527200</v>
+        <v>-339700</v>
       </c>
       <c r="E18" s="3">
-        <v>1024600</v>
+        <v>-862400</v>
       </c>
       <c r="F18" s="3">
-        <v>-418100</v>
+        <v>1085400</v>
       </c>
       <c r="G18" s="3">
-        <v>-246400</v>
+        <v>-442900</v>
       </c>
       <c r="H18" s="3">
-        <v>415800</v>
+        <v>-261000</v>
       </c>
       <c r="I18" s="3">
-        <v>816900</v>
+        <v>440500</v>
       </c>
       <c r="J18" s="3">
+        <v>865300</v>
+      </c>
+      <c r="K18" s="3">
         <v>705300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1111600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>388800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-795400</v>
+        <v>-1673500</v>
       </c>
       <c r="E20" s="3">
-        <v>2754200</v>
+        <v>-471600</v>
       </c>
       <c r="F20" s="3">
-        <v>70400</v>
+        <v>2917600</v>
       </c>
       <c r="G20" s="3">
-        <v>-26900</v>
+        <v>74600</v>
       </c>
       <c r="H20" s="3">
-        <v>-53500</v>
+        <v>-28500</v>
       </c>
       <c r="I20" s="3">
-        <v>118300</v>
+        <v>-56700</v>
       </c>
       <c r="J20" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K20" s="3">
         <v>314000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>221800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-99600</v>
+        <v>-1196700</v>
       </c>
       <c r="E21" s="3">
-        <v>4812600</v>
+        <v>-41400</v>
       </c>
       <c r="F21" s="3">
-        <v>561400</v>
+        <v>5095900</v>
       </c>
       <c r="G21" s="3">
-        <v>702300</v>
+        <v>592600</v>
       </c>
       <c r="H21" s="3">
-        <v>1464500</v>
+        <v>741800</v>
       </c>
       <c r="I21" s="3">
-        <v>1961100</v>
+        <v>1548900</v>
       </c>
       <c r="J21" s="3">
+        <v>2075100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2031900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1838900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>865900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>286500</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>725200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>536900</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>636400</v>
-      </c>
       <c r="G22" s="3">
-        <v>626300</v>
+        <v>674200</v>
       </c>
       <c r="H22" s="3">
-        <v>1434400</v>
+        <v>663400</v>
       </c>
       <c r="I22" s="3">
-        <v>923800</v>
+        <v>1519600</v>
       </c>
       <c r="J22" s="3">
+        <v>978600</v>
+      </c>
+      <c r="K22" s="3">
         <v>898700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>482500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>239700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1609100</v>
+        <v>-2738400</v>
       </c>
       <c r="E23" s="3">
-        <v>3778800</v>
+        <v>-1871000</v>
       </c>
       <c r="F23" s="3">
-        <v>-984100</v>
+        <v>4003100</v>
       </c>
       <c r="G23" s="3">
-        <v>-899500</v>
+        <v>-1042500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1072100</v>
+        <v>-952900</v>
       </c>
       <c r="I23" s="3">
-        <v>11400</v>
+        <v>-1135700</v>
       </c>
       <c r="J23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K23" s="3">
         <v>120600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>594200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>371000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>-666100</v>
       </c>
       <c r="E24" s="3">
-        <v>-579900</v>
+        <v>-2400</v>
       </c>
       <c r="F24" s="3">
-        <v>194500</v>
+        <v>-614300</v>
       </c>
       <c r="G24" s="3">
-        <v>553500</v>
+        <v>206100</v>
       </c>
       <c r="H24" s="3">
-        <v>105300</v>
+        <v>586300</v>
       </c>
       <c r="I24" s="3">
-        <v>134300</v>
+        <v>111600</v>
       </c>
       <c r="J24" s="3">
+        <v>142200</v>
+      </c>
+      <c r="K24" s="3">
         <v>13600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>177400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>121500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1610500</v>
+        <v>-2072400</v>
       </c>
       <c r="E26" s="3">
-        <v>4358700</v>
+        <v>-1868600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1178600</v>
+        <v>4617400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1453000</v>
+        <v>-1248600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1177400</v>
+        <v>-1539200</v>
       </c>
       <c r="I26" s="3">
-        <v>-122900</v>
+        <v>-1247300</v>
       </c>
       <c r="J26" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="K26" s="3">
         <v>107000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>416800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1593700</v>
+        <v>-2072600</v>
       </c>
       <c r="E27" s="3">
-        <v>4354400</v>
+        <v>-1850800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1127100</v>
+        <v>4612800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1421500</v>
+        <v>-1194000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1104300</v>
+        <v>-1505900</v>
       </c>
       <c r="I27" s="3">
-        <v>-123100</v>
+        <v>-1169900</v>
       </c>
       <c r="J27" s="3">
+        <v>-130400</v>
+      </c>
+      <c r="K27" s="3">
         <v>107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>416800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>249500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E29" s="3">
+        <v>162500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>189100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-723600</v>
+        <v>200400</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+        <v>-766500</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>795400</v>
+        <v>1673500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2754200</v>
+        <v>471600</v>
       </c>
       <c r="F32" s="3">
-        <v>-70400</v>
+        <v>-2917600</v>
       </c>
       <c r="G32" s="3">
-        <v>26900</v>
+        <v>-74600</v>
       </c>
       <c r="H32" s="3">
-        <v>53500</v>
+        <v>28500</v>
       </c>
       <c r="I32" s="3">
-        <v>-118300</v>
+        <v>56700</v>
       </c>
       <c r="J32" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-314000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-221800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1593700</v>
+        <v>-1975200</v>
       </c>
       <c r="E33" s="3">
-        <v>4354400</v>
+        <v>-1688300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1127100</v>
+        <v>4612800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1421500</v>
+        <v>-1194000</v>
       </c>
       <c r="H33" s="3">
-        <v>-915200</v>
+        <v>-1505900</v>
       </c>
       <c r="I33" s="3">
-        <v>-846700</v>
+        <v>-969500</v>
       </c>
       <c r="J33" s="3">
+        <v>-897000</v>
+      </c>
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>416800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1593700</v>
+        <v>-1975200</v>
       </c>
       <c r="E35" s="3">
-        <v>4354400</v>
+        <v>-1688300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1127100</v>
+        <v>4612800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1421500</v>
+        <v>-1194000</v>
       </c>
       <c r="H35" s="3">
-        <v>-915200</v>
+        <v>-1505900</v>
       </c>
       <c r="I35" s="3">
-        <v>-846700</v>
+        <v>-969500</v>
       </c>
       <c r="J35" s="3">
+        <v>-897000</v>
+      </c>
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>416800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>368700</v>
+        <v>770600</v>
       </c>
       <c r="E41" s="3">
-        <v>776500</v>
+        <v>390500</v>
       </c>
       <c r="F41" s="3">
-        <v>1215200</v>
+        <v>822600</v>
       </c>
       <c r="G41" s="3">
-        <v>1339200</v>
+        <v>1287300</v>
       </c>
       <c r="H41" s="3">
-        <v>2638000</v>
+        <v>1418700</v>
       </c>
       <c r="I41" s="3">
-        <v>433700</v>
+        <v>2794600</v>
       </c>
       <c r="J41" s="3">
+        <v>459400</v>
+      </c>
+      <c r="K41" s="3">
         <v>429400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1030500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1489600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32600</v>
+        <v>36300</v>
       </c>
       <c r="E42" s="3">
-        <v>35800</v>
+        <v>34500</v>
       </c>
       <c r="F42" s="3">
-        <v>3800</v>
+        <v>37900</v>
       </c>
       <c r="G42" s="3">
-        <v>20600</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>638100</v>
+        <v>21900</v>
       </c>
       <c r="I42" s="3">
-        <v>60700</v>
+        <v>675900</v>
       </c>
       <c r="J42" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K42" s="3">
         <v>488800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>566500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>268900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1410700</v>
+        <v>1154700</v>
       </c>
       <c r="E43" s="3">
-        <v>1406100</v>
+        <v>1494400</v>
       </c>
       <c r="F43" s="3">
-        <v>1695000</v>
+        <v>1489600</v>
       </c>
       <c r="G43" s="3">
-        <v>1843600</v>
+        <v>1795600</v>
       </c>
       <c r="H43" s="3">
-        <v>2161000</v>
+        <v>1953000</v>
       </c>
       <c r="I43" s="3">
-        <v>2091900</v>
+        <v>2289200</v>
       </c>
       <c r="J43" s="3">
+        <v>2216000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2414400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2042100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>586400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57900</v>
+        <v>71000</v>
       </c>
       <c r="E44" s="3">
-        <v>56200</v>
+        <v>61300</v>
       </c>
       <c r="F44" s="3">
-        <v>44900</v>
+        <v>59600</v>
       </c>
       <c r="G44" s="3">
-        <v>62900</v>
+        <v>47600</v>
       </c>
       <c r="H44" s="3">
-        <v>62300</v>
+        <v>66600</v>
       </c>
       <c r="I44" s="3">
-        <v>84700</v>
+        <v>66000</v>
       </c>
       <c r="J44" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K44" s="3">
         <v>76600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>89900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1316300</v>
+        <v>4306800</v>
       </c>
       <c r="E45" s="3">
-        <v>1499400</v>
+        <v>1394500</v>
       </c>
       <c r="F45" s="3">
-        <v>1246100</v>
+        <v>1588400</v>
       </c>
       <c r="G45" s="3">
-        <v>1375000</v>
+        <v>1320100</v>
       </c>
       <c r="H45" s="3">
-        <v>3495800</v>
+        <v>1456600</v>
       </c>
       <c r="I45" s="3">
-        <v>12882900</v>
+        <v>3703200</v>
       </c>
       <c r="J45" s="3">
+        <v>13647600</v>
+      </c>
+      <c r="K45" s="3">
         <v>823600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1208700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>689800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3186100</v>
+        <v>6339400</v>
       </c>
       <c r="E46" s="3">
-        <v>3774000</v>
+        <v>3375200</v>
       </c>
       <c r="F46" s="3">
-        <v>4205000</v>
+        <v>3998000</v>
       </c>
       <c r="G46" s="3">
-        <v>4641300</v>
+        <v>4454600</v>
       </c>
       <c r="H46" s="3">
-        <v>6740500</v>
+        <v>4916800</v>
       </c>
       <c r="I46" s="3">
-        <v>8796100</v>
+        <v>7140600</v>
       </c>
       <c r="J46" s="3">
+        <v>9318200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3174700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4937700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3037900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>544100</v>
+        <v>285700</v>
       </c>
       <c r="E47" s="3">
-        <v>140200</v>
+        <v>576400</v>
       </c>
       <c r="F47" s="3">
-        <v>135300</v>
+        <v>148500</v>
       </c>
       <c r="G47" s="3">
-        <v>154800</v>
+        <v>143300</v>
       </c>
       <c r="H47" s="3">
-        <v>194000</v>
+        <v>164000</v>
       </c>
       <c r="I47" s="3">
-        <v>203600</v>
+        <v>205500</v>
       </c>
       <c r="J47" s="3">
+        <v>215700</v>
+      </c>
+      <c r="K47" s="3">
         <v>560500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>267300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>555600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6889900</v>
+        <v>4527300</v>
       </c>
       <c r="E48" s="3">
-        <v>5033300</v>
+        <v>7298900</v>
       </c>
       <c r="F48" s="3">
-        <v>4778900</v>
+        <v>5332100</v>
       </c>
       <c r="G48" s="3">
-        <v>4587100</v>
+        <v>5062500</v>
       </c>
       <c r="H48" s="3">
-        <v>3733900</v>
+        <v>4859300</v>
       </c>
       <c r="I48" s="3">
-        <v>4116400</v>
+        <v>3955600</v>
       </c>
       <c r="J48" s="3">
+        <v>4360700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3560900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5396700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1437300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>707900</v>
+        <v>693600</v>
       </c>
       <c r="E49" s="3">
-        <v>1230400</v>
+        <v>749900</v>
       </c>
       <c r="F49" s="3">
-        <v>1478700</v>
+        <v>1303400</v>
       </c>
       <c r="G49" s="3">
-        <v>872000</v>
+        <v>1566400</v>
       </c>
       <c r="H49" s="3">
-        <v>4098700</v>
+        <v>923800</v>
       </c>
       <c r="I49" s="3">
-        <v>2944900</v>
+        <v>4342000</v>
       </c>
       <c r="J49" s="3">
+        <v>3119700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1279100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>989500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>269100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1401900</v>
+        <v>2004900</v>
       </c>
       <c r="E52" s="3">
-        <v>1409200</v>
+        <v>1485100</v>
       </c>
       <c r="F52" s="3">
-        <v>1556100</v>
+        <v>1492900</v>
       </c>
       <c r="G52" s="3">
-        <v>1566100</v>
+        <v>1648400</v>
       </c>
       <c r="H52" s="3">
-        <v>5087700</v>
+        <v>1659000</v>
       </c>
       <c r="I52" s="3">
-        <v>3805600</v>
+        <v>5389600</v>
       </c>
       <c r="J52" s="3">
+        <v>4031500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4124700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4539700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2555300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12729900</v>
+        <v>13850900</v>
       </c>
       <c r="E54" s="3">
-        <v>11587100</v>
+        <v>13485500</v>
       </c>
       <c r="F54" s="3">
-        <v>12153900</v>
+        <v>12274800</v>
       </c>
       <c r="G54" s="3">
-        <v>11681700</v>
+        <v>12875300</v>
       </c>
       <c r="H54" s="3">
-        <v>18239600</v>
+        <v>12375100</v>
       </c>
       <c r="I54" s="3">
-        <v>19609000</v>
+        <v>19322200</v>
       </c>
       <c r="J54" s="3">
+        <v>20772900</v>
+      </c>
+      <c r="K54" s="3">
         <v>12411900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16130800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7855200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>990500</v>
+        <v>614500</v>
       </c>
       <c r="E57" s="3">
-        <v>925300</v>
+        <v>1049300</v>
       </c>
       <c r="F57" s="3">
-        <v>1350500</v>
+        <v>980300</v>
       </c>
       <c r="G57" s="3">
-        <v>1164800</v>
+        <v>1430700</v>
       </c>
       <c r="H57" s="3">
-        <v>1777900</v>
+        <v>1233900</v>
       </c>
       <c r="I57" s="3">
-        <v>1539900</v>
+        <v>1883400</v>
       </c>
       <c r="J57" s="3">
+        <v>1631300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1675900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1087900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>456600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>325200</v>
+        <v>202500</v>
       </c>
       <c r="E58" s="3">
-        <v>119100</v>
+        <v>344500</v>
       </c>
       <c r="F58" s="3">
-        <v>9653000</v>
+        <v>126200</v>
       </c>
       <c r="G58" s="3">
-        <v>8514600</v>
+        <v>10226000</v>
       </c>
       <c r="H58" s="3">
-        <v>4182300</v>
+        <v>9020000</v>
       </c>
       <c r="I58" s="3">
-        <v>1580800</v>
+        <v>4430500</v>
       </c>
       <c r="J58" s="3">
+        <v>1674600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1472800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>727100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>283700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>780100</v>
+        <v>2561900</v>
       </c>
       <c r="E59" s="3">
-        <v>848300</v>
+        <v>826400</v>
       </c>
       <c r="F59" s="3">
-        <v>1018000</v>
+        <v>898600</v>
       </c>
       <c r="G59" s="3">
-        <v>1172400</v>
+        <v>1078400</v>
       </c>
       <c r="H59" s="3">
-        <v>2484000</v>
+        <v>1242000</v>
       </c>
       <c r="I59" s="3">
-        <v>7016500</v>
+        <v>2631500</v>
       </c>
       <c r="J59" s="3">
+        <v>7433000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2241500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2177300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1398000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2095800</v>
+        <v>3378900</v>
       </c>
       <c r="E60" s="3">
-        <v>1892800</v>
+        <v>2220200</v>
       </c>
       <c r="F60" s="3">
-        <v>12021600</v>
+        <v>2005100</v>
       </c>
       <c r="G60" s="3">
-        <v>10851900</v>
+        <v>12735100</v>
       </c>
       <c r="H60" s="3">
-        <v>4528400</v>
+        <v>11496000</v>
       </c>
       <c r="I60" s="3">
-        <v>7539600</v>
+        <v>4797200</v>
       </c>
       <c r="J60" s="3">
+        <v>7987200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2751700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3992400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2138200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4345300</v>
+        <v>5298300</v>
       </c>
       <c r="E61" s="3">
-        <v>2793600</v>
+        <v>4603300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2959500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>8507800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>5557500</v>
+        <v>9012800</v>
       </c>
       <c r="J61" s="3">
+        <v>5887300</v>
+      </c>
+      <c r="K61" s="3">
         <v>5612200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7059900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1727100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3137500</v>
+        <v>3716100</v>
       </c>
       <c r="E62" s="3">
-        <v>2846500</v>
+        <v>3323800</v>
       </c>
       <c r="F62" s="3">
-        <v>2525000</v>
+        <v>3015400</v>
       </c>
       <c r="G62" s="3">
-        <v>2010100</v>
+        <v>2674900</v>
       </c>
       <c r="H62" s="3">
-        <v>2993500</v>
+        <v>2129500</v>
       </c>
       <c r="I62" s="3">
-        <v>3172100</v>
+        <v>3171200</v>
       </c>
       <c r="J62" s="3">
+        <v>3360400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3752800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2436000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1363000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9604500</v>
+        <v>12396800</v>
       </c>
       <c r="E66" s="3">
-        <v>7576000</v>
+        <v>10174600</v>
       </c>
       <c r="F66" s="3">
-        <v>14598500</v>
+        <v>8025700</v>
       </c>
       <c r="G66" s="3">
-        <v>13002100</v>
+        <v>15465000</v>
       </c>
       <c r="H66" s="3">
-        <v>14838300</v>
+        <v>13773800</v>
       </c>
       <c r="I66" s="3">
-        <v>15068200</v>
+        <v>15719000</v>
       </c>
       <c r="J66" s="3">
+        <v>15962600</v>
+      </c>
+      <c r="K66" s="3">
         <v>10371300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13488200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5228300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2576,14 +2743,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>-491400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-37100</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2452900</v>
+        <v>-4573700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1068100</v>
+        <v>-2598400</v>
       </c>
       <c r="F72" s="3">
-        <v>-5157100</v>
+        <v>-1131500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4030100</v>
+        <v>-5463200</v>
       </c>
       <c r="H72" s="3">
-        <v>585200</v>
+        <v>-4269300</v>
       </c>
       <c r="I72" s="3">
-        <v>-374400</v>
+        <v>620000</v>
       </c>
       <c r="J72" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1521800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1406900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1738400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3125300</v>
+        <v>1454000</v>
       </c>
       <c r="E76" s="3">
-        <v>4011000</v>
+        <v>3310800</v>
       </c>
       <c r="F76" s="3">
-        <v>-2444600</v>
+        <v>4249100</v>
       </c>
       <c r="G76" s="3">
-        <v>-1320400</v>
+        <v>-2589700</v>
       </c>
       <c r="H76" s="3">
-        <v>3401200</v>
+        <v>-1398800</v>
       </c>
       <c r="I76" s="3">
-        <v>4540800</v>
+        <v>3603100</v>
       </c>
       <c r="J76" s="3">
+        <v>4810300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2040600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3134000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2664000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1593700</v>
+        <v>-1975200</v>
       </c>
       <c r="E81" s="3">
-        <v>4354400</v>
+        <v>-1688300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1127100</v>
+        <v>4612800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1421500</v>
+        <v>-1194000</v>
       </c>
       <c r="H81" s="3">
-        <v>-915200</v>
+        <v>-1505900</v>
       </c>
       <c r="I81" s="3">
-        <v>-846700</v>
+        <v>-969500</v>
       </c>
       <c r="J81" s="3">
+        <v>-897000</v>
+      </c>
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>416800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1217200</v>
+        <v>814400</v>
       </c>
       <c r="E83" s="3">
-        <v>1029000</v>
+        <v>1289400</v>
       </c>
       <c r="F83" s="3">
-        <v>904700</v>
+        <v>1090100</v>
       </c>
       <c r="G83" s="3">
-        <v>971000</v>
+        <v>958400</v>
       </c>
       <c r="H83" s="3">
-        <v>1097000</v>
+        <v>1028600</v>
       </c>
       <c r="I83" s="3">
-        <v>1021100</v>
+        <v>1162100</v>
       </c>
       <c r="J83" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1007900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>753800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>259100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>409300</v>
+        <v>826600</v>
       </c>
       <c r="E89" s="3">
-        <v>506900</v>
+        <v>433600</v>
       </c>
       <c r="F89" s="3">
-        <v>779400</v>
+        <v>537000</v>
       </c>
       <c r="G89" s="3">
-        <v>549000</v>
+        <v>825700</v>
       </c>
       <c r="H89" s="3">
-        <v>-186600</v>
+        <v>581600</v>
       </c>
       <c r="I89" s="3">
-        <v>979300</v>
+        <v>-197600</v>
       </c>
       <c r="J89" s="3">
+        <v>1037400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1245700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>901100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>456300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1314800</v>
+        <v>-648100</v>
       </c>
       <c r="E91" s="3">
-        <v>-929000</v>
+        <v>-1392900</v>
       </c>
       <c r="F91" s="3">
-        <v>-769200</v>
+        <v>-984100</v>
       </c>
       <c r="G91" s="3">
-        <v>-577900</v>
+        <v>-814900</v>
       </c>
       <c r="H91" s="3">
-        <v>-651900</v>
+        <v>-612200</v>
       </c>
       <c r="I91" s="3">
-        <v>-950900</v>
+        <v>-690600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1007400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1058300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1244600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-219200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1213000</v>
+        <v>-635000</v>
       </c>
       <c r="E94" s="3">
-        <v>-870600</v>
+        <v>-1285100</v>
       </c>
       <c r="F94" s="3">
-        <v>-782900</v>
+        <v>-922300</v>
       </c>
       <c r="G94" s="3">
-        <v>-693700</v>
+        <v>-829400</v>
       </c>
       <c r="H94" s="3">
-        <v>2221000</v>
+        <v>-734800</v>
       </c>
       <c r="I94" s="3">
-        <v>-761900</v>
+        <v>2352800</v>
       </c>
       <c r="J94" s="3">
+        <v>-807100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1198800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1503700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-518200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-10500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-6700</v>
+        <v>-11200</v>
       </c>
       <c r="H96" s="3">
-        <v>-10200</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>-10800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-226700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-561700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-114700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>395900</v>
+        <v>150000</v>
       </c>
       <c r="E100" s="3">
-        <v>-75100</v>
+        <v>419400</v>
       </c>
       <c r="F100" s="3">
-        <v>-122500</v>
+        <v>-79600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1083500</v>
+        <v>-129800</v>
       </c>
       <c r="H100" s="3">
-        <v>-417300</v>
+        <v>-1147800</v>
       </c>
       <c r="I100" s="3">
-        <v>-208000</v>
+        <v>-442100</v>
       </c>
       <c r="J100" s="3">
+        <v>-220300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-407000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>227600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>724100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>2000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-70600</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>587200</v>
+        <v>-74800</v>
       </c>
       <c r="I101" s="3">
-        <v>-5100</v>
+        <v>622100</v>
       </c>
       <c r="J101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K101" s="3">
         <v>8900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>29400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-407900</v>
+        <v>380000</v>
       </c>
       <c r="E102" s="3">
-        <v>-438700</v>
+        <v>-432100</v>
       </c>
       <c r="F102" s="3">
-        <v>-124000</v>
+        <v>-464700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1298800</v>
+        <v>-131400</v>
       </c>
       <c r="H102" s="3">
-        <v>2204300</v>
+        <v>-1375900</v>
       </c>
       <c r="I102" s="3">
-        <v>4300</v>
+        <v>2335200</v>
       </c>
       <c r="J102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-351200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-371600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>691500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1741500</v>
+        <v>1714800</v>
       </c>
       <c r="E8" s="3">
-        <v>1968100</v>
+        <v>1937900</v>
       </c>
       <c r="F8" s="3">
-        <v>4138000</v>
+        <v>4074500</v>
       </c>
       <c r="G8" s="3">
-        <v>4462500</v>
+        <v>4393900</v>
       </c>
       <c r="H8" s="3">
-        <v>4876400</v>
+        <v>4801500</v>
       </c>
       <c r="I8" s="3">
-        <v>5131000</v>
+        <v>5052200</v>
       </c>
       <c r="J8" s="3">
-        <v>5298600</v>
+        <v>5217200</v>
       </c>
       <c r="K8" s="3">
         <v>5032700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1364000</v>
+        <v>1343000</v>
       </c>
       <c r="E9" s="3">
-        <v>1497400</v>
+        <v>1474400</v>
       </c>
       <c r="F9" s="3">
-        <v>3034900</v>
+        <v>2988300</v>
       </c>
       <c r="G9" s="3">
-        <v>2811100</v>
+        <v>2768000</v>
       </c>
       <c r="H9" s="3">
-        <v>3004200</v>
+        <v>2958100</v>
       </c>
       <c r="I9" s="3">
-        <v>5986200</v>
+        <v>5894300</v>
       </c>
       <c r="J9" s="3">
-        <v>5906300</v>
+        <v>5815600</v>
       </c>
       <c r="K9" s="3">
         <v>8319700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>377600</v>
+        <v>371800</v>
       </c>
       <c r="E10" s="3">
-        <v>470700</v>
+        <v>463500</v>
       </c>
       <c r="F10" s="3">
-        <v>1103100</v>
+        <v>1086200</v>
       </c>
       <c r="G10" s="3">
-        <v>1651300</v>
+        <v>1626000</v>
       </c>
       <c r="H10" s="3">
-        <v>1872200</v>
+        <v>1843500</v>
       </c>
       <c r="I10" s="3">
-        <v>-855200</v>
+        <v>-842000</v>
       </c>
       <c r="J10" s="3">
-        <v>-607700</v>
+        <v>-598400</v>
       </c>
       <c r="K10" s="3">
         <v>-3287000</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-2073700</v>
+        <v>-2041800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2081300</v>
+        <v>2049300</v>
       </c>
       <c r="E17" s="3">
-        <v>2830500</v>
+        <v>2787100</v>
       </c>
       <c r="F17" s="3">
-        <v>3052600</v>
+        <v>3005700</v>
       </c>
       <c r="G17" s="3">
-        <v>4905300</v>
+        <v>4830000</v>
       </c>
       <c r="H17" s="3">
-        <v>5137400</v>
+        <v>5058500</v>
       </c>
       <c r="I17" s="3">
-        <v>4690500</v>
+        <v>4618500</v>
       </c>
       <c r="J17" s="3">
-        <v>4433200</v>
+        <v>4365200</v>
       </c>
       <c r="K17" s="3">
         <v>4327400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-339700</v>
+        <v>-334500</v>
       </c>
       <c r="E18" s="3">
-        <v>-862400</v>
+        <v>-849200</v>
       </c>
       <c r="F18" s="3">
-        <v>1085400</v>
+        <v>1068800</v>
       </c>
       <c r="G18" s="3">
-        <v>-442900</v>
+        <v>-436100</v>
       </c>
       <c r="H18" s="3">
-        <v>-261000</v>
+        <v>-257000</v>
       </c>
       <c r="I18" s="3">
-        <v>440500</v>
+        <v>433800</v>
       </c>
       <c r="J18" s="3">
-        <v>865300</v>
+        <v>852100</v>
       </c>
       <c r="K18" s="3">
         <v>705300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1673500</v>
+        <v>-1647800</v>
       </c>
       <c r="E20" s="3">
-        <v>-471600</v>
+        <v>-464400</v>
       </c>
       <c r="F20" s="3">
-        <v>2917600</v>
+        <v>2872800</v>
       </c>
       <c r="G20" s="3">
-        <v>74600</v>
+        <v>73500</v>
       </c>
       <c r="H20" s="3">
-        <v>-28500</v>
+        <v>-28000</v>
       </c>
       <c r="I20" s="3">
-        <v>-56700</v>
+        <v>-55800</v>
       </c>
       <c r="J20" s="3">
-        <v>125300</v>
+        <v>123400</v>
       </c>
       <c r="K20" s="3">
         <v>314000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1196700</v>
+        <v>-1175300</v>
       </c>
       <c r="E21" s="3">
-        <v>-41400</v>
+        <v>-35800</v>
       </c>
       <c r="F21" s="3">
-        <v>5095900</v>
+        <v>5021800</v>
       </c>
       <c r="G21" s="3">
-        <v>592600</v>
+        <v>587200</v>
       </c>
       <c r="H21" s="3">
-        <v>741800</v>
+        <v>734300</v>
       </c>
       <c r="I21" s="3">
-        <v>1548900</v>
+        <v>1529500</v>
       </c>
       <c r="J21" s="3">
-        <v>2075100</v>
+        <v>2047400</v>
       </c>
       <c r="K21" s="3">
         <v>2031900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>725200</v>
+        <v>714100</v>
       </c>
       <c r="E22" s="3">
-        <v>536900</v>
+        <v>528700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>674200</v>
+        <v>663900</v>
       </c>
       <c r="H22" s="3">
-        <v>663400</v>
+        <v>653200</v>
       </c>
       <c r="I22" s="3">
-        <v>1519600</v>
+        <v>1496200</v>
       </c>
       <c r="J22" s="3">
-        <v>978600</v>
+        <v>963600</v>
       </c>
       <c r="K22" s="3">
         <v>898700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2738400</v>
+        <v>-2696400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1871000</v>
+        <v>-1842300</v>
       </c>
       <c r="F23" s="3">
-        <v>4003100</v>
+        <v>3941600</v>
       </c>
       <c r="G23" s="3">
-        <v>-1042500</v>
+        <v>-1026500</v>
       </c>
       <c r="H23" s="3">
-        <v>-952900</v>
+        <v>-938200</v>
       </c>
       <c r="I23" s="3">
-        <v>-1135700</v>
+        <v>-1118300</v>
       </c>
       <c r="J23" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="K23" s="3">
         <v>120600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-666100</v>
+        <v>-655900</v>
       </c>
       <c r="E24" s="3">
         <v>-2400</v>
       </c>
       <c r="F24" s="3">
-        <v>-614300</v>
+        <v>-604900</v>
       </c>
       <c r="G24" s="3">
-        <v>206100</v>
+        <v>202900</v>
       </c>
       <c r="H24" s="3">
-        <v>586300</v>
+        <v>577300</v>
       </c>
       <c r="I24" s="3">
-        <v>111600</v>
+        <v>109800</v>
       </c>
       <c r="J24" s="3">
-        <v>142200</v>
+        <v>140100</v>
       </c>
       <c r="K24" s="3">
         <v>13600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2072400</v>
+        <v>-2040500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1868600</v>
+        <v>-1839900</v>
       </c>
       <c r="F26" s="3">
-        <v>4617400</v>
+        <v>4546500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1248600</v>
+        <v>-1229400</v>
       </c>
       <c r="H26" s="3">
-        <v>-1539200</v>
+        <v>-1515600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1247300</v>
+        <v>-1228100</v>
       </c>
       <c r="J26" s="3">
-        <v>-130200</v>
+        <v>-128200</v>
       </c>
       <c r="K26" s="3">
         <v>107000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2072600</v>
+        <v>-2040800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1850800</v>
+        <v>-1822400</v>
       </c>
       <c r="F27" s="3">
-        <v>4612800</v>
+        <v>4542000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1194000</v>
+        <v>-1175600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1505900</v>
+        <v>-1482800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1169900</v>
+        <v>-1151900</v>
       </c>
       <c r="J27" s="3">
-        <v>-130400</v>
+        <v>-128400</v>
       </c>
       <c r="K27" s="3">
         <v>107000</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>97400</v>
+        <v>95900</v>
       </c>
       <c r="E29" s="3">
-        <v>162500</v>
+        <v>160000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>200400</v>
+        <v>197300</v>
       </c>
       <c r="J29" s="3">
-        <v>-766500</v>
+        <v>-754800</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1673500</v>
+        <v>1647800</v>
       </c>
       <c r="E32" s="3">
-        <v>471600</v>
+        <v>464400</v>
       </c>
       <c r="F32" s="3">
-        <v>-2917600</v>
+        <v>-2872800</v>
       </c>
       <c r="G32" s="3">
-        <v>-74600</v>
+        <v>-73500</v>
       </c>
       <c r="H32" s="3">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="I32" s="3">
-        <v>56700</v>
+        <v>55800</v>
       </c>
       <c r="J32" s="3">
-        <v>-125300</v>
+        <v>-123400</v>
       </c>
       <c r="K32" s="3">
         <v>-314000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1975200</v>
+        <v>-1944900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1688300</v>
+        <v>-1662400</v>
       </c>
       <c r="F33" s="3">
-        <v>4612800</v>
+        <v>4542000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1194000</v>
+        <v>-1175600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1505900</v>
+        <v>-1482800</v>
       </c>
       <c r="I33" s="3">
-        <v>-969500</v>
+        <v>-954600</v>
       </c>
       <c r="J33" s="3">
-        <v>-897000</v>
+        <v>-883200</v>
       </c>
       <c r="K33" s="3">
         <v>107000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1975200</v>
+        <v>-1944900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1688300</v>
+        <v>-1662400</v>
       </c>
       <c r="F35" s="3">
-        <v>4612800</v>
+        <v>4542000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1194000</v>
+        <v>-1175600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1505900</v>
+        <v>-1482800</v>
       </c>
       <c r="I35" s="3">
-        <v>-969500</v>
+        <v>-954600</v>
       </c>
       <c r="J35" s="3">
-        <v>-897000</v>
+        <v>-883200</v>
       </c>
       <c r="K35" s="3">
         <v>107000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>770600</v>
+        <v>758700</v>
       </c>
       <c r="E41" s="3">
-        <v>390500</v>
+        <v>384500</v>
       </c>
       <c r="F41" s="3">
-        <v>822600</v>
+        <v>810000</v>
       </c>
       <c r="G41" s="3">
-        <v>1287300</v>
+        <v>1267500</v>
       </c>
       <c r="H41" s="3">
-        <v>1418700</v>
+        <v>1396900</v>
       </c>
       <c r="I41" s="3">
-        <v>2794600</v>
+        <v>2751700</v>
       </c>
       <c r="J41" s="3">
-        <v>459400</v>
+        <v>452400</v>
       </c>
       <c r="K41" s="3">
         <v>429400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="E42" s="3">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="F42" s="3">
-        <v>37900</v>
+        <v>37300</v>
       </c>
       <c r="G42" s="3">
         <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="I42" s="3">
-        <v>675900</v>
+        <v>665600</v>
       </c>
       <c r="J42" s="3">
-        <v>64300</v>
+        <v>63300</v>
       </c>
       <c r="K42" s="3">
         <v>488800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1154700</v>
+        <v>1137000</v>
       </c>
       <c r="E43" s="3">
-        <v>1494400</v>
+        <v>1471400</v>
       </c>
       <c r="F43" s="3">
-        <v>1489600</v>
+        <v>1466700</v>
       </c>
       <c r="G43" s="3">
-        <v>1795600</v>
+        <v>1768000</v>
       </c>
       <c r="H43" s="3">
-        <v>1953000</v>
+        <v>1923000</v>
       </c>
       <c r="I43" s="3">
-        <v>2289200</v>
+        <v>2254100</v>
       </c>
       <c r="J43" s="3">
-        <v>2216000</v>
+        <v>2182000</v>
       </c>
       <c r="K43" s="3">
         <v>2414400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71000</v>
+        <v>69900</v>
       </c>
       <c r="E44" s="3">
-        <v>61300</v>
+        <v>60400</v>
       </c>
       <c r="F44" s="3">
-        <v>59600</v>
+        <v>58600</v>
       </c>
       <c r="G44" s="3">
-        <v>47600</v>
+        <v>46800</v>
       </c>
       <c r="H44" s="3">
-        <v>66600</v>
+        <v>65600</v>
       </c>
       <c r="I44" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="J44" s="3">
-        <v>89800</v>
+        <v>88400</v>
       </c>
       <c r="K44" s="3">
         <v>76600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4306800</v>
+        <v>4240700</v>
       </c>
       <c r="E45" s="3">
-        <v>1394500</v>
+        <v>1373000</v>
       </c>
       <c r="F45" s="3">
-        <v>1588400</v>
+        <v>1564000</v>
       </c>
       <c r="G45" s="3">
-        <v>1320100</v>
+        <v>1299800</v>
       </c>
       <c r="H45" s="3">
-        <v>1456600</v>
+        <v>1434300</v>
       </c>
       <c r="I45" s="3">
-        <v>3703200</v>
+        <v>3646400</v>
       </c>
       <c r="J45" s="3">
-        <v>13647600</v>
+        <v>13438000</v>
       </c>
       <c r="K45" s="3">
         <v>823600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6339400</v>
+        <v>6242100</v>
       </c>
       <c r="E46" s="3">
-        <v>3375200</v>
+        <v>3323400</v>
       </c>
       <c r="F46" s="3">
-        <v>3998000</v>
+        <v>3936600</v>
       </c>
       <c r="G46" s="3">
-        <v>4454600</v>
+        <v>4386200</v>
       </c>
       <c r="H46" s="3">
-        <v>4916800</v>
+        <v>4841300</v>
       </c>
       <c r="I46" s="3">
-        <v>7140600</v>
+        <v>7031000</v>
       </c>
       <c r="J46" s="3">
-        <v>9318200</v>
+        <v>9175100</v>
       </c>
       <c r="K46" s="3">
         <v>3174700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>285700</v>
+        <v>290100</v>
       </c>
       <c r="E47" s="3">
-        <v>576400</v>
+        <v>578000</v>
       </c>
       <c r="F47" s="3">
-        <v>148500</v>
+        <v>154000</v>
       </c>
       <c r="G47" s="3">
-        <v>143300</v>
+        <v>141100</v>
       </c>
       <c r="H47" s="3">
-        <v>164000</v>
+        <v>161500</v>
       </c>
       <c r="I47" s="3">
-        <v>205500</v>
+        <v>202400</v>
       </c>
       <c r="J47" s="3">
-        <v>215700</v>
+        <v>212400</v>
       </c>
       <c r="K47" s="3">
         <v>560500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4527300</v>
+        <v>4457700</v>
       </c>
       <c r="E48" s="3">
-        <v>7298900</v>
+        <v>7186800</v>
       </c>
       <c r="F48" s="3">
-        <v>5332100</v>
+        <v>5250200</v>
       </c>
       <c r="G48" s="3">
-        <v>5062500</v>
+        <v>4984800</v>
       </c>
       <c r="H48" s="3">
-        <v>4859300</v>
+        <v>4784700</v>
       </c>
       <c r="I48" s="3">
-        <v>3955600</v>
+        <v>3894800</v>
       </c>
       <c r="J48" s="3">
-        <v>4360700</v>
+        <v>4293800</v>
       </c>
       <c r="K48" s="3">
         <v>3560900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>693600</v>
+        <v>683000</v>
       </c>
       <c r="E49" s="3">
-        <v>749900</v>
+        <v>738400</v>
       </c>
       <c r="F49" s="3">
-        <v>1303400</v>
+        <v>1283400</v>
       </c>
       <c r="G49" s="3">
-        <v>1566400</v>
+        <v>1542400</v>
       </c>
       <c r="H49" s="3">
-        <v>923800</v>
+        <v>909600</v>
       </c>
       <c r="I49" s="3">
-        <v>4342000</v>
+        <v>4275300</v>
       </c>
       <c r="J49" s="3">
-        <v>3119700</v>
+        <v>3071800</v>
       </c>
       <c r="K49" s="3">
         <v>1279100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2004900</v>
+        <v>1965300</v>
       </c>
       <c r="E52" s="3">
-        <v>1485100</v>
+        <v>1451800</v>
       </c>
       <c r="F52" s="3">
-        <v>1492900</v>
+        <v>1462200</v>
       </c>
       <c r="G52" s="3">
-        <v>1648400</v>
+        <v>1623100</v>
       </c>
       <c r="H52" s="3">
-        <v>1659000</v>
+        <v>1633600</v>
       </c>
       <c r="I52" s="3">
-        <v>5389600</v>
+        <v>5306900</v>
       </c>
       <c r="J52" s="3">
-        <v>4031500</v>
+        <v>3969600</v>
       </c>
       <c r="K52" s="3">
         <v>4124700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13850900</v>
+        <v>13638200</v>
       </c>
       <c r="E54" s="3">
-        <v>13485500</v>
+        <v>13278400</v>
       </c>
       <c r="F54" s="3">
-        <v>12274800</v>
+        <v>12086400</v>
       </c>
       <c r="G54" s="3">
-        <v>12875300</v>
+        <v>12677600</v>
       </c>
       <c r="H54" s="3">
-        <v>12375100</v>
+        <v>12185100</v>
       </c>
       <c r="I54" s="3">
-        <v>19322200</v>
+        <v>19025500</v>
       </c>
       <c r="J54" s="3">
-        <v>20772900</v>
+        <v>20453900</v>
       </c>
       <c r="K54" s="3">
         <v>12411900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>614500</v>
+        <v>605100</v>
       </c>
       <c r="E57" s="3">
-        <v>1049300</v>
+        <v>1033200</v>
       </c>
       <c r="F57" s="3">
-        <v>980300</v>
+        <v>965200</v>
       </c>
       <c r="G57" s="3">
-        <v>1430700</v>
+        <v>1408700</v>
       </c>
       <c r="H57" s="3">
-        <v>1233900</v>
+        <v>1215000</v>
       </c>
       <c r="I57" s="3">
-        <v>1883400</v>
+        <v>1854500</v>
       </c>
       <c r="J57" s="3">
-        <v>1631300</v>
+        <v>1606200</v>
       </c>
       <c r="K57" s="3">
         <v>1675900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>202500</v>
+        <v>199400</v>
       </c>
       <c r="E58" s="3">
-        <v>344500</v>
+        <v>339200</v>
       </c>
       <c r="F58" s="3">
-        <v>126200</v>
+        <v>124300</v>
       </c>
       <c r="G58" s="3">
-        <v>10226000</v>
+        <v>10069000</v>
       </c>
       <c r="H58" s="3">
-        <v>9020000</v>
+        <v>8881500</v>
       </c>
       <c r="I58" s="3">
-        <v>4430500</v>
+        <v>4362500</v>
       </c>
       <c r="J58" s="3">
-        <v>1674600</v>
+        <v>1648900</v>
       </c>
       <c r="K58" s="3">
         <v>1472800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2561900</v>
+        <v>2522600</v>
       </c>
       <c r="E59" s="3">
-        <v>826400</v>
+        <v>813700</v>
       </c>
       <c r="F59" s="3">
-        <v>898600</v>
+        <v>884800</v>
       </c>
       <c r="G59" s="3">
-        <v>1078400</v>
+        <v>1061900</v>
       </c>
       <c r="H59" s="3">
-        <v>1242000</v>
+        <v>1222900</v>
       </c>
       <c r="I59" s="3">
-        <v>2631500</v>
+        <v>2591100</v>
       </c>
       <c r="J59" s="3">
-        <v>7433000</v>
+        <v>7318900</v>
       </c>
       <c r="K59" s="3">
         <v>2241500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3378900</v>
+        <v>3327000</v>
       </c>
       <c r="E60" s="3">
-        <v>2220200</v>
+        <v>2186100</v>
       </c>
       <c r="F60" s="3">
-        <v>2005100</v>
+        <v>1974300</v>
       </c>
       <c r="G60" s="3">
-        <v>12735100</v>
+        <v>12539600</v>
       </c>
       <c r="H60" s="3">
-        <v>11496000</v>
+        <v>11319500</v>
       </c>
       <c r="I60" s="3">
-        <v>4797200</v>
+        <v>4723500</v>
       </c>
       <c r="J60" s="3">
-        <v>7987200</v>
+        <v>7864500</v>
       </c>
       <c r="K60" s="3">
         <v>2751700</v>
@@ -2418,13 +2418,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5298300</v>
+        <v>5217000</v>
       </c>
       <c r="E61" s="3">
-        <v>4603300</v>
+        <v>4532600</v>
       </c>
       <c r="F61" s="3">
-        <v>2959500</v>
+        <v>2914000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9012800</v>
+        <v>8874400</v>
       </c>
       <c r="J61" s="3">
-        <v>5887300</v>
+        <v>5796900</v>
       </c>
       <c r="K61" s="3">
         <v>5612200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3716100</v>
+        <v>3659100</v>
       </c>
       <c r="E62" s="3">
-        <v>3323800</v>
+        <v>3272700</v>
       </c>
       <c r="F62" s="3">
-        <v>3015400</v>
+        <v>2969100</v>
       </c>
       <c r="G62" s="3">
-        <v>2674900</v>
+        <v>2633800</v>
       </c>
       <c r="H62" s="3">
-        <v>2129500</v>
+        <v>2096800</v>
       </c>
       <c r="I62" s="3">
-        <v>3171200</v>
+        <v>3122500</v>
       </c>
       <c r="J62" s="3">
-        <v>3360400</v>
+        <v>3308800</v>
       </c>
       <c r="K62" s="3">
         <v>3752800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12396800</v>
+        <v>12206500</v>
       </c>
       <c r="E66" s="3">
-        <v>10174600</v>
+        <v>10018400</v>
       </c>
       <c r="F66" s="3">
-        <v>8025700</v>
+        <v>7902500</v>
       </c>
       <c r="G66" s="3">
-        <v>15465000</v>
+        <v>15227600</v>
       </c>
       <c r="H66" s="3">
-        <v>13773800</v>
+        <v>13562300</v>
       </c>
       <c r="I66" s="3">
-        <v>15719000</v>
+        <v>15477700</v>
       </c>
       <c r="J66" s="3">
-        <v>15962600</v>
+        <v>15717500</v>
       </c>
       <c r="K66" s="3">
         <v>10371300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4573700</v>
+        <v>-4503400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2598400</v>
+        <v>-2558600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1131500</v>
+        <v>-1114100</v>
       </c>
       <c r="G72" s="3">
-        <v>-5463200</v>
+        <v>-5379400</v>
       </c>
       <c r="H72" s="3">
-        <v>-4269300</v>
+        <v>-4203700</v>
       </c>
       <c r="I72" s="3">
-        <v>620000</v>
+        <v>3891200</v>
       </c>
       <c r="J72" s="3">
-        <v>-396600</v>
+        <v>2867700</v>
       </c>
       <c r="K72" s="3">
         <v>1521800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1454000</v>
+        <v>1431700</v>
       </c>
       <c r="E76" s="3">
-        <v>3310800</v>
+        <v>3260000</v>
       </c>
       <c r="F76" s="3">
-        <v>4249100</v>
+        <v>4183900</v>
       </c>
       <c r="G76" s="3">
-        <v>-2589700</v>
+        <v>-2550000</v>
       </c>
       <c r="H76" s="3">
-        <v>-1398800</v>
+        <v>-1377300</v>
       </c>
       <c r="I76" s="3">
-        <v>3603100</v>
+        <v>3547800</v>
       </c>
       <c r="J76" s="3">
-        <v>4810300</v>
+        <v>4736400</v>
       </c>
       <c r="K76" s="3">
         <v>2040600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1975200</v>
+        <v>-1944900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1688300</v>
+        <v>-1662400</v>
       </c>
       <c r="F81" s="3">
-        <v>4612800</v>
+        <v>4542000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1194000</v>
+        <v>-1175600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1505900</v>
+        <v>-1482800</v>
       </c>
       <c r="I81" s="3">
-        <v>-969500</v>
+        <v>-954600</v>
       </c>
       <c r="J81" s="3">
-        <v>-897000</v>
+        <v>-883200</v>
       </c>
       <c r="K81" s="3">
         <v>107000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>814400</v>
+        <v>801900</v>
       </c>
       <c r="E83" s="3">
-        <v>1289400</v>
+        <v>1269600</v>
       </c>
       <c r="F83" s="3">
-        <v>1090100</v>
+        <v>1073300</v>
       </c>
       <c r="G83" s="3">
-        <v>958400</v>
+        <v>943700</v>
       </c>
       <c r="H83" s="3">
-        <v>1028600</v>
+        <v>1012800</v>
       </c>
       <c r="I83" s="3">
-        <v>1162100</v>
+        <v>1144200</v>
       </c>
       <c r="J83" s="3">
-        <v>1081700</v>
+        <v>1065100</v>
       </c>
       <c r="K83" s="3">
         <v>1007900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>826600</v>
+        <v>813900</v>
       </c>
       <c r="E89" s="3">
-        <v>433600</v>
+        <v>427000</v>
       </c>
       <c r="F89" s="3">
-        <v>537000</v>
+        <v>528700</v>
       </c>
       <c r="G89" s="3">
-        <v>825700</v>
+        <v>813000</v>
       </c>
       <c r="H89" s="3">
-        <v>581600</v>
+        <v>572600</v>
       </c>
       <c r="I89" s="3">
-        <v>-197600</v>
+        <v>-194600</v>
       </c>
       <c r="J89" s="3">
-        <v>1037400</v>
+        <v>1021500</v>
       </c>
       <c r="K89" s="3">
         <v>1245700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-648100</v>
+        <v>-638200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1392900</v>
+        <v>-1371500</v>
       </c>
       <c r="F91" s="3">
-        <v>-984100</v>
+        <v>-969000</v>
       </c>
       <c r="G91" s="3">
-        <v>-814900</v>
+        <v>-802400</v>
       </c>
       <c r="H91" s="3">
-        <v>-612200</v>
+        <v>-602800</v>
       </c>
       <c r="I91" s="3">
-        <v>-690600</v>
+        <v>-680000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1007400</v>
+        <v>-991900</v>
       </c>
       <c r="K91" s="3">
         <v>-1058300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-635000</v>
+        <v>-625300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1285100</v>
+        <v>-1265300</v>
       </c>
       <c r="F94" s="3">
-        <v>-922300</v>
+        <v>-908100</v>
       </c>
       <c r="G94" s="3">
-        <v>-829400</v>
+        <v>-816700</v>
       </c>
       <c r="H94" s="3">
-        <v>-734800</v>
+        <v>-723500</v>
       </c>
       <c r="I94" s="3">
-        <v>2352800</v>
+        <v>2316700</v>
       </c>
       <c r="J94" s="3">
-        <v>-807100</v>
+        <v>-794700</v>
       </c>
       <c r="K94" s="3">
         <v>-1198800</v>
@@ -3540,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="H96" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="I96" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="J96" s="3">
         <v>-1000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>150000</v>
+        <v>147700</v>
       </c>
       <c r="E100" s="3">
-        <v>419400</v>
+        <v>412900</v>
       </c>
       <c r="F100" s="3">
-        <v>-79600</v>
+        <v>-78400</v>
       </c>
       <c r="G100" s="3">
-        <v>-129800</v>
+        <v>-127800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1147800</v>
+        <v>-1130200</v>
       </c>
       <c r="I100" s="3">
-        <v>-442100</v>
+        <v>-435300</v>
       </c>
       <c r="J100" s="3">
-        <v>-220300</v>
+        <v>-216900</v>
       </c>
       <c r="K100" s="3">
         <v>-407000</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38500</v>
+        <v>37900</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-74800</v>
+        <v>-73600</v>
       </c>
       <c r="I101" s="3">
-        <v>622100</v>
+        <v>612500</v>
       </c>
       <c r="J101" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="K101" s="3">
         <v>8900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>380000</v>
+        <v>374200</v>
       </c>
       <c r="E102" s="3">
-        <v>-432100</v>
+        <v>-425400</v>
       </c>
       <c r="F102" s="3">
-        <v>-464700</v>
+        <v>-457600</v>
       </c>
       <c r="G102" s="3">
-        <v>-131400</v>
+        <v>-129400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1375900</v>
+        <v>-1354700</v>
       </c>
       <c r="I102" s="3">
-        <v>2335200</v>
+        <v>2299300</v>
       </c>
       <c r="J102" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1714800</v>
+        <v>1657400</v>
       </c>
       <c r="E8" s="3">
-        <v>1937900</v>
+        <v>1873000</v>
       </c>
       <c r="F8" s="3">
-        <v>4074500</v>
+        <v>3938200</v>
       </c>
       <c r="G8" s="3">
-        <v>4393900</v>
+        <v>4246900</v>
       </c>
       <c r="H8" s="3">
-        <v>4801500</v>
+        <v>4640900</v>
       </c>
       <c r="I8" s="3">
-        <v>5052200</v>
+        <v>4883200</v>
       </c>
       <c r="J8" s="3">
-        <v>5217200</v>
+        <v>5042700</v>
       </c>
       <c r="K8" s="3">
         <v>5032700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1343000</v>
+        <v>1298100</v>
       </c>
       <c r="E9" s="3">
-        <v>1474400</v>
+        <v>1425100</v>
       </c>
       <c r="F9" s="3">
-        <v>2988300</v>
+        <v>2888300</v>
       </c>
       <c r="G9" s="3">
-        <v>2768000</v>
+        <v>2675300</v>
       </c>
       <c r="H9" s="3">
-        <v>2958100</v>
+        <v>2859100</v>
       </c>
       <c r="I9" s="3">
-        <v>5894300</v>
+        <v>5697000</v>
       </c>
       <c r="J9" s="3">
-        <v>5815600</v>
+        <v>5621000</v>
       </c>
       <c r="K9" s="3">
         <v>8319700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>371800</v>
+        <v>359400</v>
       </c>
       <c r="E10" s="3">
-        <v>463500</v>
+        <v>448000</v>
       </c>
       <c r="F10" s="3">
-        <v>1086200</v>
+        <v>1049900</v>
       </c>
       <c r="G10" s="3">
-        <v>1626000</v>
+        <v>1571600</v>
       </c>
       <c r="H10" s="3">
-        <v>1843500</v>
+        <v>1781800</v>
       </c>
       <c r="I10" s="3">
-        <v>-842000</v>
+        <v>-813800</v>
       </c>
       <c r="J10" s="3">
-        <v>-598400</v>
+        <v>-578400</v>
       </c>
       <c r="K10" s="3">
         <v>-3287000</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-2041800</v>
+        <v>-1973500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2049300</v>
+        <v>1980800</v>
       </c>
       <c r="E17" s="3">
-        <v>2787100</v>
+        <v>2693800</v>
       </c>
       <c r="F17" s="3">
-        <v>3005700</v>
+        <v>2905100</v>
       </c>
       <c r="G17" s="3">
-        <v>4830000</v>
+        <v>4668400</v>
       </c>
       <c r="H17" s="3">
-        <v>5058500</v>
+        <v>4889300</v>
       </c>
       <c r="I17" s="3">
-        <v>4618500</v>
+        <v>4463900</v>
       </c>
       <c r="J17" s="3">
-        <v>4365200</v>
+        <v>4219100</v>
       </c>
       <c r="K17" s="3">
         <v>4327400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-334500</v>
+        <v>-323300</v>
       </c>
       <c r="E18" s="3">
-        <v>-849200</v>
+        <v>-820800</v>
       </c>
       <c r="F18" s="3">
-        <v>1068800</v>
+        <v>1033000</v>
       </c>
       <c r="G18" s="3">
-        <v>-436100</v>
+        <v>-421500</v>
       </c>
       <c r="H18" s="3">
-        <v>-257000</v>
+        <v>-248400</v>
       </c>
       <c r="I18" s="3">
-        <v>433800</v>
+        <v>419300</v>
       </c>
       <c r="J18" s="3">
-        <v>852100</v>
+        <v>823600</v>
       </c>
       <c r="K18" s="3">
         <v>705300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1647800</v>
+        <v>-1592700</v>
       </c>
       <c r="E20" s="3">
-        <v>-464400</v>
+        <v>-448900</v>
       </c>
       <c r="F20" s="3">
-        <v>2872800</v>
+        <v>2776700</v>
       </c>
       <c r="G20" s="3">
-        <v>73500</v>
+        <v>71000</v>
       </c>
       <c r="H20" s="3">
-        <v>-28000</v>
+        <v>-27100</v>
       </c>
       <c r="I20" s="3">
-        <v>-55800</v>
+        <v>-54000</v>
       </c>
       <c r="J20" s="3">
-        <v>123400</v>
+        <v>119300</v>
       </c>
       <c r="K20" s="3">
         <v>314000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1175300</v>
+        <v>-1142000</v>
       </c>
       <c r="E21" s="3">
-        <v>-35800</v>
+        <v>-44200</v>
       </c>
       <c r="F21" s="3">
-        <v>5021800</v>
+        <v>4845700</v>
       </c>
       <c r="G21" s="3">
-        <v>587200</v>
+        <v>560400</v>
       </c>
       <c r="H21" s="3">
-        <v>734300</v>
+        <v>702100</v>
       </c>
       <c r="I21" s="3">
-        <v>1529500</v>
+        <v>1469800</v>
       </c>
       <c r="J21" s="3">
-        <v>2047400</v>
+        <v>1970900</v>
       </c>
       <c r="K21" s="3">
         <v>2031900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>714100</v>
+        <v>690200</v>
       </c>
       <c r="E22" s="3">
-        <v>528700</v>
+        <v>511000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>663900</v>
+        <v>641700</v>
       </c>
       <c r="H22" s="3">
-        <v>653200</v>
+        <v>631400</v>
       </c>
       <c r="I22" s="3">
-        <v>1496200</v>
+        <v>1446200</v>
       </c>
       <c r="J22" s="3">
-        <v>963600</v>
+        <v>931300</v>
       </c>
       <c r="K22" s="3">
         <v>898700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2696400</v>
+        <v>-2606200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1842300</v>
+        <v>-1780600</v>
       </c>
       <c r="F23" s="3">
-        <v>3941600</v>
+        <v>3809700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1026500</v>
+        <v>-992100</v>
       </c>
       <c r="H23" s="3">
-        <v>-938200</v>
+        <v>-906800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1118300</v>
+        <v>-1080900</v>
       </c>
       <c r="J23" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="K23" s="3">
         <v>120600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-655900</v>
+        <v>-633900</v>
       </c>
       <c r="E24" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F24" s="3">
-        <v>-604900</v>
+        <v>-584600</v>
       </c>
       <c r="G24" s="3">
-        <v>202900</v>
+        <v>196100</v>
       </c>
       <c r="H24" s="3">
-        <v>577300</v>
+        <v>558000</v>
       </c>
       <c r="I24" s="3">
-        <v>109800</v>
+        <v>106200</v>
       </c>
       <c r="J24" s="3">
-        <v>140100</v>
+        <v>135400</v>
       </c>
       <c r="K24" s="3">
         <v>13600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2040500</v>
+        <v>-1972300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1839900</v>
+        <v>-1778300</v>
       </c>
       <c r="F26" s="3">
-        <v>4546500</v>
+        <v>4394400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1229400</v>
+        <v>-1188300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1515600</v>
+        <v>-1464900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1228100</v>
+        <v>-1187000</v>
       </c>
       <c r="J26" s="3">
-        <v>-128200</v>
+        <v>-123900</v>
       </c>
       <c r="K26" s="3">
         <v>107000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2040800</v>
+        <v>-1972500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1822400</v>
+        <v>-1761400</v>
       </c>
       <c r="F27" s="3">
-        <v>4542000</v>
+        <v>4390000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1175600</v>
+        <v>-1136300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1482800</v>
+        <v>-1433200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1151900</v>
+        <v>-1113400</v>
       </c>
       <c r="J27" s="3">
-        <v>-128400</v>
+        <v>-124100</v>
       </c>
       <c r="K27" s="3">
         <v>107000</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>95900</v>
+        <v>92700</v>
       </c>
       <c r="E29" s="3">
-        <v>160000</v>
+        <v>154700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>197300</v>
+        <v>190700</v>
       </c>
       <c r="J29" s="3">
-        <v>-754800</v>
+        <v>-729500</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1647800</v>
+        <v>1592700</v>
       </c>
       <c r="E32" s="3">
-        <v>464400</v>
+        <v>448900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2872800</v>
+        <v>-2776700</v>
       </c>
       <c r="G32" s="3">
-        <v>-73500</v>
+        <v>-71000</v>
       </c>
       <c r="H32" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="I32" s="3">
-        <v>55800</v>
+        <v>54000</v>
       </c>
       <c r="J32" s="3">
-        <v>-123400</v>
+        <v>-119300</v>
       </c>
       <c r="K32" s="3">
         <v>-314000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1944900</v>
+        <v>-1879800</v>
       </c>
       <c r="E33" s="3">
-        <v>-1662400</v>
+        <v>-1606800</v>
       </c>
       <c r="F33" s="3">
-        <v>4542000</v>
+        <v>4390000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1175600</v>
+        <v>-1136300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1482800</v>
+        <v>-1433200</v>
       </c>
       <c r="I33" s="3">
-        <v>-954600</v>
+        <v>-922700</v>
       </c>
       <c r="J33" s="3">
-        <v>-883200</v>
+        <v>-853600</v>
       </c>
       <c r="K33" s="3">
         <v>107000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1944900</v>
+        <v>-1879800</v>
       </c>
       <c r="E35" s="3">
-        <v>-1662400</v>
+        <v>-1606800</v>
       </c>
       <c r="F35" s="3">
-        <v>4542000</v>
+        <v>4390000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1175600</v>
+        <v>-1136300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1482800</v>
+        <v>-1433200</v>
       </c>
       <c r="I35" s="3">
-        <v>-954600</v>
+        <v>-922700</v>
       </c>
       <c r="J35" s="3">
-        <v>-883200</v>
+        <v>-853600</v>
       </c>
       <c r="K35" s="3">
         <v>107000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>758700</v>
+        <v>733300</v>
       </c>
       <c r="E41" s="3">
-        <v>384500</v>
+        <v>371700</v>
       </c>
       <c r="F41" s="3">
-        <v>810000</v>
+        <v>782900</v>
       </c>
       <c r="G41" s="3">
-        <v>1267500</v>
+        <v>1225100</v>
       </c>
       <c r="H41" s="3">
-        <v>1396900</v>
+        <v>1350200</v>
       </c>
       <c r="I41" s="3">
-        <v>2751700</v>
+        <v>2659600</v>
       </c>
       <c r="J41" s="3">
-        <v>452400</v>
+        <v>437200</v>
       </c>
       <c r="K41" s="3">
         <v>429400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35800</v>
+        <v>34600</v>
       </c>
       <c r="E42" s="3">
-        <v>34000</v>
+        <v>32800</v>
       </c>
       <c r="F42" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="I42" s="3">
-        <v>665600</v>
+        <v>643300</v>
       </c>
       <c r="J42" s="3">
-        <v>63300</v>
+        <v>61200</v>
       </c>
       <c r="K42" s="3">
         <v>488800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1137000</v>
+        <v>1098900</v>
       </c>
       <c r="E43" s="3">
-        <v>1471400</v>
+        <v>1422200</v>
       </c>
       <c r="F43" s="3">
-        <v>1466700</v>
+        <v>1417600</v>
       </c>
       <c r="G43" s="3">
-        <v>1768000</v>
+        <v>1708900</v>
       </c>
       <c r="H43" s="3">
-        <v>1923000</v>
+        <v>1858700</v>
       </c>
       <c r="I43" s="3">
-        <v>2254100</v>
+        <v>2178700</v>
       </c>
       <c r="J43" s="3">
-        <v>2182000</v>
+        <v>2109000</v>
       </c>
       <c r="K43" s="3">
         <v>2414400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69900</v>
+        <v>67600</v>
       </c>
       <c r="E44" s="3">
-        <v>60400</v>
+        <v>58400</v>
       </c>
       <c r="F44" s="3">
-        <v>58600</v>
+        <v>56700</v>
       </c>
       <c r="G44" s="3">
-        <v>46800</v>
+        <v>45300</v>
       </c>
       <c r="H44" s="3">
-        <v>65600</v>
+        <v>63400</v>
       </c>
       <c r="I44" s="3">
-        <v>65000</v>
+        <v>62800</v>
       </c>
       <c r="J44" s="3">
-        <v>88400</v>
+        <v>85400</v>
       </c>
       <c r="K44" s="3">
         <v>76600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4240700</v>
+        <v>4098800</v>
       </c>
       <c r="E45" s="3">
-        <v>1373000</v>
+        <v>1327100</v>
       </c>
       <c r="F45" s="3">
-        <v>1564000</v>
+        <v>1511600</v>
       </c>
       <c r="G45" s="3">
-        <v>1299800</v>
+        <v>1256300</v>
       </c>
       <c r="H45" s="3">
-        <v>1434300</v>
+        <v>1386300</v>
       </c>
       <c r="I45" s="3">
-        <v>3646400</v>
+        <v>3524400</v>
       </c>
       <c r="J45" s="3">
-        <v>13438000</v>
+        <v>12988400</v>
       </c>
       <c r="K45" s="3">
         <v>823600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6242100</v>
+        <v>6033200</v>
       </c>
       <c r="E46" s="3">
-        <v>3323400</v>
+        <v>3212200</v>
       </c>
       <c r="F46" s="3">
-        <v>3936600</v>
+        <v>3804900</v>
       </c>
       <c r="G46" s="3">
-        <v>4386200</v>
+        <v>4239400</v>
       </c>
       <c r="H46" s="3">
-        <v>4841300</v>
+        <v>4679300</v>
       </c>
       <c r="I46" s="3">
-        <v>7031000</v>
+        <v>6795700</v>
       </c>
       <c r="J46" s="3">
-        <v>9175100</v>
+        <v>8868100</v>
       </c>
       <c r="K46" s="3">
         <v>3174700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>290100</v>
+        <v>280400</v>
       </c>
       <c r="E47" s="3">
-        <v>578000</v>
+        <v>558600</v>
       </c>
       <c r="F47" s="3">
-        <v>154000</v>
+        <v>148900</v>
       </c>
       <c r="G47" s="3">
-        <v>141100</v>
+        <v>136400</v>
       </c>
       <c r="H47" s="3">
-        <v>161500</v>
+        <v>156100</v>
       </c>
       <c r="I47" s="3">
-        <v>202400</v>
+        <v>195600</v>
       </c>
       <c r="J47" s="3">
-        <v>212400</v>
+        <v>205300</v>
       </c>
       <c r="K47" s="3">
         <v>560500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4457700</v>
+        <v>4308600</v>
       </c>
       <c r="E48" s="3">
-        <v>7186800</v>
+        <v>6946400</v>
       </c>
       <c r="F48" s="3">
-        <v>5250200</v>
+        <v>5074500</v>
       </c>
       <c r="G48" s="3">
-        <v>4984800</v>
+        <v>4818000</v>
       </c>
       <c r="H48" s="3">
-        <v>4784700</v>
+        <v>4624600</v>
       </c>
       <c r="I48" s="3">
-        <v>3894800</v>
+        <v>3764500</v>
       </c>
       <c r="J48" s="3">
-        <v>4293800</v>
+        <v>4150100</v>
       </c>
       <c r="K48" s="3">
         <v>3560900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>683000</v>
+        <v>660100</v>
       </c>
       <c r="E49" s="3">
-        <v>738400</v>
+        <v>713700</v>
       </c>
       <c r="F49" s="3">
-        <v>1283400</v>
+        <v>1240400</v>
       </c>
       <c r="G49" s="3">
-        <v>1542400</v>
+        <v>1490800</v>
       </c>
       <c r="H49" s="3">
-        <v>909600</v>
+        <v>879200</v>
       </c>
       <c r="I49" s="3">
-        <v>4275300</v>
+        <v>4132300</v>
       </c>
       <c r="J49" s="3">
-        <v>3071800</v>
+        <v>2969000</v>
       </c>
       <c r="K49" s="3">
         <v>1279100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1965300</v>
+        <v>1899500</v>
       </c>
       <c r="E52" s="3">
-        <v>1451800</v>
+        <v>1403300</v>
       </c>
       <c r="F52" s="3">
-        <v>1462200</v>
+        <v>1413300</v>
       </c>
       <c r="G52" s="3">
-        <v>1623100</v>
+        <v>1568800</v>
       </c>
       <c r="H52" s="3">
-        <v>1633600</v>
+        <v>1578900</v>
       </c>
       <c r="I52" s="3">
-        <v>5306900</v>
+        <v>5129300</v>
       </c>
       <c r="J52" s="3">
-        <v>3969600</v>
+        <v>3836700</v>
       </c>
       <c r="K52" s="3">
         <v>4124700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13638200</v>
+        <v>13181900</v>
       </c>
       <c r="E54" s="3">
-        <v>13278400</v>
+        <v>12834100</v>
       </c>
       <c r="F54" s="3">
-        <v>12086400</v>
+        <v>11682000</v>
       </c>
       <c r="G54" s="3">
-        <v>12677600</v>
+        <v>12253400</v>
       </c>
       <c r="H54" s="3">
-        <v>12185100</v>
+        <v>11777300</v>
       </c>
       <c r="I54" s="3">
-        <v>19025500</v>
+        <v>18388900</v>
       </c>
       <c r="J54" s="3">
-        <v>20453900</v>
+        <v>19769500</v>
       </c>
       <c r="K54" s="3">
         <v>12411900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>605100</v>
+        <v>584800</v>
       </c>
       <c r="E57" s="3">
-        <v>1033200</v>
+        <v>998600</v>
       </c>
       <c r="F57" s="3">
-        <v>965200</v>
+        <v>932900</v>
       </c>
       <c r="G57" s="3">
-        <v>1408700</v>
+        <v>1361600</v>
       </c>
       <c r="H57" s="3">
-        <v>1215000</v>
+        <v>1174300</v>
       </c>
       <c r="I57" s="3">
-        <v>1854500</v>
+        <v>1792500</v>
       </c>
       <c r="J57" s="3">
-        <v>1606200</v>
+        <v>1552500</v>
       </c>
       <c r="K57" s="3">
         <v>1675900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>199400</v>
+        <v>192700</v>
       </c>
       <c r="E58" s="3">
-        <v>339200</v>
+        <v>327800</v>
       </c>
       <c r="F58" s="3">
-        <v>124300</v>
+        <v>120100</v>
       </c>
       <c r="G58" s="3">
-        <v>10069000</v>
+        <v>9732100</v>
       </c>
       <c r="H58" s="3">
-        <v>8881500</v>
+        <v>8584400</v>
       </c>
       <c r="I58" s="3">
-        <v>4362500</v>
+        <v>4216500</v>
       </c>
       <c r="J58" s="3">
-        <v>1648900</v>
+        <v>1593700</v>
       </c>
       <c r="K58" s="3">
         <v>1472800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2522600</v>
+        <v>2438100</v>
       </c>
       <c r="E59" s="3">
-        <v>813700</v>
+        <v>786500</v>
       </c>
       <c r="F59" s="3">
-        <v>884800</v>
+        <v>855200</v>
       </c>
       <c r="G59" s="3">
-        <v>1061900</v>
+        <v>1026300</v>
       </c>
       <c r="H59" s="3">
-        <v>1222900</v>
+        <v>1182000</v>
       </c>
       <c r="I59" s="3">
-        <v>2591100</v>
+        <v>2504400</v>
       </c>
       <c r="J59" s="3">
-        <v>7318900</v>
+        <v>7074000</v>
       </c>
       <c r="K59" s="3">
         <v>2241500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3327000</v>
+        <v>3215700</v>
       </c>
       <c r="E60" s="3">
-        <v>2186100</v>
+        <v>2112900</v>
       </c>
       <c r="F60" s="3">
-        <v>1974300</v>
+        <v>1908300</v>
       </c>
       <c r="G60" s="3">
-        <v>12539600</v>
+        <v>12120000</v>
       </c>
       <c r="H60" s="3">
-        <v>11319500</v>
+        <v>10940700</v>
       </c>
       <c r="I60" s="3">
-        <v>4723500</v>
+        <v>4565500</v>
       </c>
       <c r="J60" s="3">
-        <v>7864500</v>
+        <v>7601400</v>
       </c>
       <c r="K60" s="3">
         <v>2751700</v>
@@ -2418,13 +2418,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5217000</v>
+        <v>5042400</v>
       </c>
       <c r="E61" s="3">
-        <v>4532600</v>
+        <v>4380900</v>
       </c>
       <c r="F61" s="3">
-        <v>2914000</v>
+        <v>2816500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>8874400</v>
+        <v>8577500</v>
       </c>
       <c r="J61" s="3">
-        <v>5796900</v>
+        <v>5603000</v>
       </c>
       <c r="K61" s="3">
         <v>5612200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3659100</v>
+        <v>3536700</v>
       </c>
       <c r="E62" s="3">
-        <v>3272700</v>
+        <v>3163200</v>
       </c>
       <c r="F62" s="3">
-        <v>2969100</v>
+        <v>2869800</v>
       </c>
       <c r="G62" s="3">
-        <v>2633800</v>
+        <v>2545700</v>
       </c>
       <c r="H62" s="3">
-        <v>2096800</v>
+        <v>2026600</v>
       </c>
       <c r="I62" s="3">
-        <v>3122500</v>
+        <v>3018000</v>
       </c>
       <c r="J62" s="3">
-        <v>3308800</v>
+        <v>3198100</v>
       </c>
       <c r="K62" s="3">
         <v>3752800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12206500</v>
+        <v>11798100</v>
       </c>
       <c r="E66" s="3">
-        <v>10018400</v>
+        <v>9683200</v>
       </c>
       <c r="F66" s="3">
-        <v>7902500</v>
+        <v>7638100</v>
       </c>
       <c r="G66" s="3">
-        <v>15227600</v>
+        <v>14718100</v>
       </c>
       <c r="H66" s="3">
-        <v>13562300</v>
+        <v>13108500</v>
       </c>
       <c r="I66" s="3">
-        <v>15477700</v>
+        <v>14959800</v>
       </c>
       <c r="J66" s="3">
-        <v>15717500</v>
+        <v>15191600</v>
       </c>
       <c r="K66" s="3">
         <v>10371300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4503400</v>
+        <v>-4352800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2558600</v>
+        <v>-2472900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1114100</v>
+        <v>-1076900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5379400</v>
+        <v>-5199400</v>
       </c>
       <c r="H72" s="3">
-        <v>-4203700</v>
+        <v>-4063100</v>
       </c>
       <c r="I72" s="3">
-        <v>3891200</v>
+        <v>3761000</v>
       </c>
       <c r="J72" s="3">
-        <v>2867700</v>
+        <v>2771700</v>
       </c>
       <c r="K72" s="3">
         <v>1521800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1431700</v>
+        <v>1383800</v>
       </c>
       <c r="E76" s="3">
-        <v>3260000</v>
+        <v>3150900</v>
       </c>
       <c r="F76" s="3">
-        <v>4183900</v>
+        <v>4043900</v>
       </c>
       <c r="G76" s="3">
-        <v>-2550000</v>
+        <v>-2464600</v>
       </c>
       <c r="H76" s="3">
-        <v>-1377300</v>
+        <v>-1331200</v>
       </c>
       <c r="I76" s="3">
-        <v>3547800</v>
+        <v>3429100</v>
       </c>
       <c r="J76" s="3">
-        <v>4736400</v>
+        <v>4577900</v>
       </c>
       <c r="K76" s="3">
         <v>2040600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1944900</v>
+        <v>-1879800</v>
       </c>
       <c r="E81" s="3">
-        <v>-1662400</v>
+        <v>-1606800</v>
       </c>
       <c r="F81" s="3">
-        <v>4542000</v>
+        <v>4390000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1175600</v>
+        <v>-1136300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1482800</v>
+        <v>-1433200</v>
       </c>
       <c r="I81" s="3">
-        <v>-954600</v>
+        <v>-922700</v>
       </c>
       <c r="J81" s="3">
-        <v>-883200</v>
+        <v>-853600</v>
       </c>
       <c r="K81" s="3">
         <v>107000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>801900</v>
+        <v>775100</v>
       </c>
       <c r="E83" s="3">
-        <v>1269600</v>
+        <v>1227100</v>
       </c>
       <c r="F83" s="3">
-        <v>1073300</v>
+        <v>1037400</v>
       </c>
       <c r="G83" s="3">
-        <v>943700</v>
+        <v>912100</v>
       </c>
       <c r="H83" s="3">
-        <v>1012800</v>
+        <v>978900</v>
       </c>
       <c r="I83" s="3">
-        <v>1144200</v>
+        <v>1105900</v>
       </c>
       <c r="J83" s="3">
-        <v>1065100</v>
+        <v>1029500</v>
       </c>
       <c r="K83" s="3">
         <v>1007900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>813900</v>
+        <v>786700</v>
       </c>
       <c r="E89" s="3">
-        <v>427000</v>
+        <v>412700</v>
       </c>
       <c r="F89" s="3">
-        <v>528700</v>
+        <v>511000</v>
       </c>
       <c r="G89" s="3">
-        <v>813000</v>
+        <v>785800</v>
       </c>
       <c r="H89" s="3">
-        <v>572600</v>
+        <v>553500</v>
       </c>
       <c r="I89" s="3">
-        <v>-194600</v>
+        <v>-188100</v>
       </c>
       <c r="J89" s="3">
-        <v>1021500</v>
+        <v>987300</v>
       </c>
       <c r="K89" s="3">
         <v>1245700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-638200</v>
+        <v>-616800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1371500</v>
+        <v>-1325600</v>
       </c>
       <c r="F91" s="3">
-        <v>-969000</v>
+        <v>-936600</v>
       </c>
       <c r="G91" s="3">
-        <v>-802400</v>
+        <v>-775500</v>
       </c>
       <c r="H91" s="3">
-        <v>-602800</v>
+        <v>-582600</v>
       </c>
       <c r="I91" s="3">
-        <v>-680000</v>
+        <v>-657200</v>
       </c>
       <c r="J91" s="3">
-        <v>-991900</v>
+        <v>-958700</v>
       </c>
       <c r="K91" s="3">
         <v>-1058300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-625300</v>
+        <v>-604400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1265300</v>
+        <v>-1223000</v>
       </c>
       <c r="F94" s="3">
-        <v>-908100</v>
+        <v>-877800</v>
       </c>
       <c r="G94" s="3">
-        <v>-816700</v>
+        <v>-789400</v>
       </c>
       <c r="H94" s="3">
-        <v>-723500</v>
+        <v>-699300</v>
       </c>
       <c r="I94" s="3">
-        <v>2316700</v>
+        <v>2239200</v>
       </c>
       <c r="J94" s="3">
-        <v>-794700</v>
+        <v>-768200</v>
       </c>
       <c r="K94" s="3">
         <v>-1198800</v>
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="H96" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="I96" s="3">
-        <v>-10600</v>
+        <v>-10300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>-226700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>147700</v>
+        <v>142700</v>
       </c>
       <c r="E100" s="3">
-        <v>412900</v>
+        <v>399100</v>
       </c>
       <c r="F100" s="3">
-        <v>-78400</v>
+        <v>-75800</v>
       </c>
       <c r="G100" s="3">
-        <v>-127800</v>
+        <v>-123500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1130200</v>
+        <v>-1092400</v>
       </c>
       <c r="I100" s="3">
-        <v>-435300</v>
+        <v>-420700</v>
       </c>
       <c r="J100" s="3">
-        <v>-216900</v>
+        <v>-209700</v>
       </c>
       <c r="K100" s="3">
         <v>-407000</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37900</v>
+        <v>36600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-73600</v>
+        <v>-71100</v>
       </c>
       <c r="I101" s="3">
-        <v>612500</v>
+        <v>592000</v>
       </c>
       <c r="J101" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="K101" s="3">
         <v>8900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>374200</v>
+        <v>361700</v>
       </c>
       <c r="E102" s="3">
-        <v>-425400</v>
+        <v>-411200</v>
       </c>
       <c r="F102" s="3">
-        <v>-457600</v>
+        <v>-442300</v>
       </c>
       <c r="G102" s="3">
-        <v>-129400</v>
+        <v>-125100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1354700</v>
+        <v>-1309400</v>
       </c>
       <c r="I102" s="3">
-        <v>2299300</v>
+        <v>2222400</v>
       </c>
       <c r="J102" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1657400</v>
+        <v>1829600</v>
       </c>
       <c r="E8" s="3">
-        <v>1873000</v>
+        <v>2067600</v>
       </c>
       <c r="F8" s="3">
-        <v>3938200</v>
+        <v>4347100</v>
       </c>
       <c r="G8" s="3">
-        <v>4246900</v>
+        <v>4688000</v>
       </c>
       <c r="H8" s="3">
-        <v>4640900</v>
+        <v>5122900</v>
       </c>
       <c r="I8" s="3">
-        <v>4883200</v>
+        <v>5390300</v>
       </c>
       <c r="J8" s="3">
-        <v>5042700</v>
+        <v>5566400</v>
       </c>
       <c r="K8" s="3">
         <v>5032700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1298100</v>
+        <v>1432900</v>
       </c>
       <c r="E9" s="3">
-        <v>1425100</v>
+        <v>1573100</v>
       </c>
       <c r="F9" s="3">
-        <v>2888300</v>
+        <v>3188300</v>
       </c>
       <c r="G9" s="3">
-        <v>2675300</v>
+        <v>2953200</v>
       </c>
       <c r="H9" s="3">
-        <v>2859100</v>
+        <v>3156000</v>
       </c>
       <c r="I9" s="3">
-        <v>5697000</v>
+        <v>6288700</v>
       </c>
       <c r="J9" s="3">
-        <v>5621000</v>
+        <v>6204800</v>
       </c>
       <c r="K9" s="3">
         <v>8319700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>359400</v>
+        <v>396700</v>
       </c>
       <c r="E10" s="3">
-        <v>448000</v>
+        <v>494500</v>
       </c>
       <c r="F10" s="3">
-        <v>1049900</v>
+        <v>1158900</v>
       </c>
       <c r="G10" s="3">
-        <v>1571600</v>
+        <v>1734800</v>
       </c>
       <c r="H10" s="3">
-        <v>1781800</v>
+        <v>1966800</v>
       </c>
       <c r="I10" s="3">
-        <v>-813800</v>
+        <v>-898400</v>
       </c>
       <c r="J10" s="3">
-        <v>-578400</v>
+        <v>-638400</v>
       </c>
       <c r="K10" s="3">
         <v>-3287000</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-1973500</v>
+        <v>-2178500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1980800</v>
+        <v>2186500</v>
       </c>
       <c r="E17" s="3">
-        <v>2693800</v>
+        <v>2973600</v>
       </c>
       <c r="F17" s="3">
-        <v>2905100</v>
+        <v>3206900</v>
       </c>
       <c r="G17" s="3">
-        <v>4668400</v>
+        <v>5153300</v>
       </c>
       <c r="H17" s="3">
-        <v>4889300</v>
+        <v>5397000</v>
       </c>
       <c r="I17" s="3">
-        <v>4463900</v>
+        <v>4927500</v>
       </c>
       <c r="J17" s="3">
-        <v>4219100</v>
+        <v>4657300</v>
       </c>
       <c r="K17" s="3">
         <v>4327400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-323300</v>
+        <v>-356900</v>
       </c>
       <c r="E18" s="3">
-        <v>-820800</v>
+        <v>-906000</v>
       </c>
       <c r="F18" s="3">
-        <v>1033000</v>
+        <v>1140300</v>
       </c>
       <c r="G18" s="3">
-        <v>-421500</v>
+        <v>-465300</v>
       </c>
       <c r="H18" s="3">
-        <v>-248400</v>
+        <v>-274200</v>
       </c>
       <c r="I18" s="3">
-        <v>419300</v>
+        <v>462800</v>
       </c>
       <c r="J18" s="3">
-        <v>823600</v>
+        <v>909100</v>
       </c>
       <c r="K18" s="3">
         <v>705300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1592700</v>
+        <v>-1758100</v>
       </c>
       <c r="E20" s="3">
-        <v>-448900</v>
+        <v>-495500</v>
       </c>
       <c r="F20" s="3">
-        <v>2776700</v>
+        <v>3065100</v>
       </c>
       <c r="G20" s="3">
-        <v>71000</v>
+        <v>78400</v>
       </c>
       <c r="H20" s="3">
-        <v>-27100</v>
+        <v>-29900</v>
       </c>
       <c r="I20" s="3">
-        <v>-54000</v>
+        <v>-59600</v>
       </c>
       <c r="J20" s="3">
-        <v>119300</v>
+        <v>131600</v>
       </c>
       <c r="K20" s="3">
         <v>314000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1142000</v>
+        <v>-1248800</v>
       </c>
       <c r="E21" s="3">
-        <v>-44200</v>
+        <v>-30100</v>
       </c>
       <c r="F21" s="3">
-        <v>4845700</v>
+        <v>5364800</v>
       </c>
       <c r="G21" s="3">
-        <v>560400</v>
+        <v>632500</v>
       </c>
       <c r="H21" s="3">
-        <v>702100</v>
+        <v>789900</v>
       </c>
       <c r="I21" s="3">
-        <v>1469800</v>
+        <v>1639200</v>
       </c>
       <c r="J21" s="3">
-        <v>1970900</v>
+        <v>2191200</v>
       </c>
       <c r="K21" s="3">
         <v>2031900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>690200</v>
+        <v>761900</v>
       </c>
       <c r="E22" s="3">
-        <v>511000</v>
+        <v>564000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>641700</v>
+        <v>708300</v>
       </c>
       <c r="H22" s="3">
-        <v>631400</v>
+        <v>697000</v>
       </c>
       <c r="I22" s="3">
-        <v>1446200</v>
+        <v>1596400</v>
       </c>
       <c r="J22" s="3">
-        <v>931300</v>
+        <v>1028100</v>
       </c>
       <c r="K22" s="3">
         <v>898700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2606200</v>
+        <v>-2876800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1780600</v>
+        <v>-1965500</v>
       </c>
       <c r="F23" s="3">
-        <v>3809700</v>
+        <v>4205400</v>
       </c>
       <c r="G23" s="3">
-        <v>-992100</v>
+        <v>-1095200</v>
       </c>
       <c r="H23" s="3">
-        <v>-906800</v>
+        <v>-1001000</v>
       </c>
       <c r="I23" s="3">
-        <v>-1080900</v>
+        <v>-1193100</v>
       </c>
       <c r="J23" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="K23" s="3">
         <v>120600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-633900</v>
+        <v>-699700</v>
       </c>
       <c r="E24" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="F24" s="3">
-        <v>-584600</v>
+        <v>-645400</v>
       </c>
       <c r="G24" s="3">
-        <v>196100</v>
+        <v>216500</v>
       </c>
       <c r="H24" s="3">
-        <v>558000</v>
+        <v>616000</v>
       </c>
       <c r="I24" s="3">
-        <v>106200</v>
+        <v>117200</v>
       </c>
       <c r="J24" s="3">
-        <v>135400</v>
+        <v>149400</v>
       </c>
       <c r="K24" s="3">
         <v>13600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1972300</v>
+        <v>-2177100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1778300</v>
+        <v>-1963000</v>
       </c>
       <c r="F26" s="3">
-        <v>4394400</v>
+        <v>4850700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1188300</v>
+        <v>-1311700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1464900</v>
+        <v>-1617000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1187000</v>
+        <v>-1310300</v>
       </c>
       <c r="J26" s="3">
-        <v>-123900</v>
+        <v>-136800</v>
       </c>
       <c r="K26" s="3">
         <v>107000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1972500</v>
+        <v>-2177400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1761400</v>
+        <v>-1944400</v>
       </c>
       <c r="F27" s="3">
-        <v>4390000</v>
+        <v>4845900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1136300</v>
+        <v>-1254300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1433200</v>
+        <v>-1582000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1113400</v>
+        <v>-1229000</v>
       </c>
       <c r="J27" s="3">
-        <v>-124100</v>
+        <v>-137000</v>
       </c>
       <c r="K27" s="3">
         <v>107000</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>92700</v>
+        <v>102300</v>
       </c>
       <c r="E29" s="3">
-        <v>154700</v>
+        <v>170700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>190700</v>
+        <v>210500</v>
       </c>
       <c r="J29" s="3">
-        <v>-729500</v>
+        <v>-805300</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1592700</v>
+        <v>1758100</v>
       </c>
       <c r="E32" s="3">
-        <v>448900</v>
+        <v>495500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2776700</v>
+        <v>-3065100</v>
       </c>
       <c r="G32" s="3">
-        <v>-71000</v>
+        <v>-78400</v>
       </c>
       <c r="H32" s="3">
-        <v>27100</v>
+        <v>29900</v>
       </c>
       <c r="I32" s="3">
-        <v>54000</v>
+        <v>59600</v>
       </c>
       <c r="J32" s="3">
-        <v>-119300</v>
+        <v>-131600</v>
       </c>
       <c r="K32" s="3">
         <v>-314000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1606800</v>
+        <v>-1773600</v>
       </c>
       <c r="F33" s="3">
-        <v>4390000</v>
+        <v>4845900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1136300</v>
+        <v>-1254300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1433200</v>
+        <v>-1582000</v>
       </c>
       <c r="I33" s="3">
-        <v>-922700</v>
+        <v>-1018500</v>
       </c>
       <c r="J33" s="3">
-        <v>-853600</v>
+        <v>-942300</v>
       </c>
       <c r="K33" s="3">
         <v>107000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1606800</v>
+        <v>-1773600</v>
       </c>
       <c r="F35" s="3">
-        <v>4390000</v>
+        <v>4845900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1136300</v>
+        <v>-1254300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1433200</v>
+        <v>-1582000</v>
       </c>
       <c r="I35" s="3">
-        <v>-922700</v>
+        <v>-1018500</v>
       </c>
       <c r="J35" s="3">
-        <v>-853600</v>
+        <v>-942300</v>
       </c>
       <c r="K35" s="3">
         <v>107000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>733300</v>
+        <v>809500</v>
       </c>
       <c r="E41" s="3">
-        <v>371700</v>
+        <v>410300</v>
       </c>
       <c r="F41" s="3">
-        <v>782900</v>
+        <v>864200</v>
       </c>
       <c r="G41" s="3">
-        <v>1225100</v>
+        <v>1352400</v>
       </c>
       <c r="H41" s="3">
-        <v>1350200</v>
+        <v>1490400</v>
       </c>
       <c r="I41" s="3">
-        <v>2659600</v>
+        <v>2935800</v>
       </c>
       <c r="J41" s="3">
-        <v>437200</v>
+        <v>482600</v>
       </c>
       <c r="K41" s="3">
         <v>429400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34600</v>
+        <v>38200</v>
       </c>
       <c r="E42" s="3">
-        <v>32800</v>
+        <v>36200</v>
       </c>
       <c r="F42" s="3">
-        <v>36100</v>
+        <v>39800</v>
       </c>
       <c r="G42" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="H42" s="3">
-        <v>20800</v>
+        <v>23000</v>
       </c>
       <c r="I42" s="3">
-        <v>643300</v>
+        <v>710100</v>
       </c>
       <c r="J42" s="3">
-        <v>61200</v>
+        <v>67600</v>
       </c>
       <c r="K42" s="3">
         <v>488800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1098900</v>
+        <v>1213100</v>
       </c>
       <c r="E43" s="3">
-        <v>1422200</v>
+        <v>1569900</v>
       </c>
       <c r="F43" s="3">
-        <v>1417600</v>
+        <v>1564900</v>
       </c>
       <c r="G43" s="3">
-        <v>1708900</v>
+        <v>1886400</v>
       </c>
       <c r="H43" s="3">
-        <v>1858700</v>
+        <v>2051700</v>
       </c>
       <c r="I43" s="3">
-        <v>2178700</v>
+        <v>2404900</v>
       </c>
       <c r="J43" s="3">
-        <v>2109000</v>
+        <v>2328000</v>
       </c>
       <c r="K43" s="3">
         <v>2414400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67600</v>
+        <v>74600</v>
       </c>
       <c r="E44" s="3">
-        <v>58400</v>
+        <v>64400</v>
       </c>
       <c r="F44" s="3">
-        <v>56700</v>
+        <v>62600</v>
       </c>
       <c r="G44" s="3">
-        <v>45300</v>
+        <v>50000</v>
       </c>
       <c r="H44" s="3">
-        <v>63400</v>
+        <v>70000</v>
       </c>
       <c r="I44" s="3">
-        <v>62800</v>
+        <v>69400</v>
       </c>
       <c r="J44" s="3">
-        <v>85400</v>
+        <v>94300</v>
       </c>
       <c r="K44" s="3">
         <v>76600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4098800</v>
+        <v>4524500</v>
       </c>
       <c r="E45" s="3">
-        <v>1327100</v>
+        <v>1464900</v>
       </c>
       <c r="F45" s="3">
-        <v>1511600</v>
+        <v>1668600</v>
       </c>
       <c r="G45" s="3">
-        <v>1256300</v>
+        <v>1386800</v>
       </c>
       <c r="H45" s="3">
-        <v>1386300</v>
+        <v>1530300</v>
       </c>
       <c r="I45" s="3">
-        <v>3524400</v>
+        <v>3890400</v>
       </c>
       <c r="J45" s="3">
-        <v>12988400</v>
+        <v>14337300</v>
       </c>
       <c r="K45" s="3">
         <v>823600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6033200</v>
+        <v>6659800</v>
       </c>
       <c r="E46" s="3">
-        <v>3212200</v>
+        <v>3545800</v>
       </c>
       <c r="F46" s="3">
-        <v>3804900</v>
+        <v>4200000</v>
       </c>
       <c r="G46" s="3">
-        <v>4239400</v>
+        <v>4679700</v>
       </c>
       <c r="H46" s="3">
-        <v>4679300</v>
+        <v>5165300</v>
       </c>
       <c r="I46" s="3">
-        <v>6795700</v>
+        <v>7501500</v>
       </c>
       <c r="J46" s="3">
-        <v>8868100</v>
+        <v>9789100</v>
       </c>
       <c r="K46" s="3">
         <v>3174700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>280400</v>
+        <v>309500</v>
       </c>
       <c r="E47" s="3">
-        <v>558600</v>
+        <v>616700</v>
       </c>
       <c r="F47" s="3">
-        <v>148900</v>
+        <v>164300</v>
       </c>
       <c r="G47" s="3">
-        <v>136400</v>
+        <v>150600</v>
       </c>
       <c r="H47" s="3">
-        <v>156100</v>
+        <v>172300</v>
       </c>
       <c r="I47" s="3">
-        <v>195600</v>
+        <v>215900</v>
       </c>
       <c r="J47" s="3">
-        <v>205300</v>
+        <v>226600</v>
       </c>
       <c r="K47" s="3">
         <v>560500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4308600</v>
+        <v>4756100</v>
       </c>
       <c r="E48" s="3">
-        <v>6946400</v>
+        <v>7667800</v>
       </c>
       <c r="F48" s="3">
-        <v>5074500</v>
+        <v>5601500</v>
       </c>
       <c r="G48" s="3">
-        <v>4818000</v>
+        <v>5318400</v>
       </c>
       <c r="H48" s="3">
-        <v>4624600</v>
+        <v>5104900</v>
       </c>
       <c r="I48" s="3">
-        <v>3764500</v>
+        <v>4155500</v>
       </c>
       <c r="J48" s="3">
-        <v>4150100</v>
+        <v>4581100</v>
       </c>
       <c r="K48" s="3">
         <v>3560900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>660100</v>
+        <v>728700</v>
       </c>
       <c r="E49" s="3">
-        <v>713700</v>
+        <v>787800</v>
       </c>
       <c r="F49" s="3">
-        <v>1240400</v>
+        <v>1369300</v>
       </c>
       <c r="G49" s="3">
-        <v>1490800</v>
+        <v>1645600</v>
       </c>
       <c r="H49" s="3">
-        <v>879200</v>
+        <v>970500</v>
       </c>
       <c r="I49" s="3">
-        <v>4132300</v>
+        <v>4561400</v>
       </c>
       <c r="J49" s="3">
-        <v>2969000</v>
+        <v>3277300</v>
       </c>
       <c r="K49" s="3">
         <v>1279100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1899500</v>
+        <v>2096800</v>
       </c>
       <c r="E52" s="3">
-        <v>1403300</v>
+        <v>1549000</v>
       </c>
       <c r="F52" s="3">
-        <v>1413300</v>
+        <v>1560000</v>
       </c>
       <c r="G52" s="3">
-        <v>1568800</v>
+        <v>1731700</v>
       </c>
       <c r="H52" s="3">
-        <v>1578900</v>
+        <v>1742900</v>
       </c>
       <c r="I52" s="3">
-        <v>5129300</v>
+        <v>5662000</v>
       </c>
       <c r="J52" s="3">
-        <v>3836700</v>
+        <v>4235200</v>
       </c>
       <c r="K52" s="3">
         <v>4124700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13181900</v>
+        <v>14550900</v>
       </c>
       <c r="E54" s="3">
-        <v>12834100</v>
+        <v>14167000</v>
       </c>
       <c r="F54" s="3">
-        <v>11682000</v>
+        <v>12895200</v>
       </c>
       <c r="G54" s="3">
-        <v>12253400</v>
+        <v>13526000</v>
       </c>
       <c r="H54" s="3">
-        <v>11777300</v>
+        <v>13000500</v>
       </c>
       <c r="I54" s="3">
-        <v>18388900</v>
+        <v>20298700</v>
       </c>
       <c r="J54" s="3">
-        <v>19769500</v>
+        <v>21822700</v>
       </c>
       <c r="K54" s="3">
         <v>12411900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>584800</v>
+        <v>645600</v>
       </c>
       <c r="E57" s="3">
-        <v>998600</v>
+        <v>1102300</v>
       </c>
       <c r="F57" s="3">
-        <v>932900</v>
+        <v>1029800</v>
       </c>
       <c r="G57" s="3">
-        <v>1361600</v>
+        <v>1503000</v>
       </c>
       <c r="H57" s="3">
-        <v>1174300</v>
+        <v>1296300</v>
       </c>
       <c r="I57" s="3">
-        <v>1792500</v>
+        <v>1978600</v>
       </c>
       <c r="J57" s="3">
-        <v>1552500</v>
+        <v>1713700</v>
       </c>
       <c r="K57" s="3">
         <v>1675900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>192700</v>
+        <v>212700</v>
       </c>
       <c r="E58" s="3">
-        <v>327800</v>
+        <v>361900</v>
       </c>
       <c r="F58" s="3">
-        <v>120100</v>
+        <v>132600</v>
       </c>
       <c r="G58" s="3">
-        <v>9732100</v>
+        <v>10742800</v>
       </c>
       <c r="H58" s="3">
-        <v>8584400</v>
+        <v>9475900</v>
       </c>
       <c r="I58" s="3">
-        <v>4216500</v>
+        <v>4654400</v>
       </c>
       <c r="J58" s="3">
-        <v>1593700</v>
+        <v>1759200</v>
       </c>
       <c r="K58" s="3">
         <v>1472800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2438100</v>
+        <v>2691400</v>
       </c>
       <c r="E59" s="3">
-        <v>786500</v>
+        <v>868100</v>
       </c>
       <c r="F59" s="3">
-        <v>855200</v>
+        <v>944100</v>
       </c>
       <c r="G59" s="3">
-        <v>1026300</v>
+        <v>1132900</v>
       </c>
       <c r="H59" s="3">
-        <v>1182000</v>
+        <v>1304800</v>
       </c>
       <c r="I59" s="3">
-        <v>2504400</v>
+        <v>2764500</v>
       </c>
       <c r="J59" s="3">
-        <v>7074000</v>
+        <v>7808700</v>
       </c>
       <c r="K59" s="3">
         <v>2241500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3215700</v>
+        <v>3549700</v>
       </c>
       <c r="E60" s="3">
-        <v>2112900</v>
+        <v>2332400</v>
       </c>
       <c r="F60" s="3">
-        <v>1908300</v>
+        <v>2106500</v>
       </c>
       <c r="G60" s="3">
-        <v>12120000</v>
+        <v>13378700</v>
       </c>
       <c r="H60" s="3">
-        <v>10940700</v>
+        <v>12077000</v>
       </c>
       <c r="I60" s="3">
-        <v>4565500</v>
+        <v>5039600</v>
       </c>
       <c r="J60" s="3">
-        <v>7601400</v>
+        <v>8390800</v>
       </c>
       <c r="K60" s="3">
         <v>2751700</v>
@@ -2418,13 +2418,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5042400</v>
+        <v>5566100</v>
       </c>
       <c r="E61" s="3">
-        <v>4380900</v>
+        <v>4835900</v>
       </c>
       <c r="F61" s="3">
-        <v>2816500</v>
+        <v>3109000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>8577500</v>
+        <v>9468300</v>
       </c>
       <c r="J61" s="3">
-        <v>5603000</v>
+        <v>6184900</v>
       </c>
       <c r="K61" s="3">
         <v>5612200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3536700</v>
+        <v>3904000</v>
       </c>
       <c r="E62" s="3">
-        <v>3163200</v>
+        <v>3491700</v>
       </c>
       <c r="F62" s="3">
-        <v>2869800</v>
+        <v>3167800</v>
       </c>
       <c r="G62" s="3">
-        <v>2545700</v>
+        <v>2810100</v>
       </c>
       <c r="H62" s="3">
-        <v>2026600</v>
+        <v>2237100</v>
       </c>
       <c r="I62" s="3">
-        <v>3018000</v>
+        <v>3331500</v>
       </c>
       <c r="J62" s="3">
-        <v>3198100</v>
+        <v>3530300</v>
       </c>
       <c r="K62" s="3">
         <v>3752800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11798100</v>
+        <v>13023400</v>
       </c>
       <c r="E66" s="3">
-        <v>9683200</v>
+        <v>10688800</v>
       </c>
       <c r="F66" s="3">
-        <v>7638100</v>
+        <v>8431300</v>
       </c>
       <c r="G66" s="3">
-        <v>14718100</v>
+        <v>16246600</v>
       </c>
       <c r="H66" s="3">
-        <v>13108500</v>
+        <v>14469900</v>
       </c>
       <c r="I66" s="3">
-        <v>14959800</v>
+        <v>16513500</v>
       </c>
       <c r="J66" s="3">
-        <v>15191600</v>
+        <v>16769300</v>
       </c>
       <c r="K66" s="3">
         <v>10371300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4352800</v>
+        <v>-4804800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2472900</v>
+        <v>-2729800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1076900</v>
+        <v>-1188700</v>
       </c>
       <c r="G72" s="3">
-        <v>-5199400</v>
+        <v>-5739300</v>
       </c>
       <c r="H72" s="3">
-        <v>-4063100</v>
+        <v>-4485000</v>
       </c>
       <c r="I72" s="3">
-        <v>3761000</v>
+        <v>4151600</v>
       </c>
       <c r="J72" s="3">
-        <v>2771700</v>
+        <v>3059600</v>
       </c>
       <c r="K72" s="3">
         <v>1521800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1383800</v>
+        <v>1527500</v>
       </c>
       <c r="E76" s="3">
-        <v>3150900</v>
+        <v>3478200</v>
       </c>
       <c r="F76" s="3">
-        <v>4043900</v>
+        <v>4463900</v>
       </c>
       <c r="G76" s="3">
-        <v>-2464600</v>
+        <v>-2720600</v>
       </c>
       <c r="H76" s="3">
-        <v>-1331200</v>
+        <v>-1469500</v>
       </c>
       <c r="I76" s="3">
-        <v>3429100</v>
+        <v>3785200</v>
       </c>
       <c r="J76" s="3">
-        <v>4577900</v>
+        <v>5053400</v>
       </c>
       <c r="K76" s="3">
         <v>2040600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1879800</v>
+        <v>-2075000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1606800</v>
+        <v>-1773600</v>
       </c>
       <c r="F81" s="3">
-        <v>4390000</v>
+        <v>4845900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1136300</v>
+        <v>-1254300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1433200</v>
+        <v>-1582000</v>
       </c>
       <c r="I81" s="3">
-        <v>-922700</v>
+        <v>-1018500</v>
       </c>
       <c r="J81" s="3">
-        <v>-853600</v>
+        <v>-942300</v>
       </c>
       <c r="K81" s="3">
         <v>107000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>775100</v>
+        <v>855600</v>
       </c>
       <c r="E83" s="3">
-        <v>1227100</v>
+        <v>1354600</v>
       </c>
       <c r="F83" s="3">
-        <v>1037400</v>
+        <v>1145100</v>
       </c>
       <c r="G83" s="3">
-        <v>912100</v>
+        <v>1006800</v>
       </c>
       <c r="H83" s="3">
-        <v>978900</v>
+        <v>1080600</v>
       </c>
       <c r="I83" s="3">
-        <v>1105900</v>
+        <v>1220800</v>
       </c>
       <c r="J83" s="3">
-        <v>1029500</v>
+        <v>1136400</v>
       </c>
       <c r="K83" s="3">
         <v>1007900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>786700</v>
+        <v>868400</v>
       </c>
       <c r="E89" s="3">
-        <v>412700</v>
+        <v>455500</v>
       </c>
       <c r="F89" s="3">
-        <v>511000</v>
+        <v>564100</v>
       </c>
       <c r="G89" s="3">
-        <v>785800</v>
+        <v>867400</v>
       </c>
       <c r="H89" s="3">
-        <v>553500</v>
+        <v>610900</v>
       </c>
       <c r="I89" s="3">
-        <v>-188100</v>
+        <v>-207600</v>
       </c>
       <c r="J89" s="3">
-        <v>987300</v>
+        <v>1089900</v>
       </c>
       <c r="K89" s="3">
         <v>1245700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-616800</v>
+        <v>-680900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1325600</v>
+        <v>-1463300</v>
       </c>
       <c r="F91" s="3">
-        <v>-936600</v>
+        <v>-1033800</v>
       </c>
       <c r="G91" s="3">
-        <v>-775500</v>
+        <v>-856100</v>
       </c>
       <c r="H91" s="3">
-        <v>-582600</v>
+        <v>-643100</v>
       </c>
       <c r="I91" s="3">
-        <v>-657200</v>
+        <v>-725500</v>
       </c>
       <c r="J91" s="3">
-        <v>-958700</v>
+        <v>-1058300</v>
       </c>
       <c r="K91" s="3">
         <v>-1058300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-604400</v>
+        <v>-667100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1223000</v>
+        <v>-1350000</v>
       </c>
       <c r="F94" s="3">
-        <v>-877800</v>
+        <v>-968900</v>
       </c>
       <c r="G94" s="3">
-        <v>-789400</v>
+        <v>-871300</v>
       </c>
       <c r="H94" s="3">
-        <v>-699300</v>
+        <v>-772000</v>
       </c>
       <c r="I94" s="3">
-        <v>2239200</v>
+        <v>2471700</v>
       </c>
       <c r="J94" s="3">
-        <v>-768200</v>
+        <v>-847900</v>
       </c>
       <c r="K94" s="3">
         <v>-1198800</v>
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="H96" s="3">
-        <v>-6700</v>
+        <v>-7500</v>
       </c>
       <c r="I96" s="3">
-        <v>-10300</v>
+        <v>-11400</v>
       </c>
       <c r="J96" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K96" s="3">
         <v>-226700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>142700</v>
+        <v>157600</v>
       </c>
       <c r="E100" s="3">
-        <v>399100</v>
+        <v>440600</v>
       </c>
       <c r="F100" s="3">
-        <v>-75800</v>
+        <v>-83600</v>
       </c>
       <c r="G100" s="3">
-        <v>-123500</v>
+        <v>-136300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1092400</v>
+        <v>-1205900</v>
       </c>
       <c r="I100" s="3">
-        <v>-420700</v>
+        <v>-464400</v>
       </c>
       <c r="J100" s="3">
-        <v>-209700</v>
+        <v>-231400</v>
       </c>
       <c r="K100" s="3">
         <v>-407000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36600</v>
+        <v>40400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-71100</v>
+        <v>-78500</v>
       </c>
       <c r="I101" s="3">
-        <v>592000</v>
+        <v>653500</v>
       </c>
       <c r="J101" s="3">
-        <v>-5100</v>
+        <v>-5700</v>
       </c>
       <c r="K101" s="3">
         <v>8900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>361700</v>
+        <v>399200</v>
       </c>
       <c r="E102" s="3">
-        <v>-411200</v>
+        <v>-453900</v>
       </c>
       <c r="F102" s="3">
-        <v>-442300</v>
+        <v>-488200</v>
       </c>
       <c r="G102" s="3">
-        <v>-125100</v>
+        <v>-138100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1309400</v>
+        <v>-1445400</v>
       </c>
       <c r="I102" s="3">
-        <v>2222400</v>
+        <v>2453200</v>
       </c>
       <c r="J102" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1829600</v>
+        <v>1808400</v>
       </c>
       <c r="E8" s="3">
-        <v>2067600</v>
+        <v>2043700</v>
       </c>
       <c r="F8" s="3">
-        <v>4347100</v>
+        <v>4296800</v>
       </c>
       <c r="G8" s="3">
-        <v>4688000</v>
+        <v>4633700</v>
       </c>
       <c r="H8" s="3">
-        <v>5122900</v>
+        <v>5063600</v>
       </c>
       <c r="I8" s="3">
-        <v>5390300</v>
+        <v>5328000</v>
       </c>
       <c r="J8" s="3">
-        <v>5566400</v>
+        <v>5502000</v>
       </c>
       <c r="K8" s="3">
         <v>5032700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1432900</v>
+        <v>1416300</v>
       </c>
       <c r="E9" s="3">
-        <v>1573100</v>
+        <v>1554800</v>
       </c>
       <c r="F9" s="3">
-        <v>3188300</v>
+        <v>3151400</v>
       </c>
       <c r="G9" s="3">
-        <v>2953200</v>
+        <v>2919000</v>
       </c>
       <c r="H9" s="3">
-        <v>3156000</v>
+        <v>3119500</v>
       </c>
       <c r="I9" s="3">
-        <v>6288700</v>
+        <v>6215900</v>
       </c>
       <c r="J9" s="3">
-        <v>6204800</v>
+        <v>6133000</v>
       </c>
       <c r="K9" s="3">
         <v>8319700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396700</v>
+        <v>392100</v>
       </c>
       <c r="E10" s="3">
-        <v>494500</v>
+        <v>488800</v>
       </c>
       <c r="F10" s="3">
-        <v>1158900</v>
+        <v>1145500</v>
       </c>
       <c r="G10" s="3">
-        <v>1734800</v>
+        <v>1714700</v>
       </c>
       <c r="H10" s="3">
-        <v>1966800</v>
+        <v>1944100</v>
       </c>
       <c r="I10" s="3">
-        <v>-898400</v>
+        <v>-888000</v>
       </c>
       <c r="J10" s="3">
-        <v>-638400</v>
+        <v>-631000</v>
       </c>
       <c r="K10" s="3">
         <v>-3287000</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-2178500</v>
+        <v>-2153300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2186500</v>
+        <v>2161200</v>
       </c>
       <c r="E17" s="3">
-        <v>2973600</v>
+        <v>2939200</v>
       </c>
       <c r="F17" s="3">
-        <v>3206900</v>
+        <v>3169700</v>
       </c>
       <c r="G17" s="3">
-        <v>5153300</v>
+        <v>5093600</v>
       </c>
       <c r="H17" s="3">
-        <v>5397000</v>
+        <v>5334600</v>
       </c>
       <c r="I17" s="3">
-        <v>4927500</v>
+        <v>4870500</v>
       </c>
       <c r="J17" s="3">
-        <v>4657300</v>
+        <v>4603400</v>
       </c>
       <c r="K17" s="3">
         <v>4327400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-356900</v>
+        <v>-352800</v>
       </c>
       <c r="E18" s="3">
-        <v>-906000</v>
+        <v>-895500</v>
       </c>
       <c r="F18" s="3">
-        <v>1140300</v>
+        <v>1127100</v>
       </c>
       <c r="G18" s="3">
-        <v>-465300</v>
+        <v>-459900</v>
       </c>
       <c r="H18" s="3">
-        <v>-274200</v>
+        <v>-271000</v>
       </c>
       <c r="I18" s="3">
-        <v>462800</v>
+        <v>457400</v>
       </c>
       <c r="J18" s="3">
-        <v>909100</v>
+        <v>898600</v>
       </c>
       <c r="K18" s="3">
         <v>705300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1758100</v>
+        <v>-1737700</v>
       </c>
       <c r="E20" s="3">
-        <v>-495500</v>
+        <v>-489700</v>
       </c>
       <c r="F20" s="3">
-        <v>3065100</v>
+        <v>3029600</v>
       </c>
       <c r="G20" s="3">
-        <v>78400</v>
+        <v>77500</v>
       </c>
       <c r="H20" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="I20" s="3">
-        <v>-59600</v>
+        <v>-58900</v>
       </c>
       <c r="J20" s="3">
-        <v>131600</v>
+        <v>130100</v>
       </c>
       <c r="K20" s="3">
         <v>314000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1248800</v>
+        <v>-1245400</v>
       </c>
       <c r="E21" s="3">
-        <v>-30100</v>
+        <v>-47300</v>
       </c>
       <c r="F21" s="3">
-        <v>5364800</v>
+        <v>5287900</v>
       </c>
       <c r="G21" s="3">
-        <v>632500</v>
+        <v>612100</v>
       </c>
       <c r="H21" s="3">
-        <v>789900</v>
+        <v>766800</v>
       </c>
       <c r="I21" s="3">
-        <v>1639200</v>
+        <v>1604400</v>
       </c>
       <c r="J21" s="3">
-        <v>2191200</v>
+        <v>2151200</v>
       </c>
       <c r="K21" s="3">
         <v>2031900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>761900</v>
+        <v>753000</v>
       </c>
       <c r="E22" s="3">
-        <v>564000</v>
+        <v>557500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>708300</v>
+        <v>700100</v>
       </c>
       <c r="H22" s="3">
-        <v>697000</v>
+        <v>688900</v>
       </c>
       <c r="I22" s="3">
-        <v>1596400</v>
+        <v>1577900</v>
       </c>
       <c r="J22" s="3">
-        <v>1028100</v>
+        <v>1016200</v>
       </c>
       <c r="K22" s="3">
         <v>898700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2876800</v>
+        <v>-2843600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1965500</v>
+        <v>-1942800</v>
       </c>
       <c r="F23" s="3">
-        <v>4205400</v>
+        <v>4156700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1095200</v>
+        <v>-1082500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1001000</v>
+        <v>-989400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1193100</v>
+        <v>-1179300</v>
       </c>
       <c r="J23" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="K23" s="3">
         <v>120600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-699700</v>
+        <v>-691600</v>
       </c>
       <c r="E24" s="3">
         <v>-2500</v>
       </c>
       <c r="F24" s="3">
-        <v>-645400</v>
+        <v>-637900</v>
       </c>
       <c r="G24" s="3">
-        <v>216500</v>
+        <v>214000</v>
       </c>
       <c r="H24" s="3">
-        <v>616000</v>
+        <v>608800</v>
       </c>
       <c r="I24" s="3">
-        <v>117200</v>
+        <v>115800</v>
       </c>
       <c r="J24" s="3">
-        <v>149400</v>
+        <v>147700</v>
       </c>
       <c r="K24" s="3">
         <v>13600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2177100</v>
+        <v>-2151900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1963000</v>
+        <v>-1940300</v>
       </c>
       <c r="F26" s="3">
-        <v>4850700</v>
+        <v>4794600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1311700</v>
+        <v>-1296500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1617000</v>
+        <v>-1598300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1310300</v>
+        <v>-1295200</v>
       </c>
       <c r="J26" s="3">
-        <v>-136800</v>
+        <v>-135200</v>
       </c>
       <c r="K26" s="3">
         <v>107000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2177400</v>
+        <v>-2152200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1944400</v>
+        <v>-1921900</v>
       </c>
       <c r="F27" s="3">
-        <v>4845900</v>
+        <v>4789900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1254300</v>
+        <v>-1239800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1582000</v>
+        <v>-1563700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1229000</v>
+        <v>-1214800</v>
       </c>
       <c r="J27" s="3">
-        <v>-137000</v>
+        <v>-135400</v>
       </c>
       <c r="K27" s="3">
         <v>107000</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>102300</v>
+        <v>101200</v>
       </c>
       <c r="E29" s="3">
-        <v>170700</v>
+        <v>168800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>210500</v>
+        <v>208100</v>
       </c>
       <c r="J29" s="3">
-        <v>-805300</v>
+        <v>-796000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1758100</v>
+        <v>1737700</v>
       </c>
       <c r="E32" s="3">
-        <v>495500</v>
+        <v>489700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3065100</v>
+        <v>-3029600</v>
       </c>
       <c r="G32" s="3">
-        <v>-78400</v>
+        <v>-77500</v>
       </c>
       <c r="H32" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I32" s="3">
-        <v>59600</v>
+        <v>58900</v>
       </c>
       <c r="J32" s="3">
-        <v>-131600</v>
+        <v>-130100</v>
       </c>
       <c r="K32" s="3">
         <v>-314000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1773600</v>
+        <v>-1753100</v>
       </c>
       <c r="F33" s="3">
-        <v>4845900</v>
+        <v>4789900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1254300</v>
+        <v>-1239800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1582000</v>
+        <v>-1563700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1018500</v>
+        <v>-1006700</v>
       </c>
       <c r="J33" s="3">
-        <v>-942300</v>
+        <v>-931400</v>
       </c>
       <c r="K33" s="3">
         <v>107000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1773600</v>
+        <v>-1753100</v>
       </c>
       <c r="F35" s="3">
-        <v>4845900</v>
+        <v>4789900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1254300</v>
+        <v>-1239800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1582000</v>
+        <v>-1563700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1018500</v>
+        <v>-1006700</v>
       </c>
       <c r="J35" s="3">
-        <v>-942300</v>
+        <v>-931400</v>
       </c>
       <c r="K35" s="3">
         <v>107000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>809500</v>
+        <v>800100</v>
       </c>
       <c r="E41" s="3">
-        <v>410300</v>
+        <v>405500</v>
       </c>
       <c r="F41" s="3">
-        <v>864200</v>
+        <v>854200</v>
       </c>
       <c r="G41" s="3">
-        <v>1352400</v>
+        <v>1336700</v>
       </c>
       <c r="H41" s="3">
-        <v>1490400</v>
+        <v>1473200</v>
       </c>
       <c r="I41" s="3">
-        <v>2935800</v>
+        <v>2901800</v>
       </c>
       <c r="J41" s="3">
-        <v>482600</v>
+        <v>477100</v>
       </c>
       <c r="K41" s="3">
         <v>429400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="E42" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="F42" s="3">
-        <v>39800</v>
+        <v>39300</v>
       </c>
       <c r="G42" s="3">
         <v>4200</v>
       </c>
       <c r="H42" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="I42" s="3">
-        <v>710100</v>
+        <v>701900</v>
       </c>
       <c r="J42" s="3">
-        <v>67600</v>
+        <v>66800</v>
       </c>
       <c r="K42" s="3">
         <v>488800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1213100</v>
+        <v>1199000</v>
       </c>
       <c r="E43" s="3">
-        <v>1569900</v>
+        <v>1551700</v>
       </c>
       <c r="F43" s="3">
-        <v>1564900</v>
+        <v>1546800</v>
       </c>
       <c r="G43" s="3">
-        <v>1886400</v>
+        <v>1864500</v>
       </c>
       <c r="H43" s="3">
-        <v>2051700</v>
+        <v>2028000</v>
       </c>
       <c r="I43" s="3">
-        <v>2404900</v>
+        <v>2377100</v>
       </c>
       <c r="J43" s="3">
-        <v>2328000</v>
+        <v>2301100</v>
       </c>
       <c r="K43" s="3">
         <v>2414400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="E44" s="3">
-        <v>64400</v>
+        <v>63700</v>
       </c>
       <c r="F44" s="3">
-        <v>62600</v>
+        <v>61800</v>
       </c>
       <c r="G44" s="3">
-        <v>50000</v>
+        <v>49400</v>
       </c>
       <c r="H44" s="3">
-        <v>70000</v>
+        <v>69100</v>
       </c>
       <c r="I44" s="3">
-        <v>69400</v>
+        <v>68600</v>
       </c>
       <c r="J44" s="3">
-        <v>94300</v>
+        <v>93200</v>
       </c>
       <c r="K44" s="3">
         <v>76600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4524500</v>
+        <v>4472100</v>
       </c>
       <c r="E45" s="3">
-        <v>1464900</v>
+        <v>1448000</v>
       </c>
       <c r="F45" s="3">
-        <v>1668600</v>
+        <v>1649300</v>
       </c>
       <c r="G45" s="3">
-        <v>1386800</v>
+        <v>1370800</v>
       </c>
       <c r="H45" s="3">
-        <v>1530300</v>
+        <v>1512600</v>
       </c>
       <c r="I45" s="3">
-        <v>3890400</v>
+        <v>3845400</v>
       </c>
       <c r="J45" s="3">
-        <v>14337300</v>
+        <v>14171400</v>
       </c>
       <c r="K45" s="3">
         <v>823600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6659800</v>
+        <v>6582700</v>
       </c>
       <c r="E46" s="3">
-        <v>3545800</v>
+        <v>3504700</v>
       </c>
       <c r="F46" s="3">
-        <v>4200000</v>
+        <v>4151400</v>
       </c>
       <c r="G46" s="3">
-        <v>4679700</v>
+        <v>4625600</v>
       </c>
       <c r="H46" s="3">
-        <v>5165300</v>
+        <v>5105500</v>
       </c>
       <c r="I46" s="3">
-        <v>7501500</v>
+        <v>7414700</v>
       </c>
       <c r="J46" s="3">
-        <v>9789100</v>
+        <v>9675900</v>
       </c>
       <c r="K46" s="3">
         <v>3174700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309500</v>
+        <v>305900</v>
       </c>
       <c r="E47" s="3">
-        <v>616700</v>
+        <v>609500</v>
       </c>
       <c r="F47" s="3">
-        <v>164300</v>
+        <v>162400</v>
       </c>
       <c r="G47" s="3">
-        <v>150600</v>
+        <v>148800</v>
       </c>
       <c r="H47" s="3">
-        <v>172300</v>
+        <v>170300</v>
       </c>
       <c r="I47" s="3">
-        <v>215900</v>
+        <v>213400</v>
       </c>
       <c r="J47" s="3">
-        <v>226600</v>
+        <v>224000</v>
       </c>
       <c r="K47" s="3">
         <v>560500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4756100</v>
+        <v>4701000</v>
       </c>
       <c r="E48" s="3">
-        <v>7667800</v>
+        <v>7579100</v>
       </c>
       <c r="F48" s="3">
-        <v>5601500</v>
+        <v>5536700</v>
       </c>
       <c r="G48" s="3">
-        <v>5318400</v>
+        <v>5256800</v>
       </c>
       <c r="H48" s="3">
-        <v>5104900</v>
+        <v>5045800</v>
       </c>
       <c r="I48" s="3">
-        <v>4155500</v>
+        <v>4107400</v>
       </c>
       <c r="J48" s="3">
-        <v>4581100</v>
+        <v>4528100</v>
       </c>
       <c r="K48" s="3">
         <v>3560900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>728700</v>
+        <v>720300</v>
       </c>
       <c r="E49" s="3">
-        <v>787800</v>
+        <v>778700</v>
       </c>
       <c r="F49" s="3">
-        <v>1369300</v>
+        <v>1353400</v>
       </c>
       <c r="G49" s="3">
-        <v>1645600</v>
+        <v>1626500</v>
       </c>
       <c r="H49" s="3">
-        <v>970500</v>
+        <v>959300</v>
       </c>
       <c r="I49" s="3">
-        <v>4561400</v>
+        <v>4508700</v>
       </c>
       <c r="J49" s="3">
-        <v>3277300</v>
+        <v>3239400</v>
       </c>
       <c r="K49" s="3">
         <v>1279100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2096800</v>
+        <v>2072500</v>
       </c>
       <c r="E52" s="3">
-        <v>1549000</v>
+        <v>1531100</v>
       </c>
       <c r="F52" s="3">
-        <v>1560000</v>
+        <v>1542000</v>
       </c>
       <c r="G52" s="3">
-        <v>1731700</v>
+        <v>1711700</v>
       </c>
       <c r="H52" s="3">
-        <v>1742900</v>
+        <v>1722700</v>
       </c>
       <c r="I52" s="3">
-        <v>5662000</v>
+        <v>5596500</v>
       </c>
       <c r="J52" s="3">
-        <v>4235200</v>
+        <v>4186200</v>
       </c>
       <c r="K52" s="3">
         <v>4124700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14550900</v>
+        <v>14382500</v>
       </c>
       <c r="E54" s="3">
-        <v>14167000</v>
+        <v>14003100</v>
       </c>
       <c r="F54" s="3">
-        <v>12895200</v>
+        <v>12746000</v>
       </c>
       <c r="G54" s="3">
-        <v>13526000</v>
+        <v>13369500</v>
       </c>
       <c r="H54" s="3">
-        <v>13000500</v>
+        <v>12850100</v>
       </c>
       <c r="I54" s="3">
-        <v>20298700</v>
+        <v>20063800</v>
       </c>
       <c r="J54" s="3">
-        <v>21822700</v>
+        <v>21570200</v>
       </c>
       <c r="K54" s="3">
         <v>12411900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>645600</v>
+        <v>638100</v>
       </c>
       <c r="E57" s="3">
-        <v>1102300</v>
+        <v>1089600</v>
       </c>
       <c r="F57" s="3">
-        <v>1029800</v>
+        <v>1017900</v>
       </c>
       <c r="G57" s="3">
-        <v>1503000</v>
+        <v>1485600</v>
       </c>
       <c r="H57" s="3">
-        <v>1296300</v>
+        <v>1281300</v>
       </c>
       <c r="I57" s="3">
-        <v>1978600</v>
+        <v>1955700</v>
       </c>
       <c r="J57" s="3">
-        <v>1713700</v>
+        <v>1693900</v>
       </c>
       <c r="K57" s="3">
         <v>1675900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>212700</v>
+        <v>210300</v>
       </c>
       <c r="E58" s="3">
-        <v>361900</v>
+        <v>357700</v>
       </c>
       <c r="F58" s="3">
-        <v>132600</v>
+        <v>131100</v>
       </c>
       <c r="G58" s="3">
-        <v>10742800</v>
+        <v>10618500</v>
       </c>
       <c r="H58" s="3">
-        <v>9475900</v>
+        <v>9366200</v>
       </c>
       <c r="I58" s="3">
-        <v>4654400</v>
+        <v>4600500</v>
       </c>
       <c r="J58" s="3">
-        <v>1759200</v>
+        <v>1738900</v>
       </c>
       <c r="K58" s="3">
         <v>1472800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2691400</v>
+        <v>2660200</v>
       </c>
       <c r="E59" s="3">
-        <v>868100</v>
+        <v>858100</v>
       </c>
       <c r="F59" s="3">
-        <v>944100</v>
+        <v>933100</v>
       </c>
       <c r="G59" s="3">
-        <v>1132900</v>
+        <v>1119800</v>
       </c>
       <c r="H59" s="3">
-        <v>1304800</v>
+        <v>1289700</v>
       </c>
       <c r="I59" s="3">
-        <v>2764500</v>
+        <v>2732500</v>
       </c>
       <c r="J59" s="3">
-        <v>7808700</v>
+        <v>7718300</v>
       </c>
       <c r="K59" s="3">
         <v>2241500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3549700</v>
+        <v>3508600</v>
       </c>
       <c r="E60" s="3">
-        <v>2332400</v>
+        <v>2305400</v>
       </c>
       <c r="F60" s="3">
-        <v>2106500</v>
+        <v>2082100</v>
       </c>
       <c r="G60" s="3">
-        <v>13378700</v>
+        <v>13223900</v>
       </c>
       <c r="H60" s="3">
-        <v>12077000</v>
+        <v>11937200</v>
       </c>
       <c r="I60" s="3">
-        <v>5039600</v>
+        <v>4981300</v>
       </c>
       <c r="J60" s="3">
-        <v>8390800</v>
+        <v>8293700</v>
       </c>
       <c r="K60" s="3">
         <v>2751700</v>
@@ -2418,13 +2418,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5566100</v>
+        <v>5501700</v>
       </c>
       <c r="E61" s="3">
-        <v>4835900</v>
+        <v>4780000</v>
       </c>
       <c r="F61" s="3">
-        <v>3109000</v>
+        <v>3073000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9468300</v>
+        <v>9358800</v>
       </c>
       <c r="J61" s="3">
-        <v>6184900</v>
+        <v>6113300</v>
       </c>
       <c r="K61" s="3">
         <v>5612200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3904000</v>
+        <v>3858800</v>
       </c>
       <c r="E62" s="3">
-        <v>3491700</v>
+        <v>3451300</v>
       </c>
       <c r="F62" s="3">
-        <v>3167800</v>
+        <v>3131200</v>
       </c>
       <c r="G62" s="3">
-        <v>2810100</v>
+        <v>2777600</v>
       </c>
       <c r="H62" s="3">
-        <v>2237100</v>
+        <v>2211200</v>
       </c>
       <c r="I62" s="3">
-        <v>3331500</v>
+        <v>3292900</v>
       </c>
       <c r="J62" s="3">
-        <v>3530300</v>
+        <v>3489400</v>
       </c>
       <c r="K62" s="3">
         <v>3752800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13023400</v>
+        <v>12872700</v>
       </c>
       <c r="E66" s="3">
-        <v>10688800</v>
+        <v>10565200</v>
       </c>
       <c r="F66" s="3">
-        <v>8431300</v>
+        <v>8333800</v>
       </c>
       <c r="G66" s="3">
-        <v>16246600</v>
+        <v>16058600</v>
       </c>
       <c r="H66" s="3">
-        <v>14469900</v>
+        <v>14302500</v>
       </c>
       <c r="I66" s="3">
-        <v>16513500</v>
+        <v>16322400</v>
       </c>
       <c r="J66" s="3">
-        <v>16769300</v>
+        <v>16575300</v>
       </c>
       <c r="K66" s="3">
         <v>10371300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4804800</v>
+        <v>-4749200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2729800</v>
+        <v>-2698200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1188700</v>
+        <v>-1174900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5739300</v>
+        <v>-5672900</v>
       </c>
       <c r="H72" s="3">
-        <v>-4485000</v>
+        <v>-4433200</v>
       </c>
       <c r="I72" s="3">
-        <v>4151600</v>
+        <v>4103600</v>
       </c>
       <c r="J72" s="3">
-        <v>3059600</v>
+        <v>3024200</v>
       </c>
       <c r="K72" s="3">
         <v>1521800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1527500</v>
+        <v>1509800</v>
       </c>
       <c r="E76" s="3">
-        <v>3478200</v>
+        <v>3437900</v>
       </c>
       <c r="F76" s="3">
-        <v>4463900</v>
+        <v>4412200</v>
       </c>
       <c r="G76" s="3">
-        <v>-2720600</v>
+        <v>-2689100</v>
       </c>
       <c r="H76" s="3">
-        <v>-1469500</v>
+        <v>-1452500</v>
       </c>
       <c r="I76" s="3">
-        <v>3785200</v>
+        <v>3741400</v>
       </c>
       <c r="J76" s="3">
-        <v>5053400</v>
+        <v>4994900</v>
       </c>
       <c r="K76" s="3">
         <v>2040600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2075000</v>
+        <v>-2051000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1773600</v>
+        <v>-1753100</v>
       </c>
       <c r="F81" s="3">
-        <v>4845900</v>
+        <v>4789900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1254300</v>
+        <v>-1239800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1582000</v>
+        <v>-1563700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1018500</v>
+        <v>-1006700</v>
       </c>
       <c r="J81" s="3">
-        <v>-942300</v>
+        <v>-931400</v>
       </c>
       <c r="K81" s="3">
         <v>107000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>855600</v>
+        <v>845700</v>
       </c>
       <c r="E83" s="3">
-        <v>1354600</v>
+        <v>1338900</v>
       </c>
       <c r="F83" s="3">
-        <v>1145100</v>
+        <v>1131900</v>
       </c>
       <c r="G83" s="3">
-        <v>1006800</v>
+        <v>995200</v>
       </c>
       <c r="H83" s="3">
-        <v>1080600</v>
+        <v>1068100</v>
       </c>
       <c r="I83" s="3">
-        <v>1220800</v>
+        <v>1206700</v>
       </c>
       <c r="J83" s="3">
-        <v>1136400</v>
+        <v>1123200</v>
       </c>
       <c r="K83" s="3">
         <v>1007900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>868400</v>
+        <v>858300</v>
       </c>
       <c r="E89" s="3">
-        <v>455500</v>
+        <v>450300</v>
       </c>
       <c r="F89" s="3">
-        <v>564100</v>
+        <v>557600</v>
       </c>
       <c r="G89" s="3">
-        <v>867400</v>
+        <v>857400</v>
       </c>
       <c r="H89" s="3">
-        <v>610900</v>
+        <v>603900</v>
       </c>
       <c r="I89" s="3">
-        <v>-207600</v>
+        <v>-205200</v>
       </c>
       <c r="J89" s="3">
-        <v>1089900</v>
+        <v>1077200</v>
       </c>
       <c r="K89" s="3">
         <v>1245700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-680900</v>
+        <v>-673000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1463300</v>
+        <v>-1446300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1033800</v>
+        <v>-1021900</v>
       </c>
       <c r="G91" s="3">
-        <v>-856100</v>
+        <v>-846200</v>
       </c>
       <c r="H91" s="3">
-        <v>-643100</v>
+        <v>-635700</v>
       </c>
       <c r="I91" s="3">
-        <v>-725500</v>
+        <v>-717100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1058300</v>
+        <v>-1046000</v>
       </c>
       <c r="K91" s="3">
         <v>-1058300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-667100</v>
+        <v>-659400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1350000</v>
+        <v>-1334400</v>
       </c>
       <c r="F94" s="3">
-        <v>-968900</v>
+        <v>-957700</v>
       </c>
       <c r="G94" s="3">
-        <v>-871300</v>
+        <v>-861300</v>
       </c>
       <c r="H94" s="3">
-        <v>-772000</v>
+        <v>-763000</v>
       </c>
       <c r="I94" s="3">
-        <v>2471700</v>
+        <v>2443100</v>
       </c>
       <c r="J94" s="3">
-        <v>-847900</v>
+        <v>-838100</v>
       </c>
       <c r="K94" s="3">
         <v>-1198800</v>
@@ -3540,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="H96" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="I96" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="J96" s="3">
         <v>-1000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>157600</v>
+        <v>155800</v>
       </c>
       <c r="E100" s="3">
-        <v>440600</v>
+        <v>435500</v>
       </c>
       <c r="F100" s="3">
-        <v>-83600</v>
+        <v>-82700</v>
       </c>
       <c r="G100" s="3">
-        <v>-136300</v>
+        <v>-134700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1205900</v>
+        <v>-1191900</v>
       </c>
       <c r="I100" s="3">
-        <v>-464400</v>
+        <v>-459000</v>
       </c>
       <c r="J100" s="3">
-        <v>-231400</v>
+        <v>-228800</v>
       </c>
       <c r="K100" s="3">
         <v>-407000</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-78500</v>
+        <v>-77600</v>
       </c>
       <c r="I101" s="3">
-        <v>653500</v>
+        <v>645900</v>
       </c>
       <c r="J101" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K101" s="3">
         <v>8900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>399200</v>
+        <v>394600</v>
       </c>
       <c r="E102" s="3">
-        <v>-453900</v>
+        <v>-448700</v>
       </c>
       <c r="F102" s="3">
-        <v>-488200</v>
+        <v>-482500</v>
       </c>
       <c r="G102" s="3">
-        <v>-138100</v>
+        <v>-136500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1445400</v>
+        <v>-1428700</v>
       </c>
       <c r="I102" s="3">
-        <v>2453200</v>
+        <v>2424800</v>
       </c>
       <c r="J102" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K102" s="3">
         <v>-351200</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1808400</v>
+        <v>2051600</v>
       </c>
       <c r="E8" s="3">
-        <v>2043700</v>
+        <v>2139000</v>
       </c>
       <c r="F8" s="3">
-        <v>4296800</v>
+        <v>2053300</v>
       </c>
       <c r="G8" s="3">
-        <v>4633700</v>
+        <v>4317100</v>
       </c>
       <c r="H8" s="3">
-        <v>5063600</v>
+        <v>4655600</v>
       </c>
       <c r="I8" s="3">
-        <v>5328000</v>
+        <v>5087500</v>
       </c>
       <c r="J8" s="3">
+        <v>5353100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5502000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5032700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5877500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2293600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1416300</v>
+        <v>1942200</v>
       </c>
       <c r="E9" s="3">
-        <v>1554800</v>
+        <v>1548400</v>
       </c>
       <c r="F9" s="3">
-        <v>3151400</v>
+        <v>1562200</v>
       </c>
       <c r="G9" s="3">
-        <v>2919000</v>
+        <v>3166200</v>
       </c>
       <c r="H9" s="3">
-        <v>3119500</v>
+        <v>2932800</v>
       </c>
       <c r="I9" s="3">
-        <v>6215900</v>
+        <v>3134200</v>
       </c>
       <c r="J9" s="3">
+        <v>6245300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6133000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8319700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2959500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1137800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>392100</v>
+        <v>109400</v>
       </c>
       <c r="E10" s="3">
-        <v>488800</v>
+        <v>590600</v>
       </c>
       <c r="F10" s="3">
-        <v>1145500</v>
+        <v>491100</v>
       </c>
       <c r="G10" s="3">
-        <v>1714700</v>
+        <v>1150900</v>
       </c>
       <c r="H10" s="3">
-        <v>1944100</v>
+        <v>1722800</v>
       </c>
       <c r="I10" s="3">
-        <v>-888000</v>
+        <v>1953300</v>
       </c>
       <c r="J10" s="3">
+        <v>-892200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-631000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3287000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2918100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1155700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,23 +925,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-2153300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-2163400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -936,18 +955,21 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-252900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2161200</v>
+        <v>2450300</v>
       </c>
       <c r="E17" s="3">
-        <v>2939200</v>
+        <v>2400000</v>
       </c>
       <c r="F17" s="3">
-        <v>3169700</v>
+        <v>2953100</v>
       </c>
       <c r="G17" s="3">
-        <v>5093600</v>
+        <v>3184700</v>
       </c>
       <c r="H17" s="3">
-        <v>5334600</v>
+        <v>5117700</v>
       </c>
       <c r="I17" s="3">
-        <v>4870500</v>
+        <v>5359800</v>
       </c>
       <c r="J17" s="3">
+        <v>4893500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4603400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4327400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4765900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1904800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-352800</v>
+        <v>-398700</v>
       </c>
       <c r="E18" s="3">
-        <v>-895500</v>
+        <v>-261000</v>
       </c>
       <c r="F18" s="3">
-        <v>1127100</v>
+        <v>-899800</v>
       </c>
       <c r="G18" s="3">
-        <v>-459900</v>
+        <v>1132400</v>
       </c>
       <c r="H18" s="3">
-        <v>-271000</v>
+        <v>-462100</v>
       </c>
       <c r="I18" s="3">
-        <v>457400</v>
+        <v>-272300</v>
       </c>
       <c r="J18" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K18" s="3">
         <v>898600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>705300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1111600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>388800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1737700</v>
+        <v>-1031300</v>
       </c>
       <c r="E20" s="3">
-        <v>-489700</v>
+        <v>-1742700</v>
       </c>
       <c r="F20" s="3">
-        <v>3029600</v>
+        <v>-492100</v>
       </c>
       <c r="G20" s="3">
-        <v>77500</v>
+        <v>3043900</v>
       </c>
       <c r="H20" s="3">
-        <v>-29600</v>
+        <v>77900</v>
       </c>
       <c r="I20" s="3">
-        <v>-58900</v>
+        <v>-29700</v>
       </c>
       <c r="J20" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="K20" s="3">
         <v>130100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>314000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>221800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1245400</v>
+        <v>-647000</v>
       </c>
       <c r="E21" s="3">
-        <v>-47300</v>
+        <v>-1239800</v>
       </c>
       <c r="F21" s="3">
-        <v>5287900</v>
+        <v>-47000</v>
       </c>
       <c r="G21" s="3">
-        <v>612100</v>
+        <v>5313200</v>
       </c>
       <c r="H21" s="3">
-        <v>766800</v>
+        <v>615400</v>
       </c>
       <c r="I21" s="3">
-        <v>1604400</v>
+        <v>770800</v>
       </c>
       <c r="J21" s="3">
+        <v>1612500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2151200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2031900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1838900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>865900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>753000</v>
+        <v>838400</v>
       </c>
       <c r="E22" s="3">
-        <v>557500</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>754800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>560100</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>700100</v>
-      </c>
       <c r="H22" s="3">
-        <v>688900</v>
+        <v>703400</v>
       </c>
       <c r="I22" s="3">
-        <v>1577900</v>
+        <v>692100</v>
       </c>
       <c r="J22" s="3">
+        <v>1585300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1016200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>898700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>482500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>239700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2843600</v>
+        <v>-2268400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1942800</v>
+        <v>-2758500</v>
       </c>
       <c r="F23" s="3">
-        <v>4156700</v>
+        <v>-1952000</v>
       </c>
       <c r="G23" s="3">
-        <v>-1082500</v>
+        <v>4176400</v>
       </c>
       <c r="H23" s="3">
-        <v>-989400</v>
+        <v>-1087600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1179300</v>
+        <v>-994100</v>
       </c>
       <c r="J23" s="3">
+        <v>-1184900</v>
+      </c>
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>594200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>371000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-691600</v>
+        <v>-398500</v>
       </c>
       <c r="E24" s="3">
+        <v>-694900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
-        <v>-637900</v>
-      </c>
       <c r="G24" s="3">
-        <v>214000</v>
+        <v>-640900</v>
       </c>
       <c r="H24" s="3">
-        <v>608800</v>
+        <v>215000</v>
       </c>
       <c r="I24" s="3">
-        <v>115800</v>
+        <v>611700</v>
       </c>
       <c r="J24" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K24" s="3">
         <v>147700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>177400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2151900</v>
+        <v>-1869900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1940300</v>
+        <v>-2063600</v>
       </c>
       <c r="F26" s="3">
-        <v>4794600</v>
+        <v>-1949500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1296500</v>
+        <v>4817300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1598300</v>
+        <v>-1302600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1295200</v>
+        <v>-1605800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1301300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-135200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>416800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2152200</v>
+        <v>-1874500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1921900</v>
+        <v>-2063900</v>
       </c>
       <c r="F27" s="3">
-        <v>4789900</v>
+        <v>-1930900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1239800</v>
+        <v>4812500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1563700</v>
+        <v>-1245600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1214800</v>
+        <v>-1571100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1220500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-135400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>416800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>249500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>101200</v>
+        <v>207900</v>
       </c>
       <c r="E29" s="3">
-        <v>168800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>3100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>169600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>208100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>209000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-796000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1737700</v>
+        <v>1031300</v>
       </c>
       <c r="E32" s="3">
-        <v>489700</v>
+        <v>1742700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3029600</v>
+        <v>492100</v>
       </c>
       <c r="G32" s="3">
-        <v>-77500</v>
+        <v>-3043900</v>
       </c>
       <c r="H32" s="3">
-        <v>29600</v>
+        <v>-77900</v>
       </c>
       <c r="I32" s="3">
-        <v>58900</v>
+        <v>29700</v>
       </c>
       <c r="J32" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-130100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-314000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-221800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2051000</v>
+        <v>-1666600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1753100</v>
+        <v>-2060700</v>
       </c>
       <c r="F33" s="3">
-        <v>4789900</v>
+        <v>-1761400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1239800</v>
+        <v>4812500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1563700</v>
+        <v>-1245600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1006700</v>
+        <v>-1571100</v>
       </c>
       <c r="J33" s="3">
+        <v>-1011500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-931400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>416800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>249500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2051000</v>
+        <v>-1666600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1753100</v>
+        <v>-2060700</v>
       </c>
       <c r="F35" s="3">
-        <v>4789900</v>
+        <v>-1761400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1239800</v>
+        <v>4812500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1563700</v>
+        <v>-1245600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1006700</v>
+        <v>-1571100</v>
       </c>
       <c r="J35" s="3">
+        <v>-1011500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-931400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>416800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>249500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800100</v>
+        <v>570900</v>
       </c>
       <c r="E41" s="3">
-        <v>405500</v>
+        <v>803900</v>
       </c>
       <c r="F41" s="3">
-        <v>854200</v>
+        <v>407400</v>
       </c>
       <c r="G41" s="3">
-        <v>1336700</v>
+        <v>858200</v>
       </c>
       <c r="H41" s="3">
-        <v>1473200</v>
+        <v>1343000</v>
       </c>
       <c r="I41" s="3">
-        <v>2901800</v>
+        <v>1480100</v>
       </c>
       <c r="J41" s="3">
+        <v>2915600</v>
+      </c>
+      <c r="K41" s="3">
         <v>477100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>429400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1030500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1489600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37700</v>
+        <v>36900</v>
       </c>
       <c r="E42" s="3">
-        <v>35800</v>
+        <v>37900</v>
       </c>
       <c r="F42" s="3">
-        <v>39300</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="3">
+        <v>39500</v>
+      </c>
+      <c r="H42" s="3">
         <v>4200</v>
       </c>
-      <c r="H42" s="3">
-        <v>22700</v>
-      </c>
       <c r="I42" s="3">
-        <v>701900</v>
+        <v>22800</v>
       </c>
       <c r="J42" s="3">
+        <v>705200</v>
+      </c>
+      <c r="K42" s="3">
         <v>66800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>488800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>566500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>268900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1199000</v>
+        <v>1068400</v>
       </c>
       <c r="E43" s="3">
-        <v>1551700</v>
+        <v>1237400</v>
       </c>
       <c r="F43" s="3">
-        <v>1546800</v>
+        <v>1559100</v>
       </c>
       <c r="G43" s="3">
-        <v>1864500</v>
+        <v>1554100</v>
       </c>
       <c r="H43" s="3">
-        <v>2028000</v>
+        <v>1873300</v>
       </c>
       <c r="I43" s="3">
-        <v>2377100</v>
+        <v>2037500</v>
       </c>
       <c r="J43" s="3">
+        <v>2388300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2301100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2414400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2042100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>586400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>73700</v>
+        <v>61000</v>
       </c>
       <c r="E44" s="3">
-        <v>63700</v>
+        <v>74100</v>
       </c>
       <c r="F44" s="3">
-        <v>61800</v>
+        <v>64000</v>
       </c>
       <c r="G44" s="3">
-        <v>49400</v>
+        <v>62100</v>
       </c>
       <c r="H44" s="3">
-        <v>69100</v>
+        <v>49600</v>
       </c>
       <c r="I44" s="3">
-        <v>68600</v>
+        <v>69500</v>
       </c>
       <c r="J44" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K44" s="3">
         <v>93200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4472100</v>
+        <v>7348400</v>
       </c>
       <c r="E45" s="3">
-        <v>1448000</v>
+        <v>4404500</v>
       </c>
       <c r="F45" s="3">
-        <v>1649300</v>
+        <v>1454800</v>
       </c>
       <c r="G45" s="3">
-        <v>1370800</v>
+        <v>1657100</v>
       </c>
       <c r="H45" s="3">
-        <v>1512600</v>
+        <v>1377200</v>
       </c>
       <c r="I45" s="3">
-        <v>3845400</v>
+        <v>1519700</v>
       </c>
       <c r="J45" s="3">
+        <v>3863600</v>
+      </c>
+      <c r="K45" s="3">
         <v>14171400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>823600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1208700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>689800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6582700</v>
+        <v>9085600</v>
       </c>
       <c r="E46" s="3">
-        <v>3504700</v>
+        <v>6557800</v>
       </c>
       <c r="F46" s="3">
-        <v>4151400</v>
+        <v>3521300</v>
       </c>
       <c r="G46" s="3">
-        <v>4625600</v>
+        <v>4171000</v>
       </c>
       <c r="H46" s="3">
-        <v>5105500</v>
+        <v>4647400</v>
       </c>
       <c r="I46" s="3">
-        <v>7414700</v>
+        <v>5129600</v>
       </c>
       <c r="J46" s="3">
+        <v>7449700</v>
+      </c>
+      <c r="K46" s="3">
         <v>9675900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3174700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4937700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3037900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305900</v>
+        <v>144500</v>
       </c>
       <c r="E47" s="3">
-        <v>609500</v>
+        <v>307600</v>
       </c>
       <c r="F47" s="3">
-        <v>162400</v>
+        <v>612400</v>
       </c>
       <c r="G47" s="3">
-        <v>148800</v>
+        <v>163200</v>
       </c>
       <c r="H47" s="3">
-        <v>170300</v>
+        <v>149500</v>
       </c>
       <c r="I47" s="3">
-        <v>213400</v>
+        <v>171100</v>
       </c>
       <c r="J47" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K47" s="3">
         <v>224000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>560500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>267300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>555600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4701000</v>
+        <v>3168900</v>
       </c>
       <c r="E48" s="3">
-        <v>7579100</v>
+        <v>4744300</v>
       </c>
       <c r="F48" s="3">
-        <v>5536700</v>
+        <v>7614900</v>
       </c>
       <c r="G48" s="3">
-        <v>5256800</v>
+        <v>5562900</v>
       </c>
       <c r="H48" s="3">
-        <v>5045800</v>
+        <v>5281700</v>
       </c>
       <c r="I48" s="3">
-        <v>4107400</v>
+        <v>5069700</v>
       </c>
       <c r="J48" s="3">
+        <v>4126800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4528100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3560900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5396700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1437300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>720300</v>
+        <v>783900</v>
       </c>
       <c r="E49" s="3">
-        <v>778700</v>
+        <v>723700</v>
       </c>
       <c r="F49" s="3">
-        <v>1353400</v>
+        <v>782400</v>
       </c>
       <c r="G49" s="3">
-        <v>1626500</v>
+        <v>1359800</v>
       </c>
       <c r="H49" s="3">
-        <v>959300</v>
+        <v>1634200</v>
       </c>
       <c r="I49" s="3">
-        <v>4508700</v>
+        <v>963800</v>
       </c>
       <c r="J49" s="3">
+        <v>4530000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3239400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1279100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>989500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>269100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2072500</v>
+        <v>2072100</v>
       </c>
       <c r="E52" s="3">
-        <v>1531100</v>
+        <v>2117100</v>
       </c>
       <c r="F52" s="3">
-        <v>1542000</v>
+        <v>1538300</v>
       </c>
       <c r="G52" s="3">
-        <v>1711700</v>
+        <v>1549300</v>
       </c>
       <c r="H52" s="3">
-        <v>1722700</v>
+        <v>1719800</v>
       </c>
       <c r="I52" s="3">
-        <v>5596500</v>
+        <v>1730800</v>
       </c>
       <c r="J52" s="3">
+        <v>5622900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4186200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4124700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4539700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2555300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14382500</v>
+        <v>15254900</v>
       </c>
       <c r="E54" s="3">
-        <v>14003100</v>
+        <v>14450400</v>
       </c>
       <c r="F54" s="3">
-        <v>12746000</v>
+        <v>14069200</v>
       </c>
       <c r="G54" s="3">
-        <v>13369500</v>
+        <v>12806200</v>
       </c>
       <c r="H54" s="3">
-        <v>12850100</v>
+        <v>13432700</v>
       </c>
       <c r="I54" s="3">
-        <v>20063800</v>
+        <v>12910700</v>
       </c>
       <c r="J54" s="3">
+        <v>20158600</v>
+      </c>
+      <c r="K54" s="3">
         <v>21570200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12411900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16130800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7855200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>638100</v>
+        <v>788500</v>
       </c>
       <c r="E57" s="3">
-        <v>1089600</v>
+        <v>647100</v>
       </c>
       <c r="F57" s="3">
-        <v>1017900</v>
+        <v>1094700</v>
       </c>
       <c r="G57" s="3">
-        <v>1485600</v>
+        <v>1022700</v>
       </c>
       <c r="H57" s="3">
-        <v>1281300</v>
+        <v>1492600</v>
       </c>
       <c r="I57" s="3">
-        <v>1955700</v>
+        <v>1287400</v>
       </c>
       <c r="J57" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1693900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1675900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1087900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>456600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>210300</v>
+        <v>699900</v>
       </c>
       <c r="E58" s="3">
-        <v>357700</v>
+        <v>211300</v>
       </c>
       <c r="F58" s="3">
-        <v>131100</v>
+        <v>359400</v>
       </c>
       <c r="G58" s="3">
-        <v>10618500</v>
+        <v>131700</v>
       </c>
       <c r="H58" s="3">
-        <v>9366200</v>
+        <v>10668600</v>
       </c>
       <c r="I58" s="3">
-        <v>4600500</v>
+        <v>9410500</v>
       </c>
       <c r="J58" s="3">
+        <v>4622300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1738900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1472800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>727100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>283700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2660200</v>
+        <v>3677400</v>
       </c>
       <c r="E59" s="3">
-        <v>858100</v>
+        <v>2435300</v>
       </c>
       <c r="F59" s="3">
-        <v>933100</v>
+        <v>862200</v>
       </c>
       <c r="G59" s="3">
-        <v>1119800</v>
+        <v>937500</v>
       </c>
       <c r="H59" s="3">
-        <v>1289700</v>
+        <v>1125100</v>
       </c>
       <c r="I59" s="3">
-        <v>2732500</v>
+        <v>1295800</v>
       </c>
       <c r="J59" s="3">
+        <v>2745400</v>
+      </c>
+      <c r="K59" s="3">
         <v>7718300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2241500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2177300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1398000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3508600</v>
+        <v>5165900</v>
       </c>
       <c r="E60" s="3">
-        <v>2305400</v>
+        <v>3293700</v>
       </c>
       <c r="F60" s="3">
-        <v>2082100</v>
+        <v>2316300</v>
       </c>
       <c r="G60" s="3">
-        <v>13223900</v>
+        <v>2091900</v>
       </c>
       <c r="H60" s="3">
-        <v>11937200</v>
+        <v>13286400</v>
       </c>
       <c r="I60" s="3">
-        <v>4981300</v>
+        <v>11993600</v>
       </c>
       <c r="J60" s="3">
+        <v>5004800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8293700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2751700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3992400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2138200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5501700</v>
+        <v>6343600</v>
       </c>
       <c r="E61" s="3">
-        <v>4780000</v>
+        <v>5527700</v>
       </c>
       <c r="F61" s="3">
-        <v>3073000</v>
+        <v>4802500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3087600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9358800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>9403000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6113300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5612200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7059900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1727100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3858800</v>
+        <v>3886900</v>
       </c>
       <c r="E62" s="3">
-        <v>3451300</v>
+        <v>4108500</v>
       </c>
       <c r="F62" s="3">
-        <v>3131200</v>
+        <v>3467600</v>
       </c>
       <c r="G62" s="3">
-        <v>2777600</v>
+        <v>3146000</v>
       </c>
       <c r="H62" s="3">
-        <v>2211200</v>
+        <v>2790700</v>
       </c>
       <c r="I62" s="3">
-        <v>3292900</v>
+        <v>2221600</v>
       </c>
       <c r="J62" s="3">
+        <v>3308500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3489400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3752800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2436000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1363000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12872700</v>
+        <v>15402800</v>
       </c>
       <c r="E66" s="3">
-        <v>10565200</v>
+        <v>12933500</v>
       </c>
       <c r="F66" s="3">
-        <v>8333800</v>
+        <v>10615100</v>
       </c>
       <c r="G66" s="3">
-        <v>16058600</v>
+        <v>8373100</v>
       </c>
       <c r="H66" s="3">
-        <v>14302500</v>
+        <v>16134500</v>
       </c>
       <c r="I66" s="3">
-        <v>16322400</v>
+        <v>14370100</v>
       </c>
       <c r="J66" s="3">
+        <v>16399500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16575300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10371300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13488200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5228300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2746,14 +2913,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>-491400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-37100</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4749200</v>
+        <v>-6434000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2698200</v>
+        <v>-4771600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1174900</v>
+        <v>-2710900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5672900</v>
+        <v>-1180500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4433200</v>
+        <v>-5699700</v>
       </c>
       <c r="I72" s="3">
-        <v>4103600</v>
+        <v>-4454100</v>
       </c>
       <c r="J72" s="3">
+        <v>4123000</v>
+      </c>
+      <c r="K72" s="3">
         <v>3024200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1521800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1406900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1738400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1509800</v>
+        <v>-147900</v>
       </c>
       <c r="E76" s="3">
-        <v>3437900</v>
+        <v>1517000</v>
       </c>
       <c r="F76" s="3">
-        <v>4412200</v>
+        <v>3454200</v>
       </c>
       <c r="G76" s="3">
-        <v>-2689100</v>
+        <v>4433100</v>
       </c>
       <c r="H76" s="3">
-        <v>-1452500</v>
+        <v>-2701800</v>
       </c>
       <c r="I76" s="3">
-        <v>3741400</v>
+        <v>-1459300</v>
       </c>
       <c r="J76" s="3">
+        <v>3759100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4994900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2040600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3134000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2664000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2051000</v>
+        <v>-1666600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1753100</v>
+        <v>-2060700</v>
       </c>
       <c r="F81" s="3">
-        <v>4789900</v>
+        <v>-1761400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1239800</v>
+        <v>4812500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1563700</v>
+        <v>-1245600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1006700</v>
+        <v>-1571100</v>
       </c>
       <c r="J81" s="3">
+        <v>-1011500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-931400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>416800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>249500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>845700</v>
+        <v>783200</v>
       </c>
       <c r="E83" s="3">
-        <v>1338900</v>
+        <v>764200</v>
       </c>
       <c r="F83" s="3">
-        <v>1131900</v>
+        <v>1345200</v>
       </c>
       <c r="G83" s="3">
-        <v>995200</v>
+        <v>1137200</v>
       </c>
       <c r="H83" s="3">
-        <v>1068100</v>
+        <v>999900</v>
       </c>
       <c r="I83" s="3">
-        <v>1206700</v>
+        <v>1073100</v>
       </c>
       <c r="J83" s="3">
+        <v>1212400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1123200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1007900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>753800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>259100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>858300</v>
+        <v>-21700</v>
       </c>
       <c r="E89" s="3">
-        <v>450300</v>
+        <v>878000</v>
       </c>
       <c r="F89" s="3">
-        <v>557600</v>
+        <v>452400</v>
       </c>
       <c r="G89" s="3">
-        <v>857400</v>
+        <v>560200</v>
       </c>
       <c r="H89" s="3">
-        <v>603900</v>
+        <v>861400</v>
       </c>
       <c r="I89" s="3">
-        <v>-205200</v>
+        <v>606700</v>
       </c>
       <c r="J89" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1077200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1245700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>901100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>456300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-673000</v>
+        <v>-684900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1446300</v>
+        <v>-676200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1021900</v>
+        <v>-1453200</v>
       </c>
       <c r="G91" s="3">
-        <v>-846200</v>
+        <v>-1026700</v>
       </c>
       <c r="H91" s="3">
-        <v>-635700</v>
+        <v>-850200</v>
       </c>
       <c r="I91" s="3">
-        <v>-717100</v>
+        <v>-638700</v>
       </c>
       <c r="J91" s="3">
+        <v>-720500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1046000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1058300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1244600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-219200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-659400</v>
+        <v>-938900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1334400</v>
+        <v>-678100</v>
       </c>
       <c r="F94" s="3">
-        <v>-957700</v>
+        <v>-1340700</v>
       </c>
       <c r="G94" s="3">
-        <v>-861300</v>
+        <v>-962200</v>
       </c>
       <c r="H94" s="3">
-        <v>-763000</v>
+        <v>-865300</v>
       </c>
       <c r="I94" s="3">
-        <v>2443100</v>
+        <v>-766600</v>
       </c>
       <c r="J94" s="3">
+        <v>2454700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-838100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1198800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1503700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-518200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3534,35 +3767,38 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-11200</v>
-      </c>
       <c r="J96" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-226700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-561700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-114700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>155800</v>
+        <v>740300</v>
       </c>
       <c r="E100" s="3">
-        <v>435500</v>
+        <v>156500</v>
       </c>
       <c r="F100" s="3">
-        <v>-82700</v>
+        <v>437500</v>
       </c>
       <c r="G100" s="3">
-        <v>-134700</v>
+        <v>-83000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1191900</v>
+        <v>-135400</v>
       </c>
       <c r="I100" s="3">
-        <v>-459000</v>
+        <v>-1197500</v>
       </c>
       <c r="J100" s="3">
+        <v>-461200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-228800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-407000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>227600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>724100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39900</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>40100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-77600</v>
-      </c>
       <c r="I101" s="3">
-        <v>645900</v>
+        <v>-78000</v>
       </c>
       <c r="J101" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>29400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>394600</v>
+        <v>-233000</v>
       </c>
       <c r="E102" s="3">
-        <v>-448700</v>
+        <v>396500</v>
       </c>
       <c r="F102" s="3">
-        <v>-482500</v>
+        <v>-450800</v>
       </c>
       <c r="G102" s="3">
-        <v>-136500</v>
+        <v>-484800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1428700</v>
+        <v>-137100</v>
       </c>
       <c r="I102" s="3">
-        <v>2424800</v>
+        <v>-1435400</v>
       </c>
       <c r="J102" s="3">
+        <v>2436200</v>
+      </c>
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-351200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-371600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>691500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2051600</v>
+        <v>1961400</v>
       </c>
       <c r="E8" s="3">
-        <v>2139000</v>
+        <v>2044900</v>
       </c>
       <c r="F8" s="3">
-        <v>2053300</v>
+        <v>1963000</v>
       </c>
       <c r="G8" s="3">
-        <v>4317100</v>
+        <v>4127200</v>
       </c>
       <c r="H8" s="3">
-        <v>4655600</v>
+        <v>4450800</v>
       </c>
       <c r="I8" s="3">
-        <v>5087500</v>
+        <v>4863700</v>
       </c>
       <c r="J8" s="3">
-        <v>5353100</v>
+        <v>5117600</v>
       </c>
       <c r="K8" s="3">
         <v>5502000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1942200</v>
+        <v>1856700</v>
       </c>
       <c r="E9" s="3">
-        <v>1548400</v>
+        <v>1480300</v>
       </c>
       <c r="F9" s="3">
-        <v>1562200</v>
+        <v>1493500</v>
       </c>
       <c r="G9" s="3">
-        <v>3166200</v>
+        <v>3026900</v>
       </c>
       <c r="H9" s="3">
-        <v>2932800</v>
+        <v>2803800</v>
       </c>
       <c r="I9" s="3">
-        <v>3134200</v>
+        <v>2996300</v>
       </c>
       <c r="J9" s="3">
-        <v>6245300</v>
+        <v>5970500</v>
       </c>
       <c r="K9" s="3">
         <v>6133000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>109400</v>
+        <v>104600</v>
       </c>
       <c r="E10" s="3">
-        <v>590600</v>
+        <v>564600</v>
       </c>
       <c r="F10" s="3">
-        <v>491100</v>
+        <v>469500</v>
       </c>
       <c r="G10" s="3">
-        <v>1150900</v>
+        <v>1100300</v>
       </c>
       <c r="H10" s="3">
-        <v>1722800</v>
+        <v>1647000</v>
       </c>
       <c r="I10" s="3">
-        <v>1953300</v>
+        <v>1867300</v>
       </c>
       <c r="J10" s="3">
-        <v>-892200</v>
+        <v>-852900</v>
       </c>
       <c r="K10" s="3">
         <v>-631000</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2163400</v>
+        <v>-2068200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2450300</v>
+        <v>2342500</v>
       </c>
       <c r="E17" s="3">
-        <v>2400000</v>
+        <v>2294400</v>
       </c>
       <c r="F17" s="3">
-        <v>2953100</v>
+        <v>2823100</v>
       </c>
       <c r="G17" s="3">
-        <v>3184700</v>
+        <v>3044600</v>
       </c>
       <c r="H17" s="3">
-        <v>5117700</v>
+        <v>4892500</v>
       </c>
       <c r="I17" s="3">
-        <v>5359800</v>
+        <v>5124000</v>
       </c>
       <c r="J17" s="3">
-        <v>4893500</v>
+        <v>4678200</v>
       </c>
       <c r="K17" s="3">
         <v>4603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-398700</v>
+        <v>-381100</v>
       </c>
       <c r="E18" s="3">
-        <v>-261000</v>
+        <v>-249500</v>
       </c>
       <c r="F18" s="3">
-        <v>-899800</v>
+        <v>-860200</v>
       </c>
       <c r="G18" s="3">
-        <v>1132400</v>
+        <v>1082600</v>
       </c>
       <c r="H18" s="3">
-        <v>-462100</v>
+        <v>-441700</v>
       </c>
       <c r="I18" s="3">
-        <v>-272300</v>
+        <v>-260300</v>
       </c>
       <c r="J18" s="3">
-        <v>459600</v>
+        <v>439400</v>
       </c>
       <c r="K18" s="3">
         <v>898600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1031300</v>
+        <v>-985900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1742700</v>
+        <v>-1666100</v>
       </c>
       <c r="F20" s="3">
-        <v>-492100</v>
+        <v>-470400</v>
       </c>
       <c r="G20" s="3">
-        <v>3043900</v>
+        <v>2910000</v>
       </c>
       <c r="H20" s="3">
-        <v>77900</v>
+        <v>74400</v>
       </c>
       <c r="I20" s="3">
-        <v>-29700</v>
+        <v>-28400</v>
       </c>
       <c r="J20" s="3">
-        <v>-59100</v>
+        <v>-56500</v>
       </c>
       <c r="K20" s="3">
         <v>130100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-647000</v>
+        <v>-595400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1239800</v>
+        <v>-1162700</v>
       </c>
       <c r="F21" s="3">
-        <v>-47000</v>
+        <v>-5200</v>
       </c>
       <c r="G21" s="3">
-        <v>5313200</v>
+        <v>5113100</v>
       </c>
       <c r="H21" s="3">
-        <v>615400</v>
+        <v>617800</v>
       </c>
       <c r="I21" s="3">
-        <v>770800</v>
+        <v>768600</v>
       </c>
       <c r="J21" s="3">
-        <v>1612500</v>
+        <v>1577300</v>
       </c>
       <c r="K21" s="3">
         <v>2151200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>838400</v>
+        <v>801500</v>
       </c>
       <c r="E22" s="3">
-        <v>754800</v>
+        <v>721600</v>
       </c>
       <c r="F22" s="3">
-        <v>560100</v>
+        <v>535500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>703400</v>
+        <v>672500</v>
       </c>
       <c r="I22" s="3">
-        <v>692100</v>
+        <v>661700</v>
       </c>
       <c r="J22" s="3">
-        <v>1585300</v>
+        <v>1515600</v>
       </c>
       <c r="K22" s="3">
         <v>1016200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2268400</v>
+        <v>-2168600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2758500</v>
+        <v>-2637100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1952000</v>
+        <v>-1866100</v>
       </c>
       <c r="G23" s="3">
-        <v>4176400</v>
+        <v>3992600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1087600</v>
+        <v>-1039800</v>
       </c>
       <c r="I23" s="3">
-        <v>-994100</v>
+        <v>-950400</v>
       </c>
       <c r="J23" s="3">
-        <v>-1184900</v>
+        <v>-1132800</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-398500</v>
+        <v>-381000</v>
       </c>
       <c r="E24" s="3">
-        <v>-694900</v>
+        <v>-664300</v>
       </c>
       <c r="F24" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G24" s="3">
-        <v>-640900</v>
+        <v>-612700</v>
       </c>
       <c r="H24" s="3">
-        <v>215000</v>
+        <v>205500</v>
       </c>
       <c r="I24" s="3">
-        <v>611700</v>
+        <v>584800</v>
       </c>
       <c r="J24" s="3">
-        <v>116400</v>
+        <v>111300</v>
       </c>
       <c r="K24" s="3">
         <v>147700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1869900</v>
+        <v>-1787600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2063600</v>
+        <v>-1972800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1949500</v>
+        <v>-1863700</v>
       </c>
       <c r="G26" s="3">
-        <v>4817300</v>
+        <v>4605300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1302600</v>
+        <v>-1245300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1605800</v>
+        <v>-1535200</v>
       </c>
       <c r="J26" s="3">
-        <v>-1301300</v>
+        <v>-1244000</v>
       </c>
       <c r="K26" s="3">
         <v>-135200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1874500</v>
+        <v>-1792000</v>
       </c>
       <c r="E27" s="3">
-        <v>-2063900</v>
+        <v>-1973100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1930900</v>
+        <v>-1846000</v>
       </c>
       <c r="G27" s="3">
-        <v>4812500</v>
+        <v>4600800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1245600</v>
+        <v>-1190800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1571100</v>
+        <v>-1502000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1220500</v>
+        <v>-1166800</v>
       </c>
       <c r="K27" s="3">
         <v>-135400</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>207900</v>
+        <v>198700</v>
       </c>
       <c r="E29" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="3">
-        <v>169600</v>
+        <v>162100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>209000</v>
+        <v>199800</v>
       </c>
       <c r="K29" s="3">
         <v>-796000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1031300</v>
+        <v>985900</v>
       </c>
       <c r="E32" s="3">
-        <v>1742700</v>
+        <v>1666100</v>
       </c>
       <c r="F32" s="3">
-        <v>492100</v>
+        <v>470400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3043900</v>
+        <v>-2910000</v>
       </c>
       <c r="H32" s="3">
-        <v>-77900</v>
+        <v>-74400</v>
       </c>
       <c r="I32" s="3">
-        <v>29700</v>
+        <v>28400</v>
       </c>
       <c r="J32" s="3">
-        <v>59100</v>
+        <v>56500</v>
       </c>
       <c r="K32" s="3">
         <v>-130100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1666600</v>
+        <v>-1593300</v>
       </c>
       <c r="E33" s="3">
-        <v>-2060700</v>
+        <v>-1970100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1761400</v>
+        <v>-1683900</v>
       </c>
       <c r="G33" s="3">
-        <v>4812500</v>
+        <v>4600800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1245600</v>
+        <v>-1190800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1571100</v>
+        <v>-1502000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1011500</v>
+        <v>-967000</v>
       </c>
       <c r="K33" s="3">
         <v>-931400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1666600</v>
+        <v>-1593300</v>
       </c>
       <c r="E35" s="3">
-        <v>-2060700</v>
+        <v>-1970100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1761400</v>
+        <v>-1683900</v>
       </c>
       <c r="G35" s="3">
-        <v>4812500</v>
+        <v>4600800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1245600</v>
+        <v>-1190800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1571100</v>
+        <v>-1502000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1011500</v>
+        <v>-967000</v>
       </c>
       <c r="K35" s="3">
         <v>-931400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>570900</v>
+        <v>545800</v>
       </c>
       <c r="E41" s="3">
-        <v>803900</v>
+        <v>768600</v>
       </c>
       <c r="F41" s="3">
-        <v>407400</v>
+        <v>389500</v>
       </c>
       <c r="G41" s="3">
-        <v>858200</v>
+        <v>820500</v>
       </c>
       <c r="H41" s="3">
-        <v>1343000</v>
+        <v>1283900</v>
       </c>
       <c r="I41" s="3">
-        <v>1480100</v>
+        <v>1415000</v>
       </c>
       <c r="J41" s="3">
-        <v>2915600</v>
+        <v>2787300</v>
       </c>
       <c r="K41" s="3">
         <v>477100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="E42" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="F42" s="3">
-        <v>36000</v>
+        <v>34400</v>
       </c>
       <c r="G42" s="3">
-        <v>39500</v>
+        <v>37800</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="J42" s="3">
-        <v>705200</v>
+        <v>674200</v>
       </c>
       <c r="K42" s="3">
         <v>66800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1068400</v>
+        <v>1021400</v>
       </c>
       <c r="E43" s="3">
-        <v>1237400</v>
+        <v>1182900</v>
       </c>
       <c r="F43" s="3">
-        <v>1559100</v>
+        <v>1490500</v>
       </c>
       <c r="G43" s="3">
-        <v>1554100</v>
+        <v>1485700</v>
       </c>
       <c r="H43" s="3">
-        <v>1873300</v>
+        <v>1790900</v>
       </c>
       <c r="I43" s="3">
-        <v>2037500</v>
+        <v>1947900</v>
       </c>
       <c r="J43" s="3">
-        <v>2388300</v>
+        <v>2283300</v>
       </c>
       <c r="K43" s="3">
         <v>2301100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61000</v>
+        <v>58300</v>
       </c>
       <c r="E44" s="3">
-        <v>74100</v>
+        <v>70800</v>
       </c>
       <c r="F44" s="3">
-        <v>64000</v>
+        <v>61200</v>
       </c>
       <c r="G44" s="3">
-        <v>62100</v>
+        <v>59400</v>
       </c>
       <c r="H44" s="3">
-        <v>49600</v>
+        <v>47500</v>
       </c>
       <c r="I44" s="3">
-        <v>69500</v>
+        <v>66400</v>
       </c>
       <c r="J44" s="3">
-        <v>68900</v>
+        <v>65900</v>
       </c>
       <c r="K44" s="3">
         <v>93200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7348400</v>
+        <v>7025100</v>
       </c>
       <c r="E45" s="3">
-        <v>4404500</v>
+        <v>4210700</v>
       </c>
       <c r="F45" s="3">
-        <v>1454800</v>
+        <v>1390800</v>
       </c>
       <c r="G45" s="3">
-        <v>1657100</v>
+        <v>1584200</v>
       </c>
       <c r="H45" s="3">
-        <v>1377200</v>
+        <v>1316600</v>
       </c>
       <c r="I45" s="3">
-        <v>1519700</v>
+        <v>1452800</v>
       </c>
       <c r="J45" s="3">
-        <v>3863600</v>
+        <v>3693600</v>
       </c>
       <c r="K45" s="3">
         <v>14171400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9085600</v>
+        <v>8685900</v>
       </c>
       <c r="E46" s="3">
-        <v>6557800</v>
+        <v>6269300</v>
       </c>
       <c r="F46" s="3">
-        <v>3521300</v>
+        <v>3366400</v>
       </c>
       <c r="G46" s="3">
-        <v>4171000</v>
+        <v>3987500</v>
       </c>
       <c r="H46" s="3">
-        <v>4647400</v>
+        <v>4443000</v>
       </c>
       <c r="I46" s="3">
-        <v>5129600</v>
+        <v>4904000</v>
       </c>
       <c r="J46" s="3">
-        <v>7449700</v>
+        <v>7122000</v>
       </c>
       <c r="K46" s="3">
         <v>9675900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>144500</v>
+        <v>138100</v>
       </c>
       <c r="E47" s="3">
-        <v>307600</v>
+        <v>294100</v>
       </c>
       <c r="F47" s="3">
-        <v>612400</v>
+        <v>585500</v>
       </c>
       <c r="G47" s="3">
-        <v>163200</v>
+        <v>156000</v>
       </c>
       <c r="H47" s="3">
-        <v>149500</v>
+        <v>142900</v>
       </c>
       <c r="I47" s="3">
-        <v>171100</v>
+        <v>163600</v>
       </c>
       <c r="J47" s="3">
-        <v>214400</v>
+        <v>205000</v>
       </c>
       <c r="K47" s="3">
         <v>224000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3168900</v>
+        <v>3029500</v>
       </c>
       <c r="E48" s="3">
-        <v>4744300</v>
+        <v>4535500</v>
       </c>
       <c r="F48" s="3">
-        <v>7614900</v>
+        <v>7279800</v>
       </c>
       <c r="G48" s="3">
-        <v>5562900</v>
+        <v>5318100</v>
       </c>
       <c r="H48" s="3">
-        <v>5281700</v>
+        <v>5049300</v>
       </c>
       <c r="I48" s="3">
-        <v>5069700</v>
+        <v>4846600</v>
       </c>
       <c r="J48" s="3">
-        <v>4126800</v>
+        <v>3945200</v>
       </c>
       <c r="K48" s="3">
         <v>4528100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>783900</v>
+        <v>749400</v>
       </c>
       <c r="E49" s="3">
-        <v>723700</v>
+        <v>691800</v>
       </c>
       <c r="F49" s="3">
-        <v>782400</v>
+        <v>748000</v>
       </c>
       <c r="G49" s="3">
-        <v>1359800</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="3">
-        <v>1634200</v>
+        <v>1562300</v>
       </c>
       <c r="I49" s="3">
-        <v>963800</v>
+        <v>921400</v>
       </c>
       <c r="J49" s="3">
-        <v>4530000</v>
+        <v>4330700</v>
       </c>
       <c r="K49" s="3">
         <v>3239400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2072100</v>
+        <v>1981000</v>
       </c>
       <c r="E52" s="3">
-        <v>2117100</v>
+        <v>2024000</v>
       </c>
       <c r="F52" s="3">
-        <v>1538300</v>
+        <v>1470600</v>
       </c>
       <c r="G52" s="3">
-        <v>1549300</v>
+        <v>1481100</v>
       </c>
       <c r="H52" s="3">
-        <v>1719800</v>
+        <v>1644100</v>
       </c>
       <c r="I52" s="3">
-        <v>1730800</v>
+        <v>1654700</v>
       </c>
       <c r="J52" s="3">
-        <v>5622900</v>
+        <v>5375600</v>
       </c>
       <c r="K52" s="3">
         <v>4186200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15254900</v>
+        <v>14583800</v>
       </c>
       <c r="E54" s="3">
-        <v>14450400</v>
+        <v>13814700</v>
       </c>
       <c r="F54" s="3">
-        <v>14069200</v>
+        <v>13450200</v>
       </c>
       <c r="G54" s="3">
-        <v>12806200</v>
+        <v>12242800</v>
       </c>
       <c r="H54" s="3">
-        <v>13432700</v>
+        <v>12841700</v>
       </c>
       <c r="I54" s="3">
-        <v>12910700</v>
+        <v>12342700</v>
       </c>
       <c r="J54" s="3">
-        <v>20158600</v>
+        <v>19271700</v>
       </c>
       <c r="K54" s="3">
         <v>21570200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>788500</v>
+        <v>753800</v>
       </c>
       <c r="E57" s="3">
-        <v>647100</v>
+        <v>618600</v>
       </c>
       <c r="F57" s="3">
-        <v>1094700</v>
+        <v>1046600</v>
       </c>
       <c r="G57" s="3">
-        <v>1022700</v>
+        <v>977700</v>
       </c>
       <c r="H57" s="3">
-        <v>1492600</v>
+        <v>1427000</v>
       </c>
       <c r="I57" s="3">
-        <v>1287400</v>
+        <v>1230700</v>
       </c>
       <c r="J57" s="3">
-        <v>1965000</v>
+        <v>1878500</v>
       </c>
       <c r="K57" s="3">
         <v>1693900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>699900</v>
+        <v>669100</v>
       </c>
       <c r="E58" s="3">
-        <v>211300</v>
+        <v>202000</v>
       </c>
       <c r="F58" s="3">
-        <v>359400</v>
+        <v>343600</v>
       </c>
       <c r="G58" s="3">
-        <v>131700</v>
+        <v>125900</v>
       </c>
       <c r="H58" s="3">
-        <v>10668600</v>
+        <v>10199300</v>
       </c>
       <c r="I58" s="3">
-        <v>9410500</v>
+        <v>8996500</v>
       </c>
       <c r="J58" s="3">
-        <v>4622300</v>
+        <v>4418900</v>
       </c>
       <c r="K58" s="3">
         <v>1738900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3677400</v>
+        <v>3515700</v>
       </c>
       <c r="E59" s="3">
-        <v>2435300</v>
+        <v>2328100</v>
       </c>
       <c r="F59" s="3">
-        <v>862200</v>
+        <v>824200</v>
       </c>
       <c r="G59" s="3">
-        <v>937500</v>
+        <v>896300</v>
       </c>
       <c r="H59" s="3">
-        <v>1125100</v>
+        <v>1075600</v>
       </c>
       <c r="I59" s="3">
-        <v>1295800</v>
+        <v>1238800</v>
       </c>
       <c r="J59" s="3">
-        <v>2745400</v>
+        <v>2624600</v>
       </c>
       <c r="K59" s="3">
         <v>7718300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5165900</v>
+        <v>4938600</v>
       </c>
       <c r="E60" s="3">
-        <v>3293700</v>
+        <v>3148800</v>
       </c>
       <c r="F60" s="3">
-        <v>2316300</v>
+        <v>2214400</v>
       </c>
       <c r="G60" s="3">
-        <v>2091900</v>
+        <v>1999900</v>
       </c>
       <c r="H60" s="3">
-        <v>13286400</v>
+        <v>12701800</v>
       </c>
       <c r="I60" s="3">
-        <v>11993600</v>
+        <v>11466000</v>
       </c>
       <c r="J60" s="3">
-        <v>5004800</v>
+        <v>4784700</v>
       </c>
       <c r="K60" s="3">
         <v>8293700</v>
@@ -2560,16 +2560,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6343600</v>
+        <v>6064500</v>
       </c>
       <c r="E61" s="3">
-        <v>5527700</v>
+        <v>5284500</v>
       </c>
       <c r="F61" s="3">
-        <v>4802500</v>
+        <v>4591200</v>
       </c>
       <c r="G61" s="3">
-        <v>3087600</v>
+        <v>2951700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>9403000</v>
+        <v>8989300</v>
       </c>
       <c r="K61" s="3">
         <v>6113300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3886900</v>
+        <v>3715900</v>
       </c>
       <c r="E62" s="3">
-        <v>4108500</v>
+        <v>3927700</v>
       </c>
       <c r="F62" s="3">
-        <v>3467600</v>
+        <v>3315100</v>
       </c>
       <c r="G62" s="3">
-        <v>3146000</v>
+        <v>3007600</v>
       </c>
       <c r="H62" s="3">
-        <v>2790700</v>
+        <v>2667900</v>
       </c>
       <c r="I62" s="3">
-        <v>2221600</v>
+        <v>2123900</v>
       </c>
       <c r="J62" s="3">
-        <v>3308500</v>
+        <v>3162900</v>
       </c>
       <c r="K62" s="3">
         <v>3489400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15402800</v>
+        <v>14725100</v>
       </c>
       <c r="E66" s="3">
-        <v>12933500</v>
+        <v>12364500</v>
       </c>
       <c r="F66" s="3">
-        <v>10615100</v>
+        <v>10148000</v>
       </c>
       <c r="G66" s="3">
-        <v>8373100</v>
+        <v>8004700</v>
       </c>
       <c r="H66" s="3">
-        <v>16134500</v>
+        <v>15424600</v>
       </c>
       <c r="I66" s="3">
-        <v>14370100</v>
+        <v>13737800</v>
       </c>
       <c r="J66" s="3">
-        <v>16399500</v>
+        <v>15678000</v>
       </c>
       <c r="K66" s="3">
         <v>16575300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6434000</v>
+        <v>-6151000</v>
       </c>
       <c r="E72" s="3">
-        <v>-4771600</v>
+        <v>-4561700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2710900</v>
+        <v>-2591700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1180500</v>
+        <v>-1128500</v>
       </c>
       <c r="H72" s="3">
-        <v>-5699700</v>
+        <v>-5449000</v>
       </c>
       <c r="I72" s="3">
-        <v>-4454100</v>
+        <v>-4258100</v>
       </c>
       <c r="J72" s="3">
-        <v>4123000</v>
+        <v>3941600</v>
       </c>
       <c r="K72" s="3">
         <v>3024200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-147900</v>
+        <v>-141400</v>
       </c>
       <c r="E76" s="3">
-        <v>1517000</v>
+        <v>1450200</v>
       </c>
       <c r="F76" s="3">
-        <v>3454200</v>
+        <v>3302200</v>
       </c>
       <c r="G76" s="3">
-        <v>4433100</v>
+        <v>4238000</v>
       </c>
       <c r="H76" s="3">
-        <v>-2701800</v>
+        <v>-2583000</v>
       </c>
       <c r="I76" s="3">
-        <v>-1459300</v>
+        <v>-1395100</v>
       </c>
       <c r="J76" s="3">
-        <v>3759100</v>
+        <v>3593700</v>
       </c>
       <c r="K76" s="3">
         <v>4994900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1666600</v>
+        <v>-1593300</v>
       </c>
       <c r="E81" s="3">
-        <v>-2060700</v>
+        <v>-1970100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1761400</v>
+        <v>-1683900</v>
       </c>
       <c r="G81" s="3">
-        <v>4812500</v>
+        <v>4600800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1245600</v>
+        <v>-1190800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1571100</v>
+        <v>-1502000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1011500</v>
+        <v>-967000</v>
       </c>
       <c r="K81" s="3">
         <v>-931400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>783200</v>
+        <v>748700</v>
       </c>
       <c r="E83" s="3">
-        <v>764200</v>
+        <v>730600</v>
       </c>
       <c r="F83" s="3">
-        <v>1345200</v>
+        <v>1286000</v>
       </c>
       <c r="G83" s="3">
-        <v>1137200</v>
+        <v>1087200</v>
       </c>
       <c r="H83" s="3">
-        <v>999900</v>
+        <v>955900</v>
       </c>
       <c r="I83" s="3">
-        <v>1073100</v>
+        <v>1025900</v>
       </c>
       <c r="J83" s="3">
-        <v>1212400</v>
+        <v>1159000</v>
       </c>
       <c r="K83" s="3">
         <v>1123200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21700</v>
+        <v>-20700</v>
       </c>
       <c r="E89" s="3">
-        <v>878000</v>
+        <v>839300</v>
       </c>
       <c r="F89" s="3">
-        <v>452400</v>
+        <v>432500</v>
       </c>
       <c r="G89" s="3">
-        <v>560200</v>
+        <v>535600</v>
       </c>
       <c r="H89" s="3">
-        <v>861400</v>
+        <v>823500</v>
       </c>
       <c r="I89" s="3">
-        <v>606700</v>
+        <v>580000</v>
       </c>
       <c r="J89" s="3">
-        <v>-206200</v>
+        <v>-197100</v>
       </c>
       <c r="K89" s="3">
         <v>1077200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-684900</v>
+        <v>-654800</v>
       </c>
       <c r="E91" s="3">
-        <v>-676200</v>
+        <v>-646400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1453200</v>
+        <v>-1389200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1026700</v>
+        <v>-981500</v>
       </c>
       <c r="H91" s="3">
-        <v>-850200</v>
+        <v>-812800</v>
       </c>
       <c r="I91" s="3">
-        <v>-638700</v>
+        <v>-610600</v>
       </c>
       <c r="J91" s="3">
-        <v>-720500</v>
+        <v>-688800</v>
       </c>
       <c r="K91" s="3">
         <v>-1046000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-938900</v>
+        <v>-897600</v>
       </c>
       <c r="E94" s="3">
-        <v>-678100</v>
+        <v>-648200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1340700</v>
+        <v>-1281700</v>
       </c>
       <c r="G94" s="3">
-        <v>-962200</v>
+        <v>-919900</v>
       </c>
       <c r="H94" s="3">
-        <v>-865300</v>
+        <v>-827200</v>
       </c>
       <c r="I94" s="3">
-        <v>-766600</v>
+        <v>-732900</v>
       </c>
       <c r="J94" s="3">
-        <v>2454700</v>
+        <v>2346700</v>
       </c>
       <c r="K94" s="3">
         <v>-838100</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="I96" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="J96" s="3">
-        <v>-11300</v>
+        <v>-10800</v>
       </c>
       <c r="K96" s="3">
         <v>-1000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>740300</v>
+        <v>707700</v>
       </c>
       <c r="E100" s="3">
-        <v>156500</v>
+        <v>149600</v>
       </c>
       <c r="F100" s="3">
-        <v>437500</v>
+        <v>418300</v>
       </c>
       <c r="G100" s="3">
-        <v>-83000</v>
+        <v>-79400</v>
       </c>
       <c r="H100" s="3">
-        <v>-135400</v>
+        <v>-129400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1197500</v>
+        <v>-1144800</v>
       </c>
       <c r="J100" s="3">
-        <v>-461200</v>
+        <v>-440900</v>
       </c>
       <c r="K100" s="3">
         <v>-228800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>-12200</v>
       </c>
       <c r="E101" s="3">
-        <v>40100</v>
+        <v>38400</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-78000</v>
+        <v>-74600</v>
       </c>
       <c r="J101" s="3">
-        <v>649000</v>
+        <v>620400</v>
       </c>
       <c r="K101" s="3">
         <v>-5600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-233000</v>
+        <v>-222800</v>
       </c>
       <c r="E102" s="3">
-        <v>396500</v>
+        <v>379000</v>
       </c>
       <c r="F102" s="3">
-        <v>-450800</v>
+        <v>-430900</v>
       </c>
       <c r="G102" s="3">
-        <v>-484800</v>
+        <v>-463500</v>
       </c>
       <c r="H102" s="3">
-        <v>-137100</v>
+        <v>-131100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1435400</v>
+        <v>-1372300</v>
       </c>
       <c r="J102" s="3">
-        <v>2436200</v>
+        <v>2329100</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1961400</v>
+        <v>2029900</v>
       </c>
       <c r="E8" s="3">
-        <v>2044900</v>
+        <v>2116400</v>
       </c>
       <c r="F8" s="3">
-        <v>1963000</v>
+        <v>2031600</v>
       </c>
       <c r="G8" s="3">
-        <v>4127200</v>
+        <v>4271500</v>
       </c>
       <c r="H8" s="3">
-        <v>4450800</v>
+        <v>4606400</v>
       </c>
       <c r="I8" s="3">
-        <v>4863700</v>
+        <v>5033700</v>
       </c>
       <c r="J8" s="3">
-        <v>5117600</v>
+        <v>5296500</v>
       </c>
       <c r="K8" s="3">
         <v>5502000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1856700</v>
+        <v>1921700</v>
       </c>
       <c r="E9" s="3">
-        <v>1480300</v>
+        <v>1532100</v>
       </c>
       <c r="F9" s="3">
-        <v>1493500</v>
+        <v>1545700</v>
       </c>
       <c r="G9" s="3">
-        <v>3026900</v>
+        <v>3132800</v>
       </c>
       <c r="H9" s="3">
-        <v>2803800</v>
+        <v>2901800</v>
       </c>
       <c r="I9" s="3">
-        <v>2996300</v>
+        <v>3101100</v>
       </c>
       <c r="J9" s="3">
-        <v>5970500</v>
+        <v>6179200</v>
       </c>
       <c r="K9" s="3">
         <v>6133000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>104600</v>
+        <v>108300</v>
       </c>
       <c r="E10" s="3">
-        <v>564600</v>
+        <v>584400</v>
       </c>
       <c r="F10" s="3">
-        <v>469500</v>
+        <v>485900</v>
       </c>
       <c r="G10" s="3">
-        <v>1100300</v>
+        <v>1138700</v>
       </c>
       <c r="H10" s="3">
-        <v>1647000</v>
+        <v>1704600</v>
       </c>
       <c r="I10" s="3">
-        <v>1867300</v>
+        <v>1932600</v>
       </c>
       <c r="J10" s="3">
-        <v>-852900</v>
+        <v>-882700</v>
       </c>
       <c r="K10" s="3">
         <v>-631000</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2068200</v>
+        <v>-2140500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2342500</v>
+        <v>2424400</v>
       </c>
       <c r="E17" s="3">
-        <v>2294400</v>
+        <v>2374600</v>
       </c>
       <c r="F17" s="3">
-        <v>2823100</v>
+        <v>2921800</v>
       </c>
       <c r="G17" s="3">
-        <v>3044600</v>
+        <v>3151000</v>
       </c>
       <c r="H17" s="3">
-        <v>4892500</v>
+        <v>5063600</v>
       </c>
       <c r="I17" s="3">
-        <v>5124000</v>
+        <v>5303100</v>
       </c>
       <c r="J17" s="3">
-        <v>4678200</v>
+        <v>4841800</v>
       </c>
       <c r="K17" s="3">
         <v>4603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-381100</v>
+        <v>-394500</v>
       </c>
       <c r="E18" s="3">
-        <v>-249500</v>
+        <v>-258200</v>
       </c>
       <c r="F18" s="3">
-        <v>-860200</v>
+        <v>-890200</v>
       </c>
       <c r="G18" s="3">
-        <v>1082600</v>
+        <v>1120400</v>
       </c>
       <c r="H18" s="3">
-        <v>-441700</v>
+        <v>-457200</v>
       </c>
       <c r="I18" s="3">
-        <v>-260300</v>
+        <v>-269400</v>
       </c>
       <c r="J18" s="3">
-        <v>439400</v>
+        <v>454700</v>
       </c>
       <c r="K18" s="3">
         <v>898600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-985900</v>
+        <v>-1020400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1666100</v>
+        <v>-1724300</v>
       </c>
       <c r="F20" s="3">
-        <v>-470400</v>
+        <v>-486900</v>
       </c>
       <c r="G20" s="3">
-        <v>2910000</v>
+        <v>3011700</v>
       </c>
       <c r="H20" s="3">
-        <v>74400</v>
+        <v>77000</v>
       </c>
       <c r="I20" s="3">
-        <v>-28400</v>
+        <v>-29400</v>
       </c>
       <c r="J20" s="3">
-        <v>-56500</v>
+        <v>-58500</v>
       </c>
       <c r="K20" s="3">
         <v>130100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-595400</v>
+        <v>-637000</v>
       </c>
       <c r="E21" s="3">
-        <v>-1162700</v>
+        <v>-1223600</v>
       </c>
       <c r="F21" s="3">
-        <v>-5200</v>
+        <v>-41100</v>
       </c>
       <c r="G21" s="3">
-        <v>5113100</v>
+        <v>5261600</v>
       </c>
       <c r="H21" s="3">
-        <v>617800</v>
+        <v>612900</v>
       </c>
       <c r="I21" s="3">
-        <v>768600</v>
+        <v>766900</v>
       </c>
       <c r="J21" s="3">
-        <v>1577300</v>
+        <v>1600200</v>
       </c>
       <c r="K21" s="3">
         <v>2151200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>801500</v>
+        <v>829600</v>
       </c>
       <c r="E22" s="3">
-        <v>721600</v>
+        <v>746800</v>
       </c>
       <c r="F22" s="3">
-        <v>535500</v>
+        <v>554200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>672500</v>
+        <v>696000</v>
       </c>
       <c r="I22" s="3">
-        <v>661700</v>
+        <v>684800</v>
       </c>
       <c r="J22" s="3">
-        <v>1515600</v>
+        <v>1568600</v>
       </c>
       <c r="K22" s="3">
         <v>1016200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2168600</v>
+        <v>-2244400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2637100</v>
+        <v>-2729300</v>
       </c>
       <c r="F23" s="3">
-        <v>-1866100</v>
+        <v>-1931300</v>
       </c>
       <c r="G23" s="3">
-        <v>3992600</v>
+        <v>4132200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1039800</v>
+        <v>-1076100</v>
       </c>
       <c r="I23" s="3">
-        <v>-950400</v>
+        <v>-983600</v>
       </c>
       <c r="J23" s="3">
-        <v>-1132800</v>
+        <v>-1172400</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-381000</v>
+        <v>-394300</v>
       </c>
       <c r="E24" s="3">
-        <v>-664300</v>
+        <v>-687600</v>
       </c>
       <c r="F24" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G24" s="3">
-        <v>-612700</v>
+        <v>-634100</v>
       </c>
       <c r="H24" s="3">
-        <v>205500</v>
+        <v>212700</v>
       </c>
       <c r="I24" s="3">
-        <v>584800</v>
+        <v>605200</v>
       </c>
       <c r="J24" s="3">
-        <v>111300</v>
+        <v>115200</v>
       </c>
       <c r="K24" s="3">
         <v>147700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1787600</v>
+        <v>-1850100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1972800</v>
+        <v>-2041700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1863700</v>
+        <v>-1928900</v>
       </c>
       <c r="G26" s="3">
-        <v>4605300</v>
+        <v>4766300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1245300</v>
+        <v>-1288800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1535200</v>
+        <v>-1588800</v>
       </c>
       <c r="J26" s="3">
-        <v>-1244000</v>
+        <v>-1287500</v>
       </c>
       <c r="K26" s="3">
         <v>-135200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1792000</v>
+        <v>-1854700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1973100</v>
+        <v>-2042000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1846000</v>
+        <v>-1910500</v>
       </c>
       <c r="G27" s="3">
-        <v>4600800</v>
+        <v>4761600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1190800</v>
+        <v>-1232500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1502000</v>
+        <v>-1554500</v>
       </c>
       <c r="J27" s="3">
-        <v>-1166800</v>
+        <v>-1207600</v>
       </c>
       <c r="K27" s="3">
         <v>-135400</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>198700</v>
+        <v>205700</v>
       </c>
       <c r="E29" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F29" s="3">
-        <v>162100</v>
+        <v>167800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>199800</v>
+        <v>206800</v>
       </c>
       <c r="K29" s="3">
         <v>-796000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>985900</v>
+        <v>1020400</v>
       </c>
       <c r="E32" s="3">
-        <v>1666100</v>
+        <v>1724300</v>
       </c>
       <c r="F32" s="3">
-        <v>470400</v>
+        <v>486900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2910000</v>
+        <v>-3011700</v>
       </c>
       <c r="H32" s="3">
-        <v>-74400</v>
+        <v>-77000</v>
       </c>
       <c r="I32" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="J32" s="3">
-        <v>56500</v>
+        <v>58500</v>
       </c>
       <c r="K32" s="3">
         <v>-130100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1593300</v>
+        <v>-1649000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1970100</v>
+        <v>-2038900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1683900</v>
+        <v>-1742800</v>
       </c>
       <c r="G33" s="3">
-        <v>4600800</v>
+        <v>4761600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1190800</v>
+        <v>-1232500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1502000</v>
+        <v>-1554500</v>
       </c>
       <c r="J33" s="3">
-        <v>-967000</v>
+        <v>-1000800</v>
       </c>
       <c r="K33" s="3">
         <v>-931400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1593300</v>
+        <v>-1649000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1970100</v>
+        <v>-2038900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1683900</v>
+        <v>-1742800</v>
       </c>
       <c r="G35" s="3">
-        <v>4600800</v>
+        <v>4761600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1190800</v>
+        <v>-1232500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1502000</v>
+        <v>-1554500</v>
       </c>
       <c r="J35" s="3">
-        <v>-967000</v>
+        <v>-1000800</v>
       </c>
       <c r="K35" s="3">
         <v>-931400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>545800</v>
+        <v>564900</v>
       </c>
       <c r="E41" s="3">
-        <v>768600</v>
+        <v>795400</v>
       </c>
       <c r="F41" s="3">
-        <v>389500</v>
+        <v>403100</v>
       </c>
       <c r="G41" s="3">
-        <v>820500</v>
+        <v>849100</v>
       </c>
       <c r="H41" s="3">
-        <v>1283900</v>
+        <v>1328800</v>
       </c>
       <c r="I41" s="3">
-        <v>1415000</v>
+        <v>1464500</v>
       </c>
       <c r="J41" s="3">
-        <v>2787300</v>
+        <v>2884700</v>
       </c>
       <c r="K41" s="3">
         <v>477100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35300</v>
+        <v>36500</v>
       </c>
       <c r="E42" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="F42" s="3">
-        <v>34400</v>
+        <v>35600</v>
       </c>
       <c r="G42" s="3">
-        <v>37800</v>
+        <v>39100</v>
       </c>
       <c r="H42" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="J42" s="3">
-        <v>674200</v>
+        <v>697700</v>
       </c>
       <c r="K42" s="3">
         <v>66800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1021400</v>
+        <v>1057100</v>
       </c>
       <c r="E43" s="3">
-        <v>1182900</v>
+        <v>1224300</v>
       </c>
       <c r="F43" s="3">
-        <v>1490500</v>
+        <v>1542600</v>
       </c>
       <c r="G43" s="3">
-        <v>1485700</v>
+        <v>1537600</v>
       </c>
       <c r="H43" s="3">
-        <v>1790900</v>
+        <v>1853500</v>
       </c>
       <c r="I43" s="3">
-        <v>1947900</v>
+        <v>2016000</v>
       </c>
       <c r="J43" s="3">
-        <v>2283300</v>
+        <v>2363100</v>
       </c>
       <c r="K43" s="3">
         <v>2301100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58300</v>
+        <v>60300</v>
       </c>
       <c r="E44" s="3">
-        <v>70800</v>
+        <v>73300</v>
       </c>
       <c r="F44" s="3">
-        <v>61200</v>
+        <v>63300</v>
       </c>
       <c r="G44" s="3">
-        <v>59400</v>
+        <v>61500</v>
       </c>
       <c r="H44" s="3">
-        <v>47500</v>
+        <v>49100</v>
       </c>
       <c r="I44" s="3">
-        <v>66400</v>
+        <v>68700</v>
       </c>
       <c r="J44" s="3">
-        <v>65900</v>
+        <v>68200</v>
       </c>
       <c r="K44" s="3">
         <v>93200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7025100</v>
+        <v>7270700</v>
       </c>
       <c r="E45" s="3">
-        <v>4210700</v>
+        <v>4357900</v>
       </c>
       <c r="F45" s="3">
-        <v>1390800</v>
+        <v>1439400</v>
       </c>
       <c r="G45" s="3">
-        <v>1584200</v>
+        <v>1639600</v>
       </c>
       <c r="H45" s="3">
-        <v>1316600</v>
+        <v>1362700</v>
       </c>
       <c r="I45" s="3">
-        <v>1452800</v>
+        <v>1503600</v>
       </c>
       <c r="J45" s="3">
-        <v>3693600</v>
+        <v>3822700</v>
       </c>
       <c r="K45" s="3">
         <v>14171400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8685900</v>
+        <v>8989500</v>
       </c>
       <c r="E46" s="3">
-        <v>6269300</v>
+        <v>6488400</v>
       </c>
       <c r="F46" s="3">
-        <v>3366400</v>
+        <v>3484000</v>
       </c>
       <c r="G46" s="3">
-        <v>3987500</v>
+        <v>4126900</v>
       </c>
       <c r="H46" s="3">
-        <v>4443000</v>
+        <v>4598300</v>
       </c>
       <c r="I46" s="3">
-        <v>4904000</v>
+        <v>5075400</v>
       </c>
       <c r="J46" s="3">
-        <v>7122000</v>
+        <v>7370900</v>
       </c>
       <c r="K46" s="3">
         <v>9675900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>138100</v>
+        <v>142900</v>
       </c>
       <c r="E47" s="3">
-        <v>294100</v>
+        <v>304400</v>
       </c>
       <c r="F47" s="3">
-        <v>585500</v>
+        <v>605900</v>
       </c>
       <c r="G47" s="3">
-        <v>156000</v>
+        <v>161500</v>
       </c>
       <c r="H47" s="3">
-        <v>142900</v>
+        <v>147900</v>
       </c>
       <c r="I47" s="3">
-        <v>163600</v>
+        <v>169300</v>
       </c>
       <c r="J47" s="3">
-        <v>205000</v>
+        <v>212100</v>
       </c>
       <c r="K47" s="3">
         <v>224000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3029500</v>
+        <v>3135400</v>
       </c>
       <c r="E48" s="3">
-        <v>4535500</v>
+        <v>4694100</v>
       </c>
       <c r="F48" s="3">
-        <v>7279800</v>
+        <v>7534300</v>
       </c>
       <c r="G48" s="3">
-        <v>5318100</v>
+        <v>5504000</v>
       </c>
       <c r="H48" s="3">
-        <v>5049300</v>
+        <v>5225800</v>
       </c>
       <c r="I48" s="3">
-        <v>4846600</v>
+        <v>5016000</v>
       </c>
       <c r="J48" s="3">
-        <v>3945200</v>
+        <v>4083100</v>
       </c>
       <c r="K48" s="3">
         <v>4528100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>749400</v>
+        <v>775600</v>
       </c>
       <c r="E49" s="3">
-        <v>691800</v>
+        <v>716000</v>
       </c>
       <c r="F49" s="3">
-        <v>748000</v>
+        <v>774100</v>
       </c>
       <c r="G49" s="3">
-        <v>1300000</v>
+        <v>1345400</v>
       </c>
       <c r="H49" s="3">
-        <v>1562300</v>
+        <v>1616900</v>
       </c>
       <c r="I49" s="3">
-        <v>921400</v>
+        <v>953600</v>
       </c>
       <c r="J49" s="3">
-        <v>4330700</v>
+        <v>4482100</v>
       </c>
       <c r="K49" s="3">
         <v>3239400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1981000</v>
+        <v>2050200</v>
       </c>
       <c r="E52" s="3">
-        <v>2024000</v>
+        <v>2094700</v>
       </c>
       <c r="F52" s="3">
-        <v>1470600</v>
+        <v>1522000</v>
       </c>
       <c r="G52" s="3">
-        <v>1481100</v>
+        <v>1532900</v>
       </c>
       <c r="H52" s="3">
-        <v>1644100</v>
+        <v>1701600</v>
       </c>
       <c r="I52" s="3">
-        <v>1654700</v>
+        <v>1712500</v>
       </c>
       <c r="J52" s="3">
-        <v>5375600</v>
+        <v>5563500</v>
       </c>
       <c r="K52" s="3">
         <v>4186200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14583800</v>
+        <v>15093600</v>
       </c>
       <c r="E54" s="3">
-        <v>13814700</v>
+        <v>14297600</v>
       </c>
       <c r="F54" s="3">
-        <v>13450200</v>
+        <v>13920400</v>
       </c>
       <c r="G54" s="3">
-        <v>12242800</v>
+        <v>12670700</v>
       </c>
       <c r="H54" s="3">
-        <v>12841700</v>
+        <v>13290600</v>
       </c>
       <c r="I54" s="3">
-        <v>12342700</v>
+        <v>12774200</v>
       </c>
       <c r="J54" s="3">
-        <v>19271700</v>
+        <v>19945400</v>
       </c>
       <c r="K54" s="3">
         <v>21570200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>753800</v>
+        <v>780200</v>
       </c>
       <c r="E57" s="3">
-        <v>618600</v>
+        <v>640300</v>
       </c>
       <c r="F57" s="3">
-        <v>1046600</v>
+        <v>1083200</v>
       </c>
       <c r="G57" s="3">
-        <v>977700</v>
+        <v>1011900</v>
       </c>
       <c r="H57" s="3">
-        <v>1427000</v>
+        <v>1476800</v>
       </c>
       <c r="I57" s="3">
-        <v>1230700</v>
+        <v>1273700</v>
       </c>
       <c r="J57" s="3">
-        <v>1878500</v>
+        <v>1944200</v>
       </c>
       <c r="K57" s="3">
         <v>1693900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>669100</v>
+        <v>692500</v>
       </c>
       <c r="E58" s="3">
-        <v>202000</v>
+        <v>209000</v>
       </c>
       <c r="F58" s="3">
-        <v>343600</v>
+        <v>355600</v>
       </c>
       <c r="G58" s="3">
-        <v>125900</v>
+        <v>130300</v>
       </c>
       <c r="H58" s="3">
-        <v>10199300</v>
+        <v>10555800</v>
       </c>
       <c r="I58" s="3">
-        <v>8996500</v>
+        <v>9310900</v>
       </c>
       <c r="J58" s="3">
-        <v>4418900</v>
+        <v>4573400</v>
       </c>
       <c r="K58" s="3">
         <v>1738900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3515700</v>
+        <v>3638500</v>
       </c>
       <c r="E59" s="3">
-        <v>2328100</v>
+        <v>2409500</v>
       </c>
       <c r="F59" s="3">
-        <v>824200</v>
+        <v>853000</v>
       </c>
       <c r="G59" s="3">
-        <v>896300</v>
+        <v>927600</v>
       </c>
       <c r="H59" s="3">
-        <v>1075600</v>
+        <v>1113200</v>
       </c>
       <c r="I59" s="3">
-        <v>1238800</v>
+        <v>1282100</v>
       </c>
       <c r="J59" s="3">
-        <v>2624600</v>
+        <v>2716300</v>
       </c>
       <c r="K59" s="3">
         <v>7718300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4938600</v>
+        <v>5111300</v>
       </c>
       <c r="E60" s="3">
-        <v>3148800</v>
+        <v>3258800</v>
       </c>
       <c r="F60" s="3">
-        <v>2214400</v>
+        <v>2291800</v>
       </c>
       <c r="G60" s="3">
-        <v>1999900</v>
+        <v>2069800</v>
       </c>
       <c r="H60" s="3">
-        <v>12701800</v>
+        <v>13145900</v>
       </c>
       <c r="I60" s="3">
-        <v>11466000</v>
+        <v>11866800</v>
       </c>
       <c r="J60" s="3">
-        <v>4784700</v>
+        <v>4951900</v>
       </c>
       <c r="K60" s="3">
         <v>8293700</v>
@@ -2560,16 +2560,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6064500</v>
+        <v>6276500</v>
       </c>
       <c r="E61" s="3">
-        <v>5284500</v>
+        <v>5469200</v>
       </c>
       <c r="F61" s="3">
-        <v>4591200</v>
+        <v>4751700</v>
       </c>
       <c r="G61" s="3">
-        <v>2951700</v>
+        <v>3054900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>8989300</v>
+        <v>9303500</v>
       </c>
       <c r="K61" s="3">
         <v>6113300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3715900</v>
+        <v>3845800</v>
       </c>
       <c r="E62" s="3">
-        <v>3927700</v>
+        <v>4065000</v>
       </c>
       <c r="F62" s="3">
-        <v>3315100</v>
+        <v>3431000</v>
       </c>
       <c r="G62" s="3">
-        <v>3007600</v>
+        <v>3112700</v>
       </c>
       <c r="H62" s="3">
-        <v>2667900</v>
+        <v>2761200</v>
       </c>
       <c r="I62" s="3">
-        <v>2123900</v>
+        <v>2198100</v>
       </c>
       <c r="J62" s="3">
-        <v>3162900</v>
+        <v>3273500</v>
       </c>
       <c r="K62" s="3">
         <v>3489400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14725100</v>
+        <v>15239900</v>
       </c>
       <c r="E66" s="3">
-        <v>12364500</v>
+        <v>12796700</v>
       </c>
       <c r="F66" s="3">
-        <v>10148000</v>
+        <v>10502800</v>
       </c>
       <c r="G66" s="3">
-        <v>8004700</v>
+        <v>8284600</v>
       </c>
       <c r="H66" s="3">
-        <v>15424600</v>
+        <v>15963800</v>
       </c>
       <c r="I66" s="3">
-        <v>13737800</v>
+        <v>14218100</v>
       </c>
       <c r="J66" s="3">
-        <v>15678000</v>
+        <v>16226000</v>
       </c>
       <c r="K66" s="3">
         <v>16575300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6151000</v>
+        <v>-6366000</v>
       </c>
       <c r="E72" s="3">
-        <v>-4561700</v>
+        <v>-4721200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2591700</v>
+        <v>-2682300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1128500</v>
+        <v>-1168000</v>
       </c>
       <c r="H72" s="3">
-        <v>-5449000</v>
+        <v>-5639400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4258100</v>
+        <v>-4407000</v>
       </c>
       <c r="J72" s="3">
-        <v>3941600</v>
+        <v>4079300</v>
       </c>
       <c r="K72" s="3">
         <v>3024200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-141400</v>
+        <v>-146300</v>
       </c>
       <c r="E76" s="3">
-        <v>1450200</v>
+        <v>1500900</v>
       </c>
       <c r="F76" s="3">
-        <v>3302200</v>
+        <v>3417600</v>
       </c>
       <c r="G76" s="3">
-        <v>4238000</v>
+        <v>4386200</v>
       </c>
       <c r="H76" s="3">
-        <v>-2583000</v>
+        <v>-2673300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1395100</v>
+        <v>-1443900</v>
       </c>
       <c r="J76" s="3">
-        <v>3593700</v>
+        <v>3719300</v>
       </c>
       <c r="K76" s="3">
         <v>4994900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1593300</v>
+        <v>-1649000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1970100</v>
+        <v>-2038900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1683900</v>
+        <v>-1742800</v>
       </c>
       <c r="G81" s="3">
-        <v>4600800</v>
+        <v>4761600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1190800</v>
+        <v>-1232500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1502000</v>
+        <v>-1554500</v>
       </c>
       <c r="J81" s="3">
-        <v>-967000</v>
+        <v>-1000800</v>
       </c>
       <c r="K81" s="3">
         <v>-931400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>748700</v>
+        <v>774900</v>
       </c>
       <c r="E83" s="3">
-        <v>730600</v>
+        <v>756100</v>
       </c>
       <c r="F83" s="3">
-        <v>1286000</v>
+        <v>1331000</v>
       </c>
       <c r="G83" s="3">
-        <v>1087200</v>
+        <v>1125200</v>
       </c>
       <c r="H83" s="3">
-        <v>955900</v>
+        <v>989300</v>
       </c>
       <c r="I83" s="3">
-        <v>1025900</v>
+        <v>1061800</v>
       </c>
       <c r="J83" s="3">
-        <v>1159000</v>
+        <v>1199500</v>
       </c>
       <c r="K83" s="3">
         <v>1123200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-20700</v>
+        <v>-21400</v>
       </c>
       <c r="E89" s="3">
-        <v>839300</v>
+        <v>868700</v>
       </c>
       <c r="F89" s="3">
-        <v>432500</v>
+        <v>447600</v>
       </c>
       <c r="G89" s="3">
-        <v>535600</v>
+        <v>554300</v>
       </c>
       <c r="H89" s="3">
-        <v>823500</v>
+        <v>852300</v>
       </c>
       <c r="I89" s="3">
-        <v>580000</v>
+        <v>600300</v>
       </c>
       <c r="J89" s="3">
-        <v>-197100</v>
+        <v>-204000</v>
       </c>
       <c r="K89" s="3">
         <v>1077200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-654800</v>
+        <v>-677700</v>
       </c>
       <c r="E91" s="3">
-        <v>-646400</v>
+        <v>-669000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1389200</v>
+        <v>-1437800</v>
       </c>
       <c r="G91" s="3">
-        <v>-981500</v>
+        <v>-1015800</v>
       </c>
       <c r="H91" s="3">
-        <v>-812800</v>
+        <v>-841200</v>
       </c>
       <c r="I91" s="3">
-        <v>-610600</v>
+        <v>-631900</v>
       </c>
       <c r="J91" s="3">
-        <v>-688800</v>
+        <v>-712800</v>
       </c>
       <c r="K91" s="3">
         <v>-1046000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-897600</v>
+        <v>-929000</v>
       </c>
       <c r="E94" s="3">
-        <v>-648200</v>
+        <v>-670900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1281700</v>
+        <v>-1326500</v>
       </c>
       <c r="G94" s="3">
-        <v>-919900</v>
+        <v>-952100</v>
       </c>
       <c r="H94" s="3">
-        <v>-827200</v>
+        <v>-856200</v>
       </c>
       <c r="I94" s="3">
-        <v>-732900</v>
+        <v>-758500</v>
       </c>
       <c r="J94" s="3">
-        <v>2346700</v>
+        <v>2428700</v>
       </c>
       <c r="K94" s="3">
         <v>-838100</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="I96" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="J96" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="K96" s="3">
         <v>-1000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>707700</v>
+        <v>732400</v>
       </c>
       <c r="E100" s="3">
-        <v>149600</v>
+        <v>154800</v>
       </c>
       <c r="F100" s="3">
-        <v>418300</v>
+        <v>432900</v>
       </c>
       <c r="G100" s="3">
-        <v>-79400</v>
+        <v>-82200</v>
       </c>
       <c r="H100" s="3">
-        <v>-129400</v>
+        <v>-133900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1144800</v>
+        <v>-1184900</v>
       </c>
       <c r="J100" s="3">
-        <v>-440900</v>
+        <v>-456300</v>
       </c>
       <c r="K100" s="3">
         <v>-228800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-12600</v>
       </c>
       <c r="E101" s="3">
-        <v>38400</v>
+        <v>39700</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-74600</v>
+        <v>-77200</v>
       </c>
       <c r="J101" s="3">
-        <v>620400</v>
+        <v>642100</v>
       </c>
       <c r="K101" s="3">
         <v>-5600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-222800</v>
+        <v>-230600</v>
       </c>
       <c r="E102" s="3">
-        <v>379000</v>
+        <v>392300</v>
       </c>
       <c r="F102" s="3">
-        <v>-430900</v>
+        <v>-446000</v>
       </c>
       <c r="G102" s="3">
-        <v>-463500</v>
+        <v>-479700</v>
       </c>
       <c r="H102" s="3">
-        <v>-131100</v>
+        <v>-135700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1372300</v>
+        <v>-1420200</v>
       </c>
       <c r="J102" s="3">
-        <v>2329100</v>
+        <v>2410500</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2029900</v>
+        <v>2111400</v>
       </c>
       <c r="E8" s="3">
-        <v>2116400</v>
+        <v>2201300</v>
       </c>
       <c r="F8" s="3">
-        <v>2031600</v>
+        <v>2113100</v>
       </c>
       <c r="G8" s="3">
-        <v>4271500</v>
+        <v>4442900</v>
       </c>
       <c r="H8" s="3">
-        <v>4606400</v>
+        <v>4791200</v>
       </c>
       <c r="I8" s="3">
-        <v>5033700</v>
+        <v>5235700</v>
       </c>
       <c r="J8" s="3">
-        <v>5296500</v>
+        <v>5509000</v>
       </c>
       <c r="K8" s="3">
         <v>5502000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1921700</v>
+        <v>1998800</v>
       </c>
       <c r="E9" s="3">
-        <v>1532100</v>
+        <v>1593500</v>
       </c>
       <c r="F9" s="3">
-        <v>1545700</v>
+        <v>1607700</v>
       </c>
       <c r="G9" s="3">
-        <v>3132800</v>
+        <v>3258500</v>
       </c>
       <c r="H9" s="3">
-        <v>2901800</v>
+        <v>3018200</v>
       </c>
       <c r="I9" s="3">
-        <v>3101100</v>
+        <v>3225500</v>
       </c>
       <c r="J9" s="3">
-        <v>6179200</v>
+        <v>6427200</v>
       </c>
       <c r="K9" s="3">
         <v>6133000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>108300</v>
+        <v>112600</v>
       </c>
       <c r="E10" s="3">
-        <v>584400</v>
+        <v>607800</v>
       </c>
       <c r="F10" s="3">
-        <v>485900</v>
+        <v>505400</v>
       </c>
       <c r="G10" s="3">
-        <v>1138700</v>
+        <v>1184400</v>
       </c>
       <c r="H10" s="3">
-        <v>1704600</v>
+        <v>1773000</v>
       </c>
       <c r="I10" s="3">
-        <v>1932600</v>
+        <v>2010200</v>
       </c>
       <c r="J10" s="3">
-        <v>-882700</v>
+        <v>-918200</v>
       </c>
       <c r="K10" s="3">
         <v>-631000</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-2140500</v>
+        <v>-2226400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2424400</v>
+        <v>2521700</v>
       </c>
       <c r="E17" s="3">
-        <v>2374600</v>
+        <v>2469900</v>
       </c>
       <c r="F17" s="3">
-        <v>2921800</v>
+        <v>3039100</v>
       </c>
       <c r="G17" s="3">
-        <v>3151000</v>
+        <v>3277500</v>
       </c>
       <c r="H17" s="3">
-        <v>5063600</v>
+        <v>5266700</v>
       </c>
       <c r="I17" s="3">
-        <v>5303100</v>
+        <v>5515900</v>
       </c>
       <c r="J17" s="3">
-        <v>4841800</v>
+        <v>5036100</v>
       </c>
       <c r="K17" s="3">
         <v>4603400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-394500</v>
+        <v>-410300</v>
       </c>
       <c r="E18" s="3">
-        <v>-258200</v>
+        <v>-268600</v>
       </c>
       <c r="F18" s="3">
-        <v>-890200</v>
+        <v>-926000</v>
       </c>
       <c r="G18" s="3">
-        <v>1120400</v>
+        <v>1165400</v>
       </c>
       <c r="H18" s="3">
-        <v>-457200</v>
+        <v>-475500</v>
       </c>
       <c r="I18" s="3">
-        <v>-269400</v>
+        <v>-280200</v>
       </c>
       <c r="J18" s="3">
-        <v>454700</v>
+        <v>473000</v>
       </c>
       <c r="K18" s="3">
         <v>898600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1020400</v>
+        <v>-1061300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1724300</v>
+        <v>-1793500</v>
       </c>
       <c r="F20" s="3">
-        <v>-486900</v>
+        <v>-506400</v>
       </c>
       <c r="G20" s="3">
-        <v>3011700</v>
+        <v>3132600</v>
       </c>
       <c r="H20" s="3">
-        <v>77000</v>
+        <v>80100</v>
       </c>
       <c r="I20" s="3">
-        <v>-29400</v>
+        <v>-30600</v>
       </c>
       <c r="J20" s="3">
-        <v>-58500</v>
+        <v>-60900</v>
       </c>
       <c r="K20" s="3">
         <v>130100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-637000</v>
+        <v>-661400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1223600</v>
+        <v>-1271500</v>
       </c>
       <c r="F21" s="3">
-        <v>-41100</v>
+        <v>-40700</v>
       </c>
       <c r="G21" s="3">
-        <v>5261600</v>
+        <v>5474500</v>
       </c>
       <c r="H21" s="3">
-        <v>612900</v>
+        <v>639000</v>
       </c>
       <c r="I21" s="3">
-        <v>766900</v>
+        <v>799400</v>
       </c>
       <c r="J21" s="3">
-        <v>1600200</v>
+        <v>1666300</v>
       </c>
       <c r="K21" s="3">
         <v>2151200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>829600</v>
+        <v>862800</v>
       </c>
       <c r="E22" s="3">
-        <v>746800</v>
+        <v>776800</v>
       </c>
       <c r="F22" s="3">
-        <v>554200</v>
+        <v>576500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>696000</v>
+        <v>723900</v>
       </c>
       <c r="I22" s="3">
-        <v>684800</v>
+        <v>712300</v>
       </c>
       <c r="J22" s="3">
-        <v>1568600</v>
+        <v>1631500</v>
       </c>
       <c r="K22" s="3">
         <v>1016200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2244400</v>
+        <v>-2334400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2729300</v>
+        <v>-2838800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1931300</v>
+        <v>-2008800</v>
       </c>
       <c r="G23" s="3">
-        <v>4132200</v>
+        <v>4298000</v>
       </c>
       <c r="H23" s="3">
-        <v>-1076100</v>
+        <v>-1119300</v>
       </c>
       <c r="I23" s="3">
-        <v>-983600</v>
+        <v>-1023100</v>
       </c>
       <c r="J23" s="3">
-        <v>-1172400</v>
+        <v>-1219400</v>
       </c>
       <c r="K23" s="3">
         <v>12500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-394300</v>
+        <v>-410100</v>
       </c>
       <c r="E24" s="3">
-        <v>-687600</v>
+        <v>-715200</v>
       </c>
       <c r="F24" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G24" s="3">
-        <v>-634100</v>
+        <v>-659600</v>
       </c>
       <c r="H24" s="3">
-        <v>212700</v>
+        <v>221300</v>
       </c>
       <c r="I24" s="3">
-        <v>605200</v>
+        <v>629500</v>
       </c>
       <c r="J24" s="3">
-        <v>115200</v>
+        <v>119800</v>
       </c>
       <c r="K24" s="3">
         <v>147700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1850100</v>
+        <v>-1924300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2041700</v>
+        <v>-2123700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1928900</v>
+        <v>-2006300</v>
       </c>
       <c r="G26" s="3">
-        <v>4766300</v>
+        <v>4957600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1288800</v>
+        <v>-1340600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1588800</v>
+        <v>-1652600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1287500</v>
+        <v>-1339200</v>
       </c>
       <c r="K26" s="3">
         <v>-135200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1854700</v>
+        <v>-1929100</v>
       </c>
       <c r="E27" s="3">
-        <v>-2042000</v>
+        <v>-2124000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1910500</v>
+        <v>-1987200</v>
       </c>
       <c r="G27" s="3">
-        <v>4761600</v>
+        <v>4952700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1232500</v>
+        <v>-1281900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1554500</v>
+        <v>-1616800</v>
       </c>
       <c r="J27" s="3">
-        <v>-1207600</v>
+        <v>-1256100</v>
       </c>
       <c r="K27" s="3">
         <v>-135400</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>205700</v>
+        <v>213900</v>
       </c>
       <c r="E29" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F29" s="3">
-        <v>167800</v>
+        <v>174500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>206800</v>
+        <v>215100</v>
       </c>
       <c r="K29" s="3">
         <v>-796000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1020400</v>
+        <v>1061300</v>
       </c>
       <c r="E32" s="3">
-        <v>1724300</v>
+        <v>1793500</v>
       </c>
       <c r="F32" s="3">
-        <v>486900</v>
+        <v>506400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3011700</v>
+        <v>-3132600</v>
       </c>
       <c r="H32" s="3">
-        <v>-77000</v>
+        <v>-80100</v>
       </c>
       <c r="I32" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="J32" s="3">
-        <v>58500</v>
+        <v>60900</v>
       </c>
       <c r="K32" s="3">
         <v>-130100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1649000</v>
+        <v>-1715200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2038900</v>
+        <v>-2120700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1742800</v>
+        <v>-1812700</v>
       </c>
       <c r="G33" s="3">
-        <v>4761600</v>
+        <v>4952700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1232500</v>
+        <v>-1281900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1554500</v>
+        <v>-1616800</v>
       </c>
       <c r="J33" s="3">
-        <v>-1000800</v>
+        <v>-1040900</v>
       </c>
       <c r="K33" s="3">
         <v>-931400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1649000</v>
+        <v>-1715200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2038900</v>
+        <v>-2120700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1742800</v>
+        <v>-1812700</v>
       </c>
       <c r="G35" s="3">
-        <v>4761600</v>
+        <v>4952700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1232500</v>
+        <v>-1281900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1554500</v>
+        <v>-1616800</v>
       </c>
       <c r="J35" s="3">
-        <v>-1000800</v>
+        <v>-1040900</v>
       </c>
       <c r="K35" s="3">
         <v>-931400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>564900</v>
+        <v>587500</v>
       </c>
       <c r="E41" s="3">
-        <v>795400</v>
+        <v>827300</v>
       </c>
       <c r="F41" s="3">
-        <v>403100</v>
+        <v>419300</v>
       </c>
       <c r="G41" s="3">
-        <v>849100</v>
+        <v>883200</v>
       </c>
       <c r="H41" s="3">
-        <v>1328800</v>
+        <v>1382100</v>
       </c>
       <c r="I41" s="3">
-        <v>1464500</v>
+        <v>1523200</v>
       </c>
       <c r="J41" s="3">
-        <v>2884700</v>
+        <v>3000500</v>
       </c>
       <c r="K41" s="3">
         <v>477100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="E42" s="3">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="F42" s="3">
-        <v>35600</v>
+        <v>37000</v>
       </c>
       <c r="G42" s="3">
-        <v>39100</v>
+        <v>40700</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="J42" s="3">
-        <v>697700</v>
+        <v>725700</v>
       </c>
       <c r="K42" s="3">
         <v>66800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1057100</v>
+        <v>1099500</v>
       </c>
       <c r="E43" s="3">
-        <v>1224300</v>
+        <v>1273400</v>
       </c>
       <c r="F43" s="3">
-        <v>1542600</v>
+        <v>1604500</v>
       </c>
       <c r="G43" s="3">
-        <v>1537600</v>
+        <v>1599300</v>
       </c>
       <c r="H43" s="3">
-        <v>1853500</v>
+        <v>1927900</v>
       </c>
       <c r="I43" s="3">
-        <v>2016000</v>
+        <v>2096900</v>
       </c>
       <c r="J43" s="3">
-        <v>2363100</v>
+        <v>2457900</v>
       </c>
       <c r="K43" s="3">
         <v>2301100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60300</v>
+        <v>62800</v>
       </c>
       <c r="E44" s="3">
-        <v>73300</v>
+        <v>76200</v>
       </c>
       <c r="F44" s="3">
-        <v>63300</v>
+        <v>65800</v>
       </c>
       <c r="G44" s="3">
-        <v>61500</v>
+        <v>63900</v>
       </c>
       <c r="H44" s="3">
-        <v>49100</v>
+        <v>51100</v>
       </c>
       <c r="I44" s="3">
-        <v>68700</v>
+        <v>71500</v>
       </c>
       <c r="J44" s="3">
-        <v>68200</v>
+        <v>70900</v>
       </c>
       <c r="K44" s="3">
         <v>93200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7270700</v>
+        <v>7562400</v>
       </c>
       <c r="E45" s="3">
-        <v>4357900</v>
+        <v>4532800</v>
       </c>
       <c r="F45" s="3">
-        <v>1439400</v>
+        <v>1497200</v>
       </c>
       <c r="G45" s="3">
-        <v>1639600</v>
+        <v>1705400</v>
       </c>
       <c r="H45" s="3">
-        <v>1362700</v>
+        <v>1417300</v>
       </c>
       <c r="I45" s="3">
-        <v>1503600</v>
+        <v>1564000</v>
       </c>
       <c r="J45" s="3">
-        <v>3822700</v>
+        <v>3976100</v>
       </c>
       <c r="K45" s="3">
         <v>14171400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8989500</v>
+        <v>9350200</v>
       </c>
       <c r="E46" s="3">
-        <v>6488400</v>
+        <v>6748800</v>
       </c>
       <c r="F46" s="3">
-        <v>3484000</v>
+        <v>3623800</v>
       </c>
       <c r="G46" s="3">
-        <v>4126900</v>
+        <v>4292500</v>
       </c>
       <c r="H46" s="3">
-        <v>4598300</v>
+        <v>4782800</v>
       </c>
       <c r="I46" s="3">
-        <v>5075400</v>
+        <v>5279000</v>
       </c>
       <c r="J46" s="3">
-        <v>7370900</v>
+        <v>7666700</v>
       </c>
       <c r="K46" s="3">
         <v>9675900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142900</v>
+        <v>148700</v>
       </c>
       <c r="E47" s="3">
-        <v>304400</v>
+        <v>316600</v>
       </c>
       <c r="F47" s="3">
-        <v>605900</v>
+        <v>630200</v>
       </c>
       <c r="G47" s="3">
-        <v>161500</v>
+        <v>167900</v>
       </c>
       <c r="H47" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="I47" s="3">
-        <v>169300</v>
+        <v>176100</v>
       </c>
       <c r="J47" s="3">
-        <v>212100</v>
+        <v>220700</v>
       </c>
       <c r="K47" s="3">
         <v>224000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3135400</v>
+        <v>3261200</v>
       </c>
       <c r="E48" s="3">
-        <v>4694100</v>
+        <v>4882400</v>
       </c>
       <c r="F48" s="3">
-        <v>7534300</v>
+        <v>7836600</v>
       </c>
       <c r="G48" s="3">
-        <v>5504000</v>
+        <v>5724900</v>
       </c>
       <c r="H48" s="3">
-        <v>5225800</v>
+        <v>5435500</v>
       </c>
       <c r="I48" s="3">
-        <v>5016000</v>
+        <v>5217300</v>
       </c>
       <c r="J48" s="3">
-        <v>4083100</v>
+        <v>4247000</v>
       </c>
       <c r="K48" s="3">
         <v>4528100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>775600</v>
+        <v>806700</v>
       </c>
       <c r="E49" s="3">
-        <v>716000</v>
+        <v>744800</v>
       </c>
       <c r="F49" s="3">
-        <v>774100</v>
+        <v>805200</v>
       </c>
       <c r="G49" s="3">
-        <v>1345400</v>
+        <v>1399400</v>
       </c>
       <c r="H49" s="3">
-        <v>1616900</v>
+        <v>1681800</v>
       </c>
       <c r="I49" s="3">
-        <v>953600</v>
+        <v>991900</v>
       </c>
       <c r="J49" s="3">
-        <v>4482100</v>
+        <v>4661900</v>
       </c>
       <c r="K49" s="3">
         <v>3239400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2050200</v>
+        <v>2132500</v>
       </c>
       <c r="E52" s="3">
-        <v>2094700</v>
+        <v>2178800</v>
       </c>
       <c r="F52" s="3">
-        <v>1522000</v>
+        <v>1583100</v>
       </c>
       <c r="G52" s="3">
-        <v>1532900</v>
+        <v>1594400</v>
       </c>
       <c r="H52" s="3">
-        <v>1701600</v>
+        <v>1769900</v>
       </c>
       <c r="I52" s="3">
-        <v>1712500</v>
+        <v>1781300</v>
       </c>
       <c r="J52" s="3">
-        <v>5563500</v>
+        <v>5786700</v>
       </c>
       <c r="K52" s="3">
         <v>4186200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15093600</v>
+        <v>15699200</v>
       </c>
       <c r="E54" s="3">
-        <v>14297600</v>
+        <v>14871300</v>
       </c>
       <c r="F54" s="3">
-        <v>13920400</v>
+        <v>14479000</v>
       </c>
       <c r="G54" s="3">
-        <v>12670700</v>
+        <v>13179200</v>
       </c>
       <c r="H54" s="3">
-        <v>13290600</v>
+        <v>13823900</v>
       </c>
       <c r="I54" s="3">
-        <v>12774200</v>
+        <v>13286800</v>
       </c>
       <c r="J54" s="3">
-        <v>19945400</v>
+        <v>20745700</v>
       </c>
       <c r="K54" s="3">
         <v>21570200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>780200</v>
+        <v>811500</v>
       </c>
       <c r="E57" s="3">
-        <v>640300</v>
+        <v>666000</v>
       </c>
       <c r="F57" s="3">
-        <v>1083200</v>
+        <v>1126600</v>
       </c>
       <c r="G57" s="3">
-        <v>1011900</v>
+        <v>1052500</v>
       </c>
       <c r="H57" s="3">
-        <v>1476800</v>
+        <v>1536100</v>
       </c>
       <c r="I57" s="3">
-        <v>1273700</v>
+        <v>1324900</v>
       </c>
       <c r="J57" s="3">
-        <v>1944200</v>
+        <v>2022200</v>
       </c>
       <c r="K57" s="3">
         <v>1693900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>692500</v>
+        <v>720300</v>
       </c>
       <c r="E58" s="3">
-        <v>209000</v>
+        <v>217400</v>
       </c>
       <c r="F58" s="3">
-        <v>355600</v>
+        <v>369900</v>
       </c>
       <c r="G58" s="3">
-        <v>130300</v>
+        <v>135500</v>
       </c>
       <c r="H58" s="3">
-        <v>10555800</v>
+        <v>10979400</v>
       </c>
       <c r="I58" s="3">
-        <v>9310900</v>
+        <v>9684600</v>
       </c>
       <c r="J58" s="3">
-        <v>4573400</v>
+        <v>4756900</v>
       </c>
       <c r="K58" s="3">
         <v>1738900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3638500</v>
+        <v>3784600</v>
       </c>
       <c r="E59" s="3">
-        <v>2409500</v>
+        <v>2506200</v>
       </c>
       <c r="F59" s="3">
-        <v>853000</v>
+        <v>887300</v>
       </c>
       <c r="G59" s="3">
-        <v>927600</v>
+        <v>964800</v>
       </c>
       <c r="H59" s="3">
-        <v>1113200</v>
+        <v>1157900</v>
       </c>
       <c r="I59" s="3">
-        <v>1282100</v>
+        <v>1333500</v>
       </c>
       <c r="J59" s="3">
-        <v>2716300</v>
+        <v>2825300</v>
       </c>
       <c r="K59" s="3">
         <v>7718300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5111300</v>
+        <v>5316400</v>
       </c>
       <c r="E60" s="3">
-        <v>3258800</v>
+        <v>3389600</v>
       </c>
       <c r="F60" s="3">
-        <v>2291800</v>
+        <v>2383800</v>
       </c>
       <c r="G60" s="3">
-        <v>2069800</v>
+        <v>2152900</v>
       </c>
       <c r="H60" s="3">
-        <v>13145900</v>
+        <v>13673400</v>
       </c>
       <c r="I60" s="3">
-        <v>11866800</v>
+        <v>12343000</v>
       </c>
       <c r="J60" s="3">
-        <v>4951900</v>
+        <v>5150600</v>
       </c>
       <c r="K60" s="3">
         <v>8293700</v>
@@ -2560,16 +2560,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6276500</v>
+        <v>6528300</v>
       </c>
       <c r="E61" s="3">
-        <v>5469200</v>
+        <v>5688700</v>
       </c>
       <c r="F61" s="3">
-        <v>4751700</v>
+        <v>4942400</v>
       </c>
       <c r="G61" s="3">
-        <v>3054900</v>
+        <v>3177500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>9303500</v>
+        <v>9676800</v>
       </c>
       <c r="K61" s="3">
         <v>6113300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3845800</v>
+        <v>4000100</v>
       </c>
       <c r="E62" s="3">
-        <v>4065000</v>
+        <v>4228100</v>
       </c>
       <c r="F62" s="3">
-        <v>3431000</v>
+        <v>3568600</v>
       </c>
       <c r="G62" s="3">
-        <v>3112700</v>
+        <v>3237600</v>
       </c>
       <c r="H62" s="3">
-        <v>2761200</v>
+        <v>2872000</v>
       </c>
       <c r="I62" s="3">
-        <v>2198100</v>
+        <v>2286300</v>
       </c>
       <c r="J62" s="3">
-        <v>3273500</v>
+        <v>3404900</v>
       </c>
       <c r="K62" s="3">
         <v>3489400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15239900</v>
+        <v>15851400</v>
       </c>
       <c r="E66" s="3">
-        <v>12796700</v>
+        <v>13310200</v>
       </c>
       <c r="F66" s="3">
-        <v>10502800</v>
+        <v>10924200</v>
       </c>
       <c r="G66" s="3">
-        <v>8284600</v>
+        <v>8617000</v>
       </c>
       <c r="H66" s="3">
-        <v>15963800</v>
+        <v>16604400</v>
       </c>
       <c r="I66" s="3">
-        <v>14218100</v>
+        <v>14788600</v>
       </c>
       <c r="J66" s="3">
-        <v>16226000</v>
+        <v>16877100</v>
       </c>
       <c r="K66" s="3">
         <v>16575300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6366000</v>
+        <v>-6621400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4721200</v>
+        <v>-4910600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2682300</v>
+        <v>-2789900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1168000</v>
+        <v>-1214900</v>
       </c>
       <c r="H72" s="3">
-        <v>-5639400</v>
+        <v>-5865700</v>
       </c>
       <c r="I72" s="3">
-        <v>-4407000</v>
+        <v>-4583800</v>
       </c>
       <c r="J72" s="3">
-        <v>4079300</v>
+        <v>4243000</v>
       </c>
       <c r="K72" s="3">
         <v>3024200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-146300</v>
+        <v>-152200</v>
       </c>
       <c r="E76" s="3">
-        <v>1500900</v>
+        <v>1561200</v>
       </c>
       <c r="F76" s="3">
-        <v>3417600</v>
+        <v>3554800</v>
       </c>
       <c r="G76" s="3">
-        <v>4386200</v>
+        <v>4562200</v>
       </c>
       <c r="H76" s="3">
-        <v>-2673300</v>
+        <v>-2780500</v>
       </c>
       <c r="I76" s="3">
-        <v>-1443900</v>
+        <v>-1501800</v>
       </c>
       <c r="J76" s="3">
-        <v>3719300</v>
+        <v>3868600</v>
       </c>
       <c r="K76" s="3">
         <v>4994900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1649000</v>
+        <v>-1715200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2038900</v>
+        <v>-2120700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1742800</v>
+        <v>-1812700</v>
       </c>
       <c r="G81" s="3">
-        <v>4761600</v>
+        <v>4952700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1232500</v>
+        <v>-1281900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1554500</v>
+        <v>-1616800</v>
       </c>
       <c r="J81" s="3">
-        <v>-1000800</v>
+        <v>-1040900</v>
       </c>
       <c r="K81" s="3">
         <v>-931400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>774900</v>
+        <v>806000</v>
       </c>
       <c r="E83" s="3">
-        <v>756100</v>
+        <v>786400</v>
       </c>
       <c r="F83" s="3">
-        <v>1331000</v>
+        <v>1384400</v>
       </c>
       <c r="G83" s="3">
-        <v>1125200</v>
+        <v>1170400</v>
       </c>
       <c r="H83" s="3">
-        <v>989300</v>
+        <v>1029000</v>
       </c>
       <c r="I83" s="3">
-        <v>1061800</v>
+        <v>1104400</v>
       </c>
       <c r="J83" s="3">
-        <v>1199500</v>
+        <v>1247700</v>
       </c>
       <c r="K83" s="3">
         <v>1123200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21400</v>
+        <v>-22300</v>
       </c>
       <c r="E89" s="3">
-        <v>868700</v>
+        <v>903500</v>
       </c>
       <c r="F89" s="3">
-        <v>447600</v>
+        <v>465600</v>
       </c>
       <c r="G89" s="3">
-        <v>554300</v>
+        <v>576500</v>
       </c>
       <c r="H89" s="3">
-        <v>852300</v>
+        <v>886500</v>
       </c>
       <c r="I89" s="3">
-        <v>600300</v>
+        <v>624400</v>
       </c>
       <c r="J89" s="3">
-        <v>-204000</v>
+        <v>-212200</v>
       </c>
       <c r="K89" s="3">
         <v>1077200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-677700</v>
+        <v>-704900</v>
       </c>
       <c r="E91" s="3">
-        <v>-669000</v>
+        <v>-695900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1437800</v>
+        <v>-1495500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1015800</v>
+        <v>-1056600</v>
       </c>
       <c r="H91" s="3">
-        <v>-841200</v>
+        <v>-874900</v>
       </c>
       <c r="I91" s="3">
-        <v>-631900</v>
+        <v>-657300</v>
       </c>
       <c r="J91" s="3">
-        <v>-712800</v>
+        <v>-741500</v>
       </c>
       <c r="K91" s="3">
         <v>-1046000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-929000</v>
+        <v>-966200</v>
       </c>
       <c r="E94" s="3">
-        <v>-670900</v>
+        <v>-697800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1326500</v>
+        <v>-1379700</v>
       </c>
       <c r="G94" s="3">
-        <v>-952100</v>
+        <v>-990300</v>
       </c>
       <c r="H94" s="3">
-        <v>-856200</v>
+        <v>-890500</v>
       </c>
       <c r="I94" s="3">
-        <v>-758500</v>
+        <v>-789000</v>
       </c>
       <c r="J94" s="3">
-        <v>2428700</v>
+        <v>2526200</v>
       </c>
       <c r="K94" s="3">
         <v>-838100</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11500</v>
+        <v>-12000</v>
       </c>
       <c r="I96" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="J96" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="K96" s="3">
         <v>-1000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>732400</v>
+        <v>761800</v>
       </c>
       <c r="E100" s="3">
-        <v>154800</v>
+        <v>161000</v>
       </c>
       <c r="F100" s="3">
-        <v>432900</v>
+        <v>450300</v>
       </c>
       <c r="G100" s="3">
-        <v>-82200</v>
+        <v>-85500</v>
       </c>
       <c r="H100" s="3">
-        <v>-133900</v>
+        <v>-139300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1184900</v>
+        <v>-1232400</v>
       </c>
       <c r="J100" s="3">
-        <v>-456300</v>
+        <v>-474600</v>
       </c>
       <c r="K100" s="3">
         <v>-228800</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="E101" s="3">
-        <v>39700</v>
+        <v>41300</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-77200</v>
+        <v>-80300</v>
       </c>
       <c r="J101" s="3">
-        <v>642100</v>
+        <v>667900</v>
       </c>
       <c r="K101" s="3">
         <v>-5600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-230600</v>
+        <v>-239800</v>
       </c>
       <c r="E102" s="3">
-        <v>392300</v>
+        <v>408000</v>
       </c>
       <c r="F102" s="3">
-        <v>-446000</v>
+        <v>-463900</v>
       </c>
       <c r="G102" s="3">
-        <v>-479700</v>
+        <v>-498900</v>
       </c>
       <c r="H102" s="3">
-        <v>-135700</v>
+        <v>-141100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1420200</v>
+        <v>-1477200</v>
       </c>
       <c r="J102" s="3">
-        <v>2410500</v>
+        <v>2507200</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>OIBRQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,190 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2111400</v>
+        <v>2116300</v>
       </c>
       <c r="E8" s="3">
-        <v>2201300</v>
+        <v>2116000</v>
       </c>
       <c r="F8" s="3">
-        <v>2113100</v>
+        <v>2206200</v>
       </c>
       <c r="G8" s="3">
-        <v>4442900</v>
+        <v>2117700</v>
       </c>
       <c r="H8" s="3">
-        <v>4791200</v>
+        <v>4452600</v>
       </c>
       <c r="I8" s="3">
-        <v>5235700</v>
+        <v>4801700</v>
       </c>
       <c r="J8" s="3">
+        <v>5247100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5509000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5502000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5032700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5877500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2293600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1998800</v>
+        <v>2156400</v>
       </c>
       <c r="E9" s="3">
-        <v>1593500</v>
+        <v>2003100</v>
       </c>
       <c r="F9" s="3">
-        <v>1607700</v>
+        <v>1597000</v>
       </c>
       <c r="G9" s="3">
-        <v>3258500</v>
+        <v>1611200</v>
       </c>
       <c r="H9" s="3">
-        <v>3018200</v>
+        <v>3265600</v>
       </c>
       <c r="I9" s="3">
-        <v>3225500</v>
+        <v>3024800</v>
       </c>
       <c r="J9" s="3">
+        <v>3232600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6427200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6133000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8319700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2959500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1137800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>112600</v>
+        <v>-40000</v>
       </c>
       <c r="E10" s="3">
-        <v>607800</v>
+        <v>112900</v>
       </c>
       <c r="F10" s="3">
-        <v>505400</v>
+        <v>609100</v>
       </c>
       <c r="G10" s="3">
-        <v>1184400</v>
+        <v>506500</v>
       </c>
       <c r="H10" s="3">
-        <v>1773000</v>
+        <v>1187000</v>
       </c>
       <c r="I10" s="3">
-        <v>2010200</v>
+        <v>1776900</v>
       </c>
       <c r="J10" s="3">
+        <v>2014500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-918200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-631000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3287000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2918100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1155700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,26 +945,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2876000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-2226400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2231300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -958,18 +978,21 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-252900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2521700</v>
+        <v>5802900</v>
       </c>
       <c r="E17" s="3">
-        <v>2469900</v>
+        <v>2527200</v>
       </c>
       <c r="F17" s="3">
-        <v>3039100</v>
+        <v>2475300</v>
       </c>
       <c r="G17" s="3">
-        <v>3277500</v>
+        <v>3045700</v>
       </c>
       <c r="H17" s="3">
-        <v>5266700</v>
+        <v>3284600</v>
       </c>
       <c r="I17" s="3">
-        <v>5515900</v>
+        <v>5278300</v>
       </c>
       <c r="J17" s="3">
+        <v>5527900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5036100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4603400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4327400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4765900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1904800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-410300</v>
+        <v>-3686600</v>
       </c>
       <c r="E18" s="3">
-        <v>-268600</v>
+        <v>-411200</v>
       </c>
       <c r="F18" s="3">
-        <v>-926000</v>
+        <v>-269200</v>
       </c>
       <c r="G18" s="3">
-        <v>1165400</v>
+        <v>-928000</v>
       </c>
       <c r="H18" s="3">
-        <v>-475500</v>
+        <v>1168000</v>
       </c>
       <c r="I18" s="3">
-        <v>-280200</v>
+        <v>-476500</v>
       </c>
       <c r="J18" s="3">
+        <v>-280800</v>
+      </c>
+      <c r="K18" s="3">
         <v>473000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>898600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>705300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1111600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>388800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1061300</v>
+        <v>123900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1793500</v>
+        <v>-1063600</v>
       </c>
       <c r="F20" s="3">
-        <v>-506400</v>
+        <v>-1797400</v>
       </c>
       <c r="G20" s="3">
-        <v>3132600</v>
+        <v>-507500</v>
       </c>
       <c r="H20" s="3">
-        <v>80100</v>
+        <v>3139400</v>
       </c>
       <c r="I20" s="3">
+        <v>80300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-30600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-60900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>130100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>314000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>221800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-661400</v>
+        <v>-2710400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1271500</v>
+        <v>-667000</v>
       </c>
       <c r="F21" s="3">
-        <v>-40700</v>
+        <v>-1278400</v>
       </c>
       <c r="G21" s="3">
-        <v>5474500</v>
+        <v>-48100</v>
       </c>
       <c r="H21" s="3">
-        <v>639000</v>
+        <v>5480300</v>
       </c>
       <c r="I21" s="3">
-        <v>799400</v>
+        <v>635000</v>
       </c>
       <c r="J21" s="3">
+        <v>795300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1666300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2151200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2031900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1838900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>865900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>862800</v>
+        <v>801800</v>
       </c>
       <c r="E22" s="3">
-        <v>776800</v>
+        <v>864700</v>
       </c>
       <c r="F22" s="3">
-        <v>576500</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>778500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>577700</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>723900</v>
-      </c>
       <c r="I22" s="3">
-        <v>712300</v>
+        <v>725500</v>
       </c>
       <c r="J22" s="3">
+        <v>713900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1631500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1016200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>898700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>482500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>239700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2334400</v>
+        <v>-4364500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2838800</v>
+        <v>-2339500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2008800</v>
+        <v>-2845000</v>
       </c>
       <c r="G23" s="3">
-        <v>4298000</v>
+        <v>-2013200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1119300</v>
+        <v>4307400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1023100</v>
+        <v>-1121700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1025300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1219400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>594200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>371000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-410100</v>
+        <v>525000</v>
       </c>
       <c r="E24" s="3">
-        <v>-715200</v>
+        <v>-411000</v>
       </c>
       <c r="F24" s="3">
+        <v>-716700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-659600</v>
-      </c>
       <c r="H24" s="3">
-        <v>221300</v>
+        <v>-661000</v>
       </c>
       <c r="I24" s="3">
-        <v>629500</v>
+        <v>221700</v>
       </c>
       <c r="J24" s="3">
+        <v>630900</v>
+      </c>
+      <c r="K24" s="3">
         <v>119800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>177400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>121500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1924300</v>
+        <v>-4889500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2123700</v>
+        <v>-1928500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2006300</v>
+        <v>-2128300</v>
       </c>
       <c r="G26" s="3">
-        <v>4957600</v>
+        <v>-2010600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1340600</v>
+        <v>4968400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1652600</v>
+        <v>-1343500</v>
       </c>
       <c r="J26" s="3">
+        <v>-1656200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1339200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-135200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>416800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1929100</v>
+        <v>-4890000</v>
       </c>
       <c r="E27" s="3">
-        <v>-2124000</v>
+        <v>-1933300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1987200</v>
+        <v>-2128600</v>
       </c>
       <c r="G27" s="3">
-        <v>4952700</v>
+        <v>-1991500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1281900</v>
+        <v>4963500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1616800</v>
+        <v>-1284700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1620400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1256100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-135400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>416800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>249500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1524,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>213900</v>
+        <v>1000800</v>
       </c>
       <c r="E29" s="3">
+        <v>214400</v>
+      </c>
+      <c r="F29" s="3">
         <v>3200</v>
       </c>
-      <c r="F29" s="3">
-        <v>174500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>174900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>215100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-796000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1061300</v>
+        <v>-123900</v>
       </c>
       <c r="E32" s="3">
-        <v>1793500</v>
+        <v>1063600</v>
       </c>
       <c r="F32" s="3">
-        <v>506400</v>
+        <v>1797400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3132600</v>
+        <v>507500</v>
       </c>
       <c r="H32" s="3">
-        <v>-80100</v>
+        <v>-3139400</v>
       </c>
       <c r="I32" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="J32" s="3">
         <v>30600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>60900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-130100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-314000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-221800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1715200</v>
+        <v>-3889200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2120700</v>
+        <v>-1718900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1812700</v>
+        <v>-2125400</v>
       </c>
       <c r="G33" s="3">
-        <v>4952700</v>
+        <v>-1816600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1281900</v>
+        <v>4963500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1616800</v>
+        <v>-1284700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1620400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1040900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-931400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>416800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>249500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1715200</v>
+        <v>-3889200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2120700</v>
+        <v>-1718900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1812700</v>
+        <v>-2125400</v>
       </c>
       <c r="G35" s="3">
-        <v>4952700</v>
+        <v>-1816600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1281900</v>
+        <v>4963500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1616800</v>
+        <v>-1284700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1620400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1040900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-931400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>416800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>249500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>587500</v>
+        <v>606700</v>
       </c>
       <c r="E41" s="3">
-        <v>827300</v>
+        <v>588800</v>
       </c>
       <c r="F41" s="3">
-        <v>419300</v>
+        <v>829100</v>
       </c>
       <c r="G41" s="3">
-        <v>883200</v>
+        <v>420200</v>
       </c>
       <c r="H41" s="3">
-        <v>1382100</v>
+        <v>885100</v>
       </c>
       <c r="I41" s="3">
-        <v>1523200</v>
+        <v>1385200</v>
       </c>
       <c r="J41" s="3">
+        <v>1526600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3000500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>477100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>429400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1030500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1489600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38000</v>
+        <v>41800</v>
       </c>
       <c r="E42" s="3">
-        <v>39000</v>
+        <v>38100</v>
       </c>
       <c r="F42" s="3">
-        <v>37000</v>
+        <v>39100</v>
       </c>
       <c r="G42" s="3">
-        <v>40700</v>
+        <v>37100</v>
       </c>
       <c r="H42" s="3">
+        <v>40800</v>
+      </c>
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>725700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>66800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>488800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>566500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>268900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1099500</v>
+        <v>539600</v>
       </c>
       <c r="E43" s="3">
-        <v>1273400</v>
+        <v>1101900</v>
       </c>
       <c r="F43" s="3">
-        <v>1604500</v>
+        <v>1276200</v>
       </c>
       <c r="G43" s="3">
-        <v>1599300</v>
+        <v>1608000</v>
       </c>
       <c r="H43" s="3">
-        <v>1927900</v>
+        <v>1602800</v>
       </c>
       <c r="I43" s="3">
-        <v>2096900</v>
+        <v>1932100</v>
       </c>
       <c r="J43" s="3">
+        <v>2101500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2457900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2301100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2414400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2042100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>586400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62800</v>
+        <v>59300</v>
       </c>
       <c r="E44" s="3">
-        <v>76200</v>
+        <v>62900</v>
       </c>
       <c r="F44" s="3">
-        <v>65800</v>
+        <v>76400</v>
       </c>
       <c r="G44" s="3">
-        <v>63900</v>
+        <v>66000</v>
       </c>
       <c r="H44" s="3">
-        <v>51100</v>
+        <v>64100</v>
       </c>
       <c r="I44" s="3">
-        <v>71500</v>
+        <v>51200</v>
       </c>
       <c r="J44" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K44" s="3">
         <v>70900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>93200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>76600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7562400</v>
+        <v>680300</v>
       </c>
       <c r="E45" s="3">
-        <v>4532800</v>
+        <v>7579000</v>
       </c>
       <c r="F45" s="3">
-        <v>1497200</v>
+        <v>4542700</v>
       </c>
       <c r="G45" s="3">
-        <v>1705400</v>
+        <v>1500500</v>
       </c>
       <c r="H45" s="3">
-        <v>1417300</v>
+        <v>1709100</v>
       </c>
       <c r="I45" s="3">
-        <v>1564000</v>
+        <v>1420400</v>
       </c>
       <c r="J45" s="3">
+        <v>1567400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3976100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14171400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>823600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1208700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>689800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9350200</v>
+        <v>1927700</v>
       </c>
       <c r="E46" s="3">
-        <v>6748800</v>
+        <v>9370600</v>
       </c>
       <c r="F46" s="3">
-        <v>3623800</v>
+        <v>6763500</v>
       </c>
       <c r="G46" s="3">
-        <v>4292500</v>
+        <v>3631800</v>
       </c>
       <c r="H46" s="3">
-        <v>4782800</v>
+        <v>4301900</v>
       </c>
       <c r="I46" s="3">
-        <v>5279000</v>
+        <v>4793200</v>
       </c>
       <c r="J46" s="3">
+        <v>5290600</v>
+      </c>
+      <c r="K46" s="3">
         <v>7666700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9675900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3174700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4937700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3037900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148700</v>
+        <v>1732200</v>
       </c>
       <c r="E47" s="3">
-        <v>316600</v>
+        <v>149000</v>
       </c>
       <c r="F47" s="3">
-        <v>630200</v>
+        <v>317300</v>
       </c>
       <c r="G47" s="3">
-        <v>167900</v>
+        <v>631600</v>
       </c>
       <c r="H47" s="3">
-        <v>153900</v>
+        <v>168300</v>
       </c>
       <c r="I47" s="3">
-        <v>176100</v>
+        <v>154200</v>
       </c>
       <c r="J47" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K47" s="3">
         <v>220700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>224000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>560500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>267300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>555600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3261200</v>
+        <v>1023700</v>
       </c>
       <c r="E48" s="3">
-        <v>4882400</v>
+        <v>3268300</v>
       </c>
       <c r="F48" s="3">
-        <v>7836600</v>
+        <v>4893100</v>
       </c>
       <c r="G48" s="3">
-        <v>5724900</v>
+        <v>7853800</v>
       </c>
       <c r="H48" s="3">
-        <v>5435500</v>
+        <v>5737400</v>
       </c>
       <c r="I48" s="3">
-        <v>5217300</v>
+        <v>5447400</v>
       </c>
       <c r="J48" s="3">
+        <v>5228700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4247000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4528100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3560900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5396700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1437300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>806700</v>
+        <v>88400</v>
       </c>
       <c r="E49" s="3">
-        <v>744800</v>
+        <v>808400</v>
       </c>
       <c r="F49" s="3">
-        <v>805200</v>
+        <v>746400</v>
       </c>
       <c r="G49" s="3">
-        <v>1399400</v>
+        <v>806900</v>
       </c>
       <c r="H49" s="3">
-        <v>1681800</v>
+        <v>1402500</v>
       </c>
       <c r="I49" s="3">
-        <v>991900</v>
+        <v>1685500</v>
       </c>
       <c r="J49" s="3">
+        <v>994000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4661900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3239400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1279100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>989500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>269100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2132500</v>
+        <v>1205800</v>
       </c>
       <c r="E52" s="3">
-        <v>2178800</v>
+        <v>2137100</v>
       </c>
       <c r="F52" s="3">
-        <v>1583100</v>
+        <v>2183500</v>
       </c>
       <c r="G52" s="3">
-        <v>1594400</v>
+        <v>1586600</v>
       </c>
       <c r="H52" s="3">
-        <v>1769900</v>
+        <v>1597900</v>
       </c>
       <c r="I52" s="3">
-        <v>1781300</v>
+        <v>1773700</v>
       </c>
       <c r="J52" s="3">
+        <v>1785200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5786700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4186200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4124700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4539700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2555300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15699200</v>
+        <v>5977700</v>
       </c>
       <c r="E54" s="3">
-        <v>14871300</v>
+        <v>15733500</v>
       </c>
       <c r="F54" s="3">
-        <v>14479000</v>
+        <v>14903800</v>
       </c>
       <c r="G54" s="3">
-        <v>13179200</v>
+        <v>14510600</v>
       </c>
       <c r="H54" s="3">
-        <v>13823900</v>
+        <v>13208000</v>
       </c>
       <c r="I54" s="3">
-        <v>13286800</v>
+        <v>13854100</v>
       </c>
       <c r="J54" s="3">
+        <v>13315800</v>
+      </c>
+      <c r="K54" s="3">
         <v>20745700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21570200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12411900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16130800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7855200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>811500</v>
+        <v>752400</v>
       </c>
       <c r="E57" s="3">
-        <v>666000</v>
+        <v>813300</v>
       </c>
       <c r="F57" s="3">
-        <v>1126600</v>
+        <v>667400</v>
       </c>
       <c r="G57" s="3">
-        <v>1052500</v>
+        <v>1129100</v>
       </c>
       <c r="H57" s="3">
-        <v>1536100</v>
+        <v>1054800</v>
       </c>
       <c r="I57" s="3">
-        <v>1324900</v>
+        <v>1539500</v>
       </c>
       <c r="J57" s="3">
+        <v>1327700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2022200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1693900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1675900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1087900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>456600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>720300</v>
+        <v>457500</v>
       </c>
       <c r="E58" s="3">
-        <v>217400</v>
+        <v>721900</v>
       </c>
       <c r="F58" s="3">
-        <v>369900</v>
+        <v>217900</v>
       </c>
       <c r="G58" s="3">
-        <v>135500</v>
+        <v>370700</v>
       </c>
       <c r="H58" s="3">
-        <v>10979400</v>
+        <v>135800</v>
       </c>
       <c r="I58" s="3">
-        <v>9684600</v>
+        <v>11003400</v>
       </c>
       <c r="J58" s="3">
+        <v>9705700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4756900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1738900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1472800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>727100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>283700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3784600</v>
+        <v>845800</v>
       </c>
       <c r="E59" s="3">
-        <v>2506200</v>
+        <v>3792800</v>
       </c>
       <c r="F59" s="3">
-        <v>887300</v>
+        <v>2511700</v>
       </c>
       <c r="G59" s="3">
-        <v>964800</v>
+        <v>889200</v>
       </c>
       <c r="H59" s="3">
-        <v>1157900</v>
+        <v>967000</v>
       </c>
       <c r="I59" s="3">
-        <v>1333500</v>
+        <v>1160400</v>
       </c>
       <c r="J59" s="3">
+        <v>1336400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2825300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7718300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2241500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2177300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1398000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5316400</v>
+        <v>2055700</v>
       </c>
       <c r="E60" s="3">
-        <v>3389600</v>
+        <v>5328000</v>
       </c>
       <c r="F60" s="3">
-        <v>2383800</v>
+        <v>3397000</v>
       </c>
       <c r="G60" s="3">
-        <v>2152900</v>
+        <v>2389000</v>
       </c>
       <c r="H60" s="3">
-        <v>13673400</v>
+        <v>2157600</v>
       </c>
       <c r="I60" s="3">
-        <v>12343000</v>
+        <v>13703200</v>
       </c>
       <c r="J60" s="3">
+        <v>12369900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5150600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8293700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2751700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3992400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2138200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6528300</v>
+        <v>4676200</v>
       </c>
       <c r="E61" s="3">
-        <v>5688700</v>
+        <v>6542600</v>
       </c>
       <c r="F61" s="3">
-        <v>4942400</v>
+        <v>5701100</v>
       </c>
       <c r="G61" s="3">
-        <v>3177500</v>
+        <v>4953200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3184400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>9676800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6113300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5612200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7059900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1727100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000100</v>
+        <v>3655100</v>
       </c>
       <c r="E62" s="3">
-        <v>4228100</v>
+        <v>4008900</v>
       </c>
       <c r="F62" s="3">
-        <v>3568600</v>
+        <v>4237400</v>
       </c>
       <c r="G62" s="3">
-        <v>3237600</v>
+        <v>3576400</v>
       </c>
       <c r="H62" s="3">
-        <v>2872000</v>
+        <v>3244700</v>
       </c>
       <c r="I62" s="3">
-        <v>2286300</v>
+        <v>2878200</v>
       </c>
       <c r="J62" s="3">
+        <v>2291300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3404900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3489400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3752800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2436000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1363000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15851400</v>
+        <v>10393700</v>
       </c>
       <c r="E66" s="3">
-        <v>13310200</v>
+        <v>15886000</v>
       </c>
       <c r="F66" s="3">
-        <v>10924200</v>
+        <v>13339300</v>
       </c>
       <c r="G66" s="3">
-        <v>8617000</v>
+        <v>10948100</v>
       </c>
       <c r="H66" s="3">
-        <v>16604400</v>
+        <v>8635800</v>
       </c>
       <c r="I66" s="3">
-        <v>14788600</v>
+        <v>16640700</v>
       </c>
       <c r="J66" s="3">
+        <v>14820900</v>
+      </c>
+      <c r="K66" s="3">
         <v>16877100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16575300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10371300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13488200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5228300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2916,14 +3084,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>-491400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-37100</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6621400</v>
+        <v>-10896400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4910600</v>
+        <v>-6635900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2789900</v>
+        <v>-4921400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1214900</v>
+        <v>-2796000</v>
       </c>
       <c r="H72" s="3">
-        <v>-5865700</v>
+        <v>-1217500</v>
       </c>
       <c r="I72" s="3">
-        <v>-4583800</v>
+        <v>-5878600</v>
       </c>
       <c r="J72" s="3">
+        <v>-4593800</v>
+      </c>
+      <c r="K72" s="3">
         <v>4243000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3024200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1521800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1406900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1738400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-152200</v>
+        <v>-4416000</v>
       </c>
       <c r="E76" s="3">
-        <v>1561200</v>
+        <v>-152500</v>
       </c>
       <c r="F76" s="3">
-        <v>3554800</v>
+        <v>1564600</v>
       </c>
       <c r="G76" s="3">
-        <v>4562200</v>
+        <v>3562500</v>
       </c>
       <c r="H76" s="3">
-        <v>-2780500</v>
+        <v>4572100</v>
       </c>
       <c r="I76" s="3">
-        <v>-1501800</v>
+        <v>-2786600</v>
       </c>
       <c r="J76" s="3">
+        <v>-1505100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3868600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4994900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2040600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3134000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2664000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1715200</v>
+        <v>-3889200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2120700</v>
+        <v>-1718900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1812700</v>
+        <v>-2125400</v>
       </c>
       <c r="G81" s="3">
-        <v>4952700</v>
+        <v>-1816600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1281900</v>
+        <v>4963500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1616800</v>
+        <v>-1284700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1620400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1040900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-931400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>416800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>249500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>806000</v>
+        <v>852400</v>
       </c>
       <c r="E83" s="3">
-        <v>786400</v>
+        <v>807800</v>
       </c>
       <c r="F83" s="3">
-        <v>1384400</v>
+        <v>788200</v>
       </c>
       <c r="G83" s="3">
-        <v>1170400</v>
+        <v>1387400</v>
       </c>
       <c r="H83" s="3">
-        <v>1029000</v>
+        <v>1172900</v>
       </c>
       <c r="I83" s="3">
-        <v>1104400</v>
+        <v>1031300</v>
       </c>
       <c r="J83" s="3">
+        <v>1106800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1247700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1123200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1007900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>753800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>259100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-522400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22300</v>
       </c>
-      <c r="E89" s="3">
-        <v>903500</v>
-      </c>
       <c r="F89" s="3">
-        <v>465600</v>
+        <v>905500</v>
       </c>
       <c r="G89" s="3">
-        <v>576500</v>
+        <v>466600</v>
       </c>
       <c r="H89" s="3">
-        <v>886500</v>
+        <v>577800</v>
       </c>
       <c r="I89" s="3">
-        <v>624400</v>
+        <v>888500</v>
       </c>
       <c r="J89" s="3">
+        <v>625800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-212200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1077200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1245700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>901100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>456300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-704900</v>
+        <v>-290200</v>
       </c>
       <c r="E91" s="3">
-        <v>-695900</v>
+        <v>-706400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1495500</v>
+        <v>-697400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1056600</v>
+        <v>-1498800</v>
       </c>
       <c r="H91" s="3">
-        <v>-874900</v>
+        <v>-1058900</v>
       </c>
       <c r="I91" s="3">
-        <v>-657300</v>
+        <v>-876800</v>
       </c>
       <c r="J91" s="3">
+        <v>-658700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-741500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1046000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1058300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1244600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-219200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-966200</v>
+        <v>3515800</v>
       </c>
       <c r="E94" s="3">
-        <v>-697800</v>
+        <v>-968400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1379700</v>
+        <v>-699400</v>
       </c>
       <c r="G94" s="3">
-        <v>-990300</v>
+        <v>-1382700</v>
       </c>
       <c r="H94" s="3">
-        <v>-890500</v>
+        <v>-992400</v>
       </c>
       <c r="I94" s="3">
-        <v>-789000</v>
+        <v>-892500</v>
       </c>
       <c r="J94" s="3">
+        <v>-790700</v>
+      </c>
+      <c r="K94" s="3">
         <v>2526200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-838100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1198800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1503700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-518200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3770,35 +4004,38 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-12000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-226700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-561700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-114700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>761800</v>
+        <v>-2998300</v>
       </c>
       <c r="E100" s="3">
-        <v>161000</v>
+        <v>763500</v>
       </c>
       <c r="F100" s="3">
-        <v>450300</v>
+        <v>161400</v>
       </c>
       <c r="G100" s="3">
-        <v>-85500</v>
+        <v>451200</v>
       </c>
       <c r="H100" s="3">
-        <v>-139300</v>
+        <v>-85600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1232400</v>
+        <v>-139600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1235100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-474600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-228800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-407000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>227600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>724100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13100</v>
       </c>
-      <c r="E101" s="3">
-        <v>41300</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-80300</v>
-      </c>
       <c r="J101" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K101" s="3">
         <v>667900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239800</v>
+        <v>17900</v>
       </c>
       <c r="E102" s="3">
-        <v>408000</v>
+        <v>-240300</v>
       </c>
       <c r="F102" s="3">
-        <v>-463900</v>
+        <v>408900</v>
       </c>
       <c r="G102" s="3">
-        <v>-498900</v>
+        <v>-464900</v>
       </c>
       <c r="H102" s="3">
-        <v>-141100</v>
+        <v>-500000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1477200</v>
+        <v>-141400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1480500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2507200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-351200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-371600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>691500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OIBRQ_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2116300</v>
+        <v>2156100</v>
       </c>
       <c r="E8" s="3">
-        <v>2116000</v>
+        <v>2155700</v>
       </c>
       <c r="F8" s="3">
-        <v>2206200</v>
+        <v>2247600</v>
       </c>
       <c r="G8" s="3">
-        <v>2117700</v>
+        <v>2157500</v>
       </c>
       <c r="H8" s="3">
-        <v>4452600</v>
+        <v>4536200</v>
       </c>
       <c r="I8" s="3">
-        <v>4801700</v>
+        <v>4891900</v>
       </c>
       <c r="J8" s="3">
-        <v>5247100</v>
+        <v>5345600</v>
       </c>
       <c r="K8" s="3">
         <v>5509000</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2156400</v>
+        <v>2196800</v>
       </c>
       <c r="E9" s="3">
-        <v>2003100</v>
+        <v>2040700</v>
       </c>
       <c r="F9" s="3">
-        <v>1597000</v>
+        <v>1627000</v>
       </c>
       <c r="G9" s="3">
-        <v>1611200</v>
+        <v>1641500</v>
       </c>
       <c r="H9" s="3">
-        <v>3265600</v>
+        <v>3326900</v>
       </c>
       <c r="I9" s="3">
-        <v>3024800</v>
+        <v>3081600</v>
       </c>
       <c r="J9" s="3">
-        <v>3232600</v>
+        <v>3293300</v>
       </c>
       <c r="K9" s="3">
         <v>6427200</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-40000</v>
+        <v>-40800</v>
       </c>
       <c r="E10" s="3">
-        <v>112900</v>
+        <v>115000</v>
       </c>
       <c r="F10" s="3">
-        <v>609100</v>
+        <v>620600</v>
       </c>
       <c r="G10" s="3">
-        <v>506500</v>
+        <v>516000</v>
       </c>
       <c r="H10" s="3">
-        <v>1187000</v>
+        <v>1209300</v>
       </c>
       <c r="I10" s="3">
-        <v>1776900</v>
+        <v>1810200</v>
       </c>
       <c r="J10" s="3">
-        <v>2014500</v>
+        <v>2052400</v>
       </c>
       <c r="K10" s="3">
         <v>-918200</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2876000</v>
+        <v>2930000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-2231300</v>
+        <v>-2273200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5802900</v>
+        <v>5911900</v>
       </c>
       <c r="E17" s="3">
-        <v>2527200</v>
+        <v>2574600</v>
       </c>
       <c r="F17" s="3">
-        <v>2475300</v>
+        <v>2521800</v>
       </c>
       <c r="G17" s="3">
-        <v>3045700</v>
+        <v>3102900</v>
       </c>
       <c r="H17" s="3">
-        <v>3284600</v>
+        <v>3346300</v>
       </c>
       <c r="I17" s="3">
-        <v>5278300</v>
+        <v>5377400</v>
       </c>
       <c r="J17" s="3">
-        <v>5527900</v>
+        <v>5631700</v>
       </c>
       <c r="K17" s="3">
         <v>5036100</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3686600</v>
+        <v>-3755800</v>
       </c>
       <c r="E18" s="3">
-        <v>-411200</v>
+        <v>-418900</v>
       </c>
       <c r="F18" s="3">
-        <v>-269200</v>
+        <v>-274200</v>
       </c>
       <c r="G18" s="3">
-        <v>-928000</v>
+        <v>-945400</v>
       </c>
       <c r="H18" s="3">
-        <v>1168000</v>
+        <v>1189900</v>
       </c>
       <c r="I18" s="3">
-        <v>-476500</v>
+        <v>-485500</v>
       </c>
       <c r="J18" s="3">
-        <v>-280800</v>
+        <v>-286100</v>
       </c>
       <c r="K18" s="3">
         <v>473000</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>123900</v>
+        <v>126200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1063600</v>
+        <v>-1083600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1797400</v>
+        <v>-1831200</v>
       </c>
       <c r="G20" s="3">
-        <v>-507500</v>
+        <v>-517000</v>
       </c>
       <c r="H20" s="3">
-        <v>3139400</v>
+        <v>3198400</v>
       </c>
       <c r="I20" s="3">
-        <v>80300</v>
+        <v>81800</v>
       </c>
       <c r="J20" s="3">
-        <v>-30600</v>
+        <v>-31200</v>
       </c>
       <c r="K20" s="3">
         <v>-60900</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2710400</v>
+        <v>-2761100</v>
       </c>
       <c r="E21" s="3">
-        <v>-667000</v>
+        <v>-679400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1278400</v>
+        <v>-1302200</v>
       </c>
       <c r="G21" s="3">
-        <v>-48100</v>
+        <v>-48600</v>
       </c>
       <c r="H21" s="3">
-        <v>5480300</v>
+        <v>5583500</v>
       </c>
       <c r="I21" s="3">
-        <v>635000</v>
+        <v>647200</v>
       </c>
       <c r="J21" s="3">
-        <v>795300</v>
+        <v>810500</v>
       </c>
       <c r="K21" s="3">
         <v>1666300</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>801800</v>
+        <v>816800</v>
       </c>
       <c r="E22" s="3">
-        <v>864700</v>
+        <v>881000</v>
       </c>
       <c r="F22" s="3">
-        <v>778500</v>
+        <v>793100</v>
       </c>
       <c r="G22" s="3">
-        <v>577700</v>
+        <v>588600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>725500</v>
+        <v>739100</v>
       </c>
       <c r="J22" s="3">
-        <v>713900</v>
+        <v>727300</v>
       </c>
       <c r="K22" s="3">
         <v>1631500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4364500</v>
+        <v>-4446400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2339500</v>
+        <v>-2383500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2845000</v>
+        <v>-2898500</v>
       </c>
       <c r="G23" s="3">
-        <v>-2013200</v>
+        <v>-2051000</v>
       </c>
       <c r="H23" s="3">
-        <v>4307400</v>
+        <v>4388300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1121700</v>
+        <v>-1142800</v>
       </c>
       <c r="J23" s="3">
-        <v>-1025300</v>
+        <v>-1044600</v>
       </c>
       <c r="K23" s="3">
         <v>-1219400</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>525000</v>
+        <v>534800</v>
       </c>
       <c r="E24" s="3">
-        <v>-411000</v>
+        <v>-418700</v>
       </c>
       <c r="F24" s="3">
-        <v>-716700</v>
+        <v>-730200</v>
       </c>
       <c r="G24" s="3">
         <v>-2600</v>
       </c>
       <c r="H24" s="3">
-        <v>-661000</v>
+        <v>-673400</v>
       </c>
       <c r="I24" s="3">
-        <v>221700</v>
+        <v>225900</v>
       </c>
       <c r="J24" s="3">
-        <v>630900</v>
+        <v>642800</v>
       </c>
       <c r="K24" s="3">
         <v>119800</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4889500</v>
+        <v>-4981300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1928500</v>
+        <v>-1964800</v>
       </c>
       <c r="F26" s="3">
-        <v>-2128300</v>
+        <v>-2168300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2010600</v>
+        <v>-2048400</v>
       </c>
       <c r="H26" s="3">
-        <v>4968400</v>
+        <v>5061700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1343500</v>
+        <v>-1368700</v>
       </c>
       <c r="J26" s="3">
-        <v>-1656200</v>
+        <v>-1687300</v>
       </c>
       <c r="K26" s="3">
         <v>-1339200</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4890000</v>
+        <v>-4981800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1933300</v>
+        <v>-1969600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2128600</v>
+        <v>-2168600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1991500</v>
+        <v>-2028900</v>
       </c>
       <c r="H27" s="3">
-        <v>4963500</v>
+        <v>5056700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1284700</v>
+        <v>-1308800</v>
       </c>
       <c r="J27" s="3">
-        <v>-1620400</v>
+        <v>-1650800</v>
       </c>
       <c r="K27" s="3">
         <v>-1256100</v>
@@ -1534,16 +1534,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1000800</v>
+        <v>1019600</v>
       </c>
       <c r="E29" s="3">
-        <v>214400</v>
+        <v>218400</v>
       </c>
       <c r="F29" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G29" s="3">
-        <v>174900</v>
+        <v>178200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-123900</v>
+        <v>-126200</v>
       </c>
       <c r="E32" s="3">
-        <v>1063600</v>
+        <v>1083600</v>
       </c>
       <c r="F32" s="3">
-        <v>1797400</v>
+        <v>1831200</v>
       </c>
       <c r="G32" s="3">
-        <v>507500</v>
+        <v>517000</v>
       </c>
       <c r="H32" s="3">
-        <v>-3139400</v>
+        <v>-3198400</v>
       </c>
       <c r="I32" s="3">
-        <v>-80300</v>
+        <v>-81800</v>
       </c>
       <c r="J32" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="K32" s="3">
         <v>60900</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3889200</v>
+        <v>-3962200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1718900</v>
+        <v>-1751200</v>
       </c>
       <c r="F33" s="3">
-        <v>-2125400</v>
+        <v>-2165300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1816600</v>
+        <v>-1850800</v>
       </c>
       <c r="H33" s="3">
-        <v>4963500</v>
+        <v>5056700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1284700</v>
+        <v>-1308800</v>
       </c>
       <c r="J33" s="3">
-        <v>-1620400</v>
+        <v>-1650800</v>
       </c>
       <c r="K33" s="3">
         <v>-1040900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3889200</v>
+        <v>-3962200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1718900</v>
+        <v>-1751200</v>
       </c>
       <c r="F35" s="3">
-        <v>-2125400</v>
+        <v>-2165300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1816600</v>
+        <v>-1850800</v>
       </c>
       <c r="H35" s="3">
-        <v>4963500</v>
+        <v>5056700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1284700</v>
+        <v>-1308800</v>
       </c>
       <c r="J35" s="3">
-        <v>-1620400</v>
+        <v>-1650800</v>
       </c>
       <c r="K35" s="3">
         <v>-1040900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>606700</v>
+        <v>618100</v>
       </c>
       <c r="E41" s="3">
-        <v>588800</v>
+        <v>599900</v>
       </c>
       <c r="F41" s="3">
-        <v>829100</v>
+        <v>844700</v>
       </c>
       <c r="G41" s="3">
-        <v>420200</v>
+        <v>428100</v>
       </c>
       <c r="H41" s="3">
-        <v>885100</v>
+        <v>901800</v>
       </c>
       <c r="I41" s="3">
-        <v>1385200</v>
+        <v>1411200</v>
       </c>
       <c r="J41" s="3">
-        <v>1526600</v>
+        <v>1555200</v>
       </c>
       <c r="K41" s="3">
         <v>3000500</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41800</v>
+        <v>42600</v>
       </c>
       <c r="E42" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="F42" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="G42" s="3">
-        <v>37100</v>
+        <v>37800</v>
       </c>
       <c r="H42" s="3">
-        <v>40800</v>
+        <v>41500</v>
       </c>
       <c r="I42" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J42" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="K42" s="3">
         <v>725700</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>539600</v>
+        <v>549700</v>
       </c>
       <c r="E43" s="3">
-        <v>1101900</v>
+        <v>1122600</v>
       </c>
       <c r="F43" s="3">
-        <v>1276200</v>
+        <v>1300200</v>
       </c>
       <c r="G43" s="3">
-        <v>1608000</v>
+        <v>1638200</v>
       </c>
       <c r="H43" s="3">
-        <v>1602800</v>
+        <v>1632900</v>
       </c>
       <c r="I43" s="3">
-        <v>1932100</v>
+        <v>1968400</v>
       </c>
       <c r="J43" s="3">
-        <v>2101500</v>
+        <v>2140900</v>
       </c>
       <c r="K43" s="3">
         <v>2457900</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59300</v>
+        <v>60400</v>
       </c>
       <c r="E44" s="3">
-        <v>62900</v>
+        <v>64100</v>
       </c>
       <c r="F44" s="3">
-        <v>76400</v>
+        <v>77800</v>
       </c>
       <c r="G44" s="3">
-        <v>66000</v>
+        <v>67200</v>
       </c>
       <c r="H44" s="3">
-        <v>64100</v>
+        <v>65300</v>
       </c>
       <c r="I44" s="3">
-        <v>51200</v>
+        <v>52200</v>
       </c>
       <c r="J44" s="3">
-        <v>71700</v>
+        <v>73000</v>
       </c>
       <c r="K44" s="3">
         <v>70900</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>680300</v>
+        <v>693100</v>
       </c>
       <c r="E45" s="3">
-        <v>7579000</v>
+        <v>7721300</v>
       </c>
       <c r="F45" s="3">
-        <v>4542700</v>
+        <v>4628000</v>
       </c>
       <c r="G45" s="3">
-        <v>1500500</v>
+        <v>1528600</v>
       </c>
       <c r="H45" s="3">
-        <v>1709100</v>
+        <v>1741200</v>
       </c>
       <c r="I45" s="3">
-        <v>1420400</v>
+        <v>1447100</v>
       </c>
       <c r="J45" s="3">
-        <v>1567400</v>
+        <v>1596800</v>
       </c>
       <c r="K45" s="3">
         <v>3976100</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1927700</v>
+        <v>1963900</v>
       </c>
       <c r="E46" s="3">
-        <v>9370600</v>
+        <v>9546600</v>
       </c>
       <c r="F46" s="3">
-        <v>6763500</v>
+        <v>6890500</v>
       </c>
       <c r="G46" s="3">
-        <v>3631800</v>
+        <v>3700000</v>
       </c>
       <c r="H46" s="3">
-        <v>4301900</v>
+        <v>4382700</v>
       </c>
       <c r="I46" s="3">
-        <v>4793200</v>
+        <v>4883200</v>
       </c>
       <c r="J46" s="3">
-        <v>5290600</v>
+        <v>5389900</v>
       </c>
       <c r="K46" s="3">
         <v>7666700</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1732200</v>
+        <v>1764700</v>
       </c>
       <c r="E47" s="3">
-        <v>149000</v>
+        <v>151800</v>
       </c>
       <c r="F47" s="3">
-        <v>317300</v>
+        <v>323200</v>
       </c>
       <c r="G47" s="3">
-        <v>631600</v>
+        <v>643500</v>
       </c>
       <c r="H47" s="3">
-        <v>168300</v>
+        <v>171500</v>
       </c>
       <c r="I47" s="3">
-        <v>154200</v>
+        <v>157100</v>
       </c>
       <c r="J47" s="3">
-        <v>176500</v>
+        <v>179800</v>
       </c>
       <c r="K47" s="3">
         <v>220700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1023700</v>
+        <v>1042900</v>
       </c>
       <c r="E48" s="3">
-        <v>3268300</v>
+        <v>3329700</v>
       </c>
       <c r="F48" s="3">
-        <v>4893100</v>
+        <v>4985000</v>
       </c>
       <c r="G48" s="3">
-        <v>7853800</v>
+        <v>8001200</v>
       </c>
       <c r="H48" s="3">
-        <v>5737400</v>
+        <v>5845100</v>
       </c>
       <c r="I48" s="3">
-        <v>5447400</v>
+        <v>5549700</v>
       </c>
       <c r="J48" s="3">
-        <v>5228700</v>
+        <v>5326900</v>
       </c>
       <c r="K48" s="3">
         <v>4247000</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>88400</v>
+        <v>90100</v>
       </c>
       <c r="E49" s="3">
-        <v>808400</v>
+        <v>823600</v>
       </c>
       <c r="F49" s="3">
-        <v>746400</v>
+        <v>760400</v>
       </c>
       <c r="G49" s="3">
-        <v>806900</v>
+        <v>822100</v>
       </c>
       <c r="H49" s="3">
-        <v>1402500</v>
+        <v>1428800</v>
       </c>
       <c r="I49" s="3">
-        <v>1685500</v>
+        <v>1717200</v>
       </c>
       <c r="J49" s="3">
-        <v>994000</v>
+        <v>1012700</v>
       </c>
       <c r="K49" s="3">
         <v>4661900</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1205800</v>
+        <v>1228400</v>
       </c>
       <c r="E52" s="3">
-        <v>2137100</v>
+        <v>2177300</v>
       </c>
       <c r="F52" s="3">
-        <v>2183500</v>
+        <v>2224500</v>
       </c>
       <c r="G52" s="3">
-        <v>1586600</v>
+        <v>1616400</v>
       </c>
       <c r="H52" s="3">
-        <v>1597900</v>
+        <v>1627900</v>
       </c>
       <c r="I52" s="3">
-        <v>1773700</v>
+        <v>1807100</v>
       </c>
       <c r="J52" s="3">
-        <v>1785200</v>
+        <v>1818700</v>
       </c>
       <c r="K52" s="3">
         <v>5786700</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5977700</v>
+        <v>6090000</v>
       </c>
       <c r="E54" s="3">
-        <v>15733500</v>
+        <v>16029000</v>
       </c>
       <c r="F54" s="3">
-        <v>14903800</v>
+        <v>15183700</v>
       </c>
       <c r="G54" s="3">
-        <v>14510600</v>
+        <v>14783100</v>
       </c>
       <c r="H54" s="3">
-        <v>13208000</v>
+        <v>13456000</v>
       </c>
       <c r="I54" s="3">
-        <v>13854100</v>
+        <v>14114200</v>
       </c>
       <c r="J54" s="3">
-        <v>13315800</v>
+        <v>13565900</v>
       </c>
       <c r="K54" s="3">
         <v>20745700</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>752400</v>
+        <v>766600</v>
       </c>
       <c r="E57" s="3">
-        <v>813300</v>
+        <v>828500</v>
       </c>
       <c r="F57" s="3">
-        <v>667400</v>
+        <v>680000</v>
       </c>
       <c r="G57" s="3">
-        <v>1129100</v>
+        <v>1150300</v>
       </c>
       <c r="H57" s="3">
-        <v>1054800</v>
+        <v>1074600</v>
       </c>
       <c r="I57" s="3">
-        <v>1539500</v>
+        <v>1568400</v>
       </c>
       <c r="J57" s="3">
-        <v>1327700</v>
+        <v>1352700</v>
       </c>
       <c r="K57" s="3">
         <v>2022200</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>457500</v>
+        <v>466100</v>
       </c>
       <c r="E58" s="3">
-        <v>721900</v>
+        <v>735400</v>
       </c>
       <c r="F58" s="3">
-        <v>217900</v>
+        <v>222000</v>
       </c>
       <c r="G58" s="3">
-        <v>370700</v>
+        <v>377600</v>
       </c>
       <c r="H58" s="3">
-        <v>135800</v>
+        <v>138400</v>
       </c>
       <c r="I58" s="3">
-        <v>11003400</v>
+        <v>11210000</v>
       </c>
       <c r="J58" s="3">
-        <v>9705700</v>
+        <v>9888000</v>
       </c>
       <c r="K58" s="3">
         <v>4756900</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>845800</v>
+        <v>861700</v>
       </c>
       <c r="E59" s="3">
-        <v>3792800</v>
+        <v>3864000</v>
       </c>
       <c r="F59" s="3">
-        <v>2511700</v>
+        <v>2558900</v>
       </c>
       <c r="G59" s="3">
-        <v>889200</v>
+        <v>905900</v>
       </c>
       <c r="H59" s="3">
-        <v>967000</v>
+        <v>985100</v>
       </c>
       <c r="I59" s="3">
-        <v>1160400</v>
+        <v>1182200</v>
       </c>
       <c r="J59" s="3">
-        <v>1336400</v>
+        <v>1361500</v>
       </c>
       <c r="K59" s="3">
         <v>2825300</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2055700</v>
+        <v>2094300</v>
       </c>
       <c r="E60" s="3">
-        <v>5328000</v>
+        <v>5428000</v>
       </c>
       <c r="F60" s="3">
-        <v>3397000</v>
+        <v>3460800</v>
       </c>
       <c r="G60" s="3">
-        <v>2389000</v>
+        <v>2433800</v>
       </c>
       <c r="H60" s="3">
-        <v>2157600</v>
+        <v>2198100</v>
       </c>
       <c r="I60" s="3">
-        <v>13703200</v>
+        <v>13960600</v>
       </c>
       <c r="J60" s="3">
-        <v>12369900</v>
+        <v>12602200</v>
       </c>
       <c r="K60" s="3">
         <v>5150600</v>
@@ -2703,19 +2703,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4676200</v>
+        <v>4764100</v>
       </c>
       <c r="E61" s="3">
-        <v>6542600</v>
+        <v>6665500</v>
       </c>
       <c r="F61" s="3">
-        <v>5701100</v>
+        <v>5808200</v>
       </c>
       <c r="G61" s="3">
-        <v>4953200</v>
+        <v>5046200</v>
       </c>
       <c r="H61" s="3">
-        <v>3184400</v>
+        <v>3244200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3655100</v>
+        <v>3723700</v>
       </c>
       <c r="E62" s="3">
-        <v>4008900</v>
+        <v>4084100</v>
       </c>
       <c r="F62" s="3">
-        <v>4237400</v>
+        <v>4317000</v>
       </c>
       <c r="G62" s="3">
-        <v>3576400</v>
+        <v>3643600</v>
       </c>
       <c r="H62" s="3">
-        <v>3244700</v>
+        <v>3305600</v>
       </c>
       <c r="I62" s="3">
-        <v>2878200</v>
+        <v>2932300</v>
       </c>
       <c r="J62" s="3">
-        <v>2291300</v>
+        <v>2334400</v>
       </c>
       <c r="K62" s="3">
         <v>3404900</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10393700</v>
+        <v>10588900</v>
       </c>
       <c r="E66" s="3">
-        <v>15886000</v>
+        <v>16184300</v>
       </c>
       <c r="F66" s="3">
-        <v>13339300</v>
+        <v>13589700</v>
       </c>
       <c r="G66" s="3">
-        <v>10948100</v>
+        <v>11153700</v>
       </c>
       <c r="H66" s="3">
-        <v>8635800</v>
+        <v>8798000</v>
       </c>
       <c r="I66" s="3">
-        <v>16640700</v>
+        <v>16953200</v>
       </c>
       <c r="J66" s="3">
-        <v>14820900</v>
+        <v>15099200</v>
       </c>
       <c r="K66" s="3">
         <v>16877100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10896400</v>
+        <v>-11101000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6635900</v>
+        <v>-6760500</v>
       </c>
       <c r="F72" s="3">
-        <v>-4921400</v>
+        <v>-5013800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2796000</v>
+        <v>-2848500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1217500</v>
+        <v>-1240400</v>
       </c>
       <c r="I72" s="3">
-        <v>-5878600</v>
+        <v>-5988900</v>
       </c>
       <c r="J72" s="3">
-        <v>-4593800</v>
+        <v>-4680100</v>
       </c>
       <c r="K72" s="3">
         <v>4243000</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4416000</v>
+        <v>-4498900</v>
       </c>
       <c r="E76" s="3">
-        <v>-152500</v>
+        <v>-155400</v>
       </c>
       <c r="F76" s="3">
-        <v>1564600</v>
+        <v>1593900</v>
       </c>
       <c r="G76" s="3">
-        <v>3562500</v>
+        <v>3629400</v>
       </c>
       <c r="H76" s="3">
-        <v>4572100</v>
+        <v>4658000</v>
       </c>
       <c r="I76" s="3">
-        <v>-2786600</v>
+        <v>-2838900</v>
       </c>
       <c r="J76" s="3">
-        <v>-1505100</v>
+        <v>-1533400</v>
       </c>
       <c r="K76" s="3">
         <v>3868600</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3889200</v>
+        <v>-3962200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1718900</v>
+        <v>-1751200</v>
       </c>
       <c r="F81" s="3">
-        <v>-2125400</v>
+        <v>-2165300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1816600</v>
+        <v>-1850800</v>
       </c>
       <c r="H81" s="3">
-        <v>4963500</v>
+        <v>5056700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1284700</v>
+        <v>-1308800</v>
       </c>
       <c r="J81" s="3">
-        <v>-1620400</v>
+        <v>-1650800</v>
       </c>
       <c r="K81" s="3">
         <v>-1040900</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>852400</v>
+        <v>868400</v>
       </c>
       <c r="E83" s="3">
-        <v>807800</v>
+        <v>822900</v>
       </c>
       <c r="F83" s="3">
-        <v>788200</v>
+        <v>803000</v>
       </c>
       <c r="G83" s="3">
-        <v>1387400</v>
+        <v>1413500</v>
       </c>
       <c r="H83" s="3">
-        <v>1172900</v>
+        <v>1194900</v>
       </c>
       <c r="I83" s="3">
-        <v>1031300</v>
+        <v>1050600</v>
       </c>
       <c r="J83" s="3">
-        <v>1106800</v>
+        <v>1127600</v>
       </c>
       <c r="K83" s="3">
         <v>1247700</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-522400</v>
+        <v>-532300</v>
       </c>
       <c r="E89" s="3">
-        <v>-22300</v>
+        <v>-22700</v>
       </c>
       <c r="F89" s="3">
-        <v>905500</v>
+        <v>922500</v>
       </c>
       <c r="G89" s="3">
-        <v>466600</v>
+        <v>475300</v>
       </c>
       <c r="H89" s="3">
-        <v>577800</v>
+        <v>588600</v>
       </c>
       <c r="I89" s="3">
-        <v>888500</v>
+        <v>905100</v>
       </c>
       <c r="J89" s="3">
-        <v>625800</v>
+        <v>637500</v>
       </c>
       <c r="K89" s="3">
         <v>-212200</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-290200</v>
+        <v>-295600</v>
       </c>
       <c r="E91" s="3">
-        <v>-706400</v>
+        <v>-719700</v>
       </c>
       <c r="F91" s="3">
-        <v>-697400</v>
+        <v>-710500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1498800</v>
+        <v>-1526900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1058900</v>
+        <v>-1078800</v>
       </c>
       <c r="I91" s="3">
-        <v>-876800</v>
+        <v>-893300</v>
       </c>
       <c r="J91" s="3">
-        <v>-658700</v>
+        <v>-671100</v>
       </c>
       <c r="K91" s="3">
         <v>-741500</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3515800</v>
+        <v>3581800</v>
       </c>
       <c r="E94" s="3">
-        <v>-968400</v>
+        <v>-986500</v>
       </c>
       <c r="F94" s="3">
-        <v>-699400</v>
+        <v>-712500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1382700</v>
+        <v>-1408700</v>
       </c>
       <c r="H94" s="3">
-        <v>-992400</v>
+        <v>-1011100</v>
       </c>
       <c r="I94" s="3">
-        <v>-892500</v>
+        <v>-909200</v>
       </c>
       <c r="J94" s="3">
-        <v>-790700</v>
+        <v>-805500</v>
       </c>
       <c r="K94" s="3">
         <v>2526200</v>
@@ -4013,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-12000</v>
+        <v>-12200</v>
       </c>
       <c r="J96" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="K96" s="3">
         <v>-11600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2998300</v>
+        <v>-3054600</v>
       </c>
       <c r="E100" s="3">
-        <v>763500</v>
+        <v>777800</v>
       </c>
       <c r="F100" s="3">
-        <v>161400</v>
+        <v>164400</v>
       </c>
       <c r="G100" s="3">
-        <v>451200</v>
+        <v>459700</v>
       </c>
       <c r="H100" s="3">
-        <v>-85600</v>
+        <v>-87300</v>
       </c>
       <c r="I100" s="3">
-        <v>-139600</v>
+        <v>-142200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1235100</v>
+        <v>-1258300</v>
       </c>
       <c r="K100" s="3">
         <v>-474600</v>
@@ -4208,13 +4208,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="E101" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="F101" s="3">
-        <v>41400</v>
+        <v>42200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4223,10 +4223,10 @@
         <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-80400</v>
+        <v>-81900</v>
       </c>
       <c r="K101" s="3">
         <v>667900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="E102" s="3">
-        <v>-240300</v>
+        <v>-244800</v>
       </c>
       <c r="F102" s="3">
-        <v>408900</v>
+        <v>416600</v>
       </c>
       <c r="G102" s="3">
-        <v>-464900</v>
+        <v>-473600</v>
       </c>
       <c r="H102" s="3">
-        <v>-500000</v>
+        <v>-509400</v>
       </c>
       <c r="I102" s="3">
-        <v>-141400</v>
+        <v>-144100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1480500</v>
+        <v>-1508300</v>
       </c>
       <c r="K102" s="3">
         <v>2507200</v>
